--- a/model_performance.xlsx
+++ b/model_performance.xlsx
@@ -7,7 +7,11 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="SBP+DBP" sheetId="1" r:id="rId1"/>
+    <sheet name="SBP" sheetId="2" r:id="rId2"/>
+    <sheet name="MAP" sheetId="3" r:id="rId3"/>
+    <sheet name="刪掉離群值" sheetId="5" r:id="rId4"/>
+    <sheet name="標準化" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -90,7 +94,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.0%"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -152,26 +156,27 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -458,7 +463,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -466,445 +471,505 @@
     <col min="1" max="1" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.8984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.19921875" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.8984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.19921875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.8984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.8984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="13.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="5" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="5">
+      <c r="E1" s="3">
         <v>123</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="2" t="s">
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
     </row>
     <row r="3" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="5" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="4"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="5" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
     </row>
     <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="4"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="5" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
     </row>
     <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="4"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="5" t="s">
+      <c r="A7" s="6"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
     </row>
     <row r="8" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="6"/>
+      <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="9">
         <v>0.90100000000000002</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="9">
         <v>0.94899999999999995</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="9">
         <v>0.72899999999999998</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="9">
         <v>0.70399999999999996</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="9">
         <v>0.92400000000000004</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="9">
         <v>0.114</v>
       </c>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
     </row>
     <row r="9" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="4"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="5" t="s">
+      <c r="A9" s="6"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="9" t="s">
         <v>14</v>
       </c>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
     </row>
     <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="4"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="5" t="s">
+      <c r="A10" s="6"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="9">
         <v>0.90100000000000002</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="9">
         <v>0.94899999999999995</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="9">
         <v>0.72899999999999998</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="9">
         <v>0.70399999999999996</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="9">
         <v>0.92400000000000004</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="9">
         <v>0.114</v>
       </c>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
     </row>
     <row r="11" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="4"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="5" t="s">
+      <c r="A11" s="6"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="9">
         <v>0.90100000000000002</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="9">
         <v>0.94899999999999995</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="9">
         <v>0.72899999999999998</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="9">
         <v>0.70399999999999996</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="9">
         <v>0.92400000000000004</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="9">
         <v>0.114</v>
       </c>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
     </row>
     <row r="12" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="8">
-        <v>1</v>
-      </c>
-      <c r="E12" s="8">
-        <v>1</v>
-      </c>
-      <c r="F12" s="8">
-        <v>1</v>
-      </c>
-      <c r="G12" s="8">
+      <c r="D12" s="9">
+        <v>1</v>
+      </c>
+      <c r="E12" s="9">
+        <v>1</v>
+      </c>
+      <c r="F12" s="9">
+        <v>1</v>
+      </c>
+      <c r="G12" s="9">
         <v>0.77500000000000002</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="9">
         <v>0.98199999999999998</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="9">
         <v>0.06</v>
       </c>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
     </row>
     <row r="13" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="5" t="s">
+      <c r="A13" s="6"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="8">
-        <v>1</v>
-      </c>
-      <c r="E13" s="8">
-        <v>1</v>
-      </c>
-      <c r="F13" s="8">
-        <v>1</v>
-      </c>
-      <c r="G13" s="8">
+      <c r="D13" s="9">
+        <v>1</v>
+      </c>
+      <c r="E13" s="9">
+        <v>1</v>
+      </c>
+      <c r="F13" s="9">
+        <v>1</v>
+      </c>
+      <c r="G13" s="9">
         <v>0.76</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="9">
         <v>0.98199999999999998</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="9">
         <v>0</v>
       </c>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
     </row>
     <row r="14" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="4"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="5" t="s">
+      <c r="A14" s="6"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="8">
-        <v>1</v>
-      </c>
-      <c r="E14" s="8">
-        <v>1</v>
-      </c>
-      <c r="F14" s="8">
-        <v>1</v>
-      </c>
-      <c r="G14" s="8">
+      <c r="D14" s="9">
+        <v>1</v>
+      </c>
+      <c r="E14" s="9">
+        <v>1</v>
+      </c>
+      <c r="F14" s="9">
+        <v>1</v>
+      </c>
+      <c r="G14" s="9">
         <v>0.78200000000000003</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="9">
         <v>0.98199999999999998</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="9">
         <v>0.09</v>
       </c>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
     </row>
     <row r="15" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="4"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="5" t="s">
+      <c r="A15" s="6"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="8">
-        <v>1</v>
-      </c>
-      <c r="E15" s="8">
-        <v>1</v>
-      </c>
-      <c r="F15" s="8">
-        <v>1</v>
-      </c>
-      <c r="G15" s="8">
+      <c r="D15" s="9">
+        <v>1</v>
+      </c>
+      <c r="E15" s="9">
+        <v>1</v>
+      </c>
+      <c r="F15" s="9">
+        <v>1</v>
+      </c>
+      <c r="G15" s="9">
         <v>0.746</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="9">
         <v>0.91</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="9">
         <v>0.188</v>
       </c>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
     </row>
     <row r="16" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5" t="s">
+      <c r="A16" s="6"/>
+      <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="9">
         <v>0.97499999999999998</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="9">
         <v>0.98199999999999998</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="9">
         <v>0.95</v>
       </c>
-      <c r="G16" s="8">
-        <v>0.76800000000000002</v>
-      </c>
-      <c r="H16" s="8">
-        <v>0.94899999999999995</v>
-      </c>
-      <c r="I16" s="8">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="4"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="5" t="s">
+      <c r="G16" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="H16" s="9">
+        <v>0.94</v>
+      </c>
+      <c r="I16" s="9">
+        <v>0.19</v>
+      </c>
+      <c r="J16" s="8">
+        <v>0.62</v>
+      </c>
+      <c r="K16" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="L16" s="8">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="6"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="8">
-        <v>0.91</v>
-      </c>
-      <c r="E17" s="8">
-        <v>0.98</v>
-      </c>
-      <c r="F17" s="8">
-        <v>0.62</v>
-      </c>
-      <c r="G17" s="8">
+      <c r="D17" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0.99</v>
+      </c>
+      <c r="F17" s="9">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G17" s="9">
         <v>0.76</v>
       </c>
-      <c r="H17" s="8">
-        <v>1</v>
-      </c>
-      <c r="I17" s="8">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="4"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="5" t="s">
+      <c r="H17" s="9">
+        <v>1</v>
+      </c>
+      <c r="I17" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="J17" s="8">
+        <v>0.73</v>
+      </c>
+      <c r="K17" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="L17" s="8">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="6"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="9">
         <v>0.96099999999999997</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="9">
         <v>0.97299999999999998</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="9">
         <v>0.91700000000000004</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="9">
         <v>0.69699999999999995</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="9">
         <v>0.84</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="9">
         <v>0.28000000000000003</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="4"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="5" t="s">
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+    </row>
+    <row r="19" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="6"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="9">
         <v>0.96099999999999997</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="9">
         <v>0.97299999999999998</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="9">
         <v>0.91700000000000004</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="9">
         <v>0.69699999999999995</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="9">
         <v>0.84</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="9">
         <v>0.28000000000000003</v>
       </c>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -918,4 +983,59 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/model_performance.xlsx
+++ b/model_performance.xlsx
@@ -11,7 +11,7 @@
     <sheet name="SBP" sheetId="2" r:id="rId2"/>
     <sheet name="MAP" sheetId="3" r:id="rId3"/>
     <sheet name="刪掉離群值" sheetId="5" r:id="rId4"/>
-    <sheet name="標準化" sheetId="4" r:id="rId5"/>
+    <sheet name="標準化SBP+DBP" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="16">
   <si>
     <t>seed</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -94,7 +94,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -156,7 +156,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -166,19 +166,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -463,7 +470,10 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -499,21 +509,21 @@
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="5" t="s">
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
     </row>
     <row r="3" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
@@ -548,7 +558,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -557,180 +567,180 @@
       <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="6"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="4"/>
       <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
     </row>
     <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="6"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="4"/>
       <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
     </row>
     <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="6"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="4"/>
       <c r="C7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
     </row>
     <row r="8" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="6"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="11">
         <v>0.90100000000000002</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="11">
         <v>0.94899999999999995</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="11">
         <v>0.72899999999999998</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="11">
         <v>0.70399999999999996</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="11">
         <v>0.92400000000000004</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="11">
         <v>0.114</v>
       </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
     </row>
     <row r="9" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="6"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="4"/>
       <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
     </row>
     <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="6"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="4"/>
       <c r="C10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="11">
         <v>0.90100000000000002</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="11">
         <v>0.94899999999999995</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="11">
         <v>0.72899999999999998</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="11">
         <v>0.70399999999999996</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="11">
         <v>0.92400000000000004</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="11">
         <v>0.114</v>
       </c>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
     </row>
     <row r="11" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="6"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="4"/>
       <c r="C11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="11">
         <v>0.90100000000000002</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="11">
         <v>0.94899999999999995</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="11">
         <v>0.72899999999999998</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="11">
         <v>0.70399999999999996</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="11">
         <v>0.92400000000000004</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="11">
         <v>0.114</v>
       </c>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
     </row>
     <row r="12" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -739,237 +749,273 @@
       <c r="C12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="11">
         <v>1</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="11">
         <v>1</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="11">
         <v>1</v>
       </c>
-      <c r="G12" s="9">
-        <v>0.77500000000000002</v>
-      </c>
-      <c r="H12" s="9">
-        <v>0.98199999999999998</v>
-      </c>
-      <c r="I12" s="9">
-        <v>0.06</v>
-      </c>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
+      <c r="G12" s="11">
+        <v>0.77</v>
+      </c>
+      <c r="H12" s="11">
+        <v>0.98</v>
+      </c>
+      <c r="I12" s="11">
+        <v>0.03</v>
+      </c>
+      <c r="J12" s="12">
+        <v>0.76</v>
+      </c>
+      <c r="K12" s="12">
+        <v>0.86</v>
+      </c>
+      <c r="L12" s="12">
+        <v>0.41</v>
+      </c>
     </row>
     <row r="13" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="6"/>
+      <c r="A13" s="10"/>
       <c r="B13" s="4"/>
       <c r="C13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="11">
         <v>1</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="11">
         <v>1</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="11">
         <v>1</v>
       </c>
-      <c r="G13" s="9">
-        <v>0.76</v>
-      </c>
-      <c r="H13" s="9">
-        <v>0.98199999999999998</v>
-      </c>
-      <c r="I13" s="9">
-        <v>0</v>
-      </c>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
+      <c r="G13" s="11">
+        <v>0.77</v>
+      </c>
+      <c r="H13" s="11">
+        <v>0.98</v>
+      </c>
+      <c r="I13" s="11">
+        <v>0.06</v>
+      </c>
+      <c r="J13" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="K13" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="L13" s="12">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="14" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="6"/>
+      <c r="A14" s="10"/>
       <c r="B14" s="4"/>
       <c r="C14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="11">
         <v>1</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="11">
         <v>1</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="11">
         <v>1</v>
       </c>
-      <c r="G14" s="9">
-        <v>0.78200000000000003</v>
-      </c>
-      <c r="H14" s="9">
-        <v>0.98199999999999998</v>
-      </c>
-      <c r="I14" s="9">
-        <v>0.09</v>
-      </c>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
+      <c r="G14" s="11">
+        <v>0.77</v>
+      </c>
+      <c r="H14" s="11">
+        <v>0.94</v>
+      </c>
+      <c r="I14" s="11">
+        <v>0.19</v>
+      </c>
+      <c r="J14" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="K14" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="L14" s="12">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="15" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="6"/>
+      <c r="A15" s="10"/>
       <c r="B15" s="4"/>
       <c r="C15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="11">
         <v>1</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="11">
         <v>1</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="11">
         <v>1</v>
       </c>
-      <c r="G15" s="9">
-        <v>0.746</v>
-      </c>
-      <c r="H15" s="9">
-        <v>0.91</v>
-      </c>
-      <c r="I15" s="9">
-        <v>0.188</v>
-      </c>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
+      <c r="G15" s="11">
+        <v>0.77</v>
+      </c>
+      <c r="H15" s="11">
+        <v>0.94</v>
+      </c>
+      <c r="I15" s="11">
+        <v>0.19</v>
+      </c>
+      <c r="J15" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="K15" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="L15" s="12">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="16" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="6"/>
+      <c r="A16" s="10"/>
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="9">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="E16" s="9">
-        <v>0.98199999999999998</v>
-      </c>
-      <c r="F16" s="9">
+      <c r="D16" s="11">
+        <v>0.98</v>
+      </c>
+      <c r="E16" s="11">
+        <v>0.99</v>
+      </c>
+      <c r="F16" s="11">
         <v>0.95</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="11">
         <v>0.75</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="11">
         <v>0.94</v>
       </c>
-      <c r="I16" s="9">
-        <v>0.19</v>
-      </c>
-      <c r="J16" s="8">
-        <v>0.62</v>
-      </c>
-      <c r="K16" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="L16" s="8">
-        <v>0.08</v>
+      <c r="I16" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="J16" s="12">
+        <v>0.65</v>
+      </c>
+      <c r="K16" s="12">
+        <v>0.82</v>
+      </c>
+      <c r="L16" s="12">
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="6"/>
+      <c r="A17" s="10"/>
       <c r="B17" s="4"/>
       <c r="C17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="E17" s="9">
+      <c r="D17" s="11">
+        <v>0.91</v>
+      </c>
+      <c r="E17" s="11">
         <v>0.99</v>
       </c>
-      <c r="F17" s="9">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="G17" s="9">
-        <v>0.76</v>
-      </c>
-      <c r="H17" s="9">
-        <v>1</v>
-      </c>
-      <c r="I17" s="9">
-        <v>0.05</v>
-      </c>
-      <c r="J17" s="8">
+      <c r="F17" s="11">
+        <v>0.64</v>
+      </c>
+      <c r="G17" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="H17" s="11">
+        <v>0.98</v>
+      </c>
+      <c r="I17" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="J17" s="12">
         <v>0.73</v>
       </c>
-      <c r="K17" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="L17" s="8">
-        <v>0.22</v>
+      <c r="K17" s="12">
+        <v>0.92</v>
+      </c>
+      <c r="L17" s="12">
+        <v>0.17</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="6"/>
+      <c r="A18" s="10"/>
       <c r="B18" s="4"/>
       <c r="C18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="9">
-        <v>0.96099999999999997</v>
-      </c>
-      <c r="E18" s="9">
-        <v>0.97299999999999998</v>
-      </c>
-      <c r="F18" s="9">
-        <v>0.91700000000000004</v>
-      </c>
-      <c r="G18" s="9">
-        <v>0.69699999999999995</v>
-      </c>
-      <c r="H18" s="9">
-        <v>0.84</v>
-      </c>
-      <c r="I18" s="9">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
+      <c r="D18" s="11">
+        <v>0.97</v>
+      </c>
+      <c r="E18" s="11">
+        <v>0.98</v>
+      </c>
+      <c r="F18" s="11">
+        <v>0.92</v>
+      </c>
+      <c r="G18" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="H18" s="11">
+        <v>0.89</v>
+      </c>
+      <c r="I18" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="J18" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="K18" s="12">
+        <v>0.89</v>
+      </c>
+      <c r="L18" s="12">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="19" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="6"/>
+      <c r="A19" s="10"/>
       <c r="B19" s="4"/>
       <c r="C19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="9">
-        <v>0.96099999999999997</v>
-      </c>
-      <c r="E19" s="9">
-        <v>0.97299999999999998</v>
-      </c>
-      <c r="F19" s="9">
-        <v>0.91700000000000004</v>
-      </c>
-      <c r="G19" s="9">
-        <v>0.69699999999999995</v>
-      </c>
-      <c r="H19" s="9">
-        <v>0.84</v>
-      </c>
-      <c r="I19" s="9">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
+      <c r="D19" s="11">
+        <v>0.97</v>
+      </c>
+      <c r="E19" s="11">
+        <v>0.98</v>
+      </c>
+      <c r="F19" s="11">
+        <v>0.92</v>
+      </c>
+      <c r="G19" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="H19" s="11">
+        <v>0.89</v>
+      </c>
+      <c r="I19" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="J19" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="K19" s="12">
+        <v>0.89</v>
+      </c>
+      <c r="L19" s="12">
+        <v>0.17</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1029,12 +1075,425 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5">
+        <v>123</v>
+      </c>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="10"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="10"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="10"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="10"/>
+      <c r="B8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="10"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="10"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="10"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="10"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="10"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="10"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+    </row>
+    <row r="16" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="10"/>
+      <c r="B16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0.97</v>
+      </c>
+      <c r="E16" s="8">
+        <v>0.98</v>
+      </c>
+      <c r="F16" s="8">
+        <v>0.94</v>
+      </c>
+      <c r="G16" s="8">
+        <v>0.77</v>
+      </c>
+      <c r="H16" s="8">
+        <v>0.92</v>
+      </c>
+      <c r="I16" s="8">
+        <v>0.34</v>
+      </c>
+      <c r="J16" s="7">
+        <v>0.64</v>
+      </c>
+      <c r="K16" s="7">
+        <v>0.83</v>
+      </c>
+      <c r="L16" s="7">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="10"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+    </row>
+    <row r="18" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="10"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0.98</v>
+      </c>
+      <c r="E18" s="8">
+        <v>0.99</v>
+      </c>
+      <c r="F18" s="8">
+        <v>0.95</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0.68</v>
+      </c>
+      <c r="H18" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="I18" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="J18" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="K18" s="7">
+        <v>0.88</v>
+      </c>
+      <c r="L18" s="7">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="10"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0.98</v>
+      </c>
+      <c r="E19" s="8">
+        <v>0.99</v>
+      </c>
+      <c r="F19" s="8">
+        <v>0.95</v>
+      </c>
+      <c r="G19" s="8">
+        <v>0.68</v>
+      </c>
+      <c r="H19" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="I19" s="8">
+        <v>0.31</v>
+      </c>
+      <c r="J19" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="K19" s="7">
+        <v>0.88</v>
+      </c>
+      <c r="L19" s="7">
+        <v>0.17</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/model_performance.xlsx
+++ b/model_performance.xlsx
@@ -176,16 +176,16 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -470,10 +470,10 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J20" sqref="J20"/>
+      <selection pane="bottomRight" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -509,21 +509,21 @@
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10" t="s">
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="9" t="s">
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
     </row>
     <row r="3" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
@@ -558,7 +558,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="12" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -578,7 +578,7 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="10"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="4"/>
       <c r="C5" s="3" t="s">
         <v>11</v>
@@ -594,7 +594,7 @@
       <c r="L5" s="7"/>
     </row>
     <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="10"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="4"/>
       <c r="C6" s="3" t="s">
         <v>12</v>
@@ -610,7 +610,7 @@
       <c r="L6" s="7"/>
     </row>
     <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="10"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="4"/>
       <c r="C7" s="3" t="s">
         <v>13</v>
@@ -626,29 +626,29 @@
       <c r="L7" s="7"/>
     </row>
     <row r="8" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="10"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="9">
         <v>0.90100000000000002</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="9">
         <v>0.94899999999999995</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="9">
         <v>0.72899999999999998</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="9">
         <v>0.70399999999999996</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="9">
         <v>0.92400000000000004</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="9">
         <v>0.114</v>
       </c>
       <c r="J8" s="7"/>
@@ -656,27 +656,27 @@
       <c r="L8" s="7"/>
     </row>
     <row r="9" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="10"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="4"/>
       <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="9" t="s">
         <v>14</v>
       </c>
       <c r="J9" s="7"/>
@@ -684,27 +684,27 @@
       <c r="L9" s="7"/>
     </row>
     <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="10"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="4"/>
       <c r="C10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="9">
         <v>0.90100000000000002</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="9">
         <v>0.94899999999999995</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="9">
         <v>0.72899999999999998</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="9">
         <v>0.70399999999999996</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="9">
         <v>0.92400000000000004</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="9">
         <v>0.114</v>
       </c>
       <c r="J10" s="7"/>
@@ -712,27 +712,27 @@
       <c r="L10" s="7"/>
     </row>
     <row r="11" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="10"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="4"/>
       <c r="C11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="9">
         <v>0.90100000000000002</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="9">
         <v>0.94899999999999995</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="9">
         <v>0.72899999999999998</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="9">
         <v>0.70399999999999996</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="9">
         <v>0.92400000000000004</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="9">
         <v>0.114</v>
       </c>
       <c r="J11" s="7"/>
@@ -740,7 +740,7 @@
       <c r="L11" s="7"/>
     </row>
     <row r="12" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -749,271 +749,271 @@
       <c r="C12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="9">
         <v>1</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="9">
         <v>1</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="9">
         <v>1</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="9">
         <v>0.77</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="9">
         <v>0.98</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="9">
         <v>0.03</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="10">
         <v>0.76</v>
       </c>
-      <c r="K12" s="12">
+      <c r="K12" s="10">
         <v>0.86</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L12" s="10">
         <v>0.41</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="10"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="4"/>
       <c r="C13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="9">
         <v>1</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="9">
         <v>1</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="9">
         <v>1</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="9">
         <v>0.77</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="9">
         <v>0.98</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="9">
         <v>0.06</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="10">
         <v>0.8</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K13" s="10">
         <v>0.9</v>
       </c>
-      <c r="L13" s="12">
+      <c r="L13" s="10">
         <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="10"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="4"/>
       <c r="C14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="9">
         <v>1</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="9">
         <v>1</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="9">
         <v>1</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="9">
         <v>0.77</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="9">
         <v>0.94</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="9">
         <v>0.19</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="10">
         <v>0.8</v>
       </c>
-      <c r="K14" s="12">
+      <c r="K14" s="10">
         <v>0.9</v>
       </c>
-      <c r="L14" s="12">
+      <c r="L14" s="10">
         <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="10"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="4"/>
       <c r="C15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="9">
         <v>1</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="9">
         <v>1</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="9">
         <v>1</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="9">
         <v>0.77</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="9">
         <v>0.94</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="9">
         <v>0.19</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="10">
         <v>0.8</v>
       </c>
-      <c r="K15" s="12">
+      <c r="K15" s="10">
         <v>0.9</v>
       </c>
-      <c r="L15" s="12">
+      <c r="L15" s="10">
         <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="10"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="9">
         <v>0.98</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="9">
         <v>0.99</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="9">
         <v>0.95</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="9">
         <v>0.75</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="9">
         <v>0.94</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="9">
         <v>0.2</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J16" s="10">
         <v>0.65</v>
       </c>
-      <c r="K16" s="12">
+      <c r="K16" s="10">
         <v>0.82</v>
       </c>
-      <c r="L16" s="12">
+      <c r="L16" s="10">
         <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="10"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="4"/>
       <c r="C17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="9">
         <v>0.91</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="9">
         <v>0.99</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="9">
         <v>0.64</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="9">
         <v>0.75</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="9">
         <v>0.98</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="9">
         <v>0.1</v>
       </c>
-      <c r="J17" s="12">
+      <c r="J17" s="10">
         <v>0.73</v>
       </c>
-      <c r="K17" s="12">
+      <c r="K17" s="10">
         <v>0.92</v>
       </c>
-      <c r="L17" s="12">
+      <c r="L17" s="10">
         <v>0.17</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="10"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="4"/>
       <c r="C18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="9">
         <v>0.97</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="9">
         <v>0.98</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="9">
         <v>0.92</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="9">
         <v>0.7</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="9">
         <v>0.89</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="9">
         <v>0.2</v>
       </c>
-      <c r="J18" s="12">
+      <c r="J18" s="10">
         <v>0.7</v>
       </c>
-      <c r="K18" s="12">
+      <c r="K18" s="10">
         <v>0.89</v>
       </c>
-      <c r="L18" s="12">
+      <c r="L18" s="10">
         <v>0.17</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="10"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="4"/>
       <c r="C19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="9">
         <v>0.97</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="9">
         <v>0.98</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="9">
         <v>0.92</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="9">
         <v>0.7</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="9">
         <v>0.89</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="9">
         <v>0.2</v>
       </c>
-      <c r="J19" s="12">
+      <c r="J19" s="10">
         <v>0.7</v>
       </c>
-      <c r="K19" s="12">
+      <c r="K19" s="10">
         <v>0.89</v>
       </c>
-      <c r="L19" s="12">
+      <c r="L19" s="10">
         <v>0.17</v>
       </c>
     </row>
@@ -1116,21 +1116,21 @@
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10" t="s">
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="9" t="s">
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
     </row>
     <row r="3" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
@@ -1165,7 +1165,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="12" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -1185,7 +1185,7 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="10"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="4"/>
       <c r="C5" s="5" t="s">
         <v>11</v>
@@ -1201,7 +1201,7 @@
       <c r="L5" s="7"/>
     </row>
     <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="10"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5" t="s">
         <v>12</v>
@@ -1217,7 +1217,7 @@
       <c r="L6" s="7"/>
     </row>
     <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="10"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="4"/>
       <c r="C7" s="5" t="s">
         <v>13</v>
@@ -1233,7 +1233,7 @@
       <c r="L7" s="7"/>
     </row>
     <row r="8" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="10"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
@@ -1251,7 +1251,7 @@
       <c r="L8" s="7"/>
     </row>
     <row r="9" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="10"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="4"/>
       <c r="C9" s="5" t="s">
         <v>11</v>
@@ -1267,7 +1267,7 @@
       <c r="L9" s="7"/>
     </row>
     <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="10"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5" t="s">
         <v>12</v>
@@ -1283,7 +1283,7 @@
       <c r="L10" s="7"/>
     </row>
     <row r="11" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="10"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="4"/>
       <c r="C11" s="5" t="s">
         <v>13</v>
@@ -1299,7 +1299,7 @@
       <c r="L11" s="7"/>
     </row>
     <row r="12" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1319,7 +1319,7 @@
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="10"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5" t="s">
         <v>11</v>
@@ -1335,7 +1335,7 @@
       <c r="L13" s="7"/>
     </row>
     <row r="14" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="10"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5" t="s">
         <v>12</v>
@@ -1351,7 +1351,7 @@
       <c r="L14" s="7"/>
     </row>
     <row r="15" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="10"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="4"/>
       <c r="C15" s="5" t="s">
         <v>13</v>
@@ -1367,7 +1367,7 @@
       <c r="L15" s="7"/>
     </row>
     <row r="16" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="10"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="5" t="s">
         <v>9</v>
       </c>
@@ -1403,7 +1403,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="10"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="4"/>
       <c r="C17" s="5" t="s">
         <v>11</v>
@@ -1419,7 +1419,7 @@
       <c r="L17" s="7"/>
     </row>
     <row r="18" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="10"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5" t="s">
         <v>12</v>
@@ -1453,7 +1453,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="10"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="4"/>
       <c r="C19" s="5" t="s">
         <v>13</v>

--- a/model_performance.xlsx
+++ b/model_performance.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="SBP+DBP" sheetId="1" r:id="rId1"/>
-    <sheet name="SBP" sheetId="2" r:id="rId2"/>
-    <sheet name="MAP" sheetId="3" r:id="rId3"/>
-    <sheet name="刪掉離群值" sheetId="5" r:id="rId4"/>
-    <sheet name="標準化SBP+DBP" sheetId="4" r:id="rId5"/>
+    <sheet name="SBP+DBP廢" sheetId="1" r:id="rId1"/>
+    <sheet name="標準化SBP+DBP廢" sheetId="4" r:id="rId2"/>
+    <sheet name="刪掉離群值" sheetId="5" r:id="rId3"/>
+    <sheet name="換變數後Visit" sheetId="6" r:id="rId4"/>
+    <sheet name="Case" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="24">
   <si>
     <t>seed</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -86,6 +86,38 @@
   </si>
   <si>
     <t>lme.Test</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SBP+DBP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>non-COV</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COV</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -156,7 +188,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -185,6 +217,21 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -469,11 +516,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J22" sqref="J22"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -509,21 +556,21 @@
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12" t="s">
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="11" t="s">
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
     </row>
     <row r="3" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
@@ -558,7 +605,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -578,7 +625,7 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="12"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="4"/>
       <c r="C5" s="3" t="s">
         <v>11</v>
@@ -594,7 +641,7 @@
       <c r="L5" s="7"/>
     </row>
     <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="12"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="4"/>
       <c r="C6" s="3" t="s">
         <v>12</v>
@@ -610,7 +657,7 @@
       <c r="L6" s="7"/>
     </row>
     <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="12"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="4"/>
       <c r="C7" s="3" t="s">
         <v>13</v>
@@ -626,7 +673,7 @@
       <c r="L7" s="7"/>
     </row>
     <row r="8" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="12"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
@@ -656,7 +703,7 @@
       <c r="L8" s="7"/>
     </row>
     <row r="9" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="12"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="4"/>
       <c r="C9" s="3" t="s">
         <v>11</v>
@@ -684,7 +731,7 @@
       <c r="L9" s="7"/>
     </row>
     <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="12"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="4"/>
       <c r="C10" s="3" t="s">
         <v>12</v>
@@ -712,7 +759,7 @@
       <c r="L10" s="7"/>
     </row>
     <row r="11" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="12"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="4"/>
       <c r="C11" s="3" t="s">
         <v>13</v>
@@ -740,7 +787,7 @@
       <c r="L11" s="7"/>
     </row>
     <row r="12" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -778,7 +825,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="12"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="4"/>
       <c r="C13" s="3" t="s">
         <v>11</v>
@@ -812,7 +859,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="12"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="4"/>
       <c r="C14" s="3" t="s">
         <v>12</v>
@@ -846,7 +893,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="12"/>
+      <c r="A15" s="14"/>
       <c r="B15" s="4"/>
       <c r="C15" s="3" t="s">
         <v>13</v>
@@ -880,7 +927,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="12"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
@@ -916,7 +963,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="12"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="4"/>
       <c r="C17" s="3" t="s">
         <v>11</v>
@@ -950,7 +997,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="12"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="4"/>
       <c r="C18" s="3" t="s">
         <v>12</v>
@@ -984,7 +1031,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="12"/>
+      <c r="A19" s="14"/>
       <c r="B19" s="4"/>
       <c r="C19" s="3" t="s">
         <v>13</v>
@@ -1032,48 +1079,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L19"/>
   <sheetViews>
@@ -1116,21 +1121,21 @@
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12" t="s">
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="11" t="s">
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
     </row>
     <row r="3" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
@@ -1165,7 +1170,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -1185,7 +1190,7 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="12"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="4"/>
       <c r="C5" s="5" t="s">
         <v>11</v>
@@ -1201,7 +1206,7 @@
       <c r="L5" s="7"/>
     </row>
     <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="12"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5" t="s">
         <v>12</v>
@@ -1217,7 +1222,7 @@
       <c r="L6" s="7"/>
     </row>
     <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="12"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="4"/>
       <c r="C7" s="5" t="s">
         <v>13</v>
@@ -1233,7 +1238,7 @@
       <c r="L7" s="7"/>
     </row>
     <row r="8" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="12"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
@@ -1251,7 +1256,7 @@
       <c r="L8" s="7"/>
     </row>
     <row r="9" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="12"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="4"/>
       <c r="C9" s="5" t="s">
         <v>11</v>
@@ -1267,7 +1272,7 @@
       <c r="L9" s="7"/>
     </row>
     <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="12"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5" t="s">
         <v>12</v>
@@ -1283,7 +1288,7 @@
       <c r="L10" s="7"/>
     </row>
     <row r="11" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="12"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="4"/>
       <c r="C11" s="5" t="s">
         <v>13</v>
@@ -1299,7 +1304,7 @@
       <c r="L11" s="7"/>
     </row>
     <row r="12" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1319,7 +1324,7 @@
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="12"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5" t="s">
         <v>11</v>
@@ -1335,7 +1340,7 @@
       <c r="L13" s="7"/>
     </row>
     <row r="14" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="12"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5" t="s">
         <v>12</v>
@@ -1351,7 +1356,7 @@
       <c r="L14" s="7"/>
     </row>
     <row r="15" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="12"/>
+      <c r="A15" s="14"/>
       <c r="B15" s="4"/>
       <c r="C15" s="5" t="s">
         <v>13</v>
@@ -1367,7 +1372,7 @@
       <c r="L15" s="7"/>
     </row>
     <row r="16" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="12"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="5" t="s">
         <v>9</v>
       </c>
@@ -1403,7 +1408,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="12"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="4"/>
       <c r="C17" s="5" t="s">
         <v>11</v>
@@ -1419,7 +1424,7 @@
       <c r="L17" s="7"/>
     </row>
     <row r="18" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="12"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5" t="s">
         <v>12</v>
@@ -1453,7 +1458,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="12"/>
+      <c r="A19" s="14"/>
       <c r="B19" s="4"/>
       <c r="C19" s="5" t="s">
         <v>13</v>
@@ -1497,4 +1502,708 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="11" customWidth="1"/>
+    <col min="4" max="4" width="11.8984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.8984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.8984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.796875" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="12">
+        <v>123</v>
+      </c>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="14"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="14"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="14"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+    </row>
+    <row r="8" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="14"/>
+      <c r="C8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="14"/>
+      <c r="B9" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="14"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="14"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="14"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="14"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="14"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+    </row>
+    <row r="16" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="14"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+    </row>
+    <row r="17" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="14"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+    </row>
+    <row r="18" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="14"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+    </row>
+    <row r="19" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="14"/>
+      <c r="B19" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+    </row>
+    <row r="20" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="14"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+    </row>
+    <row r="21" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="14"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+    </row>
+    <row r="22" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="14"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A23" s="14"/>
+      <c r="C23" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="A14:A23"/>
+    <mergeCell ref="A4:A13"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="11" customWidth="1"/>
+    <col min="4" max="4" width="11.8984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.8984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.8984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.796875" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="12">
+        <v>123</v>
+      </c>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="14"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="14"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="14"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="14"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="14"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="14"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="14"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="14"/>
+      <c r="C13" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:A13"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/model_performance.xlsx
+++ b/model_performance.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="SBP+DBP廢" sheetId="1" r:id="rId1"/>
     <sheet name="標準化SBP+DBP廢" sheetId="4" r:id="rId2"/>
     <sheet name="刪掉離群值" sheetId="5" r:id="rId3"/>
     <sheet name="換變數後Visit" sheetId="6" r:id="rId4"/>
-    <sheet name="Case" sheetId="7" r:id="rId5"/>
+    <sheet name="工作表1" sheetId="8" r:id="rId5"/>
+    <sheet name="Case" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="91">
   <si>
     <t>seed</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -119,6 +120,207 @@
   <si>
     <t>V1</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MeanDecreaseGini</t>
+  </si>
+  <si>
+    <t>sbp</t>
+  </si>
+  <si>
+    <t>dbp</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Drug_conut</t>
+  </si>
+  <si>
+    <t>DM</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>HOS</t>
+  </si>
+  <si>
+    <t>BW</t>
+  </si>
+  <si>
+    <t>BH</t>
+  </si>
+  <si>
+    <t>BMI</t>
+  </si>
+  <si>
+    <t>Waist</t>
+  </si>
+  <si>
+    <t>Relat_in</t>
+  </si>
+  <si>
+    <t>Eco_child</t>
+  </si>
+  <si>
+    <t>Eco_adult</t>
+  </si>
+  <si>
+    <t>Ciga</t>
+  </si>
+  <si>
+    <t>Alcoh</t>
+  </si>
+  <si>
+    <t>BNut</t>
+  </si>
+  <si>
+    <t>Tea</t>
+  </si>
+  <si>
+    <t>Coffee</t>
+  </si>
+  <si>
+    <t>Vege</t>
+  </si>
+  <si>
+    <t>Sleep_T</t>
+  </si>
+  <si>
+    <t>Stay_up</t>
+  </si>
+  <si>
+    <t>Nap</t>
+  </si>
+  <si>
+    <t>Exercise</t>
+  </si>
+  <si>
+    <t>Walk_TM_week</t>
+  </si>
+  <si>
+    <t>Activity_week</t>
+  </si>
+  <si>
+    <t>M_activity_week</t>
+  </si>
+  <si>
+    <t>Sleep_D</t>
+  </si>
+  <si>
+    <t>Panic</t>
+  </si>
+  <si>
+    <t>Anger</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Abase</t>
+  </si>
+  <si>
+    <t>WL_over_10_PCT</t>
+  </si>
+  <si>
+    <t>Anmia</t>
+  </si>
+  <si>
+    <t>T_pain</t>
+  </si>
+  <si>
+    <t>Palpi</t>
+  </si>
+  <si>
+    <t>Cath</t>
+  </si>
+  <si>
+    <t>F_swo</t>
+  </si>
+  <si>
+    <t>Asthma</t>
+  </si>
+  <si>
+    <t>Alle_Rhi</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>HL</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>Cancer</t>
+  </si>
+  <si>
+    <t>Hep</t>
+  </si>
+  <si>
+    <t>ECOG</t>
+  </si>
+  <si>
+    <t>NSAID</t>
+  </si>
+  <si>
+    <t>NSAID_freq</t>
+  </si>
+  <si>
+    <t>NSAID_freq_3times</t>
+  </si>
+  <si>
+    <t>aspirin</t>
+  </si>
+  <si>
+    <t>aspirin_freq</t>
+  </si>
+  <si>
+    <t>aspirin_freq_3times</t>
+  </si>
+  <si>
+    <t>Vit_A</t>
+  </si>
+  <si>
+    <t>Vit_B</t>
+  </si>
+  <si>
+    <t>Vit_C</t>
+  </si>
+  <si>
+    <t>Vit_E</t>
+  </si>
+  <si>
+    <t>Vit_comp</t>
+  </si>
+  <si>
+    <t>DM_Med</t>
+  </si>
+  <si>
+    <t>insulin</t>
+  </si>
+  <si>
+    <t>anti_HP</t>
+  </si>
+  <si>
+    <t>office_peri_L_sys</t>
+  </si>
+  <si>
+    <t>office_peri_L_dia</t>
+  </si>
+  <si>
+    <t>Dad_Kinship</t>
+  </si>
+  <si>
+    <t>Mom_Kinship</t>
   </si>
 </sst>
 </file>
@@ -218,12 +420,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -232,6 +428,12 @@
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -556,21 +758,21 @@
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="13" t="s">
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
     </row>
     <row r="3" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
@@ -605,7 +807,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -625,7 +827,7 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="14"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="4"/>
       <c r="C5" s="3" t="s">
         <v>11</v>
@@ -641,7 +843,7 @@
       <c r="L5" s="7"/>
     </row>
     <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="14"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="4"/>
       <c r="C6" s="3" t="s">
         <v>12</v>
@@ -657,7 +859,7 @@
       <c r="L6" s="7"/>
     </row>
     <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="14"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="4"/>
       <c r="C7" s="3" t="s">
         <v>13</v>
@@ -673,7 +875,7 @@
       <c r="L7" s="7"/>
     </row>
     <row r="8" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="14"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
@@ -703,7 +905,7 @@
       <c r="L8" s="7"/>
     </row>
     <row r="9" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="14"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="4"/>
       <c r="C9" s="3" t="s">
         <v>11</v>
@@ -731,7 +933,7 @@
       <c r="L9" s="7"/>
     </row>
     <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="14"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="4"/>
       <c r="C10" s="3" t="s">
         <v>12</v>
@@ -759,7 +961,7 @@
       <c r="L10" s="7"/>
     </row>
     <row r="11" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="14"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="4"/>
       <c r="C11" s="3" t="s">
         <v>13</v>
@@ -787,7 +989,7 @@
       <c r="L11" s="7"/>
     </row>
     <row r="12" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="17" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -825,7 +1027,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="14"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="4"/>
       <c r="C13" s="3" t="s">
         <v>11</v>
@@ -859,7 +1061,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="14"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="4"/>
       <c r="C14" s="3" t="s">
         <v>12</v>
@@ -893,7 +1095,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="14"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="4"/>
       <c r="C15" s="3" t="s">
         <v>13</v>
@@ -927,7 +1129,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="14"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
@@ -963,7 +1165,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="14"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="4"/>
       <c r="C17" s="3" t="s">
         <v>11</v>
@@ -997,7 +1199,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="14"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="4"/>
       <c r="C18" s="3" t="s">
         <v>12</v>
@@ -1031,7 +1233,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="14"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="4"/>
       <c r="C19" s="3" t="s">
         <v>13</v>
@@ -1121,21 +1323,21 @@
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="13" t="s">
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
     </row>
     <row r="3" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
@@ -1170,7 +1372,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -1190,7 +1392,7 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="14"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="4"/>
       <c r="C5" s="5" t="s">
         <v>11</v>
@@ -1206,7 +1408,7 @@
       <c r="L5" s="7"/>
     </row>
     <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="14"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5" t="s">
         <v>12</v>
@@ -1222,7 +1424,7 @@
       <c r="L6" s="7"/>
     </row>
     <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="14"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="4"/>
       <c r="C7" s="5" t="s">
         <v>13</v>
@@ -1238,7 +1440,7 @@
       <c r="L7" s="7"/>
     </row>
     <row r="8" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="14"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
@@ -1256,7 +1458,7 @@
       <c r="L8" s="7"/>
     </row>
     <row r="9" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="14"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="4"/>
       <c r="C9" s="5" t="s">
         <v>11</v>
@@ -1272,7 +1474,7 @@
       <c r="L9" s="7"/>
     </row>
     <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="14"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5" t="s">
         <v>12</v>
@@ -1288,7 +1490,7 @@
       <c r="L10" s="7"/>
     </row>
     <row r="11" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="14"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="4"/>
       <c r="C11" s="5" t="s">
         <v>13</v>
@@ -1304,7 +1506,7 @@
       <c r="L11" s="7"/>
     </row>
     <row r="12" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="17" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1324,7 +1526,7 @@
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="14"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5" t="s">
         <v>11</v>
@@ -1340,7 +1542,7 @@
       <c r="L13" s="7"/>
     </row>
     <row r="14" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="14"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5" t="s">
         <v>12</v>
@@ -1356,7 +1558,7 @@
       <c r="L14" s="7"/>
     </row>
     <row r="15" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="14"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="4"/>
       <c r="C15" s="5" t="s">
         <v>13</v>
@@ -1372,7 +1574,7 @@
       <c r="L15" s="7"/>
     </row>
     <row r="16" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="14"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="5" t="s">
         <v>9</v>
       </c>
@@ -1408,7 +1610,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="14"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="4"/>
       <c r="C17" s="5" t="s">
         <v>11</v>
@@ -1424,7 +1626,7 @@
       <c r="L17" s="7"/>
     </row>
     <row r="18" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="14"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5" t="s">
         <v>12</v>
@@ -1458,7 +1660,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="14"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="4"/>
       <c r="C19" s="5" t="s">
         <v>13</v>
@@ -1521,7 +1723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -1543,11 +1745,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
       <c r="D1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1560,29 +1762,29 @@
       <c r="I1" s="12"/>
     </row>
     <row r="2" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="14" t="s">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="13" t="s">
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
     </row>
     <row r="3" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
       <c r="D3" s="12" t="s">
         <v>2</v>
       </c>
@@ -1612,7 +1814,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="12" t="s">
@@ -1627,12 +1829,12 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
     </row>
     <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="14"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="4"/>
       <c r="C5" s="12" t="s">
         <v>11</v>
@@ -1643,12 +1845,12 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
     </row>
     <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="14"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="4"/>
       <c r="C6" s="12" t="s">
         <v>12</v>
@@ -1659,12 +1861,12 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
     </row>
     <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="14"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="4"/>
       <c r="C7" s="12" t="s">
         <v>13</v>
@@ -1675,12 +1877,12 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
     </row>
     <row r="8" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="14"/>
+      <c r="A8" s="17"/>
       <c r="C8" s="11" t="s">
         <v>17</v>
       </c>
@@ -1690,12 +1892,12 @@
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
     </row>
     <row r="9" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="14"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="12" t="s">
         <v>9</v>
       </c>
@@ -1708,12 +1910,12 @@
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
     </row>
     <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="14"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="4"/>
       <c r="C10" s="12" t="s">
         <v>11</v>
@@ -1724,12 +1926,12 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
     </row>
     <row r="11" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="14"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="4"/>
       <c r="C11" s="12" t="s">
         <v>12</v>
@@ -1740,12 +1942,12 @@
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
     </row>
     <row r="12" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="14"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="4"/>
       <c r="C12" s="12" t="s">
         <v>13</v>
@@ -1756,12 +1958,12 @@
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
     </row>
     <row r="13" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="14"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="4"/>
       <c r="C13" s="12" t="s">
         <v>18</v>
@@ -1772,12 +1974,12 @@
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
     </row>
     <row r="14" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="17" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="12" t="s">
@@ -1792,12 +1994,12 @@
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
     </row>
     <row r="15" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="14"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="4"/>
       <c r="C15" s="12" t="s">
         <v>11</v>
@@ -1808,12 +2010,12 @@
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
     </row>
     <row r="16" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="14"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="4"/>
       <c r="C16" s="12" t="s">
         <v>12</v>
@@ -1824,12 +2026,12 @@
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
     </row>
     <row r="17" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="14"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="4"/>
       <c r="C17" s="12" t="s">
         <v>13</v>
@@ -1840,12 +2042,12 @@
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
     </row>
     <row r="18" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="14"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="4"/>
       <c r="C18" s="12" t="s">
         <v>18</v>
@@ -1856,12 +2058,12 @@
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
     </row>
     <row r="19" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="14"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="12" t="s">
         <v>9</v>
       </c>
@@ -1874,12 +2076,12 @@
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
     </row>
     <row r="20" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="14"/>
+      <c r="A20" s="17"/>
       <c r="B20" s="4"/>
       <c r="C20" s="12" t="s">
         <v>11</v>
@@ -1890,12 +2092,12 @@
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
     </row>
     <row r="21" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="14"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="4"/>
       <c r="C21" s="12" t="s">
         <v>12</v>
@@ -1906,12 +2108,12 @@
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
     </row>
     <row r="22" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="14"/>
+      <c r="A22" s="17"/>
       <c r="B22" s="4"/>
       <c r="C22" s="12" t="s">
         <v>13</v>
@@ -1922,12 +2124,12 @@
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A23" s="14"/>
+      <c r="A23" s="17"/>
       <c r="C23" s="11" t="s">
         <v>19</v>
       </c>
@@ -1947,6 +2149,563 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B67"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2">
+        <v>7.4280027999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3">
+        <v>6.5129083000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4">
+        <v>6.2270375099999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5">
+        <v>6.1279763999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6">
+        <v>6.0726611899999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7">
+        <v>5.5217498699999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8">
+        <v>5.49255798</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9">
+        <v>5.2908777699999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10">
+        <v>5.0218174800000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11">
+        <v>4.4016930199999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12">
+        <v>3.98594311</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13">
+        <v>3.2461461699999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14">
+        <v>3.2405580600000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15">
+        <v>2.5611440000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16">
+        <v>2.3301553799999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17">
+        <v>2.2506769100000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18">
+        <v>2.23193961</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19">
+        <v>2.1645003900000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20">
+        <v>2.1512056799999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21">
+        <v>2.0199352400000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22">
+        <v>1.8067403200000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23">
+        <v>1.7064959500000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24">
+        <v>1.6497196300000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25">
+        <v>1.63746704</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26">
+        <v>1.5974198500000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27">
+        <v>1.5708500999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28">
+        <v>1.50785741</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29">
+        <v>1.4444978100000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30">
+        <v>1.4434119999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31">
+        <v>1.3804835799999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32">
+        <v>1.3560517700000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33">
+        <v>1.30505764</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34">
+        <v>1.3043673600000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35">
+        <v>1.2939387600000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36">
+        <v>1.2307624399999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37">
+        <v>1.22104309</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38">
+        <v>1.2037941599999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39">
+        <v>1.06135578</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40">
+        <v>0.98001324000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41">
+        <v>0.82119224999999996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42">
+        <v>0.81283565000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43">
+        <v>0.74728454</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44">
+        <v>0.73421530999999995</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>69</v>
+      </c>
+      <c r="B45">
+        <v>0.69387151999999996</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46">
+        <v>0.69349539999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>75</v>
+      </c>
+      <c r="B47">
+        <v>0.67641231999999996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48">
+        <v>0.60043197000000004</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>66</v>
+      </c>
+      <c r="B49">
+        <v>0.59864505999999995</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50">
+        <v>0.56759059999999995</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51">
+        <v>0.51709340999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52">
+        <v>0.43539505000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53">
+        <v>0.31777382999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>64</v>
+      </c>
+      <c r="B54">
+        <v>0.31132242999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>77</v>
+      </c>
+      <c r="B55">
+        <v>0.30152583999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>81</v>
+      </c>
+      <c r="B56">
+        <v>0.27788732999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>65</v>
+      </c>
+      <c r="B57">
+        <v>0.27048053</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>82</v>
+      </c>
+      <c r="B58">
+        <v>0.21777968</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>32</v>
+      </c>
+      <c r="B59">
+        <v>0.21639633</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>79</v>
+      </c>
+      <c r="B60">
+        <v>0.21247656000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>74</v>
+      </c>
+      <c r="B61">
+        <v>0.18706954000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62">
+        <v>0.18316151999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>85</v>
+      </c>
+      <c r="B63">
+        <v>0.14565839</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>38</v>
+      </c>
+      <c r="B64">
+        <v>0.11533707999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>72</v>
+      </c>
+      <c r="B65">
+        <v>0.10392220000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>46</v>
+      </c>
+      <c r="B66">
+        <v>9.2931059999999996E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67">
+        <v>4.2872559999999997E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:B67">
+    <sortCondition descending="1" ref="B2:B67"/>
+  </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L13"/>
   <sheetViews>
@@ -1969,11 +2728,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
       <c r="D1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1986,29 +2745,29 @@
       <c r="I1" s="12"/>
     </row>
     <row r="2" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="14" t="s">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="13" t="s">
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
     </row>
     <row r="3" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
       <c r="D3" s="12" t="s">
         <v>2</v>
       </c>
@@ -2038,7 +2797,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="17" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="12" t="s">
@@ -2053,12 +2812,12 @@
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
     </row>
     <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="14"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="4"/>
       <c r="C5" s="12" t="s">
         <v>11</v>
@@ -2069,12 +2828,12 @@
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
     </row>
     <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="14"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="4"/>
       <c r="C6" s="12" t="s">
         <v>12</v>
@@ -2085,12 +2844,12 @@
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
     </row>
     <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="14"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="4"/>
       <c r="C7" s="12" t="s">
         <v>13</v>
@@ -2101,12 +2860,12 @@
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
     </row>
     <row r="8" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="14"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="4"/>
       <c r="C8" s="12" t="s">
         <v>18</v>
@@ -2117,12 +2876,12 @@
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
     </row>
     <row r="9" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="17" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="12" t="s">
@@ -2137,12 +2896,12 @@
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
     </row>
     <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="14"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="4"/>
       <c r="C10" s="12" t="s">
         <v>11</v>
@@ -2153,12 +2912,12 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
     </row>
     <row r="11" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="14"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="4"/>
       <c r="C11" s="12" t="s">
         <v>12</v>
@@ -2169,12 +2928,12 @@
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
     </row>
     <row r="12" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="14"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="4"/>
       <c r="C12" s="12" t="s">
         <v>13</v>
@@ -2185,12 +2944,12 @@
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="14"/>
+      <c r="A13" s="17"/>
       <c r="C13" s="11" t="s">
         <v>19</v>
       </c>

--- a/model_performance.xlsx
+++ b/model_performance.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="SBP+DBP廢" sheetId="1" r:id="rId1"/>
     <sheet name="標準化SBP+DBP廢" sheetId="4" r:id="rId2"/>
     <sheet name="刪掉離群值" sheetId="5" r:id="rId3"/>
     <sheet name="換變數後Visit" sheetId="6" r:id="rId4"/>
-    <sheet name="工作表1" sheetId="8" r:id="rId5"/>
-    <sheet name="Case" sheetId="7" r:id="rId6"/>
+    <sheet name="Case" sheetId="7" r:id="rId5"/>
+    <sheet name="變數重要性" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -2150,563 +2150,6 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B67"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.796875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2">
-        <v>7.4280027999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3">
-        <v>6.5129083000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4">
-        <v>6.2270375099999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5">
-        <v>6.1279763999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B6">
-        <v>6.0726611899999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7">
-        <v>5.5217498699999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B8">
-        <v>5.49255798</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9">
-        <v>5.2908777699999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10">
-        <v>5.0218174800000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11">
-        <v>4.4016930199999997</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12">
-        <v>3.98594311</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13">
-        <v>3.2461461699999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14">
-        <v>3.2405580600000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15">
-        <v>2.5611440000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16">
-        <v>2.3301553799999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>89</v>
-      </c>
-      <c r="B17">
-        <v>2.2506769100000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18">
-        <v>2.23193961</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19">
-        <v>2.1645003900000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>83</v>
-      </c>
-      <c r="B20">
-        <v>2.1512056799999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21">
-        <v>2.0199352400000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22">
-        <v>1.8067403200000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23">
-        <v>1.7064959500000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24">
-        <v>1.6497196300000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25">
-        <v>1.63746704</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26">
-        <v>1.5974198500000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27">
-        <v>1.5708500999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28">
-        <v>1.50785741</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>80</v>
-      </c>
-      <c r="B29">
-        <v>1.4444978100000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>55</v>
-      </c>
-      <c r="B30">
-        <v>1.4434119999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>54</v>
-      </c>
-      <c r="B31">
-        <v>1.3804835799999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32">
-        <v>1.3560517700000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>90</v>
-      </c>
-      <c r="B33">
-        <v>1.30505764</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>48</v>
-      </c>
-      <c r="B34">
-        <v>1.3043673600000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35">
-        <v>1.2939387600000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>27</v>
-      </c>
-      <c r="B36">
-        <v>1.2307624399999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>71</v>
-      </c>
-      <c r="B37">
-        <v>1.22104309</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38">
-        <v>1.2037941599999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>84</v>
-      </c>
-      <c r="B39">
-        <v>1.06135578</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>62</v>
-      </c>
-      <c r="B40">
-        <v>0.98001324000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>53</v>
-      </c>
-      <c r="B41">
-        <v>0.82119224999999996</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>57</v>
-      </c>
-      <c r="B42">
-        <v>0.81283565000000002</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>78</v>
-      </c>
-      <c r="B43">
-        <v>0.74728454</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>67</v>
-      </c>
-      <c r="B44">
-        <v>0.73421530999999995</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>69</v>
-      </c>
-      <c r="B45">
-        <v>0.69387151999999996</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>56</v>
-      </c>
-      <c r="B46">
-        <v>0.69349539999999998</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>75</v>
-      </c>
-      <c r="B47">
-        <v>0.67641231999999996</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>60</v>
-      </c>
-      <c r="B48">
-        <v>0.60043197000000004</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>66</v>
-      </c>
-      <c r="B49">
-        <v>0.59864505999999995</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>58</v>
-      </c>
-      <c r="B50">
-        <v>0.56759059999999995</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>76</v>
-      </c>
-      <c r="B51">
-        <v>0.51709340999999998</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>59</v>
-      </c>
-      <c r="B52">
-        <v>0.43539505000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>43</v>
-      </c>
-      <c r="B53">
-        <v>0.31777382999999998</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>64</v>
-      </c>
-      <c r="B54">
-        <v>0.31132242999999998</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>77</v>
-      </c>
-      <c r="B55">
-        <v>0.30152583999999999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>81</v>
-      </c>
-      <c r="B56">
-        <v>0.27788732999999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>65</v>
-      </c>
-      <c r="B57">
-        <v>0.27048053</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>82</v>
-      </c>
-      <c r="B58">
-        <v>0.21777968</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>32</v>
-      </c>
-      <c r="B59">
-        <v>0.21639633</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>79</v>
-      </c>
-      <c r="B60">
-        <v>0.21247656000000001</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>74</v>
-      </c>
-      <c r="B61">
-        <v>0.18706954000000001</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>63</v>
-      </c>
-      <c r="B62">
-        <v>0.18316151999999999</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>85</v>
-      </c>
-      <c r="B63">
-        <v>0.14565839</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>38</v>
-      </c>
-      <c r="B64">
-        <v>0.11533707999999999</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>72</v>
-      </c>
-      <c r="B65">
-        <v>0.10392220000000001</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>46</v>
-      </c>
-      <c r="B66">
-        <v>9.2931059999999996E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>70</v>
-      </c>
-      <c r="B67">
-        <v>4.2872559999999997E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="A2:B67">
-    <sortCondition descending="1" ref="B2:B67"/>
-  </sortState>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2965,4 +2408,561 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B67"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2">
+        <v>7.4280027999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3">
+        <v>6.5129083000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4">
+        <v>6.2270375099999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5">
+        <v>6.1279763999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6">
+        <v>6.0726611899999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7">
+        <v>5.5217498699999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8">
+        <v>5.49255798</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9">
+        <v>5.2908777699999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10">
+        <v>5.0218174800000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11">
+        <v>4.4016930199999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12">
+        <v>3.98594311</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13">
+        <v>3.2461461699999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14">
+        <v>3.2405580600000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15">
+        <v>2.5611440000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16">
+        <v>2.3301553799999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17">
+        <v>2.2506769100000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18">
+        <v>2.23193961</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19">
+        <v>2.1645003900000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20">
+        <v>2.1512056799999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21">
+        <v>2.0199352400000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22">
+        <v>1.8067403200000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23">
+        <v>1.7064959500000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24">
+        <v>1.6497196300000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25">
+        <v>1.63746704</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26">
+        <v>1.5974198500000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27">
+        <v>1.5708500999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28">
+        <v>1.50785741</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29">
+        <v>1.4444978100000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30">
+        <v>1.4434119999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31">
+        <v>1.3804835799999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32">
+        <v>1.3560517700000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33">
+        <v>1.30505764</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34">
+        <v>1.3043673600000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35">
+        <v>1.2939387600000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36">
+        <v>1.2307624399999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37">
+        <v>1.22104309</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38">
+        <v>1.2037941599999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39">
+        <v>1.06135578</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40">
+        <v>0.98001324000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41">
+        <v>0.82119224999999996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42">
+        <v>0.81283565000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43">
+        <v>0.74728454</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44">
+        <v>0.73421530999999995</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>69</v>
+      </c>
+      <c r="B45">
+        <v>0.69387151999999996</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46">
+        <v>0.69349539999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>75</v>
+      </c>
+      <c r="B47">
+        <v>0.67641231999999996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48">
+        <v>0.60043197000000004</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>66</v>
+      </c>
+      <c r="B49">
+        <v>0.59864505999999995</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50">
+        <v>0.56759059999999995</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51">
+        <v>0.51709340999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52">
+        <v>0.43539505000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53">
+        <v>0.31777382999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>64</v>
+      </c>
+      <c r="B54">
+        <v>0.31132242999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>77</v>
+      </c>
+      <c r="B55">
+        <v>0.30152583999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>81</v>
+      </c>
+      <c r="B56">
+        <v>0.27788732999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>65</v>
+      </c>
+      <c r="B57">
+        <v>0.27048053</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>82</v>
+      </c>
+      <c r="B58">
+        <v>0.21777968</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>32</v>
+      </c>
+      <c r="B59">
+        <v>0.21639633</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>79</v>
+      </c>
+      <c r="B60">
+        <v>0.21247656000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>74</v>
+      </c>
+      <c r="B61">
+        <v>0.18706954000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62">
+        <v>0.18316151999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>85</v>
+      </c>
+      <c r="B63">
+        <v>0.14565839</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>38</v>
+      </c>
+      <c r="B64">
+        <v>0.11533707999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>72</v>
+      </c>
+      <c r="B65">
+        <v>0.10392220000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>46</v>
+      </c>
+      <c r="B66">
+        <v>9.2931059999999996E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67">
+        <v>4.2872559999999997E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:B67">
+    <sortCondition descending="1" ref="B2:B67"/>
+  </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/model_performance.xlsx
+++ b/model_performance.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="92">
   <si>
     <t>seed</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -321,6 +321,10 @@
   </si>
   <si>
     <t>Mom_Kinship</t>
+  </si>
+  <si>
+    <t>COV_NA_less30.csv 的完整資料 n=368</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2415,545 +2419,549 @@
   <dimension ref="A1:B67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>7.4280027999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>6.5129083000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>6.2270375099999997</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>6.1279763999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>6.0726611899999998</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>5.5217498699999998</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>5.49255798</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>5.2908777699999998</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>5.0218174800000002</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>4.4016930199999997</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>3.98594311</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>3.2461461699999998</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>3.2405580600000001</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>2.5611440000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>2.3301553799999999</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>2.2506769100000001</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>2.23193961</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>2.1645003900000002</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>2.1512056799999999</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>2.0199352400000001</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
         <v>1.8067403200000001</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <v>1.7064959500000001</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
         <v>1.6497196300000001</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
         <v>1.63746704</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1">
         <v>1.5974198500000001</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="1">
         <v>1.5708500999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="1">
         <v>1.50785741</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="1">
         <v>1.4444978100000001</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="1">
         <v>1.4434119999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="1">
         <v>1.3804835799999999</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="1">
         <v>1.3560517700000001</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="1">
         <v>1.30505764</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="1">
         <v>1.3043673600000001</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="1">
         <v>1.2939387600000001</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="1">
         <v>1.2307624399999999</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="1">
         <v>1.22104309</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="1">
         <v>1.2037941599999999</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="1">
         <v>1.06135578</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="1">
         <v>0.98001324000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="1">
         <v>0.82119224999999996</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="1">
         <v>0.81283565000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="1">
         <v>0.74728454</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="1">
         <v>0.73421530999999995</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="1">
         <v>0.69387151999999996</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="1">
         <v>0.69349539999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="1">
         <v>0.67641231999999996</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="1">
         <v>0.60043197000000004</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="1">
         <v>0.59864505999999995</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="1">
         <v>0.56759059999999995</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="1">
         <v>0.51709340999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="1">
         <v>0.43539505000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="1">
         <v>0.31777382999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="1">
         <v>0.31132242999999998</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="1">
         <v>0.30152583999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="1">
         <v>0.27788732999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="1">
         <v>0.27048053</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="1">
         <v>0.21777968</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="1">
         <v>0.21639633</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="1">
         <v>0.21247656000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="1">
         <v>0.18706954000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="1">
         <v>0.18316151999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="1">
         <v>0.14565839</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="1">
         <v>0.11533707999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="1">
         <v>0.10392220000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="1">
         <v>9.2931059999999996E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="1">
         <v>4.2872559999999997E-2</v>
       </c>
     </row>

--- a/model_performance.xlsx
+++ b/model_performance.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="93">
   <si>
     <t>seed</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -152,12 +152,6 @@
     <t>HOS</t>
   </si>
   <si>
-    <t>BW</t>
-  </si>
-  <si>
-    <t>BH</t>
-  </si>
-  <si>
     <t>BMI</t>
   </si>
   <si>
@@ -323,7 +317,19 @@
     <t>Mom_Kinship</t>
   </si>
   <si>
-    <t>COV_NA_less30.csv 的完整資料 n=368</t>
+    <t>n*0.8的訓練 mtry = 5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COV_NA_less30.csv 的完整資料 n=368 mtry = 8(預設)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>去掉office血壓後</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>去掉office血壓後n*0.8</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -371,12 +377,18 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -394,7 +406,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -439,12 +451,45 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1728,10 +1773,10 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2157,7 +2202,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A9" sqref="A9:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2416,558 +2461,1696 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:L65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="43.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.796875" style="1"/>
+    <col min="3" max="4" width="8.796875" style="1"/>
+    <col min="5" max="5" width="24.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.796875" style="1"/>
+    <col min="8" max="8" width="19.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.796875" style="1"/>
+    <col min="11" max="11" width="22.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>91</v>
+    <row r="1" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="18" t="s">
+        <v>90</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1">
-        <v>7.4280027999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>8.3562636399999999</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="1">
+        <v>5.6224940999999999</v>
+      </c>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2">
+        <v>9.6817007000000004</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="1">
+        <v>8.0389653499999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="1">
+        <v>6.4941197400000004</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="1">
+        <v>5.1788800999999998</v>
+      </c>
+      <c r="H3" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="1">
-        <v>6.5129083000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="I3">
+        <v>9.6768330999999996</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="1">
+        <v>7.9981490199999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="B4" s="1">
-        <v>6.2270375099999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>6.3546275100000003</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4.8544811699999997</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4">
+        <v>9.2132780000000007</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="1">
+        <v>7.8102386600000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="1">
-        <v>6.1279763999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>6.3369712500000004</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4.8349799100000004</v>
+      </c>
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5">
+        <v>8.7151282000000005</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="1">
+        <v>7.3708266900000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="1">
+        <v>6.1697299599999997</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4.7376847399999997</v>
+      </c>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6">
+        <v>8.0581467999999994</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="1">
+        <v>6.7705808799999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6.09692071</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="1">
+        <v>4.4805800400000004</v>
+      </c>
+      <c r="H7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I7">
+        <v>7.0231538000000002</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" s="1">
+        <v>5.9251226299999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="1">
+        <v>5.84752793</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="1">
+        <v>4.43727056</v>
+      </c>
+      <c r="H8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8">
+        <v>6.3192912999999997</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="1">
+        <v>5.7679254499999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1">
+        <v>5.0855140800000003</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="1">
+        <v>4.2493188999999996</v>
+      </c>
+      <c r="H9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9">
+        <v>5.0329761</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" s="1">
+        <v>5.1863644400000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="1">
+        <v>4.4390470799999999</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="1">
+        <v>3.5758098199999999</v>
+      </c>
+      <c r="H10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10">
+        <v>4.5808688999999996</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L10" s="1">
+        <v>3.6612386699999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3.51157772</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2.87359812</v>
+      </c>
+      <c r="H11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11">
+        <v>4.0469265999999999</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L11" s="1">
+        <v>3.0327066999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3.4063870700000001</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2.3145189400000001</v>
+      </c>
+      <c r="H12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12">
+        <v>3.90205</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L12" s="1">
+        <v>3.0216925099999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2.76328628</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2.16637842</v>
+      </c>
+      <c r="H13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13">
+        <v>3.8360897</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L13" s="1">
+        <v>2.9935217000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2.6210832000000002</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2.0861527799999999</v>
+      </c>
+      <c r="H14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14">
+        <v>3.6571598000000001</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L14" s="1">
+        <v>2.7650134999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2.5899937300000002</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1.9832809199999999</v>
+      </c>
+      <c r="H15" t="s">
+        <v>81</v>
+      </c>
+      <c r="I15">
+        <v>3.6323622000000002</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L15" s="1">
+        <v>2.7542064100000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2.5078546899999998</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1.87509656</v>
+      </c>
+      <c r="H16" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16">
+        <v>3.4555335999999999</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L16" s="1">
+        <v>2.6923786299999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2.4298378399999998</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1.83994576</v>
+      </c>
+      <c r="H17" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17">
+        <v>3.3898983</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L17" s="1">
+        <v>2.6258741799999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="1">
-        <v>6.0726611899999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="1">
-        <v>5.5217498699999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+      <c r="B18" s="1">
+        <v>2.3877527500000002</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1.82441078</v>
+      </c>
+      <c r="H18" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18">
+        <v>3.3327312999999998</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L18" s="1">
+        <v>2.5461201199999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2.3309381999999998</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1.58656989</v>
+      </c>
+      <c r="H19" t="s">
+        <v>52</v>
+      </c>
+      <c r="I19">
+        <v>2.8696443999999999</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L19" s="1">
+        <v>2.51943377</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2.22152934</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1.5397976600000001</v>
+      </c>
+      <c r="H20" t="s">
+        <v>53</v>
+      </c>
+      <c r="I20">
+        <v>2.7762036999999999</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L20" s="1">
+        <v>2.4898506199999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2.1379640900000001</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1.5161945400000001</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21">
+        <v>2.6549725</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L21" s="1">
+        <v>2.3842149799999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2.0321221500000002</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1.510119</v>
+      </c>
+      <c r="H22" t="s">
+        <v>87</v>
+      </c>
+      <c r="I22">
+        <v>2.6474782000000001</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L22" s="1">
+        <v>2.0994144499999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1.86702364</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1.5048724099999999</v>
+      </c>
+      <c r="H23" t="s">
+        <v>78</v>
+      </c>
+      <c r="I23">
+        <v>2.6379467000000001</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L23" s="1">
+        <v>2.0341223799999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1.77452565</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1.44187573</v>
+      </c>
+      <c r="H24" t="s">
+        <v>66</v>
+      </c>
+      <c r="I24">
+        <v>2.5882615000000002</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L24" s="1">
+        <v>1.87063742</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1.7313911799999999</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1.4387490700000001</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25">
+        <v>2.4846799000000002</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L25" s="1">
+        <v>1.86371229</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1.65972323</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1.4155605899999999</v>
+      </c>
+      <c r="H26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I26">
+        <v>2.4137357000000002</v>
+      </c>
+      <c r="K26" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="1">
-        <v>5.49255798</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="1">
-        <v>5.2908777699999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="1">
-        <v>5.0218174800000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="1">
-        <v>4.4016930199999997</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="1">
-        <v>3.98594311</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="1">
-        <v>3.2461461699999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+      <c r="L26" s="1">
+        <v>1.79063349</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1.5921275699999999</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1.37737402</v>
+      </c>
+      <c r="H27" t="s">
+        <v>31</v>
+      </c>
+      <c r="I27">
+        <v>2.1868834000000001</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L27" s="1">
+        <v>1.77322454</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1.58302922</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1.34849076</v>
+      </c>
+      <c r="H28" t="s">
+        <v>59</v>
+      </c>
+      <c r="I28">
+        <v>2.1472661999999998</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L28" s="1">
+        <v>1.73200072</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1.45827529</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1.2057357799999999</v>
+      </c>
+      <c r="H29" t="s">
+        <v>50</v>
+      </c>
+      <c r="I29">
+        <v>2.1251209000000002</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L29" s="1">
+        <v>1.73143723</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1.4480195600000001</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1.1941140699999999</v>
+      </c>
+      <c r="H30" t="s">
+        <v>88</v>
+      </c>
+      <c r="I30">
+        <v>2.118941</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L30" s="1">
+        <v>1.66290403</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1.40693548</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1.1931285599999999</v>
+      </c>
+      <c r="H31" t="s">
+        <v>55</v>
+      </c>
+      <c r="I31">
+        <v>1.8897455000000001</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L31" s="1">
+        <v>1.62193615</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1.4038836400000001</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1.18782261</v>
+      </c>
+      <c r="H32" t="s">
+        <v>27</v>
+      </c>
+      <c r="I32">
+        <v>1.8776482999999999</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L32" s="1">
+        <v>1.48592977</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1.32385486</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1.16168797</v>
+      </c>
+      <c r="H33" t="s">
+        <v>40</v>
+      </c>
+      <c r="I33">
+        <v>1.7663622000000001</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L33" s="1">
+        <v>1.4267662400000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1.32382467</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1.0982917999999999</v>
+      </c>
+      <c r="H34" t="s">
+        <v>71</v>
+      </c>
+      <c r="I34">
+        <v>1.7590439</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L34" s="1">
+        <v>1.25531752</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1.1595270600000001</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1.00963088</v>
+      </c>
+      <c r="H35" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="1">
-        <v>3.2405580600000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="1">
-        <v>2.5611440000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="1">
-        <v>2.3301553799999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B17" s="1">
-        <v>2.2506769100000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="1">
-        <v>2.23193961</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="1">
-        <v>2.1645003900000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B20" s="1">
-        <v>2.1512056799999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="1">
-        <v>2.0199352400000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
+      <c r="I35">
+        <v>1.7192691</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L35" s="1">
+        <v>1.1829707899999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="1">
-        <v>1.8067403200000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="1">
-        <v>1.7064959500000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
+      <c r="B36" s="1">
+        <v>1.1322823900000001</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0.96664828999999997</v>
+      </c>
+      <c r="H36" t="s">
+        <v>67</v>
+      </c>
+      <c r="I36">
+        <v>1.6911584</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L36" s="1">
+        <v>1.14119266</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1.10001068</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0.95285987999999999</v>
+      </c>
+      <c r="H37" t="s">
+        <v>82</v>
+      </c>
+      <c r="I37">
+        <v>1.6816131000000001</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L37" s="1">
+        <v>1.11675079</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1.0836336799999999</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0.90042586000000002</v>
+      </c>
+      <c r="H38" t="s">
+        <v>54</v>
+      </c>
+      <c r="I38">
+        <v>1.557744</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L38" s="1">
+        <v>1.02416866</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1.04558252</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0.86493951999999996</v>
+      </c>
+      <c r="H39" t="s">
+        <v>60</v>
+      </c>
+      <c r="I39">
+        <v>1.3988499999999999</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L39" s="1">
+        <v>1.02032324</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0.88555501000000003</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0.80237466000000002</v>
+      </c>
+      <c r="H40" t="s">
+        <v>69</v>
+      </c>
+      <c r="I40">
+        <v>1.2981227</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L40" s="1">
+        <v>0.99491764000000005</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0.88168813000000001</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0.75100913999999996</v>
+      </c>
+      <c r="H41" t="s">
+        <v>76</v>
+      </c>
+      <c r="I41">
+        <v>1.2306022999999999</v>
+      </c>
+      <c r="K41" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B24" s="1">
-        <v>1.6497196300000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="1">
-        <v>1.63746704</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="1">
-        <v>1.5974198500000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="1">
-        <v>1.5708500999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="1">
-        <v>1.50785741</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B29" s="1">
-        <v>1.4444978100000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
+      <c r="L41" s="1">
+        <v>0.92767418000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0.85535234999999998</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0.73945375999999996</v>
+      </c>
+      <c r="H42" t="s">
+        <v>65</v>
+      </c>
+      <c r="I42">
+        <v>1.1393013999999999</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L42" s="1">
+        <v>0.91125307</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="1">
-        <v>1.4434119999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B31" s="1">
-        <v>1.3804835799999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="1">
-        <v>1.3560517700000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B33" s="1">
-        <v>1.30505764</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B34" s="1">
-        <v>1.3043673600000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" s="1">
-        <v>1.2939387600000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B36" s="1">
-        <v>1.2307624399999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B37" s="1">
-        <v>1.22104309</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38" s="1">
-        <v>1.2037941599999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B39" s="1">
-        <v>1.06135578</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B40" s="1">
-        <v>0.98001324000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B41" s="1">
-        <v>0.82119224999999996</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B42" s="1">
-        <v>0.81283565000000002</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="B43" s="1">
-        <v>0.74728454</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.83921614</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0.73825218000000004</v>
+      </c>
+      <c r="H43" t="s">
+        <v>64</v>
+      </c>
+      <c r="I43">
+        <v>0.92854349999999997</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L43" s="1">
+        <v>0.87374373000000005</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B44" s="1">
-        <v>0.73421530999999995</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.79098603999999995</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0.68878658999999998</v>
+      </c>
+      <c r="H44" t="s">
+        <v>56</v>
+      </c>
+      <c r="I44">
+        <v>0.87265280000000001</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L44" s="1">
+        <v>0.85048420999999996</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B45" s="1">
-        <v>0.69387151999999996</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.78197563000000003</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0.63964529000000003</v>
+      </c>
+      <c r="H45" t="s">
+        <v>73</v>
+      </c>
+      <c r="I45">
+        <v>0.79519669999999998</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L45" s="1">
+        <v>0.84699033999999995</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B46" s="1">
-        <v>0.69349539999999998</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.77303412000000005</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0.63075203999999996</v>
+      </c>
+      <c r="H46" t="s">
+        <v>74</v>
+      </c>
+      <c r="I46">
+        <v>0.71536500000000003</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L46" s="1">
+        <v>0.68303020000000003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0.74511400000000005</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0.56328288000000004</v>
+      </c>
+      <c r="H47" t="s">
+        <v>57</v>
+      </c>
+      <c r="I47">
+        <v>0.71311999999999998</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L47" s="1">
+        <v>0.45895217999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0.68767548000000001</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0.54302611999999995</v>
+      </c>
+      <c r="H48" t="s">
+        <v>58</v>
+      </c>
+      <c r="I48">
+        <v>0.67944879999999996</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L48" s="1">
+        <v>0.45785776</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0.48372535</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B47" s="1">
-        <v>0.67641231999999996</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B48" s="1">
-        <v>0.60043197000000004</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B49" s="1">
-        <v>0.59864505999999995</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="F49" s="1">
+        <v>0.47445320000000002</v>
+      </c>
+      <c r="H49" t="s">
+        <v>75</v>
+      </c>
+      <c r="I49">
+        <v>0.66472450000000005</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L49" s="1">
+        <v>0.44870863</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="B50" s="1">
-        <v>0.56759059999999995</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.46838713999999998</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0.40796038000000001</v>
+      </c>
+      <c r="H50" t="s">
+        <v>72</v>
+      </c>
+      <c r="I50">
+        <v>0.57002980000000003</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L50" s="1">
+        <v>0.41214009000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B51" s="1">
-        <v>0.51709340999999998</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.36313330999999999</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0.39664393999999997</v>
+      </c>
+      <c r="H51" t="s">
+        <v>62</v>
+      </c>
+      <c r="I51">
+        <v>0.54659219999999997</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L51" s="1">
+        <v>0.38368530000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="B52" s="1">
-        <v>0.43539505000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.36195192999999998</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0.37199586000000001</v>
+      </c>
+      <c r="H52" t="s">
+        <v>32</v>
+      </c>
+      <c r="I52">
+        <v>0.44844420000000002</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L52" s="1">
+        <v>0.37899166000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B53" s="1">
-        <v>0.31777382999999998</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.30957762999999999</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0.34137918</v>
+      </c>
+      <c r="H53" t="s">
+        <v>41</v>
+      </c>
+      <c r="I53">
+        <v>0.44195309999999999</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L53" s="1">
+        <v>0.33520834999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B54" s="1">
-        <v>0.31132242999999998</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.30373187000000001</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0.32344462000000002</v>
+      </c>
+      <c r="H54" t="s">
+        <v>61</v>
+      </c>
+      <c r="I54">
+        <v>0.42154979999999997</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L54" s="1">
+        <v>0.25896112999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55" s="1">
+        <v>0.29520247999999999</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0.25936492</v>
+      </c>
+      <c r="H55" t="s">
+        <v>79</v>
+      </c>
+      <c r="I55">
+        <v>0.41740719999999998</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L55" s="1">
+        <v>0.23362980999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" s="1">
+        <v>0.27325002999999998</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0.25654859000000002</v>
+      </c>
+      <c r="H56" t="s">
+        <v>63</v>
+      </c>
+      <c r="I56">
+        <v>0.37902170000000002</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L56" s="1">
+        <v>0.22063632999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B57" s="1">
+        <v>0.27083776999999998</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0.24442111</v>
+      </c>
+      <c r="H57" t="s">
+        <v>80</v>
+      </c>
+      <c r="I57">
+        <v>0.28400199999999998</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L57" s="1">
+        <v>0.21871325999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B55" s="1">
-        <v>0.30152583999999999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B56" s="1">
-        <v>0.27788732999999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B57" s="1">
-        <v>0.27048053</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="B58" s="1">
-        <v>0.21777968</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.25358596</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0.1808476</v>
+      </c>
+      <c r="H58" t="s">
+        <v>83</v>
+      </c>
+      <c r="I58">
+        <v>0.2393739</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L58" s="1">
+        <v>0.21430061</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="B59" s="1">
-        <v>0.21639633</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.19693765999999999</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F59" s="1">
+        <v>0.16865488000000001</v>
+      </c>
+      <c r="H59" t="s">
+        <v>68</v>
+      </c>
+      <c r="I59">
+        <v>0.2383586</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L59" s="1">
+        <v>0.20774091</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B60" s="1">
-        <v>0.21247656000000001</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.19373641</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F60" s="1">
+        <v>0.13295608</v>
+      </c>
+      <c r="H60" t="s">
+        <v>77</v>
+      </c>
+      <c r="I60">
+        <v>0.22777500000000001</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L60" s="1">
+        <v>0.18062164</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="B61" s="1">
-        <v>0.18706954000000001</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.13161112</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" s="1">
+        <v>0.10001751</v>
+      </c>
+      <c r="H61" t="s">
+        <v>44</v>
+      </c>
+      <c r="I61">
+        <v>0.1595317</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L61" s="1">
+        <v>9.6592070000000002E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="B62" s="1">
-        <v>0.18316151999999999</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.10720173</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F62" s="1">
+        <v>8.755193E-2</v>
+      </c>
+      <c r="H62" t="s">
+        <v>70</v>
+      </c>
+      <c r="I62">
+        <v>0.1451392</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L62" s="1">
+        <v>7.7112349999999996E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="B63" s="1">
-        <v>0.14565839</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.1035536</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F63" s="1">
+        <v>8.4683330000000001E-2</v>
+      </c>
+      <c r="H63" t="s">
+        <v>36</v>
+      </c>
+      <c r="I63">
+        <v>0.1060797</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L63" s="1">
+        <v>7.0625709999999994E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B64" s="1">
-        <v>0.11533707999999999</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+        <v>7.6634049999999995E-2</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F64" s="1">
+        <v>5.5217099999999998E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B65" s="1">
-        <v>0.10392220000000001</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B66" s="1">
-        <v>9.2931059999999996E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B67" s="1">
-        <v>4.2872559999999997E-2</v>
+        <v>2.3001150000000001E-2</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F65" s="1">
+        <v>2.0464030000000001E-2</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B67">
-    <sortCondition descending="1" ref="B2:B67"/>
+  <sortState ref="K2:L65">
+    <sortCondition descending="1" ref="L2:L65"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/model_performance.xlsx
+++ b/model_performance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="SBP+DBP廢" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,8 @@
     <sheet name="刪掉離群值" sheetId="5" r:id="rId3"/>
     <sheet name="換變數後Visit" sheetId="6" r:id="rId4"/>
     <sheet name="Case" sheetId="7" r:id="rId5"/>
-    <sheet name="變數重要性" sheetId="8" r:id="rId6"/>
+    <sheet name="Case_變數重要性" sheetId="8" r:id="rId6"/>
+    <sheet name="Visit_變數重要性" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="97">
   <si>
     <t>seed</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -331,6 +332,18 @@
   <si>
     <t>去掉office血壓後n*0.8</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>visit</t>
+  </si>
+  <si>
+    <t>Free_walk_Day</t>
+  </si>
+  <si>
+    <t>H_activity_week</t>
+  </si>
+  <si>
+    <t>H_activity_D</t>
   </si>
 </sst>
 </file>
@@ -446,50 +459,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -807,21 +791,21 @@
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17" t="s">
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="16" t="s">
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
     </row>
     <row r="3" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
@@ -856,7 +840,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -876,7 +860,7 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="17"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="4"/>
       <c r="C5" s="3" t="s">
         <v>11</v>
@@ -892,7 +876,7 @@
       <c r="L5" s="7"/>
     </row>
     <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="17"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="4"/>
       <c r="C6" s="3" t="s">
         <v>12</v>
@@ -908,7 +892,7 @@
       <c r="L6" s="7"/>
     </row>
     <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="17"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="4"/>
       <c r="C7" s="3" t="s">
         <v>13</v>
@@ -924,7 +908,7 @@
       <c r="L7" s="7"/>
     </row>
     <row r="8" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="17"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
@@ -954,7 +938,7 @@
       <c r="L8" s="7"/>
     </row>
     <row r="9" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="17"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="4"/>
       <c r="C9" s="3" t="s">
         <v>11</v>
@@ -982,7 +966,7 @@
       <c r="L9" s="7"/>
     </row>
     <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="17"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="4"/>
       <c r="C10" s="3" t="s">
         <v>12</v>
@@ -1010,7 +994,7 @@
       <c r="L10" s="7"/>
     </row>
     <row r="11" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="17"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="4"/>
       <c r="C11" s="3" t="s">
         <v>13</v>
@@ -1038,7 +1022,7 @@
       <c r="L11" s="7"/>
     </row>
     <row r="12" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -1076,7 +1060,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="17"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="4"/>
       <c r="C13" s="3" t="s">
         <v>11</v>
@@ -1110,7 +1094,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="17"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="4"/>
       <c r="C14" s="3" t="s">
         <v>12</v>
@@ -1144,7 +1128,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="17"/>
+      <c r="A15" s="19"/>
       <c r="B15" s="4"/>
       <c r="C15" s="3" t="s">
         <v>13</v>
@@ -1178,7 +1162,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="17"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
@@ -1214,7 +1198,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="17"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="4"/>
       <c r="C17" s="3" t="s">
         <v>11</v>
@@ -1248,7 +1232,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="17"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="4"/>
       <c r="C18" s="3" t="s">
         <v>12</v>
@@ -1282,7 +1266,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="17"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="4"/>
       <c r="C19" s="3" t="s">
         <v>13</v>
@@ -1372,21 +1356,21 @@
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17" t="s">
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="16" t="s">
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
     </row>
     <row r="3" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
@@ -1421,7 +1405,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -1441,7 +1425,7 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="17"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="4"/>
       <c r="C5" s="5" t="s">
         <v>11</v>
@@ -1457,7 +1441,7 @@
       <c r="L5" s="7"/>
     </row>
     <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="17"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5" t="s">
         <v>12</v>
@@ -1473,7 +1457,7 @@
       <c r="L6" s="7"/>
     </row>
     <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="17"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="4"/>
       <c r="C7" s="5" t="s">
         <v>13</v>
@@ -1489,7 +1473,7 @@
       <c r="L7" s="7"/>
     </row>
     <row r="8" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="17"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
@@ -1507,7 +1491,7 @@
       <c r="L8" s="7"/>
     </row>
     <row r="9" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="17"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="4"/>
       <c r="C9" s="5" t="s">
         <v>11</v>
@@ -1523,7 +1507,7 @@
       <c r="L9" s="7"/>
     </row>
     <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="17"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5" t="s">
         <v>12</v>
@@ -1539,7 +1523,7 @@
       <c r="L10" s="7"/>
     </row>
     <row r="11" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="17"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="4"/>
       <c r="C11" s="5" t="s">
         <v>13</v>
@@ -1555,7 +1539,7 @@
       <c r="L11" s="7"/>
     </row>
     <row r="12" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1575,7 +1559,7 @@
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="17"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5" t="s">
         <v>11</v>
@@ -1591,7 +1575,7 @@
       <c r="L13" s="7"/>
     </row>
     <row r="14" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="17"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5" t="s">
         <v>12</v>
@@ -1607,7 +1591,7 @@
       <c r="L14" s="7"/>
     </row>
     <row r="15" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="17"/>
+      <c r="A15" s="19"/>
       <c r="B15" s="4"/>
       <c r="C15" s="5" t="s">
         <v>13</v>
@@ -1623,7 +1607,7 @@
       <c r="L15" s="7"/>
     </row>
     <row r="16" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="17"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="5" t="s">
         <v>9</v>
       </c>
@@ -1659,7 +1643,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="17"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="4"/>
       <c r="C17" s="5" t="s">
         <v>11</v>
@@ -1675,7 +1659,7 @@
       <c r="L17" s="7"/>
     </row>
     <row r="18" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="17"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5" t="s">
         <v>12</v>
@@ -1709,7 +1693,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="17"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="4"/>
       <c r="C19" s="5" t="s">
         <v>13</v>
@@ -1814,21 +1798,21 @@
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17" t="s">
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="16" t="s">
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
     </row>
     <row r="3" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="13"/>
@@ -1863,7 +1847,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="12" t="s">
@@ -1883,7 +1867,7 @@
       <c r="L4" s="14"/>
     </row>
     <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="17"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="4"/>
       <c r="C5" s="12" t="s">
         <v>11</v>
@@ -1899,7 +1883,7 @@
       <c r="L5" s="14"/>
     </row>
     <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="17"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="4"/>
       <c r="C6" s="12" t="s">
         <v>12</v>
@@ -1915,7 +1899,7 @@
       <c r="L6" s="14"/>
     </row>
     <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="17"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="4"/>
       <c r="C7" s="12" t="s">
         <v>13</v>
@@ -1931,7 +1915,7 @@
       <c r="L7" s="14"/>
     </row>
     <row r="8" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="17"/>
+      <c r="A8" s="19"/>
       <c r="C8" s="11" t="s">
         <v>17</v>
       </c>
@@ -1946,7 +1930,7 @@
       <c r="L8" s="14"/>
     </row>
     <row r="9" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="17"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="12" t="s">
         <v>9</v>
       </c>
@@ -1964,7 +1948,7 @@
       <c r="L9" s="14"/>
     </row>
     <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="17"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="4"/>
       <c r="C10" s="12" t="s">
         <v>11</v>
@@ -1980,7 +1964,7 @@
       <c r="L10" s="14"/>
     </row>
     <row r="11" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="17"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="4"/>
       <c r="C11" s="12" t="s">
         <v>12</v>
@@ -1996,7 +1980,7 @@
       <c r="L11" s="14"/>
     </row>
     <row r="12" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="17"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="4"/>
       <c r="C12" s="12" t="s">
         <v>13</v>
@@ -2012,7 +1996,7 @@
       <c r="L12" s="14"/>
     </row>
     <row r="13" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="17"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="4"/>
       <c r="C13" s="12" t="s">
         <v>18</v>
@@ -2028,7 +2012,7 @@
       <c r="L13" s="14"/>
     </row>
     <row r="14" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="12" t="s">
@@ -2048,7 +2032,7 @@
       <c r="L14" s="15"/>
     </row>
     <row r="15" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="17"/>
+      <c r="A15" s="19"/>
       <c r="B15" s="4"/>
       <c r="C15" s="12" t="s">
         <v>11</v>
@@ -2064,7 +2048,7 @@
       <c r="L15" s="15"/>
     </row>
     <row r="16" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="17"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="4"/>
       <c r="C16" s="12" t="s">
         <v>12</v>
@@ -2080,7 +2064,7 @@
       <c r="L16" s="15"/>
     </row>
     <row r="17" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="17"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="4"/>
       <c r="C17" s="12" t="s">
         <v>13</v>
@@ -2096,7 +2080,7 @@
       <c r="L17" s="15"/>
     </row>
     <row r="18" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="17"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="4"/>
       <c r="C18" s="12" t="s">
         <v>18</v>
@@ -2112,7 +2096,7 @@
       <c r="L18" s="15"/>
     </row>
     <row r="19" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="17"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="12" t="s">
         <v>9</v>
       </c>
@@ -2130,7 +2114,7 @@
       <c r="L19" s="15"/>
     </row>
     <row r="20" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="17"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="4"/>
       <c r="C20" s="12" t="s">
         <v>11</v>
@@ -2146,7 +2130,7 @@
       <c r="L20" s="15"/>
     </row>
     <row r="21" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="17"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="4"/>
       <c r="C21" s="12" t="s">
         <v>12</v>
@@ -2162,7 +2146,7 @@
       <c r="L21" s="15"/>
     </row>
     <row r="22" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="17"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="4"/>
       <c r="C22" s="12" t="s">
         <v>13</v>
@@ -2178,7 +2162,7 @@
       <c r="L22" s="15"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A23" s="17"/>
+      <c r="A23" s="19"/>
       <c r="C23" s="11" t="s">
         <v>19</v>
       </c>
@@ -2240,21 +2224,21 @@
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17" t="s">
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="16" t="s">
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
     </row>
     <row r="3" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="13"/>
@@ -2289,7 +2273,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="19" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="12" t="s">
@@ -2309,7 +2293,7 @@
       <c r="L4" s="14"/>
     </row>
     <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="17"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="4"/>
       <c r="C5" s="12" t="s">
         <v>11</v>
@@ -2325,7 +2309,7 @@
       <c r="L5" s="14"/>
     </row>
     <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="17"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="4"/>
       <c r="C6" s="12" t="s">
         <v>12</v>
@@ -2341,7 +2325,7 @@
       <c r="L6" s="14"/>
     </row>
     <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="17"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="4"/>
       <c r="C7" s="12" t="s">
         <v>13</v>
@@ -2357,7 +2341,7 @@
       <c r="L7" s="14"/>
     </row>
     <row r="8" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="17"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="4"/>
       <c r="C8" s="12" t="s">
         <v>18</v>
@@ -2373,7 +2357,7 @@
       <c r="L8" s="14"/>
     </row>
     <row r="9" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="19" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="12" t="s">
@@ -2393,7 +2377,7 @@
       <c r="L9" s="15"/>
     </row>
     <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="17"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="4"/>
       <c r="C10" s="12" t="s">
         <v>11</v>
@@ -2409,7 +2393,7 @@
       <c r="L10" s="15"/>
     </row>
     <row r="11" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="17"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="4"/>
       <c r="C11" s="12" t="s">
         <v>12</v>
@@ -2425,7 +2409,7 @@
       <c r="L11" s="15"/>
     </row>
     <row r="12" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="17"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="4"/>
       <c r="C12" s="12" t="s">
         <v>13</v>
@@ -2441,7 +2425,7 @@
       <c r="L12" s="15"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="17"/>
+      <c r="A13" s="19"/>
       <c r="C13" s="11" t="s">
         <v>19</v>
       </c>
@@ -2463,8 +2447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -2483,7 +2467,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>90</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -2515,7 +2499,7 @@
       <c r="B2" s="1">
         <v>8.3562636399999999</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="17" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="1">
@@ -2541,7 +2525,7 @@
       <c r="B3" s="1">
         <v>6.4941197400000004</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="17" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="1">
@@ -2567,7 +2551,7 @@
       <c r="B4" s="1">
         <v>6.3546275100000003</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="17" t="s">
         <v>84</v>
       </c>
       <c r="F4" s="1">
@@ -2593,7 +2577,7 @@
       <c r="B5" s="1">
         <v>6.3369712500000004</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="17" t="s">
         <v>28</v>
       </c>
       <c r="F5" s="1">
@@ -2619,7 +2603,7 @@
       <c r="B6" s="1">
         <v>6.1697299599999997</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F6" s="1">
@@ -2645,7 +2629,7 @@
       <c r="B7" s="1">
         <v>6.09692071</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="17" t="s">
         <v>35</v>
       </c>
       <c r="F7" s="1">
@@ -2671,7 +2655,7 @@
       <c r="B8" s="1">
         <v>5.84752793</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="17" t="s">
         <v>85</v>
       </c>
       <c r="F8" s="1">
@@ -2697,7 +2681,7 @@
       <c r="B9" s="1">
         <v>5.0855140800000003</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="17" t="s">
         <v>25</v>
       </c>
       <c r="F9" s="1">
@@ -2723,7 +2707,7 @@
       <c r="B10" s="1">
         <v>4.4390470799999999</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="17" t="s">
         <v>26</v>
       </c>
       <c r="F10" s="1">
@@ -2749,7 +2733,7 @@
       <c r="B11" s="1">
         <v>3.51157772</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="17" t="s">
         <v>49</v>
       </c>
       <c r="F11" s="1">
@@ -4156,4 +4140,1343 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2">
+        <v>10.793447</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2">
+        <v>12.6794244</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2">
+        <v>12.193729919999999</v>
+      </c>
+      <c r="J2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2">
+        <v>10.3745485</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>10.0251231</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3">
+        <v>11.378416700000001</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3">
+        <v>10.842029500000001</v>
+      </c>
+      <c r="J3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3">
+        <v>9.6432777999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>7.5796899</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4">
+        <v>8.1501026999999997</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4">
+        <v>7.4229476700000001</v>
+      </c>
+      <c r="J4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4">
+        <v>7.6588194999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5">
+        <v>5.9445538999999998</v>
+      </c>
+      <c r="D5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5">
+        <v>7.0576091999999999</v>
+      </c>
+      <c r="G5" t="s">
+        <v>93</v>
+      </c>
+      <c r="H5">
+        <v>7.35538165</v>
+      </c>
+      <c r="J5" t="s">
+        <v>93</v>
+      </c>
+      <c r="K5">
+        <v>6.7408048000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6">
+        <v>4.6942154</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6">
+        <v>4.9522645000000001</v>
+      </c>
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6">
+        <v>6.1503560200000003</v>
+      </c>
+      <c r="J6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6">
+        <v>5.4945120999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7">
+        <v>4.6909706</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7">
+        <v>4.7731434000000004</v>
+      </c>
+      <c r="G7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7">
+        <v>4.9021878599999997</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7">
+        <v>5.0398198000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8">
+        <v>4.5472659999999996</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8">
+        <v>4.6545671000000004</v>
+      </c>
+      <c r="G8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8">
+        <v>4.8734346799999999</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8">
+        <v>4.7070157000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9">
+        <v>4.3488987999999997</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9">
+        <v>4.5141552999999996</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9">
+        <v>4.8099180300000004</v>
+      </c>
+      <c r="J9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9">
+        <v>4.4428416000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10">
+        <v>3.8047339999999998</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10">
+        <v>3.5894672000000001</v>
+      </c>
+      <c r="G10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10">
+        <v>4.4862594800000002</v>
+      </c>
+      <c r="J10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10">
+        <v>4.4423753000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11">
+        <v>2.5888277999999998</v>
+      </c>
+      <c r="D11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11">
+        <v>2.5319370000000001</v>
+      </c>
+      <c r="G11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11">
+        <v>2.7018314299999999</v>
+      </c>
+      <c r="J11" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11">
+        <v>2.3326104999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12">
+        <v>2.4207418000000001</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12">
+        <v>2.3040373000000001</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12">
+        <v>2.2304568599999999</v>
+      </c>
+      <c r="J12" t="s">
+        <v>96</v>
+      </c>
+      <c r="K12">
+        <v>2.2688149000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13">
+        <v>2.3810056999999998</v>
+      </c>
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13">
+        <v>2.0957897000000001</v>
+      </c>
+      <c r="G13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13">
+        <v>2.06940664</v>
+      </c>
+      <c r="J13" t="s">
+        <v>59</v>
+      </c>
+      <c r="K13">
+        <v>2.2682017999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14">
+        <v>1.9636453</v>
+      </c>
+      <c r="D14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14">
+        <v>2.0502117000000002</v>
+      </c>
+      <c r="G14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14">
+        <v>2.0160716000000001</v>
+      </c>
+      <c r="J14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K14">
+        <v>1.9973491000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15">
+        <v>1.9118154000000001</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15">
+        <v>1.9375294000000001</v>
+      </c>
+      <c r="G15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15">
+        <v>1.8343802</v>
+      </c>
+      <c r="J15" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15">
+        <v>1.9295618000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16">
+        <v>1.8875119</v>
+      </c>
+      <c r="D16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16">
+        <v>1.9183939000000001</v>
+      </c>
+      <c r="G16" t="s">
+        <v>96</v>
+      </c>
+      <c r="H16">
+        <v>1.8129000500000001</v>
+      </c>
+      <c r="J16" t="s">
+        <v>49</v>
+      </c>
+      <c r="K16">
+        <v>1.8280158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17">
+        <v>1.8784029</v>
+      </c>
+      <c r="D17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17">
+        <v>1.8894527999999999</v>
+      </c>
+      <c r="G17" t="s">
+        <v>94</v>
+      </c>
+      <c r="H17">
+        <v>1.6610818700000001</v>
+      </c>
+      <c r="J17" t="s">
+        <v>94</v>
+      </c>
+      <c r="K17">
+        <v>1.7752926</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18">
+        <v>1.6424619</v>
+      </c>
+      <c r="D18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18">
+        <v>1.6556044999999999</v>
+      </c>
+      <c r="G18" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18">
+        <v>1.59850987</v>
+      </c>
+      <c r="J18" t="s">
+        <v>40</v>
+      </c>
+      <c r="K18">
+        <v>1.6664104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19">
+        <v>1.5339433</v>
+      </c>
+      <c r="D19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19">
+        <v>1.5827663000000001</v>
+      </c>
+      <c r="G19" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19">
+        <v>1.54024249</v>
+      </c>
+      <c r="J19" t="s">
+        <v>48</v>
+      </c>
+      <c r="K19">
+        <v>1.5580489</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20">
+        <v>1.4604925</v>
+      </c>
+      <c r="D20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20">
+        <v>1.4870106000000001</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20">
+        <v>1.4427096699999999</v>
+      </c>
+      <c r="J20" t="s">
+        <v>43</v>
+      </c>
+      <c r="K20">
+        <v>1.3132751</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21">
+        <v>1.2616339000000001</v>
+      </c>
+      <c r="D21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21">
+        <v>1.4580915999999999</v>
+      </c>
+      <c r="G21" t="s">
+        <v>95</v>
+      </c>
+      <c r="H21">
+        <v>1.4143728099999999</v>
+      </c>
+      <c r="J21" t="s">
+        <v>33</v>
+      </c>
+      <c r="K21">
+        <v>1.2643034</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22">
+        <v>1.2372479999999999</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22">
+        <v>1.2548505000000001</v>
+      </c>
+      <c r="G22" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22">
+        <v>1.2019972699999999</v>
+      </c>
+      <c r="J22" t="s">
+        <v>42</v>
+      </c>
+      <c r="K22">
+        <v>1.2604493999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23">
+        <v>1.2156482</v>
+      </c>
+      <c r="D23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23">
+        <v>1.1582741999999999</v>
+      </c>
+      <c r="G23" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23">
+        <v>1.1339085099999999</v>
+      </c>
+      <c r="J23" t="s">
+        <v>66</v>
+      </c>
+      <c r="K23">
+        <v>1.2148429999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24">
+        <v>1.1441634999999999</v>
+      </c>
+      <c r="D24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24">
+        <v>1.1168973</v>
+      </c>
+      <c r="G24" t="s">
+        <v>43</v>
+      </c>
+      <c r="H24">
+        <v>1.12855069</v>
+      </c>
+      <c r="J24" t="s">
+        <v>47</v>
+      </c>
+      <c r="K24">
+        <v>1.2127403999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25">
+        <v>1.1099009</v>
+      </c>
+      <c r="D25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25">
+        <v>1.1143154</v>
+      </c>
+      <c r="G25" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25">
+        <v>1.1209009400000001</v>
+      </c>
+      <c r="J25" t="s">
+        <v>46</v>
+      </c>
+      <c r="K25">
+        <v>1.1957575</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <v>1.0611410999999999</v>
+      </c>
+      <c r="D26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26">
+        <v>1.0762607</v>
+      </c>
+      <c r="G26" t="s">
+        <v>67</v>
+      </c>
+      <c r="H26">
+        <v>1.11032693</v>
+      </c>
+      <c r="J26" t="s">
+        <v>95</v>
+      </c>
+      <c r="K26">
+        <v>1.1263894000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27">
+        <v>1.0385143999999999</v>
+      </c>
+      <c r="D27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27">
+        <v>1.0708746</v>
+      </c>
+      <c r="G27" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27">
+        <v>1.07101844</v>
+      </c>
+      <c r="J27" t="s">
+        <v>69</v>
+      </c>
+      <c r="K27">
+        <v>1.049363</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28">
+        <v>1.0100935</v>
+      </c>
+      <c r="D28" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28">
+        <v>1.0664195000000001</v>
+      </c>
+      <c r="G28" t="s">
+        <v>65</v>
+      </c>
+      <c r="H28">
+        <v>1.05511782</v>
+      </c>
+      <c r="J28" t="s">
+        <v>67</v>
+      </c>
+      <c r="K28">
+        <v>1.0368493000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29">
+        <v>0.98456999999999995</v>
+      </c>
+      <c r="D29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29">
+        <v>1.0600259000000001</v>
+      </c>
+      <c r="G29" t="s">
+        <v>66</v>
+      </c>
+      <c r="H29">
+        <v>0.96470889999999998</v>
+      </c>
+      <c r="J29" t="s">
+        <v>53</v>
+      </c>
+      <c r="K29">
+        <v>1.0178677</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30">
+        <v>0.9841702</v>
+      </c>
+      <c r="D30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30">
+        <v>1.0495061999999999</v>
+      </c>
+      <c r="G30" t="s">
+        <v>61</v>
+      </c>
+      <c r="H30">
+        <v>0.95223069999999999</v>
+      </c>
+      <c r="J30" t="s">
+        <v>31</v>
+      </c>
+      <c r="K30">
+        <v>1.0002024</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31">
+        <v>0.96333630000000003</v>
+      </c>
+      <c r="D31" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31">
+        <v>1.0487352000000001</v>
+      </c>
+      <c r="G31" t="s">
+        <v>53</v>
+      </c>
+      <c r="H31">
+        <v>0.94240009999999996</v>
+      </c>
+      <c r="J31" t="s">
+        <v>65</v>
+      </c>
+      <c r="K31">
+        <v>0.95167579999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32">
+        <v>0.95759190000000005</v>
+      </c>
+      <c r="D32" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32">
+        <v>1.0023932</v>
+      </c>
+      <c r="G32" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32">
+        <v>0.88831905</v>
+      </c>
+      <c r="J32" t="s">
+        <v>52</v>
+      </c>
+      <c r="K32">
+        <v>0.88785139999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33">
+        <v>0.95091130000000001</v>
+      </c>
+      <c r="D33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33">
+        <v>0.97967280000000001</v>
+      </c>
+      <c r="G33" t="s">
+        <v>69</v>
+      </c>
+      <c r="H33">
+        <v>0.86493549000000003</v>
+      </c>
+      <c r="J33" t="s">
+        <v>27</v>
+      </c>
+      <c r="K33">
+        <v>0.88473219999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34">
+        <v>0.94457270000000004</v>
+      </c>
+      <c r="D34" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34">
+        <v>0.9339925</v>
+      </c>
+      <c r="G34" t="s">
+        <v>60</v>
+      </c>
+      <c r="H34">
+        <v>0.85335185999999996</v>
+      </c>
+      <c r="J34" t="s">
+        <v>60</v>
+      </c>
+      <c r="K34">
+        <v>0.87772329999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35">
+        <v>0.91773329999999997</v>
+      </c>
+      <c r="D35" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35">
+        <v>0.87158500000000005</v>
+      </c>
+      <c r="G35" t="s">
+        <v>52</v>
+      </c>
+      <c r="H35">
+        <v>0.84808963999999998</v>
+      </c>
+      <c r="J35" t="s">
+        <v>32</v>
+      </c>
+      <c r="K35">
+        <v>0.8712742</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36">
+        <v>0.89318070000000005</v>
+      </c>
+      <c r="D36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36">
+        <v>0.82358299999999995</v>
+      </c>
+      <c r="G36" t="s">
+        <v>32</v>
+      </c>
+      <c r="H36">
+        <v>0.83334216000000005</v>
+      </c>
+      <c r="J36" t="s">
+        <v>61</v>
+      </c>
+      <c r="K36">
+        <v>0.82345500000000005</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37">
+        <v>0.74079910000000004</v>
+      </c>
+      <c r="D37" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37">
+        <v>0.72026029999999996</v>
+      </c>
+      <c r="G37" t="s">
+        <v>51</v>
+      </c>
+      <c r="H37">
+        <v>0.63642721000000002</v>
+      </c>
+      <c r="J37" t="s">
+        <v>51</v>
+      </c>
+      <c r="K37">
+        <v>0.71898629999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38">
+        <v>0.62115609999999999</v>
+      </c>
+      <c r="D38" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38">
+        <v>0.6375132</v>
+      </c>
+      <c r="G38" t="s">
+        <v>50</v>
+      </c>
+      <c r="H38">
+        <v>0.53581087999999999</v>
+      </c>
+      <c r="J38" t="s">
+        <v>50</v>
+      </c>
+      <c r="K38">
+        <v>0.51076880000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39">
+        <v>0.44756479999999998</v>
+      </c>
+      <c r="D39" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39">
+        <v>0.4363978</v>
+      </c>
+      <c r="G39" t="s">
+        <v>41</v>
+      </c>
+      <c r="H39">
+        <v>0.50876551000000003</v>
+      </c>
+      <c r="J39" t="s">
+        <v>54</v>
+      </c>
+      <c r="K39">
+        <v>0.473246</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40">
+        <v>0.37209209999999998</v>
+      </c>
+      <c r="D40" t="s">
+        <v>58</v>
+      </c>
+      <c r="E40">
+        <v>0.36106929999999998</v>
+      </c>
+      <c r="G40" t="s">
+        <v>54</v>
+      </c>
+      <c r="H40">
+        <v>0.39495532999999999</v>
+      </c>
+      <c r="J40" t="s">
+        <v>41</v>
+      </c>
+      <c r="K40">
+        <v>0.38607560000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41">
+        <v>0.34597749999999999</v>
+      </c>
+      <c r="D41" t="s">
+        <v>62</v>
+      </c>
+      <c r="E41">
+        <v>0.35329189999999999</v>
+      </c>
+      <c r="G41" t="s">
+        <v>55</v>
+      </c>
+      <c r="H41">
+        <v>0.29799737999999998</v>
+      </c>
+      <c r="J41" t="s">
+        <v>64</v>
+      </c>
+      <c r="K41">
+        <v>0.30311630000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42">
+        <v>0.34523759999999998</v>
+      </c>
+      <c r="D42" t="s">
+        <v>54</v>
+      </c>
+      <c r="E42">
+        <v>0.33929320000000002</v>
+      </c>
+      <c r="G42" t="s">
+        <v>62</v>
+      </c>
+      <c r="H42">
+        <v>0.29776291999999999</v>
+      </c>
+      <c r="J42" t="s">
+        <v>68</v>
+      </c>
+      <c r="K42">
+        <v>0.28532619999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43">
+        <v>0.32524140000000001</v>
+      </c>
+      <c r="D43" t="s">
+        <v>55</v>
+      </c>
+      <c r="E43">
+        <v>0.33167140000000001</v>
+      </c>
+      <c r="G43" t="s">
+        <v>58</v>
+      </c>
+      <c r="H43">
+        <v>0.27818303</v>
+      </c>
+      <c r="J43" t="s">
+        <v>58</v>
+      </c>
+      <c r="K43">
+        <v>0.26456540000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44">
+        <v>0.28464850000000003</v>
+      </c>
+      <c r="D44" t="s">
+        <v>36</v>
+      </c>
+      <c r="E44">
+        <v>0.26640540000000001</v>
+      </c>
+      <c r="G44" t="s">
+        <v>64</v>
+      </c>
+      <c r="H44">
+        <v>0.24764807</v>
+      </c>
+      <c r="J44" t="s">
+        <v>55</v>
+      </c>
+      <c r="K44">
+        <v>0.25046649999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45">
+        <v>0.24383560000000001</v>
+      </c>
+      <c r="D45" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45">
+        <v>0.2453757</v>
+      </c>
+      <c r="G45" t="s">
+        <v>68</v>
+      </c>
+      <c r="H45">
+        <v>0.22070387999999999</v>
+      </c>
+      <c r="J45" t="s">
+        <v>62</v>
+      </c>
+      <c r="K45">
+        <v>0.24668979999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46">
+        <v>0.23252139999999999</v>
+      </c>
+      <c r="D46" t="s">
+        <v>68</v>
+      </c>
+      <c r="E46">
+        <v>0.22746810000000001</v>
+      </c>
+      <c r="G46" t="s">
+        <v>36</v>
+      </c>
+      <c r="H46">
+        <v>0.21842116</v>
+      </c>
+      <c r="J46" t="s">
+        <v>36</v>
+      </c>
+      <c r="K46">
+        <v>0.23006750000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47">
+        <v>0.15635080000000001</v>
+      </c>
+      <c r="D47" t="s">
+        <v>56</v>
+      </c>
+      <c r="E47">
+        <v>0.1165385</v>
+      </c>
+      <c r="G47" t="s">
+        <v>56</v>
+      </c>
+      <c r="H47">
+        <v>0.11069023</v>
+      </c>
+      <c r="J47" t="s">
+        <v>56</v>
+      </c>
+      <c r="K47">
+        <v>0.2031018</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48">
+        <v>0.1106221</v>
+      </c>
+      <c r="D48" t="s">
+        <v>63</v>
+      </c>
+      <c r="E48">
+        <v>0.10771120000000001</v>
+      </c>
+      <c r="G48" t="s">
+        <v>63</v>
+      </c>
+      <c r="H48">
+        <v>6.4248630000000001E-2</v>
+      </c>
+      <c r="J48" t="s">
+        <v>63</v>
+      </c>
+      <c r="K48">
+        <v>0.1465516</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>44</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="D49" t="s">
+        <v>44</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="G49" t="s">
+        <v>44</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="J49" t="s">
+        <v>44</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="D50" t="s">
+        <v>57</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="G50" t="s">
+        <v>57</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="J50" t="s">
+        <v>57</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="D51" t="s">
+        <v>70</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="G51" t="s">
+        <v>70</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="J51" t="s">
+        <v>70</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="J2:K51">
+    <sortCondition descending="1" ref="K2:K51"/>
+  </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/model_performance.xlsx
+++ b/model_performance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="SBP+DBP廢" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="100">
   <si>
     <t>seed</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -344,6 +344,18 @@
   </si>
   <si>
     <t>H_activity_D</t>
+  </si>
+  <si>
+    <t>類別後</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>預設mtry</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mtry = 8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -419,7 +431,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -468,6 +480,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -2185,8 +2198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2448,7 +2461,7 @@
   <dimension ref="A1:L65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -4144,1256 +4157,983 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5" customWidth="1"/>
+    <col min="1" max="1" width="17.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.69921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" t="s">
         <v>24</v>
       </c>
       <c r="D1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" t="s">
         <v>24</v>
       </c>
       <c r="G1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" t="s">
         <v>24</v>
       </c>
-      <c r="K1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>29</v>
       </c>
       <c r="B2">
-        <v>10.793447</v>
-      </c>
-      <c r="D2" t="s">
+        <v>12.6794244</v>
+      </c>
+      <c r="D2" s="20" t="s">
         <v>29</v>
       </c>
       <c r="E2">
-        <v>12.6794244</v>
+        <v>12.193729919999999</v>
       </c>
       <c r="G2" t="s">
         <v>29</v>
       </c>
       <c r="H2">
-        <v>12.193729919999999</v>
-      </c>
-      <c r="J2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2">
         <v>10.3745485</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>25</v>
       </c>
       <c r="B3">
-        <v>10.0251231</v>
-      </c>
-      <c r="D3" t="s">
+        <v>11.378416700000001</v>
+      </c>
+      <c r="D3" s="20" t="s">
         <v>25</v>
       </c>
       <c r="E3">
-        <v>11.378416700000001</v>
+        <v>10.842029500000001</v>
       </c>
       <c r="G3" t="s">
         <v>25</v>
       </c>
       <c r="H3">
-        <v>10.842029500000001</v>
-      </c>
-      <c r="J3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3">
         <v>9.6432777999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>26</v>
       </c>
       <c r="B4">
-        <v>7.5796899</v>
-      </c>
-      <c r="D4" t="s">
+        <v>8.1501026999999997</v>
+      </c>
+      <c r="D4" s="20" t="s">
         <v>26</v>
       </c>
       <c r="E4">
-        <v>8.1501026999999997</v>
+        <v>7.4229476700000001</v>
       </c>
       <c r="G4" t="s">
         <v>26</v>
       </c>
       <c r="H4">
-        <v>7.4229476700000001</v>
-      </c>
-      <c r="J4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4">
         <v>7.6588194999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>93</v>
       </c>
       <c r="B5">
-        <v>5.9445538999999998</v>
-      </c>
-      <c r="D5" t="s">
+        <v>7.0576091999999999</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>93</v>
       </c>
       <c r="E5">
-        <v>7.0576091999999999</v>
+        <v>7.35538165</v>
       </c>
       <c r="G5" t="s">
         <v>93</v>
       </c>
       <c r="H5">
-        <v>7.35538165</v>
-      </c>
-      <c r="J5" t="s">
-        <v>93</v>
-      </c>
-      <c r="K5">
         <v>6.7408048000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B6">
-        <v>4.6942154</v>
-      </c>
-      <c r="D6" t="s">
-        <v>37</v>
+        <v>4.9522645000000001</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>35</v>
       </c>
       <c r="E6">
-        <v>4.9522645000000001</v>
+        <v>6.1503560200000003</v>
       </c>
       <c r="G6" t="s">
         <v>35</v>
       </c>
       <c r="H6">
-        <v>6.1503560200000003</v>
-      </c>
-      <c r="J6" t="s">
+        <v>5.4945120999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>35</v>
       </c>
-      <c r="K6">
-        <v>5.4945120999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>34</v>
-      </c>
       <c r="B7">
-        <v>4.6909706</v>
-      </c>
-      <c r="D7" t="s">
-        <v>35</v>
+        <v>4.7731434000000004</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>37</v>
       </c>
       <c r="E7">
-        <v>4.7731434000000004</v>
+        <v>4.9021878599999997</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="H7">
-        <v>4.9021878599999997</v>
-      </c>
-      <c r="J7" t="s">
+        <v>5.0398198000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>28</v>
       </c>
-      <c r="K7">
-        <v>5.0398198000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>35</v>
-      </c>
       <c r="B8">
-        <v>4.5472659999999996</v>
-      </c>
-      <c r="D8" t="s">
-        <v>28</v>
+        <v>4.6545671000000004</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>30</v>
       </c>
       <c r="E8">
-        <v>4.6545671000000004</v>
+        <v>4.8734346799999999</v>
       </c>
       <c r="G8" t="s">
         <v>30</v>
       </c>
       <c r="H8">
-        <v>4.8734346799999999</v>
-      </c>
-      <c r="J8" t="s">
-        <v>30</v>
-      </c>
-      <c r="K8">
         <v>4.7070157000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B9">
-        <v>4.3488987999999997</v>
-      </c>
-      <c r="D9" t="s">
+        <v>4.5141552999999996</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9">
+        <v>4.8099180300000004</v>
+      </c>
+      <c r="G9" t="s">
         <v>34</v>
       </c>
-      <c r="E9">
-        <v>4.5141552999999996</v>
-      </c>
-      <c r="G9" t="s">
-        <v>28</v>
-      </c>
       <c r="H9">
-        <v>4.8099180300000004</v>
-      </c>
-      <c r="J9" t="s">
-        <v>34</v>
-      </c>
-      <c r="K9">
         <v>4.4428416000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>30</v>
       </c>
       <c r="B10">
-        <v>3.8047339999999998</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
+        <v>3.5894672000000001</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>34</v>
       </c>
       <c r="E10">
-        <v>3.5894672000000001</v>
+        <v>4.4862594800000002</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H10">
-        <v>4.4862594800000002</v>
-      </c>
-      <c r="J10" t="s">
-        <v>37</v>
-      </c>
-      <c r="K10">
         <v>4.4423753000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>59</v>
       </c>
       <c r="B11">
-        <v>2.5888277999999998</v>
-      </c>
-      <c r="D11" t="s">
+        <v>2.5319370000000001</v>
+      </c>
+      <c r="D11" s="20" t="s">
         <v>59</v>
       </c>
       <c r="E11">
-        <v>2.5319370000000001</v>
+        <v>2.7018314299999999</v>
       </c>
       <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11">
+        <v>2.3326104999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12">
+        <v>2.3040373000000001</v>
+      </c>
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12">
+        <v>2.2304568599999999</v>
+      </c>
+      <c r="G12" t="s">
+        <v>96</v>
+      </c>
+      <c r="H12">
+        <v>2.2688149000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13">
+        <v>2.0957897000000001</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13">
+        <v>2.06940664</v>
+      </c>
+      <c r="G13" t="s">
         <v>59</v>
       </c>
-      <c r="H11">
-        <v>2.7018314299999999</v>
-      </c>
-      <c r="J11" t="s">
-        <v>45</v>
-      </c>
-      <c r="K11">
-        <v>2.3326104999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12">
-        <v>2.4207418000000001</v>
-      </c>
-      <c r="D12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12">
-        <v>2.3040373000000001</v>
-      </c>
-      <c r="G12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12">
-        <v>2.2304568599999999</v>
-      </c>
-      <c r="J12" t="s">
-        <v>96</v>
-      </c>
-      <c r="K12">
-        <v>2.2688149000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13">
-        <v>2.3810056999999998</v>
-      </c>
-      <c r="D13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13">
-        <v>2.0957897000000001</v>
-      </c>
-      <c r="G13" t="s">
-        <v>40</v>
-      </c>
       <c r="H13">
-        <v>2.06940664</v>
-      </c>
-      <c r="J13" t="s">
-        <v>59</v>
-      </c>
-      <c r="K13">
         <v>2.2682017999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>40</v>
       </c>
       <c r="B14">
-        <v>1.9636453</v>
+        <v>2.0502117000000002</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E14">
-        <v>2.0502117000000002</v>
+        <v>2.0160716000000001</v>
       </c>
       <c r="G14" t="s">
         <v>38</v>
       </c>
       <c r="H14">
-        <v>2.0160716000000001</v>
-      </c>
-      <c r="J14" t="s">
+        <v>1.9973491000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>38</v>
       </c>
-      <c r="K14">
-        <v>1.9973491000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>96</v>
-      </c>
       <c r="B15">
-        <v>1.9118154000000001</v>
+        <v>1.9375294000000001</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E15">
-        <v>1.9375294000000001</v>
+        <v>1.8343802</v>
       </c>
       <c r="G15" t="s">
         <v>39</v>
       </c>
       <c r="H15">
-        <v>1.8343802</v>
-      </c>
-      <c r="J15" t="s">
-        <v>39</v>
-      </c>
-      <c r="K15">
         <v>1.9295618000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="B16">
-        <v>1.8875119</v>
+        <v>1.9183939000000001</v>
       </c>
       <c r="D16" t="s">
         <v>96</v>
       </c>
       <c r="E16">
-        <v>1.9183939000000001</v>
+        <v>1.8129000500000001</v>
       </c>
       <c r="G16" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="H16">
-        <v>1.8129000500000001</v>
-      </c>
-      <c r="J16" t="s">
-        <v>49</v>
-      </c>
-      <c r="K16">
         <v>1.8280158</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>94</v>
       </c>
       <c r="B17">
-        <v>1.8784029</v>
+        <v>1.8894527999999999</v>
       </c>
       <c r="D17" t="s">
         <v>94</v>
       </c>
       <c r="E17">
-        <v>1.8894527999999999</v>
+        <v>1.6610818700000001</v>
       </c>
       <c r="G17" t="s">
         <v>94</v>
       </c>
       <c r="H17">
-        <v>1.6610818700000001</v>
-      </c>
-      <c r="J17" t="s">
-        <v>94</v>
-      </c>
-      <c r="K17">
         <v>1.7752926</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B18">
-        <v>1.6424619</v>
+        <v>1.6556044999999999</v>
       </c>
       <c r="D18" t="s">
         <v>49</v>
       </c>
       <c r="E18">
-        <v>1.6556044999999999</v>
+        <v>1.59850987</v>
       </c>
       <c r="G18" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H18">
-        <v>1.59850987</v>
-      </c>
-      <c r="J18" t="s">
-        <v>40</v>
-      </c>
-      <c r="K18">
         <v>1.6664104</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B19">
-        <v>1.5339433</v>
+        <v>1.5827663000000001</v>
       </c>
       <c r="D19" t="s">
         <v>48</v>
       </c>
       <c r="E19">
-        <v>1.5827663000000001</v>
+        <v>1.54024249</v>
       </c>
       <c r="G19" t="s">
         <v>48</v>
       </c>
       <c r="H19">
-        <v>1.54024249</v>
-      </c>
-      <c r="J19" t="s">
-        <v>48</v>
-      </c>
-      <c r="K19">
         <v>1.5580489</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>46</v>
       </c>
       <c r="B20">
-        <v>1.4604925</v>
+        <v>1.4870106000000001</v>
       </c>
       <c r="D20" t="s">
         <v>46</v>
       </c>
       <c r="E20">
-        <v>1.4870106000000001</v>
+        <v>1.4427096699999999</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H20">
-        <v>1.4427096699999999</v>
-      </c>
-      <c r="J20" t="s">
-        <v>43</v>
-      </c>
-      <c r="K20">
         <v>1.3132751</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="B21">
-        <v>1.2616339000000001</v>
+        <v>1.4580915999999999</v>
       </c>
       <c r="D21" t="s">
         <v>95</v>
       </c>
       <c r="E21">
-        <v>1.4580915999999999</v>
+        <v>1.4143728099999999</v>
       </c>
       <c r="G21" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21">
+        <v>1.2643034</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <v>1.2548505000000001</v>
+      </c>
+      <c r="D22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22">
+        <v>1.2019972699999999</v>
+      </c>
+      <c r="G22" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22">
+        <v>1.2604493999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23">
+        <v>1.1582741999999999</v>
+      </c>
+      <c r="D23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23">
+        <v>1.1339085099999999</v>
+      </c>
+      <c r="G23" t="s">
+        <v>66</v>
+      </c>
+      <c r="H23">
+        <v>1.2148429999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24">
+        <v>1.1168973</v>
+      </c>
+      <c r="D24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24">
+        <v>1.12855069</v>
+      </c>
+      <c r="G24" t="s">
+        <v>47</v>
+      </c>
+      <c r="H24">
+        <v>1.2127403999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25">
+        <v>1.1143154</v>
+      </c>
+      <c r="D25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25">
+        <v>1.1209009400000001</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25">
+        <v>1.1957575</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26">
+        <v>1.0762607</v>
+      </c>
+      <c r="D26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26">
+        <v>1.11032693</v>
+      </c>
+      <c r="G26" t="s">
         <v>95</v>
       </c>
-      <c r="H21">
-        <v>1.4143728099999999</v>
-      </c>
-      <c r="J21" t="s">
+      <c r="H26">
+        <v>1.1263894000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27">
+        <v>1.0708746</v>
+      </c>
+      <c r="D27" t="s">
         <v>33</v>
       </c>
-      <c r="K21">
-        <v>1.2643034</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>95</v>
-      </c>
-      <c r="B22">
-        <v>1.2372479999999999</v>
-      </c>
-      <c r="D22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22">
-        <v>1.2548505000000001</v>
-      </c>
-      <c r="G22" t="s">
-        <v>47</v>
-      </c>
-      <c r="H22">
-        <v>1.2019972699999999</v>
-      </c>
-      <c r="J22" t="s">
-        <v>42</v>
-      </c>
-      <c r="K22">
-        <v>1.2604493999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23">
-        <v>1.2156482</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="E27">
+        <v>1.07101844</v>
+      </c>
+      <c r="G27" t="s">
+        <v>69</v>
+      </c>
+      <c r="H27">
+        <v>1.049363</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28">
+        <v>1.0664195000000001</v>
+      </c>
+      <c r="D28" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28">
+        <v>1.05511782</v>
+      </c>
+      <c r="G28" t="s">
         <v>67</v>
       </c>
-      <c r="E23">
-        <v>1.1582741999999999</v>
-      </c>
-      <c r="G23" t="s">
-        <v>42</v>
-      </c>
-      <c r="H23">
-        <v>1.1339085099999999</v>
-      </c>
-      <c r="J23" t="s">
+      <c r="H28">
+        <v>1.0368493000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29">
+        <v>1.0600259000000001</v>
+      </c>
+      <c r="D29" t="s">
         <v>66</v>
       </c>
-      <c r="K23">
-        <v>1.2148429999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24">
-        <v>1.1441634999999999</v>
-      </c>
-      <c r="D24" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24">
-        <v>1.1168973</v>
-      </c>
-      <c r="G24" t="s">
-        <v>43</v>
-      </c>
-      <c r="H24">
-        <v>1.12855069</v>
-      </c>
-      <c r="J24" t="s">
-        <v>47</v>
-      </c>
-      <c r="K24">
-        <v>1.2127403999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25">
-        <v>1.1099009</v>
-      </c>
-      <c r="D25" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25">
-        <v>1.1143154</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="E29">
+        <v>0.96470889999999998</v>
+      </c>
+      <c r="G29" t="s">
+        <v>53</v>
+      </c>
+      <c r="H29">
+        <v>1.0178677</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30">
+        <v>1.0495061999999999</v>
+      </c>
+      <c r="D30" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30">
+        <v>0.95223069999999999</v>
+      </c>
+      <c r="G30" t="s">
         <v>31</v>
       </c>
-      <c r="H25">
-        <v>1.1209009400000001</v>
-      </c>
-      <c r="J25" t="s">
-        <v>46</v>
-      </c>
-      <c r="K25">
-        <v>1.1957575</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26">
-        <v>1.0611410999999999</v>
-      </c>
-      <c r="D26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26">
-        <v>1.0762607</v>
-      </c>
-      <c r="G26" t="s">
-        <v>67</v>
-      </c>
-      <c r="H26">
-        <v>1.11032693</v>
-      </c>
-      <c r="J26" t="s">
-        <v>95</v>
-      </c>
-      <c r="K26">
-        <v>1.1263894000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27">
-        <v>1.0385143999999999</v>
-      </c>
-      <c r="D27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27">
-        <v>1.0708746</v>
-      </c>
-      <c r="G27" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27">
-        <v>1.07101844</v>
-      </c>
-      <c r="J27" t="s">
-        <v>69</v>
-      </c>
-      <c r="K27">
-        <v>1.049363</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="H30">
+        <v>1.0002024</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>65</v>
       </c>
-      <c r="B28">
-        <v>1.0100935</v>
-      </c>
-      <c r="D28" t="s">
-        <v>66</v>
-      </c>
-      <c r="E28">
-        <v>1.0664195000000001</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="B31">
+        <v>1.0487352000000001</v>
+      </c>
+      <c r="D31" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31">
+        <v>0.94240009999999996</v>
+      </c>
+      <c r="G31" t="s">
         <v>65</v>
       </c>
-      <c r="H28">
-        <v>1.05511782</v>
-      </c>
-      <c r="J28" t="s">
-        <v>67</v>
-      </c>
-      <c r="K28">
-        <v>1.0368493000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>66</v>
-      </c>
-      <c r="B29">
-        <v>0.98456999999999995</v>
-      </c>
-      <c r="D29" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29">
-        <v>1.0600259000000001</v>
-      </c>
-      <c r="G29" t="s">
-        <v>66</v>
-      </c>
-      <c r="H29">
-        <v>0.96470889999999998</v>
-      </c>
-      <c r="J29" t="s">
-        <v>53</v>
-      </c>
-      <c r="K29">
-        <v>1.0178677</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>69</v>
-      </c>
-      <c r="B30">
-        <v>0.9841702</v>
-      </c>
-      <c r="D30" t="s">
-        <v>52</v>
-      </c>
-      <c r="E30">
-        <v>1.0495061999999999</v>
-      </c>
-      <c r="G30" t="s">
-        <v>61</v>
-      </c>
-      <c r="H30">
-        <v>0.95223069999999999</v>
-      </c>
-      <c r="J30" t="s">
-        <v>31</v>
-      </c>
-      <c r="K30">
-        <v>1.0002024</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31">
-        <v>0.96333630000000003</v>
-      </c>
-      <c r="D31" t="s">
-        <v>65</v>
-      </c>
-      <c r="E31">
-        <v>1.0487352000000001</v>
-      </c>
-      <c r="G31" t="s">
-        <v>53</v>
-      </c>
       <c r="H31">
-        <v>0.94240009999999996</v>
-      </c>
-      <c r="J31" t="s">
-        <v>65</v>
-      </c>
-      <c r="K31">
         <v>0.95167579999999996</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>61</v>
       </c>
       <c r="B32">
-        <v>0.95759190000000005</v>
+        <v>1.0023932</v>
       </c>
       <c r="D32" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="E32">
-        <v>1.0023932</v>
+        <v>0.88831905</v>
       </c>
       <c r="G32" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="H32">
-        <v>0.88831905</v>
-      </c>
-      <c r="J32" t="s">
-        <v>52</v>
-      </c>
-      <c r="K32">
         <v>0.88785139999999996</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B33">
-        <v>0.95091130000000001</v>
+        <v>0.97967280000000001</v>
       </c>
       <c r="D33" t="s">
         <v>69</v>
       </c>
       <c r="E33">
-        <v>0.97967280000000001</v>
+        <v>0.86493549000000003</v>
       </c>
       <c r="G33" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="H33">
-        <v>0.86493549000000003</v>
-      </c>
-      <c r="J33" t="s">
-        <v>27</v>
-      </c>
-      <c r="K33">
         <v>0.88473219999999997</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="B34">
-        <v>0.94457270000000004</v>
+        <v>0.9339925</v>
       </c>
       <c r="D34" t="s">
         <v>60</v>
       </c>
       <c r="E34">
-        <v>0.9339925</v>
+        <v>0.85335185999999996</v>
       </c>
       <c r="G34" t="s">
         <v>60</v>
       </c>
       <c r="H34">
-        <v>0.85335185999999996</v>
-      </c>
-      <c r="J34" t="s">
-        <v>60</v>
-      </c>
-      <c r="K34">
         <v>0.87772329999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35">
+        <v>0.87158500000000005</v>
+      </c>
+      <c r="D35" t="s">
         <v>52</v>
       </c>
-      <c r="B35">
-        <v>0.91773329999999997</v>
-      </c>
-      <c r="D35" t="s">
-        <v>53</v>
-      </c>
       <c r="E35">
-        <v>0.87158500000000005</v>
+        <v>0.84808963999999998</v>
       </c>
       <c r="G35" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="H35">
-        <v>0.84808963999999998</v>
-      </c>
-      <c r="J35" t="s">
-        <v>32</v>
-      </c>
-      <c r="K35">
         <v>0.8712742</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>32</v>
       </c>
       <c r="B36">
-        <v>0.89318070000000005</v>
+        <v>0.82358299999999995</v>
       </c>
       <c r="D36" t="s">
         <v>32</v>
       </c>
       <c r="E36">
-        <v>0.82358299999999995</v>
+        <v>0.83334216000000005</v>
       </c>
       <c r="G36" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="H36">
-        <v>0.83334216000000005</v>
-      </c>
-      <c r="J36" t="s">
-        <v>61</v>
-      </c>
-      <c r="K36">
         <v>0.82345500000000005</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37">
+        <v>0.72026029999999996</v>
+      </c>
+      <c r="D37" t="s">
         <v>51</v>
       </c>
-      <c r="B37">
-        <v>0.74079910000000004</v>
-      </c>
-      <c r="D37" t="s">
-        <v>50</v>
-      </c>
       <c r="E37">
-        <v>0.72026029999999996</v>
+        <v>0.63642721000000002</v>
       </c>
       <c r="G37" t="s">
         <v>51</v>
       </c>
       <c r="H37">
-        <v>0.63642721000000002</v>
-      </c>
-      <c r="J37" t="s">
+        <v>0.71898629999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>51</v>
       </c>
-      <c r="K37">
-        <v>0.71898629999999997</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="B38">
+        <v>0.6375132</v>
+      </c>
+      <c r="D38" t="s">
         <v>50</v>
       </c>
-      <c r="B38">
-        <v>0.62115609999999999</v>
-      </c>
-      <c r="D38" t="s">
-        <v>51</v>
-      </c>
       <c r="E38">
-        <v>0.6375132</v>
+        <v>0.53581087999999999</v>
       </c>
       <c r="G38" t="s">
         <v>50</v>
       </c>
       <c r="H38">
-        <v>0.53581087999999999</v>
-      </c>
-      <c r="J38" t="s">
-        <v>50</v>
-      </c>
-      <c r="K38">
         <v>0.51076880000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>41</v>
       </c>
       <c r="B39">
-        <v>0.44756479999999998</v>
+        <v>0.4363978</v>
       </c>
       <c r="D39" t="s">
         <v>41</v>
       </c>
       <c r="E39">
-        <v>0.4363978</v>
+        <v>0.50876551000000003</v>
       </c>
       <c r="G39" t="s">
+        <v>54</v>
+      </c>
+      <c r="H39">
+        <v>0.473246</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40">
+        <v>0.36106929999999998</v>
+      </c>
+      <c r="D40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E40">
+        <v>0.39495532999999999</v>
+      </c>
+      <c r="G40" t="s">
         <v>41</v>
       </c>
-      <c r="H39">
-        <v>0.50876551000000003</v>
-      </c>
-      <c r="J39" t="s">
+      <c r="H40">
+        <v>0.38607560000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41">
+        <v>0.35329189999999999</v>
+      </c>
+      <c r="D41" t="s">
+        <v>55</v>
+      </c>
+      <c r="E41">
+        <v>0.29799737999999998</v>
+      </c>
+      <c r="G41" t="s">
+        <v>64</v>
+      </c>
+      <c r="H41">
+        <v>0.30311630000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>54</v>
       </c>
-      <c r="K39">
-        <v>0.473246</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>54</v>
-      </c>
-      <c r="B40">
-        <v>0.37209209999999998</v>
-      </c>
-      <c r="D40" t="s">
-        <v>58</v>
-      </c>
-      <c r="E40">
-        <v>0.36106929999999998</v>
-      </c>
-      <c r="G40" t="s">
-        <v>54</v>
-      </c>
-      <c r="H40">
-        <v>0.39495532999999999</v>
-      </c>
-      <c r="J40" t="s">
-        <v>41</v>
-      </c>
-      <c r="K40">
-        <v>0.38607560000000002</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>58</v>
-      </c>
-      <c r="B41">
-        <v>0.34597749999999999</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="B42">
+        <v>0.33929320000000002</v>
+      </c>
+      <c r="D42" t="s">
         <v>62</v>
       </c>
-      <c r="E41">
-        <v>0.35329189999999999</v>
-      </c>
-      <c r="G41" t="s">
-        <v>55</v>
-      </c>
-      <c r="H41">
-        <v>0.29799737999999998</v>
-      </c>
-      <c r="J41" t="s">
-        <v>64</v>
-      </c>
-      <c r="K41">
-        <v>0.30311630000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>62</v>
-      </c>
-      <c r="B42">
-        <v>0.34523759999999998</v>
-      </c>
-      <c r="D42" t="s">
-        <v>54</v>
-      </c>
       <c r="E42">
-        <v>0.33929320000000002</v>
+        <v>0.29776291999999999</v>
       </c>
       <c r="G42" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="H42">
-        <v>0.29776291999999999</v>
-      </c>
-      <c r="J42" t="s">
-        <v>68</v>
-      </c>
-      <c r="K42">
         <v>0.28532619999999997</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>55</v>
       </c>
       <c r="B43">
-        <v>0.32524140000000001</v>
+        <v>0.33167140000000001</v>
       </c>
       <c r="D43" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E43">
-        <v>0.33167140000000001</v>
+        <v>0.27818303</v>
       </c>
       <c r="G43" t="s">
         <v>58</v>
       </c>
       <c r="H43">
-        <v>0.27818303</v>
-      </c>
-      <c r="J43" t="s">
-        <v>58</v>
-      </c>
-      <c r="K43">
         <v>0.26456540000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44">
+        <v>0.26640540000000001</v>
+      </c>
+      <c r="D44" t="s">
         <v>64</v>
       </c>
-      <c r="B44">
-        <v>0.28464850000000003</v>
-      </c>
-      <c r="D44" t="s">
-        <v>36</v>
-      </c>
       <c r="E44">
-        <v>0.26640540000000001</v>
+        <v>0.24764807</v>
       </c>
       <c r="G44" t="s">
+        <v>55</v>
+      </c>
+      <c r="H44">
+        <v>0.25046649999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>64</v>
       </c>
-      <c r="H44">
-        <v>0.24764807</v>
-      </c>
-      <c r="J44" t="s">
-        <v>55</v>
-      </c>
-      <c r="K44">
-        <v>0.25046649999999998</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>36</v>
-      </c>
       <c r="B45">
-        <v>0.24383560000000001</v>
+        <v>0.2453757</v>
       </c>
       <c r="D45" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E45">
-        <v>0.2453757</v>
+        <v>0.22070387999999999</v>
       </c>
       <c r="G45" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H45">
-        <v>0.22070387999999999</v>
-      </c>
-      <c r="J45" t="s">
-        <v>62</v>
-      </c>
-      <c r="K45">
         <v>0.24668979999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>68</v>
       </c>
       <c r="B46">
-        <v>0.23252139999999999</v>
+        <v>0.22746810000000001</v>
       </c>
       <c r="D46" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E46">
-        <v>0.22746810000000001</v>
+        <v>0.21842116</v>
       </c>
       <c r="G46" t="s">
         <v>36</v>
       </c>
       <c r="H46">
-        <v>0.21842116</v>
-      </c>
-      <c r="J46" t="s">
-        <v>36</v>
-      </c>
-      <c r="K46">
         <v>0.23006750000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>56</v>
       </c>
       <c r="B47">
-        <v>0.15635080000000001</v>
+        <v>0.1165385</v>
       </c>
       <c r="D47" t="s">
         <v>56</v>
       </c>
       <c r="E47">
-        <v>0.1165385</v>
+        <v>0.11069023</v>
       </c>
       <c r="G47" t="s">
         <v>56</v>
       </c>
       <c r="H47">
-        <v>0.11069023</v>
-      </c>
-      <c r="J47" t="s">
-        <v>56</v>
-      </c>
-      <c r="K47">
         <v>0.2031018</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>63</v>
       </c>
       <c r="B48">
-        <v>0.1106221</v>
+        <v>0.10771120000000001</v>
       </c>
       <c r="D48" t="s">
         <v>63</v>
       </c>
       <c r="E48">
-        <v>0.10771120000000001</v>
+        <v>6.4248630000000001E-2</v>
       </c>
       <c r="G48" t="s">
         <v>63</v>
       </c>
       <c r="H48">
-        <v>6.4248630000000001E-2</v>
-      </c>
-      <c r="J48" t="s">
-        <v>63</v>
-      </c>
-      <c r="K48">
         <v>0.1465516</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>44</v>
       </c>
@@ -5412,14 +5152,8 @@
       <c r="H49">
         <v>0</v>
       </c>
-      <c r="J49" t="s">
-        <v>44</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>57</v>
       </c>
@@ -5438,14 +5172,8 @@
       <c r="H50">
         <v>0</v>
       </c>
-      <c r="J50" t="s">
-        <v>57</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>70</v>
       </c>
@@ -5464,16 +5192,10 @@
       <c r="H51">
         <v>0</v>
       </c>
-      <c r="J51" t="s">
-        <v>70</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
-  <sortState ref="J2:K51">
-    <sortCondition descending="1" ref="K2:K51"/>
+  <sortState ref="G2:H51">
+    <sortCondition descending="1" ref="H2:H51"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/model_performance.xlsx
+++ b/model_performance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="SBP+DBP廢" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="Case" sheetId="7" r:id="rId5"/>
     <sheet name="Case_變數重要性" sheetId="8" r:id="rId6"/>
     <sheet name="Visit_變數重要性" sheetId="9" r:id="rId7"/>
+    <sheet name="工作表1" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -2198,8 +2199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2461,7 +2462,7 @@
   <dimension ref="A1:L65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -4159,8 +4160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -5201,4 +5202,39 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <f>EXP(-4.7993+0.0318)</f>
+        <v>8.5016076336392795E-3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <f>EXP(-4.7993)</f>
+        <v>8.2355098887129229E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <f>A1/A2</f>
+        <v>1.0323110224530303</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/model_performance.xlsx
+++ b/model_performance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="SBP+DBP廢" sheetId="1" r:id="rId1"/>
@@ -432,7 +432,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -482,6 +482,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -498,6 +505,2402 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Case_變數重要性!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MeanDecreaseGini</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Case_變數重要性!$E$2:$E$65</c:f>
+              <c:strCache>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>BMI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>HR</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>anti_HP</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Age</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>office_peri_L_dia</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Waist</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>office_peri_L_sys</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sbp</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>dbp</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Walk_TM_week</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Ciga</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Coffee</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Tea</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Sleep_T</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Exercise</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Eco_adult</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Drug_conut</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Vit_comp</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>T_pain</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Nap</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Eco_child</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Activity_week</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Sleep_D</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Panic</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>DM</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Dad_Kinship</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>HOS</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Stay_up</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>HL</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Gender</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>NSAID</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Alcoh</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Mom_Kinship</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Vit_B</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Anger</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Hep</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>DM_Med</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>aspirin_freq_3times</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>CV</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>M_activity_week</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>HP</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Blue</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Palpi</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>NSAID_freq_3times</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Anmia</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Alle_Rhi</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Abase</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>aspirin_freq</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>WL_over_10_PCT</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>aspirin</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>F_swo</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>time</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>Cath</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>BNut</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>Vit_E</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>Vit_C</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>Asthma</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>NSAID_freq</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>insulin</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>Vege</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>Vit_A</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>ECOG</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>Relat_in</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>Cancer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Case_變數重要性!$F$2:$F$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>5.6224940999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1788800999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8544811699999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.8349799100000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.7376847399999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.4805800400000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.43727056</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.2493188999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5758098199999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.87359812</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.3145189400000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.16637842</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.0861527799999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.9832809199999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.87509656</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.83994576</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.82441078</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.58656989</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.5397976600000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.5161945400000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.510119</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.5048724099999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.44187573</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.4387490700000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.4155605899999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.37737402</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.34849076</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.2057357799999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.1941140699999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.1931285599999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.18782261</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.16168797</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.0982917999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.00963088</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.96664828999999997</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.95285987999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.90042586000000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.86493951999999996</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.80237466000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.75100913999999996</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.73945375999999996</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.73825218000000004</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.68878658999999998</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.63964529000000003</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.63075203999999996</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.56328288000000004</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.54302611999999995</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47445320000000002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.40796038000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.39664393999999997</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.37199586000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.34137918</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.32344462000000002</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.25936492</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.25654859000000002</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.24442111</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.1808476</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.16865488000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.13295608</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.10001751</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>8.755193E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>8.4683330000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5.5217099999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.0464030000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A33B-41B5-AD4E-F754CE407168}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="590447664"/>
+        <c:axId val="590460560"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="590447664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="590460560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="590460560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="590447664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Visit_變數重要性!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MeanDecreaseGini</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Visit_變數重要性!$D$2:$D$51</c:f>
+              <c:strCache>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>HR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sbp</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>dbp</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>visit</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Waist</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Eco_child</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Drug_conut</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Age</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>BMI</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>T_pain</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sleep_T</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Alcoh</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Eco_adult</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Ciga</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>H_activity_D</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Free_walk_Day</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Walk_TM_week</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Exercise</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Stay_up</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>H_activity_week</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Nap</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Tea</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Coffee</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>DM</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>CV</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>HOS</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>HP</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>HL</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Cath</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Panic</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Gender</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Hep</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Palpi</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Sleep_D</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>time</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>M_activity_week</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Activity_week</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>BNut</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>Anger</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Blue</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>F_swo</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Anmia</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Alle_Rhi</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Cancer</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Relat_in</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Abase</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Asthma</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>Vege</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>WL_over_10_PCT</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>ECOG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Visit_變數重要性!$E$2:$E$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>12.193729919999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.842029500000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.4229476700000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.35538165</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.1503560200000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9021878599999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.8734346799999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.8099180300000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.4862594800000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.7018314299999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.2304568599999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.06940664</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.0160716000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.8343802</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.8129000500000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.6610818700000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.59850987</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.54024249</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.4427096699999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.4143728099999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.2019972699999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.1339085099999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.12855069</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.1209009400000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.11032693</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.07101844</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.05511782</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.96470889999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.95223069999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.94240009999999996</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.88831905</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.86493549000000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.85335185999999996</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.84808963999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.83334216000000005</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.63642721000000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.53581087999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.50876551000000003</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.39495532999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.29799737999999998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.29776291999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.27818303</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.24764807</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.22070387999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.21842116</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.11069023</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6.4248630000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-75A9-4122-BF2B-D5C4147EA917}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="590458480"/>
+        <c:axId val="590454320"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="590458480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="590454320"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="590454320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="590458480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>530225</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>53975</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -805,21 +3208,21 @@
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19" t="s">
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="18" t="s">
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
     </row>
     <row r="3" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
@@ -854,7 +3257,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="22" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -874,7 +3277,7 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="19"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="4"/>
       <c r="C5" s="3" t="s">
         <v>11</v>
@@ -890,7 +3293,7 @@
       <c r="L5" s="7"/>
     </row>
     <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="19"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="4"/>
       <c r="C6" s="3" t="s">
         <v>12</v>
@@ -906,7 +3309,7 @@
       <c r="L6" s="7"/>
     </row>
     <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="19"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="4"/>
       <c r="C7" s="3" t="s">
         <v>13</v>
@@ -922,7 +3325,7 @@
       <c r="L7" s="7"/>
     </row>
     <row r="8" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="19"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
@@ -952,7 +3355,7 @@
       <c r="L8" s="7"/>
     </row>
     <row r="9" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="19"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="4"/>
       <c r="C9" s="3" t="s">
         <v>11</v>
@@ -980,7 +3383,7 @@
       <c r="L9" s="7"/>
     </row>
     <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="19"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="4"/>
       <c r="C10" s="3" t="s">
         <v>12</v>
@@ -1008,7 +3411,7 @@
       <c r="L10" s="7"/>
     </row>
     <row r="11" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="19"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="4"/>
       <c r="C11" s="3" t="s">
         <v>13</v>
@@ -1036,7 +3439,7 @@
       <c r="L11" s="7"/>
     </row>
     <row r="12" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="22" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -1074,7 +3477,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="19"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="4"/>
       <c r="C13" s="3" t="s">
         <v>11</v>
@@ -1108,7 +3511,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="19"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="4"/>
       <c r="C14" s="3" t="s">
         <v>12</v>
@@ -1142,7 +3545,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="19"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="4"/>
       <c r="C15" s="3" t="s">
         <v>13</v>
@@ -1176,7 +3579,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="19"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
@@ -1212,7 +3615,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="19"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="4"/>
       <c r="C17" s="3" t="s">
         <v>11</v>
@@ -1246,7 +3649,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="19"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="4"/>
       <c r="C18" s="3" t="s">
         <v>12</v>
@@ -1280,7 +3683,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="19"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="4"/>
       <c r="C19" s="3" t="s">
         <v>13</v>
@@ -1370,21 +3773,21 @@
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19" t="s">
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="18" t="s">
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
     </row>
     <row r="3" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
@@ -1419,7 +3822,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="22" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -1439,7 +3842,7 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="19"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="4"/>
       <c r="C5" s="5" t="s">
         <v>11</v>
@@ -1455,7 +3858,7 @@
       <c r="L5" s="7"/>
     </row>
     <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="19"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5" t="s">
         <v>12</v>
@@ -1471,7 +3874,7 @@
       <c r="L6" s="7"/>
     </row>
     <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="19"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="4"/>
       <c r="C7" s="5" t="s">
         <v>13</v>
@@ -1487,7 +3890,7 @@
       <c r="L7" s="7"/>
     </row>
     <row r="8" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="19"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
@@ -1505,7 +3908,7 @@
       <c r="L8" s="7"/>
     </row>
     <row r="9" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="19"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="4"/>
       <c r="C9" s="5" t="s">
         <v>11</v>
@@ -1521,7 +3924,7 @@
       <c r="L9" s="7"/>
     </row>
     <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="19"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5" t="s">
         <v>12</v>
@@ -1537,7 +3940,7 @@
       <c r="L10" s="7"/>
     </row>
     <row r="11" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="19"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="4"/>
       <c r="C11" s="5" t="s">
         <v>13</v>
@@ -1553,7 +3956,7 @@
       <c r="L11" s="7"/>
     </row>
     <row r="12" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="22" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1573,7 +3976,7 @@
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="19"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5" t="s">
         <v>11</v>
@@ -1589,7 +3992,7 @@
       <c r="L13" s="7"/>
     </row>
     <row r="14" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="19"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5" t="s">
         <v>12</v>
@@ -1605,7 +4008,7 @@
       <c r="L14" s="7"/>
     </row>
     <row r="15" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="19"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="4"/>
       <c r="C15" s="5" t="s">
         <v>13</v>
@@ -1621,7 +4024,7 @@
       <c r="L15" s="7"/>
     </row>
     <row r="16" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="19"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="5" t="s">
         <v>9</v>
       </c>
@@ -1657,7 +4060,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="19"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="4"/>
       <c r="C17" s="5" t="s">
         <v>11</v>
@@ -1673,7 +4076,7 @@
       <c r="L17" s="7"/>
     </row>
     <row r="18" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="19"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5" t="s">
         <v>12</v>
@@ -1707,7 +4110,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="19"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="4"/>
       <c r="C19" s="5" t="s">
         <v>13</v>
@@ -1812,21 +4215,21 @@
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19" t="s">
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="18" t="s">
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
     </row>
     <row r="3" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="13"/>
@@ -1861,7 +4264,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="22" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="12" t="s">
@@ -1881,7 +4284,7 @@
       <c r="L4" s="14"/>
     </row>
     <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="19"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="4"/>
       <c r="C5" s="12" t="s">
         <v>11</v>
@@ -1897,7 +4300,7 @@
       <c r="L5" s="14"/>
     </row>
     <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="19"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="4"/>
       <c r="C6" s="12" t="s">
         <v>12</v>
@@ -1913,7 +4316,7 @@
       <c r="L6" s="14"/>
     </row>
     <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="19"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="4"/>
       <c r="C7" s="12" t="s">
         <v>13</v>
@@ -1929,7 +4332,7 @@
       <c r="L7" s="14"/>
     </row>
     <row r="8" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="19"/>
+      <c r="A8" s="22"/>
       <c r="C8" s="11" t="s">
         <v>17</v>
       </c>
@@ -1944,7 +4347,7 @@
       <c r="L8" s="14"/>
     </row>
     <row r="9" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="19"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="12" t="s">
         <v>9</v>
       </c>
@@ -1962,7 +4365,7 @@
       <c r="L9" s="14"/>
     </row>
     <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="19"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="4"/>
       <c r="C10" s="12" t="s">
         <v>11</v>
@@ -1978,7 +4381,7 @@
       <c r="L10" s="14"/>
     </row>
     <row r="11" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="19"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="4"/>
       <c r="C11" s="12" t="s">
         <v>12</v>
@@ -1994,7 +4397,7 @@
       <c r="L11" s="14"/>
     </row>
     <row r="12" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="19"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="4"/>
       <c r="C12" s="12" t="s">
         <v>13</v>
@@ -2010,7 +4413,7 @@
       <c r="L12" s="14"/>
     </row>
     <row r="13" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="19"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="4"/>
       <c r="C13" s="12" t="s">
         <v>18</v>
@@ -2026,7 +4429,7 @@
       <c r="L13" s="14"/>
     </row>
     <row r="14" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="22" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="12" t="s">
@@ -2046,7 +4449,7 @@
       <c r="L14" s="15"/>
     </row>
     <row r="15" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="19"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="4"/>
       <c r="C15" s="12" t="s">
         <v>11</v>
@@ -2062,7 +4465,7 @@
       <c r="L15" s="15"/>
     </row>
     <row r="16" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="19"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="4"/>
       <c r="C16" s="12" t="s">
         <v>12</v>
@@ -2078,7 +4481,7 @@
       <c r="L16" s="15"/>
     </row>
     <row r="17" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="19"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="4"/>
       <c r="C17" s="12" t="s">
         <v>13</v>
@@ -2094,7 +4497,7 @@
       <c r="L17" s="15"/>
     </row>
     <row r="18" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="19"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="4"/>
       <c r="C18" s="12" t="s">
         <v>18</v>
@@ -2110,7 +4513,7 @@
       <c r="L18" s="15"/>
     </row>
     <row r="19" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="19"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="12" t="s">
         <v>9</v>
       </c>
@@ -2128,7 +4531,7 @@
       <c r="L19" s="15"/>
     </row>
     <row r="20" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="19"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="4"/>
       <c r="C20" s="12" t="s">
         <v>11</v>
@@ -2144,7 +4547,7 @@
       <c r="L20" s="15"/>
     </row>
     <row r="21" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="19"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="4"/>
       <c r="C21" s="12" t="s">
         <v>12</v>
@@ -2160,7 +4563,7 @@
       <c r="L21" s="15"/>
     </row>
     <row r="22" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="19"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="4"/>
       <c r="C22" s="12" t="s">
         <v>13</v>
@@ -2176,7 +4579,7 @@
       <c r="L22" s="15"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A23" s="19"/>
+      <c r="A23" s="22"/>
       <c r="C23" s="11" t="s">
         <v>19</v>
       </c>
@@ -2199,22 +4602,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="11" customWidth="1"/>
+    <col min="1" max="1" width="12.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="18" customWidth="1"/>
     <col min="4" max="4" width="11.8984375" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.8984375" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.8984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.796875" style="11"/>
+    <col min="10" max="10" width="11.8984375" style="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.19921875" style="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.796875" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
@@ -2223,77 +4626,77 @@
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="12">
+      <c r="E1" s="19">
         <v>123</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
     </row>
     <row r="2" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19" t="s">
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="18" t="s">
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
     </row>
     <row r="3" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="19" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="19" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="9"/>
@@ -2307,9 +4710,9 @@
       <c r="L4" s="14"/>
     </row>
     <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="19"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="19" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="9"/>
@@ -2323,9 +4726,9 @@
       <c r="L5" s="14"/>
     </row>
     <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="19"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="19" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="9"/>
@@ -2339,9 +4742,9 @@
       <c r="L6" s="14"/>
     </row>
     <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="19"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="19" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="9"/>
@@ -2355,9 +4758,9 @@
       <c r="L7" s="14"/>
     </row>
     <row r="8" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="19"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="9"/>
@@ -2371,13 +4774,13 @@
       <c r="L8" s="14"/>
     </row>
     <row r="9" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="19" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="9"/>
@@ -2391,9 +4794,9 @@
       <c r="L9" s="15"/>
     </row>
     <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="19"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="19" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="9"/>
@@ -2407,9 +4810,9 @@
       <c r="L10" s="15"/>
     </row>
     <row r="11" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="19"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="19" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="9"/>
@@ -2423,9 +4826,9 @@
       <c r="L11" s="15"/>
     </row>
     <row r="12" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="19"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="19" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="9"/>
@@ -2439,9 +4842,27 @@
       <c r="L12" s="15"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="19"/>
-      <c r="C13" s="11" t="s">
+      <c r="A13" s="22"/>
+      <c r="C13" s="18" t="s">
         <v>19</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0.627</v>
       </c>
     </row>
   </sheetData>
@@ -2462,7 +4883,7 @@
   <dimension ref="A1:L65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -4153,6 +6574,7 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4160,8 +6582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -4381,7 +6803,7 @@
       <c r="B11">
         <v>2.5319370000000001</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="23" t="s">
         <v>59</v>
       </c>
       <c r="E11">
@@ -5201,6 +7623,7 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/model_performance.xlsx
+++ b/model_performance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="SBP+DBP廢" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Case" sheetId="7" r:id="rId5"/>
     <sheet name="Case_變數重要性" sheetId="8" r:id="rId6"/>
     <sheet name="Visit_變數重要性" sheetId="9" r:id="rId7"/>
-    <sheet name="工作表1" sheetId="10" r:id="rId8"/>
+    <sheet name="mtry" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="122">
   <si>
     <t>seed</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -357,6 +357,73 @@
   <si>
     <t>mtry = 8</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">mtry  Accuracy   Kappa      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1    0.7633321  0.004949729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2    0.8659672  0.535935394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   3    0.8858566  0.618430961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   4    0.8898634  0.635611538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   5    0.8902170  0.637820417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   6    0.8914459  0.644516898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   7    0.8926316  0.649297571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   8    0.8902554  0.641462073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   9    0.8922251  0.648279813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  10    0.8922347  0.650288885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  11    0.8934010  0.656449317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  12    0.8918523  0.650280596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  13    0.8914362  0.648824919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  14    0.8910490  0.648358785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  15    0.8942477  0.659991613</t>
+  </si>
+  <si>
+    <t>Accuracy was used to select</t>
+  </si>
+  <si>
+    <t>CCTr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> the optimal model using the</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> largest value.</t>
+  </si>
+  <si>
+    <t>The final value used for the</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> model was mtry = 15.</t>
   </si>
 </sst>
 </file>
@@ -482,13 +549,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -522,7 +589,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1184,7 +1250,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3208,21 +3273,21 @@
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22" t="s">
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="21" t="s">
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
     </row>
     <row r="3" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
@@ -3257,7 +3322,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="23" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -3277,7 +3342,7 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="22"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="4"/>
       <c r="C5" s="3" t="s">
         <v>11</v>
@@ -3293,7 +3358,7 @@
       <c r="L5" s="7"/>
     </row>
     <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="22"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="4"/>
       <c r="C6" s="3" t="s">
         <v>12</v>
@@ -3309,7 +3374,7 @@
       <c r="L6" s="7"/>
     </row>
     <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="22"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="4"/>
       <c r="C7" s="3" t="s">
         <v>13</v>
@@ -3325,7 +3390,7 @@
       <c r="L7" s="7"/>
     </row>
     <row r="8" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="22"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
@@ -3355,7 +3420,7 @@
       <c r="L8" s="7"/>
     </row>
     <row r="9" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="22"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="4"/>
       <c r="C9" s="3" t="s">
         <v>11</v>
@@ -3383,7 +3448,7 @@
       <c r="L9" s="7"/>
     </row>
     <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="22"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="4"/>
       <c r="C10" s="3" t="s">
         <v>12</v>
@@ -3411,7 +3476,7 @@
       <c r="L10" s="7"/>
     </row>
     <row r="11" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="22"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="4"/>
       <c r="C11" s="3" t="s">
         <v>13</v>
@@ -3439,7 +3504,7 @@
       <c r="L11" s="7"/>
     </row>
     <row r="12" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="23" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -3477,7 +3542,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="22"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="4"/>
       <c r="C13" s="3" t="s">
         <v>11</v>
@@ -3511,7 +3576,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="22"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="4"/>
       <c r="C14" s="3" t="s">
         <v>12</v>
@@ -3545,7 +3610,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="22"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="4"/>
       <c r="C15" s="3" t="s">
         <v>13</v>
@@ -3579,7 +3644,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="22"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
@@ -3615,7 +3680,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="22"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="4"/>
       <c r="C17" s="3" t="s">
         <v>11</v>
@@ -3649,7 +3714,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="22"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="4"/>
       <c r="C18" s="3" t="s">
         <v>12</v>
@@ -3683,7 +3748,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="22"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="4"/>
       <c r="C19" s="3" t="s">
         <v>13</v>
@@ -3773,21 +3838,21 @@
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22" t="s">
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="21" t="s">
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
     </row>
     <row r="3" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
@@ -3822,7 +3887,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="23" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -3842,7 +3907,7 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="22"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="4"/>
       <c r="C5" s="5" t="s">
         <v>11</v>
@@ -3858,7 +3923,7 @@
       <c r="L5" s="7"/>
     </row>
     <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="22"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5" t="s">
         <v>12</v>
@@ -3874,7 +3939,7 @@
       <c r="L6" s="7"/>
     </row>
     <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="22"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="4"/>
       <c r="C7" s="5" t="s">
         <v>13</v>
@@ -3890,7 +3955,7 @@
       <c r="L7" s="7"/>
     </row>
     <row r="8" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="22"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
@@ -3908,7 +3973,7 @@
       <c r="L8" s="7"/>
     </row>
     <row r="9" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="22"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="4"/>
       <c r="C9" s="5" t="s">
         <v>11</v>
@@ -3924,7 +3989,7 @@
       <c r="L9" s="7"/>
     </row>
     <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="22"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5" t="s">
         <v>12</v>
@@ -3940,7 +4005,7 @@
       <c r="L10" s="7"/>
     </row>
     <row r="11" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="22"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="4"/>
       <c r="C11" s="5" t="s">
         <v>13</v>
@@ -3956,7 +4021,7 @@
       <c r="L11" s="7"/>
     </row>
     <row r="12" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="23" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -3976,7 +4041,7 @@
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="22"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5" t="s">
         <v>11</v>
@@ -3992,7 +4057,7 @@
       <c r="L13" s="7"/>
     </row>
     <row r="14" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="22"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5" t="s">
         <v>12</v>
@@ -4008,7 +4073,7 @@
       <c r="L14" s="7"/>
     </row>
     <row r="15" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="22"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="4"/>
       <c r="C15" s="5" t="s">
         <v>13</v>
@@ -4024,7 +4089,7 @@
       <c r="L15" s="7"/>
     </row>
     <row r="16" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="22"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="5" t="s">
         <v>9</v>
       </c>
@@ -4060,7 +4125,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="22"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="4"/>
       <c r="C17" s="5" t="s">
         <v>11</v>
@@ -4076,7 +4141,7 @@
       <c r="L17" s="7"/>
     </row>
     <row r="18" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="22"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5" t="s">
         <v>12</v>
@@ -4110,7 +4175,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="22"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="4"/>
       <c r="C19" s="5" t="s">
         <v>13</v>
@@ -4215,21 +4280,21 @@
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22" t="s">
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="21" t="s">
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
     </row>
     <row r="3" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="13"/>
@@ -4264,7 +4329,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="23" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="12" t="s">
@@ -4284,7 +4349,7 @@
       <c r="L4" s="14"/>
     </row>
     <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="22"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="4"/>
       <c r="C5" s="12" t="s">
         <v>11</v>
@@ -4300,7 +4365,7 @@
       <c r="L5" s="14"/>
     </row>
     <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="22"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="4"/>
       <c r="C6" s="12" t="s">
         <v>12</v>
@@ -4316,7 +4381,7 @@
       <c r="L6" s="14"/>
     </row>
     <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="22"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="4"/>
       <c r="C7" s="12" t="s">
         <v>13</v>
@@ -4332,7 +4397,7 @@
       <c r="L7" s="14"/>
     </row>
     <row r="8" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="22"/>
+      <c r="A8" s="23"/>
       <c r="C8" s="11" t="s">
         <v>17</v>
       </c>
@@ -4347,7 +4412,7 @@
       <c r="L8" s="14"/>
     </row>
     <row r="9" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="22"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="12" t="s">
         <v>9</v>
       </c>
@@ -4365,7 +4430,7 @@
       <c r="L9" s="14"/>
     </row>
     <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="22"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="4"/>
       <c r="C10" s="12" t="s">
         <v>11</v>
@@ -4381,7 +4446,7 @@
       <c r="L10" s="14"/>
     </row>
     <row r="11" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="22"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="4"/>
       <c r="C11" s="12" t="s">
         <v>12</v>
@@ -4397,7 +4462,7 @@
       <c r="L11" s="14"/>
     </row>
     <row r="12" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="22"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="4"/>
       <c r="C12" s="12" t="s">
         <v>13</v>
@@ -4413,7 +4478,7 @@
       <c r="L12" s="14"/>
     </row>
     <row r="13" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="22"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="4"/>
       <c r="C13" s="12" t="s">
         <v>18</v>
@@ -4429,7 +4494,7 @@
       <c r="L13" s="14"/>
     </row>
     <row r="14" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="23" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="12" t="s">
@@ -4449,7 +4514,7 @@
       <c r="L14" s="15"/>
     </row>
     <row r="15" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="22"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="4"/>
       <c r="C15" s="12" t="s">
         <v>11</v>
@@ -4465,7 +4530,7 @@
       <c r="L15" s="15"/>
     </row>
     <row r="16" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="22"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="4"/>
       <c r="C16" s="12" t="s">
         <v>12</v>
@@ -4481,7 +4546,7 @@
       <c r="L16" s="15"/>
     </row>
     <row r="17" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="22"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="4"/>
       <c r="C17" s="12" t="s">
         <v>13</v>
@@ -4497,7 +4562,7 @@
       <c r="L17" s="15"/>
     </row>
     <row r="18" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="22"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="4"/>
       <c r="C18" s="12" t="s">
         <v>18</v>
@@ -4513,7 +4578,7 @@
       <c r="L18" s="15"/>
     </row>
     <row r="19" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="22"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="12" t="s">
         <v>9</v>
       </c>
@@ -4531,7 +4596,7 @@
       <c r="L19" s="15"/>
     </row>
     <row r="20" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="22"/>
+      <c r="A20" s="23"/>
       <c r="B20" s="4"/>
       <c r="C20" s="12" t="s">
         <v>11</v>
@@ -4547,7 +4612,7 @@
       <c r="L20" s="15"/>
     </row>
     <row r="21" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="22"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="4"/>
       <c r="C21" s="12" t="s">
         <v>12</v>
@@ -4563,7 +4628,7 @@
       <c r="L21" s="15"/>
     </row>
     <row r="22" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="22"/>
+      <c r="A22" s="23"/>
       <c r="B22" s="4"/>
       <c r="C22" s="12" t="s">
         <v>13</v>
@@ -4579,7 +4644,7 @@
       <c r="L22" s="15"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A23" s="22"/>
+      <c r="A23" s="23"/>
       <c r="C23" s="11" t="s">
         <v>19</v>
       </c>
@@ -4602,7 +4667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -4641,21 +4706,21 @@
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22" t="s">
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="21" t="s">
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
     </row>
     <row r="3" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="13"/>
@@ -4690,7 +4755,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="23" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="19" t="s">
@@ -4710,7 +4775,7 @@
       <c r="L4" s="14"/>
     </row>
     <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="22"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="4"/>
       <c r="C5" s="19" t="s">
         <v>11</v>
@@ -4726,7 +4791,7 @@
       <c r="L5" s="14"/>
     </row>
     <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="22"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="4"/>
       <c r="C6" s="19" t="s">
         <v>12</v>
@@ -4742,7 +4807,7 @@
       <c r="L6" s="14"/>
     </row>
     <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="22"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="4"/>
       <c r="C7" s="19" t="s">
         <v>13</v>
@@ -4758,7 +4823,7 @@
       <c r="L7" s="14"/>
     </row>
     <row r="8" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="22"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="4"/>
       <c r="C8" s="19" t="s">
         <v>18</v>
@@ -4774,7 +4839,7 @@
       <c r="L8" s="14"/>
     </row>
     <row r="9" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="23" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="19" t="s">
@@ -4794,7 +4859,7 @@
       <c r="L9" s="15"/>
     </row>
     <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="22"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="4"/>
       <c r="C10" s="19" t="s">
         <v>11</v>
@@ -4810,7 +4875,7 @@
       <c r="L10" s="15"/>
     </row>
     <row r="11" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="22"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="4"/>
       <c r="C11" s="19" t="s">
         <v>12</v>
@@ -4826,7 +4891,7 @@
       <c r="L11" s="15"/>
     </row>
     <row r="12" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="22"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="4"/>
       <c r="C12" s="19" t="s">
         <v>13</v>
@@ -4842,7 +4907,7 @@
       <c r="L12" s="15"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="22"/>
+      <c r="A13" s="23"/>
       <c r="C13" s="18" t="s">
         <v>19</v>
       </c>
@@ -6803,7 +6868,7 @@
       <c r="B11">
         <v>2.5319370000000001</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="21" t="s">
         <v>59</v>
       </c>
       <c r="E11">
@@ -7629,30 +7694,123 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="28.69921875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <f>EXP(-4.7993+0.0318)</f>
-        <v>8.5016076336392795E-3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <f>EXP(-4.7993)</f>
-        <v>8.2355098887129229E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <f>A1/A2</f>
-        <v>1.0323110224530303</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/model_performance.xlsx
+++ b/model_performance.xlsx
@@ -4,17 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="SBP+DBP廢" sheetId="1" r:id="rId1"/>
     <sheet name="標準化SBP+DBP廢" sheetId="4" r:id="rId2"/>
-    <sheet name="刪掉離群值" sheetId="5" r:id="rId3"/>
-    <sheet name="換變數後Visit" sheetId="6" r:id="rId4"/>
-    <sheet name="Case" sheetId="7" r:id="rId5"/>
-    <sheet name="Case_變數重要性" sheetId="8" r:id="rId6"/>
-    <sheet name="Visit_變數重要性" sheetId="9" r:id="rId7"/>
-    <sheet name="mtry" sheetId="10" r:id="rId8"/>
+    <sheet name="Visit" sheetId="6" r:id="rId3"/>
+    <sheet name="Case" sheetId="7" r:id="rId4"/>
+    <sheet name="Case_變數重要性" sheetId="8" r:id="rId5"/>
+    <sheet name="Visit_變數重要性" sheetId="9" r:id="rId6"/>
+    <sheet name="mtry" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -499,7 +498,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -556,6 +555,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -589,6 +600,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1250,6 +1262,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4223,26 +4236,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4663,12 +4663,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4764,15 +4764,15 @@
       <c r="C4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
     </row>
     <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="23"/>
@@ -4780,15 +4780,15 @@
       <c r="C5" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
     </row>
     <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="23"/>
@@ -4796,15 +4796,15 @@
       <c r="C6" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
     </row>
     <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="23"/>
@@ -4812,15 +4812,15 @@
       <c r="C7" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
     </row>
     <row r="8" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="23"/>
@@ -4828,15 +4828,15 @@
       <c r="C8" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
     </row>
     <row r="9" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="23" t="s">
@@ -4848,15 +4848,33 @@
       <c r="C9" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
+      <c r="D9" s="24">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="E9" s="24">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="F9" s="24">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="G9" s="24">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="H9" s="24">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="I9" s="24">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="J9" s="26">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="K9" s="26">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="L9" s="26">
+        <v>0.28499999999999998</v>
+      </c>
     </row>
     <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="23"/>
@@ -4864,15 +4882,33 @@
       <c r="C10" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
+      <c r="D10" s="24">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="E10" s="24">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="F10" s="24">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="G10" s="24">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="H10" s="24">
+        <v>1</v>
+      </c>
+      <c r="I10" s="24">
+        <v>1.9E-2</v>
+      </c>
+      <c r="J10" s="26">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="K10" s="26">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="L10" s="26">
+        <v>0.254</v>
+      </c>
     </row>
     <row r="11" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="23"/>
@@ -4880,15 +4916,33 @@
       <c r="C11" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
+      <c r="D11" s="24">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="E11" s="24">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="F11" s="24">
+        <v>0.748</v>
+      </c>
+      <c r="G11" s="24">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="H11" s="24">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="I11" s="24">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="J11" s="26">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="K11" s="26">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="L11" s="26">
+        <v>0.33300000000000002</v>
+      </c>
     </row>
     <row r="12" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="23"/>
@@ -4896,39 +4950,60 @@
       <c r="C12" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
+      <c r="D12" s="24">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="E12" s="24">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="F12" s="24">
+        <v>0.748</v>
+      </c>
+      <c r="G12" s="24">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="H12" s="24">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="I12" s="24">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="J12" s="26">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="K12" s="26">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="L12" s="26">
+        <v>0.33300000000000002</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="23"/>
       <c r="C13" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="4">
-        <v>0.90600000000000003</v>
-      </c>
-      <c r="E13" s="4">
+      <c r="D13" s="27">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="E13" s="27">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="F13" s="27">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="G13" s="27">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="H13" s="27">
         <v>1</v>
       </c>
-      <c r="F13" s="4">
-        <v>0.58599999999999997</v>
-      </c>
-      <c r="G13" s="4">
-        <v>0.91</v>
-      </c>
-      <c r="H13" s="4">
-        <v>1</v>
-      </c>
-      <c r="I13" s="4">
-        <v>0.627</v>
-      </c>
+      <c r="I13" s="27">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4943,7 +5018,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L65"/>
   <sheetViews>
@@ -6643,7 +6718,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H51"/>
   <sheetViews>
@@ -7692,11 +7767,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>

--- a/model_performance.xlsx
+++ b/model_performance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SBP+DBP廢" sheetId="1" r:id="rId1"/>
@@ -429,10 +429,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -468,6 +469,29 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Microsoft JhengHei UI"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei UI"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Microsoft JhengHei UI"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -483,7 +507,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -491,6 +515,117 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -498,7 +633,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -531,12 +666,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -555,16 +684,295 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4236,13 +4644,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4259,7 +4667,7 @@
     <col min="13" max="16384" width="8.796875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13" t="s">
         <v>16</v>
       </c>
@@ -4280,381 +4688,567 @@
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23" t="s">
+      <c r="E2" s="49"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="22" t="s">
+      <c r="H2" s="49"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-    </row>
-    <row r="3" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="K2" s="53"/>
+      <c r="L2" s="54"/>
+    </row>
+    <row r="3" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="59" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="43"/>
     </row>
     <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="23"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="12" t="s">
+      <c r="A5" s="31"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="45"/>
     </row>
     <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="23"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="12" t="s">
+      <c r="A6" s="31"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="45"/>
     </row>
     <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="23"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="12" t="s">
+      <c r="A7" s="31"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="45"/>
     </row>
     <row r="8" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="23"/>
-      <c r="C8" s="11" t="s">
+      <c r="A8" s="31"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="45"/>
     </row>
     <row r="9" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="23"/>
-      <c r="B9" s="12" t="s">
+      <c r="A9" s="31"/>
+      <c r="B9" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
+      <c r="D9" s="66">
+        <v>0.9</v>
+      </c>
+      <c r="E9" s="34">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="F9" s="65">
+        <v>0.6</v>
+      </c>
+      <c r="G9" s="113">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="H9" s="114">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="I9" s="115">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="J9" s="71">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="K9" s="44">
+        <v>1</v>
+      </c>
+      <c r="L9" s="45">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="23"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="12" t="s">
+      <c r="A10" s="31"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="45"/>
     </row>
     <row r="11" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="23"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="12" t="s">
+      <c r="A11" s="31"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
+      <c r="D11" s="64">
+        <v>0.9</v>
+      </c>
+      <c r="E11" s="34">
+        <v>0.98</v>
+      </c>
+      <c r="F11" s="65">
+        <v>0.6</v>
+      </c>
+      <c r="G11" s="64">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="H11" s="34">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="I11" s="65">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="J11" s="71">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="K11" s="44">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="L11" s="45">
+        <v>0.29499999999999998</v>
+      </c>
     </row>
     <row r="12" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="23"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="12" t="s">
+      <c r="A12" s="31"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-    </row>
-    <row r="13" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="23"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="12" t="s">
+      <c r="D12" s="64">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="E12" s="34">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="F12" s="65">
+        <v>0.6</v>
+      </c>
+      <c r="G12" s="64">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="H12" s="34">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="I12" s="65">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="J12" s="71">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="K12" s="44">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="L12" s="45">
+        <v>0.29499999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="37"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-    </row>
-    <row r="14" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="23" t="s">
+      <c r="D13" s="67">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="E13" s="48">
+        <v>0.9</v>
+      </c>
+      <c r="F13" s="68">
+        <v>0.1</v>
+      </c>
+      <c r="G13" s="116">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="H13" s="117">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="I13" s="118">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="J13" s="76"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="41"/>
+    </row>
+    <row r="14" spans="1:12" s="20" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="21"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="45"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B15" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C15" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-    </row>
-    <row r="15" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="23"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="12" t="s">
+      <c r="D15" s="69"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="77"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="30"/>
+    </row>
+    <row r="16" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="31"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-    </row>
-    <row r="16" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="23"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="12" t="s">
+      <c r="D16" s="64"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="78"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="36"/>
+    </row>
+    <row r="17" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="31"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-    </row>
-    <row r="17" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="23"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="12" t="s">
+      <c r="D17" s="64"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="78"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="36"/>
+    </row>
+    <row r="18" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="31"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-    </row>
-    <row r="18" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="23"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="12" t="s">
+      <c r="D18" s="64"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="36"/>
+    </row>
+    <row r="19" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="31"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-    </row>
-    <row r="19" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="23"/>
-      <c r="B19" s="12" t="s">
+      <c r="D19" s="71"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="78"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="36"/>
+    </row>
+    <row r="20" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="31"/>
+      <c r="B20" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C20" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-    </row>
-    <row r="20" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="23"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="12" t="s">
+      <c r="D20" s="64">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="E20" s="34">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="F20" s="65">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="G20" s="107">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="H20" s="108">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="I20" s="109">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="J20" s="78">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="K20" s="35">
+        <v>0.82</v>
+      </c>
+      <c r="L20" s="36">
+        <v>0.13900000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="31"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-    </row>
-    <row r="21" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="23"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="12" t="s">
+      <c r="D21" s="64">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="E21" s="34">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="F21" s="65">
+        <v>0.65</v>
+      </c>
+      <c r="G21" s="64">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="H21" s="34">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="I21" s="65">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="J21" s="78">
+        <v>0.69</v>
+      </c>
+      <c r="K21" s="35">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="L21" s="36">
+        <v>8.3000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="31"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-    </row>
-    <row r="22" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="23"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="12" t="s">
+      <c r="D22" s="64">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="E22" s="34">
+        <v>0.96</v>
+      </c>
+      <c r="F22" s="65">
+        <v>0.88</v>
+      </c>
+      <c r="G22" s="64">
+        <v>0.753</v>
+      </c>
+      <c r="H22" s="34">
+        <v>0.877</v>
+      </c>
+      <c r="I22" s="65">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="J22" s="78">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="K22" s="35">
+        <v>0.85</v>
+      </c>
+      <c r="L22" s="36">
+        <v>8.3000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="31"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A23" s="23"/>
-      <c r="C23" s="11" t="s">
+      <c r="D23" s="64">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="E23" s="34">
+        <v>0.96</v>
+      </c>
+      <c r="F23" s="65">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="G23" s="64">
+        <v>0.754</v>
+      </c>
+      <c r="H23" s="34">
+        <v>0.877</v>
+      </c>
+      <c r="I23" s="65">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="J23" s="78">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="K23" s="35">
+        <v>0.85</v>
+      </c>
+      <c r="L23" s="36">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="37"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38" t="s">
         <v>19</v>
       </c>
+      <c r="D24" s="72">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="E24" s="39">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="F24" s="73">
+        <v>0.77</v>
+      </c>
+      <c r="G24" s="110">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="H24" s="111">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="I24" s="112">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="J24" s="76"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="41"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="J2:L2"/>
-    <mergeCell ref="A14:A23"/>
+    <mergeCell ref="A15:A24"/>
     <mergeCell ref="A4:A13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4665,345 +5259,426 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="18" customWidth="1"/>
+    <col min="1" max="1" width="12.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="16" customWidth="1"/>
     <col min="4" max="4" width="11.8984375" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.8984375" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.8984375" style="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.19921875" style="18" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.796875" style="18"/>
+    <col min="10" max="10" width="11.8984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.19921875" style="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.796875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="19">
+      <c r="E1" s="17">
         <v>123</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23" t="s">
+      <c r="E2" s="49"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="22" t="s">
+      <c r="H2" s="49"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-    </row>
-    <row r="3" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="K2" s="53"/>
+      <c r="L2" s="54"/>
+    </row>
+    <row r="3" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="52" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
+      <c r="D4" s="79">
+        <v>0.76</v>
+      </c>
+      <c r="E4" s="80">
+        <v>1</v>
+      </c>
+      <c r="F4" s="81">
+        <v>0</v>
+      </c>
+      <c r="G4" s="99">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="H4" s="99">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="I4" s="102">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="J4" s="82">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="K4" s="82">
+        <v>1</v>
+      </c>
+      <c r="L4" s="81">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="23"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="19" t="s">
+      <c r="A5" s="31"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="85"/>
     </row>
     <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="23"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="19" t="s">
+      <c r="A6" s="31"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
+      <c r="D6" s="83">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="E6" s="84">
+        <v>1</v>
+      </c>
+      <c r="F6" s="85">
+        <v>0</v>
+      </c>
+      <c r="G6" s="84">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="H6" s="84">
+        <v>0.9</v>
+      </c>
+      <c r="I6" s="85">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="J6" s="86">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="K6" s="86">
+        <v>1</v>
+      </c>
+      <c r="L6" s="85">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="23"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="19" t="s">
+      <c r="A7" s="31"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-    </row>
-    <row r="8" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="23"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="19" t="s">
+      <c r="D7" s="83">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="E7" s="84">
+        <v>1</v>
+      </c>
+      <c r="F7" s="85">
+        <v>0</v>
+      </c>
+      <c r="G7" s="84">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="H7" s="84">
+        <v>0.9</v>
+      </c>
+      <c r="I7" s="85">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="J7" s="86">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="K7" s="86">
+        <v>1</v>
+      </c>
+      <c r="L7" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="37"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-    </row>
-    <row r="9" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="23" t="s">
+      <c r="D8" s="87">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="E8" s="88">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="F8" s="89">
+        <v>0.13</v>
+      </c>
+      <c r="G8" s="105">
+        <v>0.73</v>
+      </c>
+      <c r="H8" s="105">
+        <v>0.88</v>
+      </c>
+      <c r="I8" s="100">
+        <v>0.16</v>
+      </c>
+      <c r="J8" s="90"/>
+      <c r="K8" s="90"/>
+      <c r="L8" s="89"/>
+    </row>
+    <row r="9" spans="1:12" s="20" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="21"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="91"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="92"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="92"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B10" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C10" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D10" s="79">
         <v>0.92600000000000005</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E10" s="80">
         <v>0.97499999999999998</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F10" s="93">
         <v>0.75900000000000001</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G10" s="101">
         <v>0.91900000000000004</v>
       </c>
-      <c r="H9" s="24">
+      <c r="H10" s="101">
         <v>0.99299999999999999</v>
       </c>
-      <c r="I9" s="24">
+      <c r="I10" s="106">
         <v>0.68600000000000005</v>
       </c>
-      <c r="J9" s="26">
+      <c r="J10" s="94">
         <v>0.68500000000000005</v>
       </c>
-      <c r="K9" s="26">
+      <c r="K10" s="94">
         <v>0.78500000000000003</v>
       </c>
-      <c r="L9" s="26">
+      <c r="L10" s="93">
         <v>0.28499999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="23"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="19" t="s">
+    <row r="11" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="31"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D11" s="83">
         <v>0.89700000000000002</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E11" s="84">
         <v>0.98899999999999999</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F11" s="95">
         <v>0.58599999999999997</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G11" s="84">
         <v>0.76100000000000001</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H11" s="84">
         <v>1</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I11" s="95">
         <v>1.9E-2</v>
       </c>
-      <c r="J10" s="26">
+      <c r="J11" s="96">
         <v>0.71399999999999997</v>
       </c>
-      <c r="K10" s="26">
+      <c r="K11" s="96">
         <v>0.86099999999999999</v>
       </c>
-      <c r="L10" s="26">
+      <c r="L11" s="95">
         <v>0.254</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="23"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="19" t="s">
+    <row r="12" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="31"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D12" s="83">
         <v>0.91700000000000004</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E12" s="84">
         <v>0.96699999999999997</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F12" s="95">
         <v>0.748</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G12" s="84">
         <v>0.88500000000000001</v>
       </c>
-      <c r="H11" s="24">
+      <c r="H12" s="84">
         <v>0.94299999999999995</v>
       </c>
-      <c r="I11" s="24">
+      <c r="I12" s="95">
         <v>0.70499999999999996</v>
       </c>
-      <c r="J11" s="26">
+      <c r="J12" s="96">
         <v>0.68500000000000005</v>
       </c>
-      <c r="K11" s="26">
+      <c r="K12" s="96">
         <v>0.79800000000000004</v>
       </c>
-      <c r="L11" s="26">
+      <c r="L12" s="95">
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="23"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="19" t="s">
+    <row r="13" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="31"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D13" s="83">
         <v>0.91700000000000004</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E13" s="84">
         <v>0.96699999999999997</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F13" s="95">
         <v>0.748</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G13" s="84">
         <v>0.88500000000000001</v>
       </c>
-      <c r="H12" s="24">
+      <c r="H13" s="84">
         <v>0.94299999999999995</v>
       </c>
-      <c r="I12" s="24">
+      <c r="I13" s="95">
         <v>0.70499999999999996</v>
       </c>
-      <c r="J12" s="26">
+      <c r="J13" s="96">
         <v>0.68500000000000005</v>
       </c>
-      <c r="K12" s="26">
+      <c r="K13" s="96">
         <v>0.79800000000000004</v>
       </c>
-      <c r="L12" s="26">
+      <c r="L13" s="95">
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="23"/>
-      <c r="C13" s="18" t="s">
+    <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="37"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D14" s="97">
         <v>0.92100000000000004</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E14" s="98">
         <v>0.99399999999999999</v>
       </c>
-      <c r="F13" s="27">
+      <c r="F14" s="89">
         <v>0.68799999999999994</v>
       </c>
-      <c r="G13" s="27">
+      <c r="G14" s="104">
         <v>0.94799999999999995</v>
       </c>
-      <c r="H13" s="27">
+      <c r="H14" s="104">
         <v>1</v>
       </c>
-      <c r="I13" s="27">
+      <c r="I14" s="103">
         <v>0.74399999999999999</v>
       </c>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="90"/>
+      <c r="L14" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5011,10 +5686,11 @@
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A10:A14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5042,7 +5718,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>90</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -5074,7 +5750,7 @@
       <c r="B2" s="1">
         <v>8.3562636399999999</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="15" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="1">
@@ -5100,7 +5776,7 @@
       <c r="B3" s="1">
         <v>6.4941197400000004</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="15" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="1">
@@ -5126,7 +5802,7 @@
       <c r="B4" s="1">
         <v>6.3546275100000003</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="15" t="s">
         <v>84</v>
       </c>
       <c r="F4" s="1">
@@ -5152,7 +5828,7 @@
       <c r="B5" s="1">
         <v>6.3369712500000004</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="15" t="s">
         <v>28</v>
       </c>
       <c r="F5" s="1">
@@ -5178,7 +5854,7 @@
       <c r="B6" s="1">
         <v>6.1697299599999997</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="15" t="s">
         <v>86</v>
       </c>
       <c r="F6" s="1">
@@ -5204,7 +5880,7 @@
       <c r="B7" s="1">
         <v>6.09692071</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="15" t="s">
         <v>35</v>
       </c>
       <c r="F7" s="1">
@@ -5230,7 +5906,7 @@
       <c r="B8" s="1">
         <v>5.84752793</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="15" t="s">
         <v>85</v>
       </c>
       <c r="F8" s="1">
@@ -5256,7 +5932,7 @@
       <c r="B9" s="1">
         <v>5.0855140800000003</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="15" t="s">
         <v>25</v>
       </c>
       <c r="F9" s="1">
@@ -5282,7 +5958,7 @@
       <c r="B10" s="1">
         <v>4.4390470799999999</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="15" t="s">
         <v>26</v>
       </c>
       <c r="F10" s="1">
@@ -5308,7 +5984,7 @@
       <c r="B11" s="1">
         <v>3.51157772</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="15" t="s">
         <v>49</v>
       </c>
       <c r="F11" s="1">
@@ -6763,7 +7439,7 @@
       <c r="B2">
         <v>12.6794244</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="18" t="s">
         <v>29</v>
       </c>
       <c r="E2">
@@ -6783,7 +7459,7 @@
       <c r="B3">
         <v>11.378416700000001</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E3">
@@ -6803,7 +7479,7 @@
       <c r="B4">
         <v>8.1501026999999997</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="18" t="s">
         <v>26</v>
       </c>
       <c r="E4">
@@ -6823,7 +7499,7 @@
       <c r="B5">
         <v>7.0576091999999999</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="18" t="s">
         <v>93</v>
       </c>
       <c r="E5">
@@ -6843,7 +7519,7 @@
       <c r="B6">
         <v>4.9522645000000001</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="18" t="s">
         <v>35</v>
       </c>
       <c r="E6">
@@ -6863,7 +7539,7 @@
       <c r="B7">
         <v>4.7731434000000004</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="18" t="s">
         <v>37</v>
       </c>
       <c r="E7">
@@ -6883,7 +7559,7 @@
       <c r="B8">
         <v>4.6545671000000004</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="18" t="s">
         <v>30</v>
       </c>
       <c r="E8">
@@ -6903,7 +7579,7 @@
       <c r="B9">
         <v>4.5141552999999996</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="18" t="s">
         <v>28</v>
       </c>
       <c r="E9">
@@ -6923,7 +7599,7 @@
       <c r="B10">
         <v>3.5894672000000001</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="18" t="s">
         <v>34</v>
       </c>
       <c r="E10">
@@ -6943,7 +7619,7 @@
       <c r="B11">
         <v>2.5319370000000001</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="19" t="s">
         <v>59</v>
       </c>
       <c r="E11">

--- a/model_performance.xlsx
+++ b/model_performance.xlsx
@@ -4,16 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SBP+DBP廢" sheetId="1" r:id="rId1"/>
-    <sheet name="標準化SBP+DBP廢" sheetId="4" r:id="rId2"/>
-    <sheet name="Visit" sheetId="6" r:id="rId3"/>
-    <sheet name="Case" sheetId="7" r:id="rId4"/>
-    <sheet name="Case_變數重要性" sheetId="8" r:id="rId5"/>
-    <sheet name="Visit_變數重要性" sheetId="9" r:id="rId6"/>
-    <sheet name="mtry" sheetId="10" r:id="rId7"/>
+    <sheet name="Visit" sheetId="6" r:id="rId2"/>
+    <sheet name="Case" sheetId="7" r:id="rId3"/>
+    <sheet name="Case_變數重要性" sheetId="8" r:id="rId4"/>
+    <sheet name="Visit_變數重要性" sheetId="9" r:id="rId5"/>
+    <sheet name="mtry" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="122">
   <si>
     <t>seed</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -643,16 +642,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -939,15 +932,6 @@
     <xf numFmtId="178" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -973,6 +957,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3658,7 +3657,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12:L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3694,21 +3693,21 @@
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23" t="s">
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="22" t="s">
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
     </row>
     <row r="3" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
@@ -3743,7 +3742,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="21" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -3752,180 +3751,180 @@
       <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="23"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="4"/>
       <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
     </row>
     <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="23"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="4"/>
       <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
     </row>
     <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="23"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="4"/>
       <c r="C7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="23"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="7">
         <v>0.90100000000000002</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="7">
         <v>0.94899999999999995</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="7">
         <v>0.72899999999999998</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="7">
         <v>0.70399999999999996</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="7">
         <v>0.92400000000000004</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="7">
         <v>0.114</v>
       </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
     </row>
     <row r="9" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="23"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="4"/>
       <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="23"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="4"/>
       <c r="C10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="7">
         <v>0.90100000000000002</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="7">
         <v>0.94899999999999995</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="7">
         <v>0.72899999999999998</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="7">
         <v>0.70399999999999996</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="7">
         <v>0.92400000000000004</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="7">
         <v>0.114</v>
       </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
     </row>
     <row r="11" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="23"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="4"/>
       <c r="C11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="7">
         <v>0.90100000000000002</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="7">
         <v>0.94899999999999995</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="7">
         <v>0.72899999999999998</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="7">
         <v>0.70399999999999996</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="7">
         <v>0.92400000000000004</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="7">
         <v>0.114</v>
       </c>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
     </row>
     <row r="12" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="21" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -3934,271 +3933,271 @@
       <c r="C12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="7">
         <v>1</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="7">
         <v>1</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="7">
         <v>1</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="7">
         <v>0.77</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="7">
         <v>0.98</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="7">
         <v>0.03</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="8">
         <v>0.76</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K12" s="8">
         <v>0.86</v>
       </c>
-      <c r="L12" s="10">
+      <c r="L12" s="8">
         <v>0.41</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="23"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="4"/>
       <c r="C13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="7">
         <v>1</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="7">
         <v>1</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="7">
         <v>1</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="7">
         <v>0.77</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="7">
         <v>0.98</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="7">
         <v>0.06</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13" s="8">
         <v>0.8</v>
       </c>
-      <c r="K13" s="10">
+      <c r="K13" s="8">
         <v>0.9</v>
       </c>
-      <c r="L13" s="10">
+      <c r="L13" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="23"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="4"/>
       <c r="C14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="7">
         <v>1</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="7">
         <v>1</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="7">
         <v>1</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="7">
         <v>0.77</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="7">
         <v>0.94</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="7">
         <v>0.19</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J14" s="8">
         <v>0.8</v>
       </c>
-      <c r="K14" s="10">
+      <c r="K14" s="8">
         <v>0.9</v>
       </c>
-      <c r="L14" s="10">
+      <c r="L14" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="23"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="4"/>
       <c r="C15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="7">
         <v>1</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="7">
         <v>1</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="7">
         <v>1</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="7">
         <v>0.77</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="7">
         <v>0.94</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="7">
         <v>0.19</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J15" s="8">
         <v>0.8</v>
       </c>
-      <c r="K15" s="10">
+      <c r="K15" s="8">
         <v>0.9</v>
       </c>
-      <c r="L15" s="10">
+      <c r="L15" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="23"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="7">
         <v>0.98</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="7">
         <v>0.99</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="7">
         <v>0.95</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="7">
         <v>0.75</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="7">
         <v>0.94</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="7">
         <v>0.2</v>
       </c>
-      <c r="J16" s="10">
+      <c r="J16" s="8">
         <v>0.65</v>
       </c>
-      <c r="K16" s="10">
+      <c r="K16" s="8">
         <v>0.82</v>
       </c>
-      <c r="L16" s="10">
+      <c r="L16" s="8">
         <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="23"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="4"/>
       <c r="C17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="7">
         <v>0.91</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="7">
         <v>0.99</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="7">
         <v>0.64</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="7">
         <v>0.75</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="7">
         <v>0.98</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="7">
         <v>0.1</v>
       </c>
-      <c r="J17" s="10">
+      <c r="J17" s="8">
         <v>0.73</v>
       </c>
-      <c r="K17" s="10">
+      <c r="K17" s="8">
         <v>0.92</v>
       </c>
-      <c r="L17" s="10">
+      <c r="L17" s="8">
         <v>0.17</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="23"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="4"/>
       <c r="C18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="7">
         <v>0.97</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="7">
         <v>0.98</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="7">
         <v>0.92</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="7">
         <v>0.7</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="7">
         <v>0.89</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="7">
         <v>0.2</v>
       </c>
-      <c r="J18" s="10">
+      <c r="J18" s="8">
         <v>0.7</v>
       </c>
-      <c r="K18" s="10">
+      <c r="K18" s="8">
         <v>0.89</v>
       </c>
-      <c r="L18" s="10">
+      <c r="L18" s="8">
         <v>0.17</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="23"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="4"/>
       <c r="C19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="7">
         <v>0.97</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="7">
         <v>0.98</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="7">
         <v>0.92</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="7">
         <v>0.7</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="7">
         <v>0.89</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="7">
         <v>0.2</v>
       </c>
-      <c r="J19" s="10">
+      <c r="J19" s="8">
         <v>0.7</v>
       </c>
-      <c r="K19" s="10">
+      <c r="K19" s="8">
         <v>0.89</v>
       </c>
-      <c r="L19" s="10">
+      <c r="L19" s="8">
         <v>0.17</v>
       </c>
     </row>
@@ -4218,1030 +4217,604 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.19921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.8984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.19921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.8984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.19921875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5">
-        <v>123</v>
-      </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-    </row>
-    <row r="3" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-    </row>
-    <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="23"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-    </row>
-    <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="23"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-    </row>
-    <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="23"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-    </row>
-    <row r="8" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="23"/>
-      <c r="B8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-    </row>
-    <row r="9" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="23"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-    </row>
-    <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="23"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-    </row>
-    <row r="11" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="23"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-    </row>
-    <row r="12" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-    </row>
-    <row r="13" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="23"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-    </row>
-    <row r="14" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="23"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-    </row>
-    <row r="15" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="23"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-    </row>
-    <row r="16" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="23"/>
-      <c r="B16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="8">
-        <v>0.97</v>
-      </c>
-      <c r="E16" s="8">
-        <v>0.98</v>
-      </c>
-      <c r="F16" s="8">
-        <v>0.94</v>
-      </c>
-      <c r="G16" s="8">
-        <v>0.77</v>
-      </c>
-      <c r="H16" s="8">
-        <v>0.92</v>
-      </c>
-      <c r="I16" s="8">
-        <v>0.34</v>
-      </c>
-      <c r="J16" s="7">
-        <v>0.64</v>
-      </c>
-      <c r="K16" s="7">
-        <v>0.83</v>
-      </c>
-      <c r="L16" s="7">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="23"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-    </row>
-    <row r="18" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="23"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="8">
-        <v>0.98</v>
-      </c>
-      <c r="E18" s="8">
-        <v>0.99</v>
-      </c>
-      <c r="F18" s="8">
-        <v>0.95</v>
-      </c>
-      <c r="G18" s="8">
-        <v>0.68</v>
-      </c>
-      <c r="H18" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I18" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="J18" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="K18" s="7">
-        <v>0.88</v>
-      </c>
-      <c r="L18" s="7">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="23"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="8">
-        <v>0.98</v>
-      </c>
-      <c r="E19" s="8">
-        <v>0.99</v>
-      </c>
-      <c r="F19" s="8">
-        <v>0.95</v>
-      </c>
-      <c r="G19" s="8">
-        <v>0.68</v>
-      </c>
-      <c r="H19" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I19" s="8">
-        <v>0.31</v>
-      </c>
-      <c r="J19" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="K19" s="7">
-        <v>0.88</v>
-      </c>
-      <c r="L19" s="7">
-        <v>0.17</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="A4:A11"/>
-    <mergeCell ref="A12:A19"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
+      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="11" customWidth="1"/>
+    <col min="1" max="1" width="12.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="9" customWidth="1"/>
     <col min="4" max="4" width="11.8984375" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.8984375" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.8984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.796875" style="11"/>
+    <col min="10" max="10" width="11.8984375" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.19921875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.796875" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="12" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="12">
+      <c r="E1" s="10">
         <v>123</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="26" t="s">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="26" t="s">
+      <c r="E2" s="47"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="74" t="s">
+      <c r="H2" s="47"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="53"/>
-      <c r="L2" s="54"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="52"/>
     </row>
     <row r="3" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="58" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="59" t="s">
+      <c r="F3" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="58" t="s">
+      <c r="G3" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="59" t="s">
+      <c r="I3" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="58" t="s">
+      <c r="J3" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="33" t="s">
+      <c r="K3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="59" t="s">
+      <c r="L3" s="57" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="43"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="41"/>
     </row>
     <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="31"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="33" t="s">
+      <c r="A5" s="29"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="62"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="45"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="43"/>
     </row>
     <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="31"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="33" t="s">
+      <c r="A6" s="29"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="62"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="45"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="43"/>
     </row>
     <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="31"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="33" t="s">
+      <c r="A7" s="29"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="62"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="45"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="43"/>
     </row>
     <row r="8" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="31"/>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57" t="s">
+      <c r="A8" s="29"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="64"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="45"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="43"/>
     </row>
     <row r="9" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="31"/>
-      <c r="B9" s="33" t="s">
+      <c r="A9" s="29"/>
+      <c r="B9" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="66">
+      <c r="D9" s="64">
         <v>0.9</v>
       </c>
-      <c r="E9" s="34">
+      <c r="E9" s="32">
         <v>0.98399999999999999</v>
       </c>
-      <c r="F9" s="65">
+      <c r="F9" s="63">
         <v>0.6</v>
       </c>
-      <c r="G9" s="113">
+      <c r="G9" s="108">
         <v>0.73399999999999999</v>
       </c>
-      <c r="H9" s="114">
+      <c r="H9" s="109">
         <v>0.99099999999999999</v>
       </c>
-      <c r="I9" s="115">
+      <c r="I9" s="110">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="J9" s="71">
+      <c r="J9" s="69">
         <v>0.72799999999999998</v>
       </c>
-      <c r="K9" s="44">
+      <c r="K9" s="42">
         <v>1</v>
       </c>
-      <c r="L9" s="45">
+      <c r="L9" s="43">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="31"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="33" t="s">
+      <c r="A10" s="29"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="64"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="45"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="43"/>
     </row>
     <row r="11" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="31"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="33" t="s">
+      <c r="A11" s="29"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="64">
+      <c r="D11" s="62">
         <v>0.9</v>
       </c>
-      <c r="E11" s="34">
+      <c r="E11" s="32">
         <v>0.98</v>
       </c>
-      <c r="F11" s="65">
+      <c r="F11" s="63">
         <v>0.6</v>
       </c>
-      <c r="G11" s="64">
+      <c r="G11" s="62">
         <v>0.73399999999999999</v>
       </c>
-      <c r="H11" s="34">
+      <c r="H11" s="32">
         <v>0.99099999999999999</v>
       </c>
-      <c r="I11" s="65">
+      <c r="I11" s="63">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="J11" s="71">
+      <c r="J11" s="69">
         <v>0.70899999999999996</v>
       </c>
-      <c r="K11" s="44">
+      <c r="K11" s="42">
         <v>0.80400000000000005</v>
       </c>
-      <c r="L11" s="45">
+      <c r="L11" s="43">
         <v>0.29499999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="31"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="33" t="s">
+      <c r="A12" s="29"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="64">
+      <c r="D12" s="62">
         <v>0.90100000000000002</v>
       </c>
-      <c r="E12" s="34">
+      <c r="E12" s="32">
         <v>0.98399999999999999</v>
       </c>
-      <c r="F12" s="65">
+      <c r="F12" s="63">
         <v>0.6</v>
       </c>
-      <c r="G12" s="64">
+      <c r="G12" s="62">
         <v>0.73399999999999999</v>
       </c>
-      <c r="H12" s="34">
+      <c r="H12" s="32">
         <v>0.99099999999999999</v>
       </c>
-      <c r="I12" s="65">
+      <c r="I12" s="63">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="J12" s="71">
+      <c r="J12" s="69">
         <v>0.70899999999999996</v>
       </c>
-      <c r="K12" s="44">
+      <c r="K12" s="42">
         <v>0.80400000000000005</v>
       </c>
-      <c r="L12" s="45">
+      <c r="L12" s="43">
         <v>0.29499999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="37"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="47" t="s">
+      <c r="A13" s="35"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="67">
+      <c r="D13" s="65">
         <v>0.73399999999999999</v>
       </c>
-      <c r="E13" s="48">
+      <c r="E13" s="46">
         <v>0.9</v>
       </c>
-      <c r="F13" s="68">
+      <c r="F13" s="66">
         <v>0.1</v>
       </c>
-      <c r="G13" s="116">
+      <c r="G13" s="111">
         <v>0.69699999999999995</v>
       </c>
-      <c r="H13" s="117">
+      <c r="H13" s="112">
         <v>0.85499999999999998</v>
       </c>
-      <c r="I13" s="118">
+      <c r="I13" s="113">
         <v>0.27300000000000002</v>
       </c>
-      <c r="J13" s="76"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="41"/>
-    </row>
-    <row r="14" spans="1:12" s="20" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="21"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="39"/>
+    </row>
+    <row r="14" spans="1:12" s="18" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="19"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="45"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="43"/>
     </row>
     <row r="15" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="69"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="77"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="30"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="75"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="28"/>
     </row>
     <row r="16" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="31"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="33" t="s">
+      <c r="A16" s="29"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="64"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="78"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="36"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="34"/>
     </row>
     <row r="17" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="31"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="33" t="s">
+      <c r="A17" s="29"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="64"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="78"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="36"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="34"/>
     </row>
     <row r="18" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="31"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="33" t="s">
+      <c r="A18" s="29"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="64"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="78"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="36"/>
-    </row>
-    <row r="19" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="31"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="33" t="s">
+      <c r="D18" s="62"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="34"/>
+    </row>
+    <row r="19" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="29"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="71"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="78"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="36"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="115"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="34"/>
     </row>
     <row r="20" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="31"/>
-      <c r="B20" s="33" t="s">
+      <c r="A20" s="29"/>
+      <c r="B20" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="64">
+      <c r="D20" s="67">
         <v>0.92600000000000005</v>
       </c>
-      <c r="E20" s="34">
+      <c r="E20" s="26">
         <v>0.95499999999999996</v>
       </c>
-      <c r="F20" s="65">
+      <c r="F20" s="68">
         <v>0.81699999999999995</v>
       </c>
-      <c r="G20" s="107">
+      <c r="G20" s="116">
         <v>0.78800000000000003</v>
       </c>
-      <c r="H20" s="108">
+      <c r="H20" s="117">
         <v>0.92400000000000004</v>
       </c>
-      <c r="I20" s="109">
+      <c r="I20" s="118">
         <v>0.38900000000000001</v>
       </c>
-      <c r="J20" s="78">
+      <c r="J20" s="75">
         <v>0.64700000000000002</v>
       </c>
-      <c r="K20" s="35">
+      <c r="K20" s="27">
         <v>0.82</v>
       </c>
-      <c r="L20" s="36">
+      <c r="L20" s="28">
         <v>0.13900000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="31"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="33" t="s">
+      <c r="A21" s="29"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="64">
+      <c r="D21" s="62">
         <v>0.91200000000000003</v>
       </c>
-      <c r="E21" s="34">
+      <c r="E21" s="32">
         <v>0.98199999999999998</v>
       </c>
-      <c r="F21" s="65">
+      <c r="F21" s="63">
         <v>0.65</v>
       </c>
-      <c r="G21" s="64">
+      <c r="G21" s="62">
         <v>0.73199999999999998</v>
       </c>
-      <c r="H21" s="34">
+      <c r="H21" s="32">
         <v>0.92400000000000004</v>
       </c>
-      <c r="I21" s="65">
+      <c r="I21" s="63">
         <v>0.16700000000000001</v>
       </c>
-      <c r="J21" s="78">
+      <c r="J21" s="76">
         <v>0.69</v>
       </c>
-      <c r="K21" s="35">
+      <c r="K21" s="33">
         <v>0.89600000000000002</v>
       </c>
-      <c r="L21" s="36">
+      <c r="L21" s="34">
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="31"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="33" t="s">
+      <c r="A22" s="29"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="64">
+      <c r="D22" s="62">
         <v>0.94399999999999995</v>
       </c>
-      <c r="E22" s="34">
+      <c r="E22" s="32">
         <v>0.96</v>
       </c>
-      <c r="F22" s="65">
+      <c r="F22" s="63">
         <v>0.88</v>
       </c>
-      <c r="G22" s="64">
+      <c r="G22" s="62">
         <v>0.753</v>
       </c>
-      <c r="H22" s="34">
+      <c r="H22" s="32">
         <v>0.877</v>
       </c>
-      <c r="I22" s="65">
+      <c r="I22" s="63">
         <v>0.38900000000000001</v>
       </c>
-      <c r="J22" s="78">
+      <c r="J22" s="76">
         <v>0.65500000000000003</v>
       </c>
-      <c r="K22" s="35">
+      <c r="K22" s="33">
         <v>0.85</v>
       </c>
-      <c r="L22" s="36">
+      <c r="L22" s="34">
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="31"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="33" t="s">
+      <c r="A23" s="29"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="64">
+      <c r="D23" s="62">
         <v>0.94399999999999995</v>
       </c>
-      <c r="E23" s="34">
+      <c r="E23" s="32">
         <v>0.96</v>
       </c>
-      <c r="F23" s="65">
+      <c r="F23" s="63">
         <v>0.88300000000000001</v>
       </c>
-      <c r="G23" s="64">
+      <c r="G23" s="62">
         <v>0.754</v>
       </c>
-      <c r="H23" s="34">
+      <c r="H23" s="32">
         <v>0.877</v>
       </c>
-      <c r="I23" s="65">
+      <c r="I23" s="63">
         <v>0.38900000000000001</v>
       </c>
-      <c r="J23" s="78">
+      <c r="J23" s="76">
         <v>0.65500000000000003</v>
       </c>
-      <c r="K23" s="35">
+      <c r="K23" s="33">
         <v>0.85</v>
       </c>
-      <c r="L23" s="36">
+      <c r="L23" s="34">
         <v>0.08</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="37"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38" t="s">
+      <c r="A24" s="35"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="72">
+      <c r="D24" s="70">
         <v>0.93600000000000005</v>
       </c>
-      <c r="E24" s="39">
+      <c r="E24" s="37">
         <v>0.98199999999999998</v>
       </c>
-      <c r="F24" s="73">
+      <c r="F24" s="71">
         <v>0.77</v>
       </c>
-      <c r="G24" s="110">
+      <c r="G24" s="105">
         <v>0.76700000000000002</v>
       </c>
-      <c r="H24" s="111">
+      <c r="H24" s="106">
         <v>0.89600000000000002</v>
       </c>
-      <c r="I24" s="112">
+      <c r="I24" s="107">
         <v>0.38900000000000001</v>
       </c>
-      <c r="J24" s="76"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="41"/>
+      <c r="J24" s="74"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="39"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5257,428 +4830,428 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="16" customWidth="1"/>
+    <col min="1" max="1" width="12.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="14" customWidth="1"/>
     <col min="4" max="4" width="11.8984375" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.8984375" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.8984375" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.19921875" style="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.796875" style="16"/>
+    <col min="10" max="10" width="11.8984375" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.19921875" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.796875" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="17" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="17">
+      <c r="E1" s="15">
         <v>123</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
     </row>
     <row r="2" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="26" t="s">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="26" t="s">
+      <c r="E2" s="47"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="53" t="s">
+      <c r="H2" s="47"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="53"/>
-      <c r="L2" s="54"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="52"/>
     </row>
     <row r="3" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="51" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="52" t="s">
+      <c r="F3" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="47" t="s">
+      <c r="H3" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="52" t="s">
+      <c r="I3" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="47" t="s">
+      <c r="J3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="47" t="s">
+      <c r="K3" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="52" t="s">
+      <c r="L3" s="50" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="79">
+      <c r="D4" s="77">
         <v>0.76</v>
       </c>
-      <c r="E4" s="80">
+      <c r="E4" s="78">
         <v>1</v>
       </c>
-      <c r="F4" s="81">
+      <c r="F4" s="79">
         <v>0</v>
       </c>
-      <c r="G4" s="99">
+      <c r="G4" s="97">
         <v>0.76600000000000001</v>
       </c>
-      <c r="H4" s="99">
+      <c r="H4" s="97">
         <v>0.94599999999999995</v>
       </c>
-      <c r="I4" s="102">
+      <c r="I4" s="100">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="J4" s="82">
+      <c r="J4" s="80">
         <v>0.79500000000000004</v>
       </c>
-      <c r="K4" s="82">
+      <c r="K4" s="80">
         <v>1</v>
       </c>
-      <c r="L4" s="81">
+      <c r="L4" s="79">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="31"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="33" t="s">
+      <c r="A5" s="29"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="83"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="85"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="83"/>
     </row>
     <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="31"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="33" t="s">
+      <c r="A6" s="29"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="83">
+      <c r="D6" s="81">
         <v>0.77500000000000002</v>
       </c>
-      <c r="E6" s="84">
+      <c r="E6" s="82">
         <v>1</v>
       </c>
-      <c r="F6" s="85">
+      <c r="F6" s="83">
         <v>0</v>
       </c>
-      <c r="G6" s="84">
+      <c r="G6" s="82">
         <v>0.69799999999999995</v>
       </c>
-      <c r="H6" s="84">
+      <c r="H6" s="82">
         <v>0.9</v>
       </c>
-      <c r="I6" s="85">
+      <c r="I6" s="83">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="J6" s="86">
+      <c r="J6" s="84">
         <v>0.76500000000000001</v>
       </c>
-      <c r="K6" s="86">
+      <c r="K6" s="84">
         <v>1</v>
       </c>
-      <c r="L6" s="85">
+      <c r="L6" s="83">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="31"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="33" t="s">
+      <c r="A7" s="29"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="83">
+      <c r="D7" s="81">
         <v>0.77500000000000002</v>
       </c>
-      <c r="E7" s="84">
+      <c r="E7" s="82">
         <v>1</v>
       </c>
-      <c r="F7" s="85">
+      <c r="F7" s="83">
         <v>0</v>
       </c>
-      <c r="G7" s="84">
+      <c r="G7" s="82">
         <v>0.69799999999999995</v>
       </c>
-      <c r="H7" s="84">
+      <c r="H7" s="82">
         <v>0.9</v>
       </c>
-      <c r="I7" s="85">
+      <c r="I7" s="83">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="J7" s="86">
+      <c r="J7" s="84">
         <v>0.76500000000000001</v>
       </c>
-      <c r="K7" s="86">
+      <c r="K7" s="84">
         <v>1</v>
       </c>
-      <c r="L7" s="85">
+      <c r="L7" s="83">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="37"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="47" t="s">
+      <c r="A8" s="35"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="87">
+      <c r="D8" s="85">
         <v>0.68799999999999994</v>
       </c>
-      <c r="E8" s="88">
+      <c r="E8" s="86">
         <v>0.86199999999999999</v>
       </c>
-      <c r="F8" s="89">
+      <c r="F8" s="87">
         <v>0.13</v>
       </c>
-      <c r="G8" s="105">
+      <c r="G8" s="103">
         <v>0.73</v>
       </c>
-      <c r="H8" s="105">
+      <c r="H8" s="103">
         <v>0.88</v>
       </c>
-      <c r="I8" s="100">
+      <c r="I8" s="98">
         <v>0.16</v>
       </c>
-      <c r="J8" s="90"/>
-      <c r="K8" s="90"/>
-      <c r="L8" s="89"/>
-    </row>
-    <row r="9" spans="1:12" s="20" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="21"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="87"/>
+    </row>
+    <row r="9" spans="1:12" s="18" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="19"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="92"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="92"/>
-      <c r="J9" s="92"/>
-      <c r="K9" s="92"/>
-      <c r="L9" s="92"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="90"/>
     </row>
     <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="79">
+      <c r="D10" s="77">
         <v>0.92600000000000005</v>
       </c>
-      <c r="E10" s="80">
+      <c r="E10" s="78">
         <v>0.97499999999999998</v>
       </c>
-      <c r="F10" s="93">
+      <c r="F10" s="91">
         <v>0.75900000000000001</v>
       </c>
-      <c r="G10" s="101">
+      <c r="G10" s="99">
         <v>0.91900000000000004</v>
       </c>
-      <c r="H10" s="101">
+      <c r="H10" s="99">
         <v>0.99299999999999999</v>
       </c>
-      <c r="I10" s="106">
+      <c r="I10" s="104">
         <v>0.68600000000000005</v>
       </c>
-      <c r="J10" s="94">
+      <c r="J10" s="92">
         <v>0.68500000000000005</v>
       </c>
-      <c r="K10" s="94">
+      <c r="K10" s="92">
         <v>0.78500000000000003</v>
       </c>
-      <c r="L10" s="93">
+      <c r="L10" s="91">
         <v>0.28499999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="31"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="33" t="s">
+      <c r="A11" s="29"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="83">
+      <c r="D11" s="81">
         <v>0.89700000000000002</v>
       </c>
-      <c r="E11" s="84">
+      <c r="E11" s="82">
         <v>0.98899999999999999</v>
       </c>
-      <c r="F11" s="95">
+      <c r="F11" s="93">
         <v>0.58599999999999997</v>
       </c>
-      <c r="G11" s="84">
+      <c r="G11" s="82">
         <v>0.76100000000000001</v>
       </c>
-      <c r="H11" s="84">
+      <c r="H11" s="82">
         <v>1</v>
       </c>
-      <c r="I11" s="95">
+      <c r="I11" s="93">
         <v>1.9E-2</v>
       </c>
-      <c r="J11" s="96">
+      <c r="J11" s="94">
         <v>0.71399999999999997</v>
       </c>
-      <c r="K11" s="96">
+      <c r="K11" s="94">
         <v>0.86099999999999999</v>
       </c>
-      <c r="L11" s="95">
+      <c r="L11" s="93">
         <v>0.254</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="31"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="33" t="s">
+      <c r="A12" s="29"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="83">
+      <c r="D12" s="81">
         <v>0.91700000000000004</v>
       </c>
-      <c r="E12" s="84">
+      <c r="E12" s="82">
         <v>0.96699999999999997</v>
       </c>
-      <c r="F12" s="95">
+      <c r="F12" s="93">
         <v>0.748</v>
       </c>
-      <c r="G12" s="84">
+      <c r="G12" s="82">
         <v>0.88500000000000001</v>
       </c>
-      <c r="H12" s="84">
+      <c r="H12" s="82">
         <v>0.94299999999999995</v>
       </c>
-      <c r="I12" s="95">
+      <c r="I12" s="93">
         <v>0.70499999999999996</v>
       </c>
-      <c r="J12" s="96">
+      <c r="J12" s="94">
         <v>0.68500000000000005</v>
       </c>
-      <c r="K12" s="96">
+      <c r="K12" s="94">
         <v>0.79800000000000004</v>
       </c>
-      <c r="L12" s="95">
+      <c r="L12" s="93">
         <v>0.33300000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="31"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="33" t="s">
+      <c r="A13" s="29"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="83">
+      <c r="D13" s="81">
         <v>0.91700000000000004</v>
       </c>
-      <c r="E13" s="84">
+      <c r="E13" s="82">
         <v>0.96699999999999997</v>
       </c>
-      <c r="F13" s="95">
+      <c r="F13" s="93">
         <v>0.748</v>
       </c>
-      <c r="G13" s="84">
+      <c r="G13" s="82">
         <v>0.88500000000000001</v>
       </c>
-      <c r="H13" s="84">
+      <c r="H13" s="82">
         <v>0.94299999999999995</v>
       </c>
-      <c r="I13" s="95">
+      <c r="I13" s="93">
         <v>0.70499999999999996</v>
       </c>
-      <c r="J13" s="96">
+      <c r="J13" s="94">
         <v>0.68500000000000005</v>
       </c>
-      <c r="K13" s="96">
+      <c r="K13" s="94">
         <v>0.79800000000000004</v>
       </c>
-      <c r="L13" s="95">
+      <c r="L13" s="93">
         <v>0.33300000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="37"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38" t="s">
+      <c r="A14" s="35"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="97">
+      <c r="D14" s="95">
         <v>0.92100000000000004</v>
       </c>
-      <c r="E14" s="98">
+      <c r="E14" s="96">
         <v>0.99399999999999999</v>
       </c>
-      <c r="F14" s="89">
+      <c r="F14" s="87">
         <v>0.68799999999999994</v>
       </c>
-      <c r="G14" s="104">
+      <c r="G14" s="102">
         <v>0.94799999999999995</v>
       </c>
-      <c r="H14" s="104">
+      <c r="H14" s="102">
         <v>1</v>
       </c>
-      <c r="I14" s="103">
+      <c r="I14" s="101">
         <v>0.74399999999999999</v>
       </c>
-      <c r="J14" s="90"/>
-      <c r="K14" s="90"/>
-      <c r="L14" s="89"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="88"/>
+      <c r="L14" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5694,7 +5267,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L65"/>
   <sheetViews>
@@ -5718,7 +5291,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>90</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -5750,7 +5323,7 @@
       <c r="B2" s="1">
         <v>8.3562636399999999</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="13" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="1">
@@ -5776,7 +5349,7 @@
       <c r="B3" s="1">
         <v>6.4941197400000004</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="13" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="1">
@@ -5802,7 +5375,7 @@
       <c r="B4" s="1">
         <v>6.3546275100000003</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="13" t="s">
         <v>84</v>
       </c>
       <c r="F4" s="1">
@@ -5828,7 +5401,7 @@
       <c r="B5" s="1">
         <v>6.3369712500000004</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="13" t="s">
         <v>28</v>
       </c>
       <c r="F5" s="1">
@@ -5854,7 +5427,7 @@
       <c r="B6" s="1">
         <v>6.1697299599999997</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="13" t="s">
         <v>86</v>
       </c>
       <c r="F6" s="1">
@@ -5880,7 +5453,7 @@
       <c r="B7" s="1">
         <v>6.09692071</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="13" t="s">
         <v>35</v>
       </c>
       <c r="F7" s="1">
@@ -5906,7 +5479,7 @@
       <c r="B8" s="1">
         <v>5.84752793</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="13" t="s">
         <v>85</v>
       </c>
       <c r="F8" s="1">
@@ -5932,7 +5505,7 @@
       <c r="B9" s="1">
         <v>5.0855140800000003</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="13" t="s">
         <v>25</v>
       </c>
       <c r="F9" s="1">
@@ -5958,7 +5531,7 @@
       <c r="B10" s="1">
         <v>4.4390470799999999</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="13" t="s">
         <v>26</v>
       </c>
       <c r="F10" s="1">
@@ -5984,7 +5557,7 @@
       <c r="B11" s="1">
         <v>3.51157772</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="13" t="s">
         <v>49</v>
       </c>
       <c r="F11" s="1">
@@ -7394,7 +6967,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H51"/>
   <sheetViews>
@@ -7439,7 +7012,7 @@
       <c r="B2">
         <v>12.6794244</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="16" t="s">
         <v>29</v>
       </c>
       <c r="E2">
@@ -7459,7 +7032,7 @@
       <c r="B3">
         <v>11.378416700000001</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="16" t="s">
         <v>25</v>
       </c>
       <c r="E3">
@@ -7479,7 +7052,7 @@
       <c r="B4">
         <v>8.1501026999999997</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="16" t="s">
         <v>26</v>
       </c>
       <c r="E4">
@@ -7499,7 +7072,7 @@
       <c r="B5">
         <v>7.0576091999999999</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="16" t="s">
         <v>93</v>
       </c>
       <c r="E5">
@@ -7519,7 +7092,7 @@
       <c r="B6">
         <v>4.9522645000000001</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="16" t="s">
         <v>35</v>
       </c>
       <c r="E6">
@@ -7539,7 +7112,7 @@
       <c r="B7">
         <v>4.7731434000000004</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="16" t="s">
         <v>37</v>
       </c>
       <c r="E7">
@@ -7559,7 +7132,7 @@
       <c r="B8">
         <v>4.6545671000000004</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="16" t="s">
         <v>30</v>
       </c>
       <c r="E8">
@@ -7579,7 +7152,7 @@
       <c r="B9">
         <v>4.5141552999999996</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="16" t="s">
         <v>28</v>
       </c>
       <c r="E9">
@@ -7599,7 +7172,7 @@
       <c r="B10">
         <v>3.5894672000000001</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="16" t="s">
         <v>34</v>
       </c>
       <c r="E10">
@@ -7619,7 +7192,7 @@
       <c r="B11">
         <v>2.5319370000000001</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="17" t="s">
         <v>59</v>
       </c>
       <c r="E11">
@@ -8443,12 +8016,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>

--- a/model_performance.xlsx
+++ b/model_performance.xlsx
@@ -430,7 +430,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="178" formatCode="0.0%"/>
+    <numFmt numFmtId="177" formatCode="0.0%"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -632,7 +632,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -677,301 +677,310 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1007,7 +1016,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1669,7 +1677,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3693,21 +3700,21 @@
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21" t="s">
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="20" t="s">
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
     </row>
     <row r="3" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
@@ -3742,7 +3749,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="110" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -3762,7 +3769,7 @@
       <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="21"/>
+      <c r="A5" s="110"/>
       <c r="B5" s="4"/>
       <c r="C5" s="3" t="s">
         <v>11</v>
@@ -3778,7 +3785,7 @@
       <c r="L5" s="6"/>
     </row>
     <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="21"/>
+      <c r="A6" s="110"/>
       <c r="B6" s="4"/>
       <c r="C6" s="3" t="s">
         <v>12</v>
@@ -3794,7 +3801,7 @@
       <c r="L6" s="6"/>
     </row>
     <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="21"/>
+      <c r="A7" s="110"/>
       <c r="B7" s="4"/>
       <c r="C7" s="3" t="s">
         <v>13</v>
@@ -3810,7 +3817,7 @@
       <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="21"/>
+      <c r="A8" s="110"/>
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
@@ -3840,7 +3847,7 @@
       <c r="L8" s="6"/>
     </row>
     <row r="9" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="21"/>
+      <c r="A9" s="110"/>
       <c r="B9" s="4"/>
       <c r="C9" s="3" t="s">
         <v>11</v>
@@ -3868,7 +3875,7 @@
       <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="21"/>
+      <c r="A10" s="110"/>
       <c r="B10" s="4"/>
       <c r="C10" s="3" t="s">
         <v>12</v>
@@ -3896,7 +3903,7 @@
       <c r="L10" s="6"/>
     </row>
     <row r="11" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="21"/>
+      <c r="A11" s="110"/>
       <c r="B11" s="4"/>
       <c r="C11" s="3" t="s">
         <v>13</v>
@@ -3924,7 +3931,7 @@
       <c r="L11" s="6"/>
     </row>
     <row r="12" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="110" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -3962,7 +3969,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="21"/>
+      <c r="A13" s="110"/>
       <c r="B13" s="4"/>
       <c r="C13" s="3" t="s">
         <v>11</v>
@@ -3996,7 +4003,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="21"/>
+      <c r="A14" s="110"/>
       <c r="B14" s="4"/>
       <c r="C14" s="3" t="s">
         <v>12</v>
@@ -4030,7 +4037,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="21"/>
+      <c r="A15" s="110"/>
       <c r="B15" s="4"/>
       <c r="C15" s="3" t="s">
         <v>13</v>
@@ -4064,7 +4071,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="21"/>
+      <c r="A16" s="110"/>
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
@@ -4100,7 +4107,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="21"/>
+      <c r="A17" s="110"/>
       <c r="B17" s="4"/>
       <c r="C17" s="3" t="s">
         <v>11</v>
@@ -4134,7 +4141,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="21"/>
+      <c r="A18" s="110"/>
       <c r="B18" s="4"/>
       <c r="C18" s="3" t="s">
         <v>12</v>
@@ -4168,7 +4175,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="21"/>
+      <c r="A19" s="110"/>
       <c r="B19" s="4"/>
       <c r="C19" s="3" t="s">
         <v>13</v>
@@ -4220,10 +4227,10 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomRight" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4261,560 +4268,620 @@
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="24" t="s">
+      <c r="E2" s="112"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="47"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="72" t="s">
+      <c r="H2" s="112"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="51"/>
-      <c r="L2" s="52"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="116"/>
     </row>
     <row r="3" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="57" t="s">
+      <c r="F3" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="56" t="s">
+      <c r="G3" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="57" t="s">
+      <c r="I3" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="56" t="s">
+      <c r="J3" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="31" t="s">
+      <c r="K3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="57" t="s">
+      <c r="L3" s="48" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="41"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="36"/>
     </row>
     <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="29"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="31" t="s">
+      <c r="A5" s="117"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="60"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="43"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="38"/>
     </row>
     <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="29"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="31" t="s">
+      <c r="A6" s="117"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="60"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="43"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="38"/>
     </row>
     <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="29"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="31" t="s">
+      <c r="A7" s="117"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="43"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="38"/>
     </row>
     <row r="8" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="29"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55" t="s">
+      <c r="A8" s="117"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="62"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="43"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="38"/>
     </row>
     <row r="9" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="29"/>
-      <c r="B9" s="31" t="s">
+      <c r="A9" s="117"/>
+      <c r="B9" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="64">
+      <c r="D9" s="55">
         <v>0.9</v>
       </c>
-      <c r="E9" s="32">
+      <c r="E9" s="28">
         <v>0.98399999999999999</v>
       </c>
-      <c r="F9" s="63">
+      <c r="F9" s="54">
         <v>0.6</v>
       </c>
-      <c r="G9" s="108">
+      <c r="G9" s="98">
         <v>0.73399999999999999</v>
       </c>
-      <c r="H9" s="109">
+      <c r="H9" s="99">
         <v>0.99099999999999999</v>
       </c>
-      <c r="I9" s="110">
+      <c r="I9" s="100">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="J9" s="69">
+      <c r="J9" s="60">
         <v>0.72799999999999998</v>
       </c>
-      <c r="K9" s="42">
+      <c r="K9" s="37">
         <v>1</v>
       </c>
-      <c r="L9" s="43">
+      <c r="L9" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="29"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="31" t="s">
+      <c r="A10" s="117"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="62"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="43"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="29"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="31" t="s">
+      <c r="A11" s="117"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="62">
+      <c r="D11" s="53">
         <v>0.9</v>
       </c>
-      <c r="E11" s="32">
+      <c r="E11" s="28">
         <v>0.98</v>
       </c>
-      <c r="F11" s="63">
+      <c r="F11" s="54">
         <v>0.6</v>
       </c>
-      <c r="G11" s="62">
+      <c r="G11" s="53">
         <v>0.73399999999999999</v>
       </c>
-      <c r="H11" s="32">
+      <c r="H11" s="28">
         <v>0.99099999999999999</v>
       </c>
-      <c r="I11" s="63">
+      <c r="I11" s="54">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="J11" s="69">
+      <c r="J11" s="60">
         <v>0.70899999999999996</v>
       </c>
-      <c r="K11" s="42">
+      <c r="K11" s="37">
         <v>0.80400000000000005</v>
       </c>
-      <c r="L11" s="43">
+      <c r="L11" s="38">
         <v>0.29499999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="29"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="31" t="s">
+      <c r="A12" s="117"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="62">
+      <c r="D12" s="53">
         <v>0.90100000000000002</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="28">
         <v>0.98399999999999999</v>
       </c>
-      <c r="F12" s="63">
+      <c r="F12" s="54">
         <v>0.6</v>
       </c>
-      <c r="G12" s="62">
+      <c r="G12" s="53">
         <v>0.73399999999999999</v>
       </c>
-      <c r="H12" s="32">
+      <c r="H12" s="28">
         <v>0.99099999999999999</v>
       </c>
-      <c r="I12" s="63">
+      <c r="I12" s="54">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="J12" s="69">
+      <c r="J12" s="60">
         <v>0.70899999999999996</v>
       </c>
-      <c r="K12" s="42">
+      <c r="K12" s="37">
         <v>0.80400000000000005</v>
       </c>
-      <c r="L12" s="43">
+      <c r="L12" s="38">
         <v>0.29499999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="35"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="45" t="s">
+      <c r="A13" s="118"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="65">
+      <c r="D13" s="56">
         <v>0.73399999999999999</v>
       </c>
-      <c r="E13" s="46">
+      <c r="E13" s="41">
         <v>0.9</v>
       </c>
-      <c r="F13" s="66">
+      <c r="F13" s="57">
         <v>0.1</v>
       </c>
-      <c r="G13" s="111">
+      <c r="G13" s="101">
         <v>0.69699999999999995</v>
       </c>
-      <c r="H13" s="112">
+      <c r="H13" s="102">
         <v>0.85499999999999998</v>
       </c>
-      <c r="I13" s="113">
+      <c r="I13" s="103">
         <v>0.27300000000000002</v>
       </c>
-      <c r="J13" s="74"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="39"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="34"/>
     </row>
     <row r="14" spans="1:12" s="18" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="19"/>
       <c r="B14" s="4"/>
       <c r="C14" s="19"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="43"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="38"/>
     </row>
     <row r="15" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="67"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="75"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="28"/>
+      <c r="D15" s="58">
+        <v>1</v>
+      </c>
+      <c r="E15" s="23">
+        <v>1</v>
+      </c>
+      <c r="F15" s="59">
+        <v>1</v>
+      </c>
+      <c r="G15" s="58">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="H15" s="23">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="I15" s="59">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="J15" s="65"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="25"/>
     </row>
     <row r="16" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="29"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="31" t="s">
+      <c r="A16" s="117"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="62"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="34"/>
+      <c r="D16" s="53">
+        <v>1</v>
+      </c>
+      <c r="E16" s="28">
+        <v>1</v>
+      </c>
+      <c r="F16" s="54">
+        <v>1</v>
+      </c>
+      <c r="G16" s="53">
+        <v>0.8</v>
+      </c>
+      <c r="H16" s="28">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="I16" s="54">
+        <v>0.3125</v>
+      </c>
+      <c r="J16" s="66"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="30"/>
     </row>
     <row r="17" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="29"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="31" t="s">
+      <c r="A17" s="117"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="76"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="34"/>
+      <c r="D17" s="53">
+        <v>1</v>
+      </c>
+      <c r="E17" s="28">
+        <v>1</v>
+      </c>
+      <c r="F17" s="54">
+        <v>1</v>
+      </c>
+      <c r="G17" s="119">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="H17" s="120">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="I17" s="121">
+        <v>0.313</v>
+      </c>
+      <c r="J17" s="66"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="30"/>
     </row>
     <row r="18" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="29"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="31" t="s">
+      <c r="A18" s="117"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="62"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="76"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="34"/>
+      <c r="D18" s="53">
+        <v>1</v>
+      </c>
+      <c r="E18" s="28">
+        <v>1</v>
+      </c>
+      <c r="F18" s="54">
+        <v>1</v>
+      </c>
+      <c r="G18" s="53">
+        <v>0.81</v>
+      </c>
+      <c r="H18" s="28">
+        <v>0.96</v>
+      </c>
+      <c r="I18" s="54">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J18" s="66"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="30"/>
     </row>
     <row r="19" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="29"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="31" t="s">
+      <c r="A19" s="117"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="74"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="115"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="34"/>
+      <c r="D19" s="64">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="E19" s="41">
+        <v>0.99</v>
+      </c>
+      <c r="F19" s="54">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="G19" s="101">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="H19" s="102">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="I19" s="103">
+        <v>0.313</v>
+      </c>
+      <c r="J19" s="105"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="30"/>
     </row>
     <row r="20" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="29"/>
-      <c r="B20" s="25" t="s">
+      <c r="A20" s="117"/>
+      <c r="B20" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="114" t="s">
+      <c r="C20" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="67">
+      <c r="D20" s="58">
         <v>0.92600000000000005</v>
       </c>
-      <c r="E20" s="26">
+      <c r="E20" s="23">
         <v>0.95499999999999996</v>
       </c>
-      <c r="F20" s="68">
+      <c r="F20" s="59">
         <v>0.81699999999999995</v>
       </c>
-      <c r="G20" s="116">
+      <c r="G20" s="106">
         <v>0.78800000000000003</v>
       </c>
-      <c r="H20" s="117">
+      <c r="H20" s="107">
         <v>0.92400000000000004</v>
       </c>
-      <c r="I20" s="118">
+      <c r="I20" s="108">
         <v>0.38900000000000001</v>
       </c>
-      <c r="J20" s="75">
+      <c r="J20" s="65">
         <v>0.64700000000000002</v>
       </c>
-      <c r="K20" s="27">
+      <c r="K20" s="24">
         <v>0.82</v>
       </c>
-      <c r="L20" s="28">
+      <c r="L20" s="25">
         <v>0.13900000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="29"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="31" t="s">
+      <c r="A21" s="117"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="62">
+      <c r="D21" s="53">
         <v>0.91200000000000003</v>
       </c>
-      <c r="E21" s="32">
+      <c r="E21" s="28">
         <v>0.98199999999999998</v>
       </c>
-      <c r="F21" s="63">
+      <c r="F21" s="54">
         <v>0.65</v>
       </c>
-      <c r="G21" s="62">
+      <c r="G21" s="53">
         <v>0.73199999999999998</v>
       </c>
-      <c r="H21" s="32">
+      <c r="H21" s="28">
         <v>0.92400000000000004</v>
       </c>
-      <c r="I21" s="63">
+      <c r="I21" s="54">
         <v>0.16700000000000001</v>
       </c>
-      <c r="J21" s="76">
+      <c r="J21" s="66">
         <v>0.69</v>
       </c>
-      <c r="K21" s="33">
+      <c r="K21" s="29">
         <v>0.89600000000000002</v>
       </c>
-      <c r="L21" s="34">
+      <c r="L21" s="30">
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="29"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="31" t="s">
+      <c r="A22" s="117"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="62">
+      <c r="D22" s="53">
         <v>0.94399999999999995</v>
       </c>
-      <c r="E22" s="32">
+      <c r="E22" s="28">
         <v>0.96</v>
       </c>
-      <c r="F22" s="63">
+      <c r="F22" s="54">
         <v>0.88</v>
       </c>
-      <c r="G22" s="62">
+      <c r="G22" s="53">
         <v>0.753</v>
       </c>
-      <c r="H22" s="32">
+      <c r="H22" s="28">
         <v>0.877</v>
       </c>
-      <c r="I22" s="63">
+      <c r="I22" s="54">
         <v>0.38900000000000001</v>
       </c>
-      <c r="J22" s="76">
+      <c r="J22" s="66">
         <v>0.65500000000000003</v>
       </c>
-      <c r="K22" s="33">
+      <c r="K22" s="29">
         <v>0.85</v>
       </c>
-      <c r="L22" s="34">
+      <c r="L22" s="30">
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="29"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="31" t="s">
+      <c r="A23" s="117"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="62">
+      <c r="D23" s="53">
         <v>0.94399999999999995</v>
       </c>
-      <c r="E23" s="32">
+      <c r="E23" s="28">
         <v>0.96</v>
       </c>
-      <c r="F23" s="63">
+      <c r="F23" s="54">
         <v>0.88300000000000001</v>
       </c>
-      <c r="G23" s="62">
+      <c r="G23" s="53">
         <v>0.754</v>
       </c>
-      <c r="H23" s="32">
+      <c r="H23" s="28">
         <v>0.877</v>
       </c>
-      <c r="I23" s="63">
+      <c r="I23" s="54">
         <v>0.38900000000000001</v>
       </c>
-      <c r="J23" s="76">
+      <c r="J23" s="66">
         <v>0.65500000000000003</v>
       </c>
-      <c r="K23" s="33">
+      <c r="K23" s="29">
         <v>0.85</v>
       </c>
-      <c r="L23" s="34">
+      <c r="L23" s="30">
         <v>0.08</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="35"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36" t="s">
+      <c r="A24" s="118"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="70">
+      <c r="D24" s="61">
         <v>0.93600000000000005</v>
       </c>
-      <c r="E24" s="37">
+      <c r="E24" s="32">
         <v>0.98199999999999998</v>
       </c>
-      <c r="F24" s="71">
+      <c r="F24" s="62">
         <v>0.77</v>
       </c>
-      <c r="G24" s="105">
+      <c r="G24" s="95">
         <v>0.76700000000000002</v>
       </c>
-      <c r="H24" s="106">
+      <c r="H24" s="96">
         <v>0.89600000000000002</v>
       </c>
-      <c r="I24" s="107">
+      <c r="I24" s="97">
         <v>0.38900000000000001</v>
       </c>
-      <c r="J24" s="74"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="39"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="34"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4835,7 +4902,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4873,385 +4940,385 @@
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="24" t="s">
+      <c r="E2" s="112"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="47"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="51" t="s">
+      <c r="H2" s="112"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="51"/>
-      <c r="L2" s="52"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="116"/>
     </row>
     <row r="3" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="G3" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="45" t="s">
+      <c r="H3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="50" t="s">
+      <c r="I3" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="45" t="s">
+      <c r="J3" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="45" t="s">
+      <c r="K3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="50" t="s">
+      <c r="L3" s="43" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="77">
+      <c r="D4" s="67">
         <v>0.76</v>
       </c>
-      <c r="E4" s="78">
+      <c r="E4" s="68">
         <v>1</v>
       </c>
-      <c r="F4" s="79">
+      <c r="F4" s="69">
         <v>0</v>
       </c>
-      <c r="G4" s="97">
+      <c r="G4" s="87">
         <v>0.76600000000000001</v>
       </c>
-      <c r="H4" s="97">
+      <c r="H4" s="87">
         <v>0.94599999999999995</v>
       </c>
-      <c r="I4" s="100">
+      <c r="I4" s="90">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="J4" s="80">
+      <c r="J4" s="70">
         <v>0.79500000000000004</v>
       </c>
-      <c r="K4" s="80">
+      <c r="K4" s="70">
         <v>1</v>
       </c>
-      <c r="L4" s="79">
+      <c r="L4" s="69">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="29"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="31" t="s">
+      <c r="A5" s="117"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="81"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="83"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="73"/>
     </row>
     <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="29"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="31" t="s">
+      <c r="A6" s="117"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="81">
+      <c r="D6" s="71">
         <v>0.77500000000000002</v>
       </c>
-      <c r="E6" s="82">
+      <c r="E6" s="72">
         <v>1</v>
       </c>
-      <c r="F6" s="83">
+      <c r="F6" s="73">
         <v>0</v>
       </c>
-      <c r="G6" s="82">
+      <c r="G6" s="72">
         <v>0.69799999999999995</v>
       </c>
-      <c r="H6" s="82">
+      <c r="H6" s="72">
         <v>0.9</v>
       </c>
-      <c r="I6" s="83">
+      <c r="I6" s="73">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="J6" s="84">
+      <c r="J6" s="74">
         <v>0.76500000000000001</v>
       </c>
-      <c r="K6" s="84">
+      <c r="K6" s="74">
         <v>1</v>
       </c>
-      <c r="L6" s="83">
+      <c r="L6" s="73">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="29"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="31" t="s">
+      <c r="A7" s="117"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="81">
+      <c r="D7" s="71">
         <v>0.77500000000000002</v>
       </c>
-      <c r="E7" s="82">
+      <c r="E7" s="72">
         <v>1</v>
       </c>
-      <c r="F7" s="83">
+      <c r="F7" s="73">
         <v>0</v>
       </c>
-      <c r="G7" s="82">
+      <c r="G7" s="72">
         <v>0.69799999999999995</v>
       </c>
-      <c r="H7" s="82">
+      <c r="H7" s="72">
         <v>0.9</v>
       </c>
-      <c r="I7" s="83">
+      <c r="I7" s="73">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="J7" s="84">
+      <c r="J7" s="74">
         <v>0.76500000000000001</v>
       </c>
-      <c r="K7" s="84">
+      <c r="K7" s="74">
         <v>1</v>
       </c>
-      <c r="L7" s="83">
+      <c r="L7" s="73">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="35"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="45" t="s">
+      <c r="A8" s="118"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="85">
+      <c r="D8" s="75">
         <v>0.68799999999999994</v>
       </c>
-      <c r="E8" s="86">
+      <c r="E8" s="76">
         <v>0.86199999999999999</v>
       </c>
-      <c r="F8" s="87">
+      <c r="F8" s="77">
         <v>0.13</v>
       </c>
-      <c r="G8" s="103">
+      <c r="G8" s="93">
         <v>0.73</v>
       </c>
-      <c r="H8" s="103">
+      <c r="H8" s="93">
         <v>0.88</v>
       </c>
-      <c r="I8" s="98">
+      <c r="I8" s="88">
         <v>0.16</v>
       </c>
-      <c r="J8" s="88"/>
-      <c r="K8" s="88"/>
-      <c r="L8" s="87"/>
+      <c r="J8" s="78"/>
+      <c r="K8" s="78"/>
+      <c r="L8" s="77"/>
     </row>
     <row r="9" spans="1:12" s="18" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="19"/>
       <c r="B9" s="4"/>
       <c r="C9" s="19"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="90"/>
-      <c r="J9" s="90"/>
-      <c r="K9" s="90"/>
-      <c r="L9" s="90"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="80"/>
     </row>
     <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="77">
+      <c r="D10" s="67">
         <v>0.92600000000000005</v>
       </c>
-      <c r="E10" s="78">
+      <c r="E10" s="68">
         <v>0.97499999999999998</v>
       </c>
-      <c r="F10" s="91">
+      <c r="F10" s="81">
         <v>0.75900000000000001</v>
       </c>
-      <c r="G10" s="99">
+      <c r="G10" s="89">
         <v>0.91900000000000004</v>
       </c>
-      <c r="H10" s="99">
+      <c r="H10" s="89">
         <v>0.99299999999999999</v>
       </c>
-      <c r="I10" s="104">
+      <c r="I10" s="94">
         <v>0.68600000000000005</v>
       </c>
-      <c r="J10" s="92">
+      <c r="J10" s="82">
         <v>0.68500000000000005</v>
       </c>
-      <c r="K10" s="92">
+      <c r="K10" s="82">
         <v>0.78500000000000003</v>
       </c>
-      <c r="L10" s="91">
+      <c r="L10" s="81">
         <v>0.28499999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="29"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="31" t="s">
+      <c r="A11" s="117"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="81">
+      <c r="D11" s="71">
         <v>0.89700000000000002</v>
       </c>
-      <c r="E11" s="82">
+      <c r="E11" s="72">
         <v>0.98899999999999999</v>
       </c>
-      <c r="F11" s="93">
+      <c r="F11" s="83">
         <v>0.58599999999999997</v>
       </c>
-      <c r="G11" s="82">
+      <c r="G11" s="72">
         <v>0.76100000000000001</v>
       </c>
-      <c r="H11" s="82">
+      <c r="H11" s="72">
         <v>1</v>
       </c>
-      <c r="I11" s="93">
+      <c r="I11" s="83">
         <v>1.9E-2</v>
       </c>
-      <c r="J11" s="94">
+      <c r="J11" s="84">
         <v>0.71399999999999997</v>
       </c>
-      <c r="K11" s="94">
+      <c r="K11" s="84">
         <v>0.86099999999999999</v>
       </c>
-      <c r="L11" s="93">
+      <c r="L11" s="83">
         <v>0.254</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="29"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="31" t="s">
+      <c r="A12" s="117"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="81">
+      <c r="D12" s="71">
         <v>0.91700000000000004</v>
       </c>
-      <c r="E12" s="82">
+      <c r="E12" s="72">
         <v>0.96699999999999997</v>
       </c>
-      <c r="F12" s="93">
+      <c r="F12" s="83">
         <v>0.748</v>
       </c>
-      <c r="G12" s="82">
+      <c r="G12" s="72">
         <v>0.88500000000000001</v>
       </c>
-      <c r="H12" s="82">
+      <c r="H12" s="72">
         <v>0.94299999999999995</v>
       </c>
-      <c r="I12" s="93">
+      <c r="I12" s="83">
         <v>0.70499999999999996</v>
       </c>
-      <c r="J12" s="94">
+      <c r="J12" s="84">
         <v>0.68500000000000005</v>
       </c>
-      <c r="K12" s="94">
+      <c r="K12" s="84">
         <v>0.79800000000000004</v>
       </c>
-      <c r="L12" s="93">
+      <c r="L12" s="83">
         <v>0.33300000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="29"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="31" t="s">
+      <c r="A13" s="117"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="81">
+      <c r="D13" s="71">
         <v>0.91700000000000004</v>
       </c>
-      <c r="E13" s="82">
+      <c r="E13" s="72">
         <v>0.96699999999999997</v>
       </c>
-      <c r="F13" s="93">
+      <c r="F13" s="83">
         <v>0.748</v>
       </c>
-      <c r="G13" s="82">
+      <c r="G13" s="72">
         <v>0.88500000000000001</v>
       </c>
-      <c r="H13" s="82">
+      <c r="H13" s="72">
         <v>0.94299999999999995</v>
       </c>
-      <c r="I13" s="93">
+      <c r="I13" s="83">
         <v>0.70499999999999996</v>
       </c>
-      <c r="J13" s="94">
+      <c r="J13" s="84">
         <v>0.68500000000000005</v>
       </c>
-      <c r="K13" s="94">
+      <c r="K13" s="84">
         <v>0.79800000000000004</v>
       </c>
-      <c r="L13" s="93">
+      <c r="L13" s="83">
         <v>0.33300000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="35"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36" t="s">
+      <c r="A14" s="118"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="95">
+      <c r="D14" s="85">
         <v>0.92100000000000004</v>
       </c>
-      <c r="E14" s="96">
+      <c r="E14" s="86">
         <v>0.99399999999999999</v>
       </c>
-      <c r="F14" s="87">
+      <c r="F14" s="77">
         <v>0.68799999999999994</v>
       </c>
-      <c r="G14" s="102">
+      <c r="G14" s="92">
         <v>0.94799999999999995</v>
       </c>
-      <c r="H14" s="102">
+      <c r="H14" s="92">
         <v>1</v>
       </c>
-      <c r="I14" s="101">
+      <c r="I14" s="91">
         <v>0.74399999999999999</v>
       </c>
-      <c r="J14" s="88"/>
-      <c r="K14" s="88"/>
-      <c r="L14" s="87"/>
+      <c r="J14" s="78"/>
+      <c r="K14" s="78"/>
+      <c r="L14" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/model_performance.xlsx
+++ b/model_performance.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="124">
   <si>
     <t>seed</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -422,6 +422,14 @@
   </si>
   <si>
     <t xml:space="preserve"> model was mtry = 15.</t>
+  </si>
+  <si>
+    <t>F1 -score</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>算完再下結論</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -632,7 +640,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -942,6 +950,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3700,21 +3714,21 @@
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="110" t="s">
+      <c r="D2" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110" t="s">
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="109" t="s">
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
     </row>
     <row r="3" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
@@ -3749,7 +3763,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="112" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -3769,7 +3783,7 @@
       <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="110"/>
+      <c r="A5" s="112"/>
       <c r="B5" s="4"/>
       <c r="C5" s="3" t="s">
         <v>11</v>
@@ -3785,7 +3799,7 @@
       <c r="L5" s="6"/>
     </row>
     <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="110"/>
+      <c r="A6" s="112"/>
       <c r="B6" s="4"/>
       <c r="C6" s="3" t="s">
         <v>12</v>
@@ -3801,7 +3815,7 @@
       <c r="L6" s="6"/>
     </row>
     <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="110"/>
+      <c r="A7" s="112"/>
       <c r="B7" s="4"/>
       <c r="C7" s="3" t="s">
         <v>13</v>
@@ -3817,7 +3831,7 @@
       <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="110"/>
+      <c r="A8" s="112"/>
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
@@ -3847,7 +3861,7 @@
       <c r="L8" s="6"/>
     </row>
     <row r="9" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="110"/>
+      <c r="A9" s="112"/>
       <c r="B9" s="4"/>
       <c r="C9" s="3" t="s">
         <v>11</v>
@@ -3875,7 +3889,7 @@
       <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="110"/>
+      <c r="A10" s="112"/>
       <c r="B10" s="4"/>
       <c r="C10" s="3" t="s">
         <v>12</v>
@@ -3903,7 +3917,7 @@
       <c r="L10" s="6"/>
     </row>
     <row r="11" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="110"/>
+      <c r="A11" s="112"/>
       <c r="B11" s="4"/>
       <c r="C11" s="3" t="s">
         <v>13</v>
@@ -3931,7 +3945,7 @@
       <c r="L11" s="6"/>
     </row>
     <row r="12" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="110" t="s">
+      <c r="A12" s="112" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -3969,7 +3983,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="110"/>
+      <c r="A13" s="112"/>
       <c r="B13" s="4"/>
       <c r="C13" s="3" t="s">
         <v>11</v>
@@ -4003,7 +4017,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="110"/>
+      <c r="A14" s="112"/>
       <c r="B14" s="4"/>
       <c r="C14" s="3" t="s">
         <v>12</v>
@@ -4037,7 +4051,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="110"/>
+      <c r="A15" s="112"/>
       <c r="B15" s="4"/>
       <c r="C15" s="3" t="s">
         <v>13</v>
@@ -4071,7 +4085,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="110"/>
+      <c r="A16" s="112"/>
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
@@ -4107,7 +4121,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="110"/>
+      <c r="A17" s="112"/>
       <c r="B17" s="4"/>
       <c r="C17" s="3" t="s">
         <v>11</v>
@@ -4141,7 +4155,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="110"/>
+      <c r="A18" s="112"/>
       <c r="B18" s="4"/>
       <c r="C18" s="3" t="s">
         <v>12</v>
@@ -4175,7 +4189,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="110"/>
+      <c r="A19" s="112"/>
       <c r="B19" s="4"/>
       <c r="C19" s="3" t="s">
         <v>13</v>
@@ -4224,13 +4238,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I17" sqref="I17"/>
+      <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4242,12 +4256,13 @@
     <col min="5" max="6" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.8984375" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.8984375" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.19921875" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.796875" style="9"/>
+    <col min="10" max="10" width="16.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.8984375" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.19921875" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.796875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
         <v>16</v>
       </c>
@@ -4263,28 +4278,32 @@
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
-    </row>
-    <row r="2" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="J1" s="109"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
-      <c r="D2" s="111" t="s">
+      <c r="D2" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="112"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="111" t="s">
+      <c r="E2" s="114"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="112"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="114" t="s">
+      <c r="H2" s="114"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="110" t="s">
+        <v>122</v>
+      </c>
+      <c r="K2" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="115"/>
-      <c r="L2" s="116"/>
-    </row>
-    <row r="3" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L2" s="117"/>
+      <c r="M2" s="118"/>
+    </row>
+    <row r="3" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -4306,18 +4325,21 @@
       <c r="I3" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="47" t="s">
+      <c r="J3" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="K3" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="27" t="s">
+      <c r="L3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="48" t="s">
+      <c r="M3" s="48" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="111" t="s">
+    <row r="4" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="113" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="22" t="s">
@@ -4332,12 +4354,13 @@
       <c r="G4" s="49"/>
       <c r="H4" s="44"/>
       <c r="I4" s="50"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="36"/>
-    </row>
-    <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="117"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="36"/>
+    </row>
+    <row r="5" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="119"/>
       <c r="B5" s="26"/>
       <c r="C5" s="27" t="s">
         <v>11</v>
@@ -4348,12 +4371,13 @@
       <c r="G5" s="51"/>
       <c r="H5" s="45"/>
       <c r="I5" s="52"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="38"/>
-    </row>
-    <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="117"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="38"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="119"/>
       <c r="B6" s="26"/>
       <c r="C6" s="27" t="s">
         <v>12</v>
@@ -4364,12 +4388,13 @@
       <c r="G6" s="51"/>
       <c r="H6" s="45"/>
       <c r="I6" s="52"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="38"/>
-    </row>
-    <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="117"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="38"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="119"/>
       <c r="B7" s="26"/>
       <c r="C7" s="27" t="s">
         <v>13</v>
@@ -4380,12 +4405,13 @@
       <c r="G7" s="51"/>
       <c r="H7" s="45"/>
       <c r="I7" s="52"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="38"/>
-    </row>
-    <row r="8" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="117"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="38"/>
+    </row>
+    <row r="8" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="119"/>
       <c r="B8" s="46"/>
       <c r="C8" s="46" t="s">
         <v>17</v>
@@ -4396,12 +4422,13 @@
       <c r="G8" s="53"/>
       <c r="H8" s="28"/>
       <c r="I8" s="54"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="38"/>
-    </row>
-    <row r="9" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="117"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="38"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="119"/>
       <c r="B9" s="27" t="s">
         <v>9</v>
       </c>
@@ -4426,18 +4453,19 @@
       <c r="I9" s="100">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="J9" s="60">
+      <c r="J9" s="99"/>
+      <c r="K9" s="60">
         <v>0.72799999999999998</v>
       </c>
-      <c r="K9" s="37">
+      <c r="L9" s="37">
         <v>1</v>
       </c>
-      <c r="L9" s="38">
+      <c r="M9" s="38">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="117"/>
+    <row r="10" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="119"/>
       <c r="B10" s="26"/>
       <c r="C10" s="27" t="s">
         <v>11</v>
@@ -4448,12 +4476,13 @@
       <c r="G10" s="53"/>
       <c r="H10" s="28"/>
       <c r="I10" s="54"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="38"/>
-    </row>
-    <row r="11" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="117"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="38"/>
+    </row>
+    <row r="11" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="119"/>
       <c r="B11" s="26"/>
       <c r="C11" s="27" t="s">
         <v>12</v>
@@ -4476,18 +4505,19 @@
       <c r="I11" s="54">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="J11" s="60">
+      <c r="J11" s="28"/>
+      <c r="K11" s="60">
         <v>0.70899999999999996</v>
       </c>
-      <c r="K11" s="37">
+      <c r="L11" s="37">
         <v>0.80400000000000005</v>
       </c>
-      <c r="L11" s="38">
+      <c r="M11" s="38">
         <v>0.29499999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="117"/>
+    <row r="12" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="119"/>
       <c r="B12" s="26"/>
       <c r="C12" s="27" t="s">
         <v>13</v>
@@ -4510,18 +4540,19 @@
       <c r="I12" s="54">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="J12" s="60">
+      <c r="J12" s="28"/>
+      <c r="K12" s="60">
         <v>0.70899999999999996</v>
       </c>
-      <c r="K12" s="37">
+      <c r="L12" s="37">
         <v>0.80400000000000005</v>
       </c>
-      <c r="L12" s="38">
+      <c r="M12" s="38">
         <v>0.29499999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="118"/>
+    <row r="13" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="120"/>
       <c r="B13" s="39"/>
       <c r="C13" s="40" t="s">
         <v>18</v>
@@ -4544,11 +4575,12 @@
       <c r="I13" s="103">
         <v>0.27300000000000002</v>
       </c>
-      <c r="J13" s="64"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="34"/>
-    </row>
-    <row r="14" spans="1:12" s="18" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J13" s="102"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="34"/>
+    </row>
+    <row r="14" spans="1:13" s="18" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="19"/>
       <c r="B14" s="4"/>
       <c r="C14" s="19"/>
@@ -4558,12 +4590,13 @@
       <c r="G14" s="53"/>
       <c r="H14" s="28"/>
       <c r="I14" s="54"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="38"/>
-    </row>
-    <row r="15" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="111" t="s">
+      <c r="J14" s="28"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="38"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="113" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="22" t="s">
@@ -4590,12 +4623,13 @@
       <c r="I15" s="59">
         <v>0.34399999999999997</v>
       </c>
-      <c r="J15" s="65"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="25"/>
-    </row>
-    <row r="16" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="117"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="25"/>
+    </row>
+    <row r="16" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="119"/>
       <c r="B16" s="26"/>
       <c r="C16" s="27" t="s">
         <v>11</v>
@@ -4618,12 +4652,13 @@
       <c r="I16" s="54">
         <v>0.3125</v>
       </c>
-      <c r="J16" s="66"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="30"/>
-    </row>
-    <row r="17" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="117"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="30"/>
+    </row>
+    <row r="17" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="119"/>
       <c r="B17" s="26"/>
       <c r="C17" s="27" t="s">
         <v>12</v>
@@ -4637,21 +4672,22 @@
       <c r="F17" s="54">
         <v>1</v>
       </c>
-      <c r="G17" s="119">
+      <c r="G17" s="121">
         <v>0.81699999999999995</v>
       </c>
-      <c r="H17" s="120">
+      <c r="H17" s="122">
         <v>0.96399999999999997</v>
       </c>
-      <c r="I17" s="121">
+      <c r="I17" s="123">
         <v>0.313</v>
       </c>
-      <c r="J17" s="66"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="30"/>
-    </row>
-    <row r="18" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="117"/>
+      <c r="J17" s="122"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="30"/>
+    </row>
+    <row r="18" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="119"/>
       <c r="B18" s="26"/>
       <c r="C18" s="27" t="s">
         <v>13</v>
@@ -4674,12 +4710,13 @@
       <c r="I18" s="54">
         <v>0.28000000000000003</v>
       </c>
-      <c r="J18" s="66"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="30"/>
-    </row>
-    <row r="19" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="117"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="30"/>
+    </row>
+    <row r="19" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="119"/>
       <c r="B19" s="26"/>
       <c r="C19" s="27" t="s">
         <v>18</v>
@@ -4702,12 +4739,13 @@
       <c r="I19" s="103">
         <v>0.313</v>
       </c>
-      <c r="J19" s="105"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="30"/>
-    </row>
-    <row r="20" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="117"/>
+      <c r="J19" s="102"/>
+      <c r="K19" s="105"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="30"/>
+    </row>
+    <row r="20" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="119"/>
       <c r="B20" s="22" t="s">
         <v>9</v>
       </c>
@@ -4732,18 +4770,19 @@
       <c r="I20" s="108">
         <v>0.38900000000000001</v>
       </c>
-      <c r="J20" s="65">
+      <c r="J20" s="107"/>
+      <c r="K20" s="65">
         <v>0.64700000000000002</v>
       </c>
-      <c r="K20" s="24">
+      <c r="L20" s="24">
         <v>0.82</v>
       </c>
-      <c r="L20" s="25">
+      <c r="M20" s="25">
         <v>0.13900000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="117"/>
+    <row r="21" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="119"/>
       <c r="B21" s="26"/>
       <c r="C21" s="27" t="s">
         <v>11</v>
@@ -4766,18 +4805,19 @@
       <c r="I21" s="54">
         <v>0.16700000000000001</v>
       </c>
-      <c r="J21" s="66">
+      <c r="J21" s="28"/>
+      <c r="K21" s="66">
         <v>0.69</v>
       </c>
-      <c r="K21" s="29">
+      <c r="L21" s="29">
         <v>0.89600000000000002</v>
       </c>
-      <c r="L21" s="30">
+      <c r="M21" s="30">
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="117"/>
+    <row r="22" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="119"/>
       <c r="B22" s="26"/>
       <c r="C22" s="27" t="s">
         <v>12</v>
@@ -4800,18 +4840,19 @@
       <c r="I22" s="54">
         <v>0.38900000000000001</v>
       </c>
-      <c r="J22" s="66">
+      <c r="J22" s="28"/>
+      <c r="K22" s="66">
         <v>0.65500000000000003</v>
       </c>
-      <c r="K22" s="29">
+      <c r="L22" s="29">
         <v>0.85</v>
       </c>
-      <c r="L22" s="30">
+      <c r="M22" s="30">
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="117"/>
+    <row r="23" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="119"/>
       <c r="B23" s="26"/>
       <c r="C23" s="27" t="s">
         <v>13</v>
@@ -4834,18 +4875,19 @@
       <c r="I23" s="54">
         <v>0.38900000000000001</v>
       </c>
-      <c r="J23" s="66">
+      <c r="J23" s="28"/>
+      <c r="K23" s="66">
         <v>0.65500000000000003</v>
       </c>
-      <c r="K23" s="29">
+      <c r="L23" s="29">
         <v>0.85</v>
       </c>
-      <c r="L23" s="30">
+      <c r="M23" s="30">
         <v>0.08</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="118"/>
+    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="120"/>
       <c r="B24" s="31"/>
       <c r="C24" s="31" t="s">
         <v>19</v>
@@ -4868,26 +4910,28 @@
       <c r="I24" s="97">
         <v>0.38900000000000001</v>
       </c>
-      <c r="J24" s="64"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="34"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J24" s="96"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="34"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>
       <c r="F25" s="21"/>
       <c r="G25" s="21"/>
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
-      <c r="J25" s="20"/>
+      <c r="J25" s="21"/>
       <c r="K25" s="20"/>
       <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="K2:M2"/>
     <mergeCell ref="A15:A24"/>
     <mergeCell ref="A4:A13"/>
   </mergeCells>
@@ -4902,7 +4946,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4940,21 +4984,21 @@
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
-      <c r="D2" s="111" t="s">
+      <c r="D2" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="112"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="111" t="s">
+      <c r="E2" s="114"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="112"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="115" t="s">
+      <c r="H2" s="114"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="115"/>
-      <c r="L2" s="116"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="118"/>
     </row>
     <row r="3" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="11"/>
@@ -4989,7 +5033,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="111" t="s">
+      <c r="A4" s="113" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="22" t="s">
@@ -5027,7 +5071,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="117"/>
+      <c r="A5" s="119"/>
       <c r="B5" s="26"/>
       <c r="C5" s="27" t="s">
         <v>11</v>
@@ -5043,7 +5087,7 @@
       <c r="L5" s="73"/>
     </row>
     <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="117"/>
+      <c r="A6" s="119"/>
       <c r="B6" s="26"/>
       <c r="C6" s="27" t="s">
         <v>12</v>
@@ -5077,7 +5121,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="117"/>
+      <c r="A7" s="119"/>
       <c r="B7" s="26"/>
       <c r="C7" s="27" t="s">
         <v>13</v>
@@ -5111,7 +5155,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="118"/>
+      <c r="A8" s="120"/>
       <c r="B8" s="39"/>
       <c r="C8" s="40" t="s">
         <v>18</v>
@@ -5153,7 +5197,7 @@
       <c r="L9" s="80"/>
     </row>
     <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="111" t="s">
+      <c r="A10" s="113" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="22" t="s">
@@ -5191,7 +5235,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="117"/>
+      <c r="A11" s="119"/>
       <c r="B11" s="26"/>
       <c r="C11" s="27" t="s">
         <v>11</v>
@@ -5225,7 +5269,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="117"/>
+      <c r="A12" s="119"/>
       <c r="B12" s="26"/>
       <c r="C12" s="27" t="s">
         <v>12</v>
@@ -5259,7 +5303,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="117"/>
+      <c r="A13" s="119"/>
       <c r="B13" s="26"/>
       <c r="C13" s="27" t="s">
         <v>13</v>
@@ -5293,7 +5337,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="118"/>
+      <c r="A14" s="120"/>
       <c r="B14" s="31"/>
       <c r="C14" s="31" t="s">
         <v>19</v>

--- a/model_performance.xlsx
+++ b/model_performance.xlsx
@@ -640,7 +640,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -722,9 +722,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -748,9 +745,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -763,57 +757,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -910,52 +862,28 @@
     <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -988,13 +916,166 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3714,21 +3795,21 @@
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="112" t="s">
+      <c r="D2" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112" t="s">
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="111" t="s">
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
     </row>
     <row r="3" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
@@ -3763,7 +3844,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="112" t="s">
+      <c r="A4" s="88" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -3783,7 +3864,7 @@
       <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="112"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="4"/>
       <c r="C5" s="3" t="s">
         <v>11</v>
@@ -3799,7 +3880,7 @@
       <c r="L5" s="6"/>
     </row>
     <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="112"/>
+      <c r="A6" s="88"/>
       <c r="B6" s="4"/>
       <c r="C6" s="3" t="s">
         <v>12</v>
@@ -3815,7 +3896,7 @@
       <c r="L6" s="6"/>
     </row>
     <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="112"/>
+      <c r="A7" s="88"/>
       <c r="B7" s="4"/>
       <c r="C7" s="3" t="s">
         <v>13</v>
@@ -3831,7 +3912,7 @@
       <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="112"/>
+      <c r="A8" s="88"/>
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
@@ -3861,7 +3942,7 @@
       <c r="L8" s="6"/>
     </row>
     <row r="9" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="112"/>
+      <c r="A9" s="88"/>
       <c r="B9" s="4"/>
       <c r="C9" s="3" t="s">
         <v>11</v>
@@ -3889,7 +3970,7 @@
       <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="112"/>
+      <c r="A10" s="88"/>
       <c r="B10" s="4"/>
       <c r="C10" s="3" t="s">
         <v>12</v>
@@ -3917,7 +3998,7 @@
       <c r="L10" s="6"/>
     </row>
     <row r="11" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="112"/>
+      <c r="A11" s="88"/>
       <c r="B11" s="4"/>
       <c r="C11" s="3" t="s">
         <v>13</v>
@@ -3945,7 +4026,7 @@
       <c r="L11" s="6"/>
     </row>
     <row r="12" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="112" t="s">
+      <c r="A12" s="88" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -3983,7 +4064,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="112"/>
+      <c r="A13" s="88"/>
       <c r="B13" s="4"/>
       <c r="C13" s="3" t="s">
         <v>11</v>
@@ -4017,7 +4098,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="112"/>
+      <c r="A14" s="88"/>
       <c r="B14" s="4"/>
       <c r="C14" s="3" t="s">
         <v>12</v>
@@ -4051,7 +4132,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="112"/>
+      <c r="A15" s="88"/>
       <c r="B15" s="4"/>
       <c r="C15" s="3" t="s">
         <v>13</v>
@@ -4085,7 +4166,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="112"/>
+      <c r="A16" s="88"/>
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
@@ -4121,7 +4202,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="112"/>
+      <c r="A17" s="88"/>
       <c r="B17" s="4"/>
       <c r="C17" s="3" t="s">
         <v>11</v>
@@ -4155,7 +4236,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="112"/>
+      <c r="A18" s="88"/>
       <c r="B18" s="4"/>
       <c r="C18" s="3" t="s">
         <v>12</v>
@@ -4189,7 +4270,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="112"/>
+      <c r="A19" s="88"/>
       <c r="B19" s="4"/>
       <c r="C19" s="3" t="s">
         <v>13</v>
@@ -4241,10 +4322,10 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4252,13 +4333,13 @@
     <col min="1" max="1" width="12.5" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="9" customWidth="1"/>
-    <col min="4" max="4" width="11.8984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.8984375" style="4" hidden="1" customWidth="1"/>
+    <col min="5" max="6" width="13.19921875" style="4" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="11.8984375" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.8984375" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13.19921875" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.8984375" style="9" hidden="1" customWidth="1"/>
+    <col min="12" max="13" width="13.19921875" style="9" hidden="1" customWidth="1"/>
     <col min="14" max="16384" width="8.796875" style="9"/>
   </cols>
   <sheetData>
@@ -4278,500 +4359,500 @@
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
-      <c r="J1" s="109"/>
+      <c r="J1" s="84"/>
     </row>
     <row r="2" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="113" t="s">
+      <c r="A2" s="97"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="114"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="113" t="s">
+      <c r="E2" s="99"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="114"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="110" t="s">
+      <c r="H2" s="99"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="85" t="s">
         <v>122</v>
       </c>
-      <c r="K2" s="116" t="s">
+      <c r="K2" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="117"/>
-      <c r="M2" s="118"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="94"/>
     </row>
     <row r="3" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="47" t="s">
+      <c r="A3" s="97"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="48" t="s">
+      <c r="F3" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="47" t="s">
+      <c r="G3" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="48" t="s">
+      <c r="I3" s="103" t="s">
         <v>3</v>
       </c>
       <c r="J3" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="K3" s="47" t="s">
+      <c r="K3" s="44" t="s">
         <v>2</v>
       </c>
       <c r="L3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="48" t="s">
+      <c r="M3" s="45" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="36"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="35"/>
     </row>
     <row r="5" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="119"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="27" t="s">
+      <c r="A5" s="108"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="51"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="38"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="37"/>
     </row>
     <row r="6" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="119"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="27" t="s">
+      <c r="A6" s="108"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="51"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="38"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="110"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="37"/>
     </row>
     <row r="7" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="119"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="27" t="s">
+      <c r="A7" s="108"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="38"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="110"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="37"/>
     </row>
     <row r="8" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="119"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46" t="s">
+      <c r="A8" s="108"/>
+      <c r="B8" s="113"/>
+      <c r="C8" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="53"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="54"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="116"/>
       <c r="J8" s="28"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="38"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="37"/>
     </row>
     <row r="9" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="119"/>
-      <c r="B9" s="27" t="s">
+      <c r="A9" s="108"/>
+      <c r="B9" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="55">
+      <c r="D9" s="117">
         <v>0.9</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="115">
         <v>0.98399999999999999</v>
       </c>
-      <c r="F9" s="54">
+      <c r="F9" s="116">
         <v>0.6</v>
       </c>
-      <c r="G9" s="98">
+      <c r="G9" s="148">
         <v>0.73399999999999999</v>
       </c>
-      <c r="H9" s="99">
+      <c r="H9" s="149">
         <v>0.99099999999999999</v>
       </c>
-      <c r="I9" s="100">
+      <c r="I9" s="150">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="J9" s="99"/>
-      <c r="K9" s="60">
+      <c r="J9" s="80"/>
+      <c r="K9" s="46">
         <v>0.72799999999999998</v>
       </c>
-      <c r="L9" s="37">
+      <c r="L9" s="36">
         <v>1</v>
       </c>
-      <c r="M9" s="38">
+      <c r="M9" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="119"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="27" t="s">
+      <c r="A10" s="108"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="53"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="54"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="116"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="135"/>
       <c r="J10" s="28"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="38"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="37"/>
     </row>
     <row r="11" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="119"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="27" t="s">
+      <c r="A11" s="108"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="53">
+      <c r="D11" s="114">
         <v>0.9</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="115">
         <v>0.98</v>
       </c>
-      <c r="F11" s="54">
+      <c r="F11" s="116">
         <v>0.6</v>
       </c>
-      <c r="G11" s="53">
+      <c r="G11" s="134">
         <v>0.73399999999999999</v>
       </c>
-      <c r="H11" s="28">
+      <c r="H11" s="56">
         <v>0.99099999999999999</v>
       </c>
-      <c r="I11" s="54">
+      <c r="I11" s="135">
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="J11" s="28"/>
-      <c r="K11" s="60">
+      <c r="K11" s="46">
         <v>0.70899999999999996</v>
       </c>
-      <c r="L11" s="37">
+      <c r="L11" s="36">
         <v>0.80400000000000005</v>
       </c>
-      <c r="M11" s="38">
+      <c r="M11" s="37">
         <v>0.29499999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="119"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="27" t="s">
+      <c r="A12" s="108"/>
+      <c r="B12" s="109"/>
+      <c r="C12" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="53">
+      <c r="D12" s="114">
         <v>0.90100000000000002</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="115">
         <v>0.98399999999999999</v>
       </c>
-      <c r="F12" s="54">
+      <c r="F12" s="116">
         <v>0.6</v>
       </c>
-      <c r="G12" s="53">
+      <c r="G12" s="134">
         <v>0.73399999999999999</v>
       </c>
-      <c r="H12" s="28">
+      <c r="H12" s="56">
         <v>0.99099999999999999</v>
       </c>
-      <c r="I12" s="54">
+      <c r="I12" s="135">
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="J12" s="28"/>
-      <c r="K12" s="60">
+      <c r="K12" s="46">
         <v>0.70899999999999996</v>
       </c>
-      <c r="L12" s="37">
+      <c r="L12" s="36">
         <v>0.80400000000000005</v>
       </c>
-      <c r="M12" s="38">
+      <c r="M12" s="37">
         <v>0.29499999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="120"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="40" t="s">
+      <c r="A13" s="118"/>
+      <c r="B13" s="119"/>
+      <c r="C13" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="56">
+      <c r="D13" s="121">
         <v>0.73399999999999999</v>
       </c>
-      <c r="E13" s="41">
+      <c r="E13" s="122">
         <v>0.9</v>
       </c>
-      <c r="F13" s="57">
+      <c r="F13" s="123">
         <v>0.1</v>
       </c>
-      <c r="G13" s="101">
+      <c r="G13" s="136">
         <v>0.69699999999999995</v>
       </c>
-      <c r="H13" s="102">
+      <c r="H13" s="77">
         <v>0.85499999999999998</v>
       </c>
-      <c r="I13" s="103">
+      <c r="I13" s="137">
         <v>0.27300000000000002</v>
       </c>
-      <c r="J13" s="102"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="34"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="33"/>
     </row>
     <row r="14" spans="1:13" s="18" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="19"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="54"/>
+      <c r="A14" s="124"/>
+      <c r="B14" s="125"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="114"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="116"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="135"/>
       <c r="J14" s="28"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="38"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="37"/>
     </row>
     <row r="15" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="113" t="s">
+      <c r="A15" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="58">
+      <c r="D15" s="126">
         <v>1</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="127">
         <v>1</v>
       </c>
-      <c r="F15" s="59">
+      <c r="F15" s="128">
         <v>1</v>
       </c>
-      <c r="G15" s="58">
+      <c r="G15" s="138">
         <v>0.78800000000000003</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="52">
         <v>0.91800000000000004</v>
       </c>
-      <c r="I15" s="59">
+      <c r="I15" s="139">
         <v>0.34399999999999997</v>
       </c>
       <c r="J15" s="23"/>
-      <c r="K15" s="65"/>
+      <c r="K15" s="49"/>
       <c r="L15" s="24"/>
       <c r="M15" s="25"/>
     </row>
     <row r="16" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="119"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="27" t="s">
+      <c r="A16" s="108"/>
+      <c r="B16" s="109"/>
+      <c r="C16" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="53">
+      <c r="D16" s="114">
         <v>1</v>
       </c>
-      <c r="E16" s="28">
+      <c r="E16" s="115">
         <v>1</v>
       </c>
-      <c r="F16" s="54">
+      <c r="F16" s="116">
         <v>1</v>
       </c>
-      <c r="G16" s="53">
+      <c r="G16" s="134">
         <v>0.8</v>
       </c>
-      <c r="H16" s="28">
+      <c r="H16" s="56">
         <v>0.94499999999999995</v>
       </c>
-      <c r="I16" s="54">
+      <c r="I16" s="135">
         <v>0.3125</v>
       </c>
       <c r="J16" s="28"/>
-      <c r="K16" s="66"/>
+      <c r="K16" s="50"/>
       <c r="L16" s="29"/>
       <c r="M16" s="30"/>
     </row>
     <row r="17" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="119"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="27" t="s">
+      <c r="A17" s="108"/>
+      <c r="B17" s="109"/>
+      <c r="C17" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="53">
+      <c r="D17" s="114">
         <v>1</v>
       </c>
-      <c r="E17" s="28">
+      <c r="E17" s="115">
         <v>1</v>
       </c>
-      <c r="F17" s="54">
+      <c r="F17" s="116">
         <v>1</v>
       </c>
-      <c r="G17" s="121">
+      <c r="G17" s="140">
         <v>0.81699999999999995</v>
       </c>
-      <c r="H17" s="122">
+      <c r="H17" s="141">
         <v>0.96399999999999997</v>
       </c>
-      <c r="I17" s="123">
+      <c r="I17" s="142">
         <v>0.313</v>
       </c>
-      <c r="J17" s="122"/>
-      <c r="K17" s="66"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="50"/>
       <c r="L17" s="29"/>
       <c r="M17" s="30"/>
     </row>
     <row r="18" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="119"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="27" t="s">
+      <c r="A18" s="108"/>
+      <c r="B18" s="109"/>
+      <c r="C18" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="53">
+      <c r="D18" s="114">
         <v>1</v>
       </c>
-      <c r="E18" s="28">
+      <c r="E18" s="115">
         <v>1</v>
       </c>
-      <c r="F18" s="54">
+      <c r="F18" s="116">
         <v>1</v>
       </c>
-      <c r="G18" s="53">
+      <c r="G18" s="134">
         <v>0.81</v>
       </c>
-      <c r="H18" s="28">
+      <c r="H18" s="56">
         <v>0.96</v>
       </c>
-      <c r="I18" s="54">
+      <c r="I18" s="135">
         <v>0.28000000000000003</v>
       </c>
       <c r="J18" s="28"/>
-      <c r="K18" s="66"/>
+      <c r="K18" s="50"/>
       <c r="L18" s="29"/>
       <c r="M18" s="30"/>
     </row>
     <row r="19" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="119"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="27" t="s">
+      <c r="A19" s="108"/>
+      <c r="B19" s="109"/>
+      <c r="C19" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="64">
+      <c r="D19" s="129">
         <v>0.97799999999999998</v>
       </c>
-      <c r="E19" s="41">
+      <c r="E19" s="122">
         <v>0.99</v>
       </c>
-      <c r="F19" s="54">
+      <c r="F19" s="116">
         <v>0.92900000000000005</v>
       </c>
-      <c r="G19" s="101">
+      <c r="G19" s="136">
         <v>0.80300000000000005</v>
       </c>
-      <c r="H19" s="102">
+      <c r="H19" s="77">
         <v>0.94499999999999995</v>
       </c>
-      <c r="I19" s="103">
+      <c r="I19" s="137">
         <v>0.313</v>
       </c>
-      <c r="J19" s="102"/>
-      <c r="K19" s="105"/>
+      <c r="J19" s="81"/>
+      <c r="K19" s="82"/>
       <c r="L19" s="29"/>
       <c r="M19" s="30"/>
     </row>
     <row r="20" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="119"/>
-      <c r="B20" s="22" t="s">
+      <c r="A20" s="108"/>
+      <c r="B20" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="104" t="s">
+      <c r="C20" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="58">
+      <c r="D20" s="126">
         <v>0.92600000000000005</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="127">
         <v>0.95499999999999996</v>
       </c>
-      <c r="F20" s="59">
+      <c r="F20" s="128">
         <v>0.81699999999999995</v>
       </c>
-      <c r="G20" s="106">
+      <c r="G20" s="143">
         <v>0.78800000000000003</v>
       </c>
-      <c r="H20" s="107">
+      <c r="H20" s="71">
         <v>0.92400000000000004</v>
       </c>
-      <c r="I20" s="108">
+      <c r="I20" s="144">
         <v>0.38900000000000001</v>
       </c>
-      <c r="J20" s="107"/>
-      <c r="K20" s="65">
+      <c r="J20" s="83"/>
+      <c r="K20" s="49">
         <v>0.64700000000000002</v>
       </c>
       <c r="L20" s="24">
@@ -4782,31 +4863,31 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="119"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="27" t="s">
+      <c r="A21" s="108"/>
+      <c r="B21" s="109"/>
+      <c r="C21" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="53">
+      <c r="D21" s="114">
         <v>0.91200000000000003</v>
       </c>
-      <c r="E21" s="28">
+      <c r="E21" s="115">
         <v>0.98199999999999998</v>
       </c>
-      <c r="F21" s="54">
+      <c r="F21" s="116">
         <v>0.65</v>
       </c>
-      <c r="G21" s="53">
+      <c r="G21" s="134">
         <v>0.73199999999999998</v>
       </c>
-      <c r="H21" s="28">
+      <c r="H21" s="56">
         <v>0.92400000000000004</v>
       </c>
-      <c r="I21" s="54">
+      <c r="I21" s="135">
         <v>0.16700000000000001</v>
       </c>
       <c r="J21" s="28"/>
-      <c r="K21" s="66">
+      <c r="K21" s="50">
         <v>0.69</v>
       </c>
       <c r="L21" s="29">
@@ -4817,31 +4898,31 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="119"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="27" t="s">
+      <c r="A22" s="108"/>
+      <c r="B22" s="109"/>
+      <c r="C22" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="53">
+      <c r="D22" s="114">
         <v>0.94399999999999995</v>
       </c>
-      <c r="E22" s="28">
+      <c r="E22" s="115">
         <v>0.96</v>
       </c>
-      <c r="F22" s="54">
+      <c r="F22" s="116">
         <v>0.88</v>
       </c>
-      <c r="G22" s="53">
+      <c r="G22" s="134">
         <v>0.753</v>
       </c>
-      <c r="H22" s="28">
+      <c r="H22" s="56">
         <v>0.877</v>
       </c>
-      <c r="I22" s="54">
+      <c r="I22" s="135">
         <v>0.38900000000000001</v>
       </c>
       <c r="J22" s="28"/>
-      <c r="K22" s="66">
+      <c r="K22" s="50">
         <v>0.65500000000000003</v>
       </c>
       <c r="L22" s="29">
@@ -4852,31 +4933,31 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="119"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="27" t="s">
+      <c r="A23" s="108"/>
+      <c r="B23" s="109"/>
+      <c r="C23" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="53">
+      <c r="D23" s="114">
         <v>0.94399999999999995</v>
       </c>
-      <c r="E23" s="28">
+      <c r="E23" s="115">
         <v>0.96</v>
       </c>
-      <c r="F23" s="54">
+      <c r="F23" s="116">
         <v>0.88300000000000001</v>
       </c>
-      <c r="G23" s="53">
+      <c r="G23" s="134">
         <v>0.754</v>
       </c>
-      <c r="H23" s="28">
+      <c r="H23" s="56">
         <v>0.877</v>
       </c>
-      <c r="I23" s="54">
+      <c r="I23" s="135">
         <v>0.38900000000000001</v>
       </c>
       <c r="J23" s="28"/>
-      <c r="K23" s="66">
+      <c r="K23" s="50">
         <v>0.65500000000000003</v>
       </c>
       <c r="L23" s="29">
@@ -4887,33 +4968,33 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="120"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31" t="s">
+      <c r="A24" s="118"/>
+      <c r="B24" s="131"/>
+      <c r="C24" s="131" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="61">
+      <c r="D24" s="132">
         <v>0.93600000000000005</v>
       </c>
-      <c r="E24" s="32">
+      <c r="E24" s="119">
         <v>0.98199999999999998</v>
       </c>
-      <c r="F24" s="62">
+      <c r="F24" s="133">
         <v>0.77</v>
       </c>
-      <c r="G24" s="95">
+      <c r="G24" s="145">
         <v>0.76700000000000002</v>
       </c>
-      <c r="H24" s="96">
+      <c r="H24" s="146">
         <v>0.89600000000000002</v>
       </c>
-      <c r="I24" s="97">
+      <c r="I24" s="147">
         <v>0.38900000000000001</v>
       </c>
-      <c r="J24" s="96"/>
-      <c r="K24" s="64"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="34"/>
+      <c r="J24" s="79"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="33"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D25" s="21"/>
@@ -4946,7 +5027,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="A2" sqref="A2:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4954,8 +5035,8 @@
     <col min="1" max="1" width="12.5" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="14" customWidth="1"/>
-    <col min="4" max="4" width="11.8984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.8984375" style="4" hidden="1" customWidth="1"/>
+    <col min="5" max="6" width="13.19921875" style="4" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="11.8984375" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.8984375" style="14" bestFit="1" customWidth="1"/>
@@ -4984,56 +5065,56 @@
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
-      <c r="D2" s="113" t="s">
+      <c r="D2" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="114"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="113" t="s">
+      <c r="E2" s="90"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="114"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="117" t="s">
+      <c r="H2" s="90"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="117"/>
-      <c r="L2" s="118"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="94"/>
     </row>
     <row r="3" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="42" t="s">
+      <c r="G3" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="40" t="s">
+      <c r="H3" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="43" t="s">
+      <c r="I3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="40" t="s">
+      <c r="J3" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="40" t="s">
+      <c r="K3" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="43" t="s">
+      <c r="L3" s="41" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="89" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="22" t="s">
@@ -5042,162 +5123,162 @@
       <c r="C4" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="67">
+      <c r="D4" s="51">
         <v>0.76</v>
       </c>
-      <c r="E4" s="68">
+      <c r="E4" s="52">
         <v>1</v>
       </c>
-      <c r="F4" s="69">
+      <c r="F4" s="53">
         <v>0</v>
       </c>
-      <c r="G4" s="87">
+      <c r="G4" s="71">
         <v>0.76600000000000001</v>
       </c>
-      <c r="H4" s="87">
+      <c r="H4" s="71">
         <v>0.94599999999999995</v>
       </c>
-      <c r="I4" s="90">
+      <c r="I4" s="74">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="J4" s="70">
+      <c r="J4" s="54">
         <v>0.79500000000000004</v>
       </c>
-      <c r="K4" s="70">
+      <c r="K4" s="54">
         <v>1</v>
       </c>
-      <c r="L4" s="69">
+      <c r="L4" s="53">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="119"/>
+      <c r="A5" s="95"/>
       <c r="B5" s="26"/>
       <c r="C5" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="71"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="73"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="57"/>
     </row>
     <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="119"/>
+      <c r="A6" s="95"/>
       <c r="B6" s="26"/>
       <c r="C6" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="71">
+      <c r="D6" s="55">
         <v>0.77500000000000002</v>
       </c>
-      <c r="E6" s="72">
+      <c r="E6" s="56">
         <v>1</v>
       </c>
-      <c r="F6" s="73">
+      <c r="F6" s="57">
         <v>0</v>
       </c>
-      <c r="G6" s="72">
+      <c r="G6" s="56">
         <v>0.69799999999999995</v>
       </c>
-      <c r="H6" s="72">
+      <c r="H6" s="56">
         <v>0.9</v>
       </c>
-      <c r="I6" s="73">
+      <c r="I6" s="57">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="J6" s="74">
+      <c r="J6" s="58">
         <v>0.76500000000000001</v>
       </c>
-      <c r="K6" s="74">
+      <c r="K6" s="58">
         <v>1</v>
       </c>
-      <c r="L6" s="73">
+      <c r="L6" s="57">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="119"/>
+      <c r="A7" s="95"/>
       <c r="B7" s="26"/>
       <c r="C7" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="71">
+      <c r="D7" s="55">
         <v>0.77500000000000002</v>
       </c>
-      <c r="E7" s="72">
+      <c r="E7" s="56">
         <v>1</v>
       </c>
-      <c r="F7" s="73">
+      <c r="F7" s="57">
         <v>0</v>
       </c>
-      <c r="G7" s="72">
+      <c r="G7" s="56">
         <v>0.69799999999999995</v>
       </c>
-      <c r="H7" s="72">
+      <c r="H7" s="56">
         <v>0.9</v>
       </c>
-      <c r="I7" s="73">
+      <c r="I7" s="57">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="J7" s="74">
+      <c r="J7" s="58">
         <v>0.76500000000000001</v>
       </c>
-      <c r="K7" s="74">
+      <c r="K7" s="58">
         <v>1</v>
       </c>
-      <c r="L7" s="73">
+      <c r="L7" s="57">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="120"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="40" t="s">
+      <c r="A8" s="96"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="75">
+      <c r="D8" s="59">
         <v>0.68799999999999994</v>
       </c>
-      <c r="E8" s="76">
+      <c r="E8" s="60">
         <v>0.86199999999999999</v>
       </c>
-      <c r="F8" s="77">
+      <c r="F8" s="61">
         <v>0.13</v>
       </c>
-      <c r="G8" s="93">
+      <c r="G8" s="77">
         <v>0.73</v>
       </c>
-      <c r="H8" s="93">
+      <c r="H8" s="77">
         <v>0.88</v>
       </c>
-      <c r="I8" s="88">
+      <c r="I8" s="72">
         <v>0.16</v>
       </c>
-      <c r="J8" s="78"/>
-      <c r="K8" s="78"/>
-      <c r="L8" s="77"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="61"/>
     </row>
     <row r="9" spans="1:12" s="18" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="19"/>
       <c r="B9" s="4"/>
       <c r="C9" s="19"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="80"/>
-      <c r="L9" s="80"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
     </row>
     <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="113" t="s">
+      <c r="A10" s="89" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="22" t="s">
@@ -5206,163 +5287,163 @@
       <c r="C10" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="67">
+      <c r="D10" s="51">
         <v>0.92600000000000005</v>
       </c>
-      <c r="E10" s="68">
+      <c r="E10" s="52">
         <v>0.97499999999999998</v>
       </c>
-      <c r="F10" s="81">
+      <c r="F10" s="65">
         <v>0.75900000000000001</v>
       </c>
-      <c r="G10" s="89">
+      <c r="G10" s="73">
         <v>0.91900000000000004</v>
       </c>
-      <c r="H10" s="89">
+      <c r="H10" s="73">
         <v>0.99299999999999999</v>
       </c>
-      <c r="I10" s="94">
+      <c r="I10" s="78">
         <v>0.68600000000000005</v>
       </c>
-      <c r="J10" s="82">
+      <c r="J10" s="66">
         <v>0.68500000000000005</v>
       </c>
-      <c r="K10" s="82">
+      <c r="K10" s="66">
         <v>0.78500000000000003</v>
       </c>
-      <c r="L10" s="81">
+      <c r="L10" s="65">
         <v>0.28499999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="119"/>
+      <c r="A11" s="95"/>
       <c r="B11" s="26"/>
       <c r="C11" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="71">
+      <c r="D11" s="55">
         <v>0.89700000000000002</v>
       </c>
-      <c r="E11" s="72">
+      <c r="E11" s="56">
         <v>0.98899999999999999</v>
       </c>
-      <c r="F11" s="83">
+      <c r="F11" s="67">
         <v>0.58599999999999997</v>
       </c>
-      <c r="G11" s="72">
+      <c r="G11" s="56">
         <v>0.76100000000000001</v>
       </c>
-      <c r="H11" s="72">
+      <c r="H11" s="56">
         <v>1</v>
       </c>
-      <c r="I11" s="83">
+      <c r="I11" s="67">
         <v>1.9E-2</v>
       </c>
-      <c r="J11" s="84">
+      <c r="J11" s="68">
         <v>0.71399999999999997</v>
       </c>
-      <c r="K11" s="84">
+      <c r="K11" s="68">
         <v>0.86099999999999999</v>
       </c>
-      <c r="L11" s="83">
+      <c r="L11" s="67">
         <v>0.254</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="119"/>
+      <c r="A12" s="95"/>
       <c r="B12" s="26"/>
       <c r="C12" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="71">
+      <c r="D12" s="55">
         <v>0.91700000000000004</v>
       </c>
-      <c r="E12" s="72">
+      <c r="E12" s="56">
         <v>0.96699999999999997</v>
       </c>
-      <c r="F12" s="83">
+      <c r="F12" s="67">
         <v>0.748</v>
       </c>
-      <c r="G12" s="72">
+      <c r="G12" s="56">
         <v>0.88500000000000001</v>
       </c>
-      <c r="H12" s="72">
+      <c r="H12" s="56">
         <v>0.94299999999999995</v>
       </c>
-      <c r="I12" s="83">
+      <c r="I12" s="67">
         <v>0.70499999999999996</v>
       </c>
-      <c r="J12" s="84">
+      <c r="J12" s="68">
         <v>0.68500000000000005</v>
       </c>
-      <c r="K12" s="84">
+      <c r="K12" s="68">
         <v>0.79800000000000004</v>
       </c>
-      <c r="L12" s="83">
+      <c r="L12" s="67">
         <v>0.33300000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="119"/>
+      <c r="A13" s="95"/>
       <c r="B13" s="26"/>
       <c r="C13" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="71">
+      <c r="D13" s="55">
         <v>0.91700000000000004</v>
       </c>
-      <c r="E13" s="72">
+      <c r="E13" s="56">
         <v>0.96699999999999997</v>
       </c>
-      <c r="F13" s="83">
+      <c r="F13" s="67">
         <v>0.748</v>
       </c>
-      <c r="G13" s="72">
+      <c r="G13" s="56">
         <v>0.88500000000000001</v>
       </c>
-      <c r="H13" s="72">
+      <c r="H13" s="56">
         <v>0.94299999999999995</v>
       </c>
-      <c r="I13" s="83">
+      <c r="I13" s="67">
         <v>0.70499999999999996</v>
       </c>
-      <c r="J13" s="84">
+      <c r="J13" s="68">
         <v>0.68500000000000005</v>
       </c>
-      <c r="K13" s="84">
+      <c r="K13" s="68">
         <v>0.79800000000000004</v>
       </c>
-      <c r="L13" s="83">
+      <c r="L13" s="67">
         <v>0.33300000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="120"/>
+      <c r="A14" s="96"/>
       <c r="B14" s="31"/>
       <c r="C14" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="85">
+      <c r="D14" s="69">
         <v>0.92100000000000004</v>
       </c>
-      <c r="E14" s="86">
+      <c r="E14" s="70">
         <v>0.99399999999999999</v>
       </c>
-      <c r="F14" s="77">
+      <c r="F14" s="61">
         <v>0.68799999999999994</v>
       </c>
-      <c r="G14" s="92">
+      <c r="G14" s="76">
         <v>0.94799999999999995</v>
       </c>
-      <c r="H14" s="92">
+      <c r="H14" s="76">
         <v>1</v>
       </c>
-      <c r="I14" s="91">
+      <c r="I14" s="75">
         <v>0.74399999999999999</v>
       </c>
-      <c r="J14" s="78"/>
-      <c r="K14" s="78"/>
-      <c r="L14" s="77"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/model_performance.xlsx
+++ b/model_performance.xlsx
@@ -440,7 +440,7 @@
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -487,14 +487,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Microsoft JhengHei UI"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Microsoft JhengHei UI"/>
       <family val="2"/>
       <charset val="136"/>
@@ -640,7 +632,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -865,9 +857,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -886,19 +875,145 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -910,172 +1025,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3795,21 +3763,21 @@
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="88" t="s">
+      <c r="D2" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88" t="s">
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="87" t="s">
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="128" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
     </row>
     <row r="3" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
@@ -3844,7 +3812,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="88" t="s">
+      <c r="A4" s="129" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -3864,7 +3832,7 @@
       <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="88"/>
+      <c r="A5" s="129"/>
       <c r="B5" s="4"/>
       <c r="C5" s="3" t="s">
         <v>11</v>
@@ -3880,7 +3848,7 @@
       <c r="L5" s="6"/>
     </row>
     <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="88"/>
+      <c r="A6" s="129"/>
       <c r="B6" s="4"/>
       <c r="C6" s="3" t="s">
         <v>12</v>
@@ -3896,7 +3864,7 @@
       <c r="L6" s="6"/>
     </row>
     <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="88"/>
+      <c r="A7" s="129"/>
       <c r="B7" s="4"/>
       <c r="C7" s="3" t="s">
         <v>13</v>
@@ -3912,7 +3880,7 @@
       <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="88"/>
+      <c r="A8" s="129"/>
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
@@ -3942,7 +3910,7 @@
       <c r="L8" s="6"/>
     </row>
     <row r="9" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="88"/>
+      <c r="A9" s="129"/>
       <c r="B9" s="4"/>
       <c r="C9" s="3" t="s">
         <v>11</v>
@@ -3970,7 +3938,7 @@
       <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="88"/>
+      <c r="A10" s="129"/>
       <c r="B10" s="4"/>
       <c r="C10" s="3" t="s">
         <v>12</v>
@@ -3998,7 +3966,7 @@
       <c r="L10" s="6"/>
     </row>
     <row r="11" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="88"/>
+      <c r="A11" s="129"/>
       <c r="B11" s="4"/>
       <c r="C11" s="3" t="s">
         <v>13</v>
@@ -4026,7 +3994,7 @@
       <c r="L11" s="6"/>
     </row>
     <row r="12" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="88" t="s">
+      <c r="A12" s="129" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -4064,7 +4032,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="88"/>
+      <c r="A13" s="129"/>
       <c r="B13" s="4"/>
       <c r="C13" s="3" t="s">
         <v>11</v>
@@ -4098,7 +4066,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="88"/>
+      <c r="A14" s="129"/>
       <c r="B14" s="4"/>
       <c r="C14" s="3" t="s">
         <v>12</v>
@@ -4132,7 +4100,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="88"/>
+      <c r="A15" s="129"/>
       <c r="B15" s="4"/>
       <c r="C15" s="3" t="s">
         <v>13</v>
@@ -4166,7 +4134,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="88"/>
+      <c r="A16" s="129"/>
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
@@ -4202,7 +4170,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="88"/>
+      <c r="A17" s="129"/>
       <c r="B17" s="4"/>
       <c r="C17" s="3" t="s">
         <v>11</v>
@@ -4236,7 +4204,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="88"/>
+      <c r="A18" s="129"/>
       <c r="B18" s="4"/>
       <c r="C18" s="3" t="s">
         <v>12</v>
@@ -4270,7 +4238,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="88"/>
+      <c r="A19" s="129"/>
       <c r="B19" s="4"/>
       <c r="C19" s="3" t="s">
         <v>13</v>
@@ -4322,10 +4290,10 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G15" sqref="G15:I19"/>
+      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4333,8 +4301,8 @@
     <col min="1" max="1" width="12.5" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="9" customWidth="1"/>
-    <col min="4" max="4" width="11.8984375" style="4" hidden="1" customWidth="1"/>
-    <col min="5" max="6" width="13.19921875" style="4" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="11.8984375" style="4" customWidth="1"/>
+    <col min="5" max="6" width="13.19921875" style="4" customWidth="1"/>
     <col min="7" max="7" width="11.8984375" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.5" style="4" bestFit="1" customWidth="1"/>
@@ -4359,51 +4327,51 @@
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
-      <c r="J1" s="84"/>
+      <c r="J1" s="83"/>
     </row>
     <row r="2" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="98" t="s">
+      <c r="A2" s="86"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="99"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="98" t="s">
+      <c r="E2" s="131"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="99"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="85" t="s">
+      <c r="H2" s="131"/>
+      <c r="I2" s="132"/>
+      <c r="J2" s="84" t="s">
         <v>122</v>
       </c>
-      <c r="K2" s="92" t="s">
+      <c r="K2" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="93"/>
-      <c r="M2" s="94"/>
+      <c r="L2" s="134"/>
+      <c r="M2" s="135"/>
     </row>
     <row r="3" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="97"/>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="101" t="s">
+      <c r="A3" s="86"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="102" t="s">
+      <c r="E3" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="103" t="s">
+      <c r="F3" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="101" t="s">
+      <c r="G3" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="102" t="s">
+      <c r="H3" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="103" t="s">
+      <c r="I3" s="89" t="s">
         <v>3</v>
       </c>
       <c r="J3" s="27" t="s">
@@ -4420,121 +4388,169 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="130" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="104" t="s">
+      <c r="C4" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="105"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="107"/>
+      <c r="D4" s="91">
+        <v>1</v>
+      </c>
+      <c r="E4" s="92">
+        <v>1</v>
+      </c>
+      <c r="F4" s="93">
+        <v>1</v>
+      </c>
+      <c r="G4" s="91">
+        <v>0.76</v>
+      </c>
+      <c r="H4" s="92">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="I4" s="93">
+        <v>0.125</v>
+      </c>
       <c r="J4" s="42"/>
       <c r="K4" s="47"/>
       <c r="L4" s="34"/>
       <c r="M4" s="35"/>
     </row>
     <row r="5" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="108"/>
-      <c r="B5" s="109"/>
-      <c r="C5" s="102" t="s">
+      <c r="A5" s="136"/>
+      <c r="B5" s="94"/>
+      <c r="C5" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="110"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="111"/>
-      <c r="I5" s="112"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="98"/>
       <c r="J5" s="43"/>
       <c r="K5" s="46"/>
       <c r="L5" s="36"/>
       <c r="M5" s="37"/>
     </row>
     <row r="6" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="108"/>
-      <c r="B6" s="109"/>
-      <c r="C6" s="102" t="s">
+      <c r="A6" s="136"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="110"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="110"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="112"/>
+      <c r="D6" s="96">
+        <v>1</v>
+      </c>
+      <c r="E6" s="97">
+        <v>1</v>
+      </c>
+      <c r="F6" s="98">
+        <v>1</v>
+      </c>
+      <c r="G6" s="96">
+        <v>0.76</v>
+      </c>
+      <c r="H6" s="97">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="I6" s="98">
+        <v>0.125</v>
+      </c>
       <c r="J6" s="43"/>
       <c r="K6" s="46"/>
       <c r="L6" s="36"/>
       <c r="M6" s="37"/>
     </row>
     <row r="7" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="108"/>
-      <c r="B7" s="109"/>
-      <c r="C7" s="102" t="s">
+      <c r="A7" s="136"/>
+      <c r="B7" s="94"/>
+      <c r="C7" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="110"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="110"/>
-      <c r="H7" s="111"/>
-      <c r="I7" s="112"/>
+      <c r="D7" s="96">
+        <v>1</v>
+      </c>
+      <c r="E7" s="97">
+        <v>1</v>
+      </c>
+      <c r="F7" s="98">
+        <v>1</v>
+      </c>
+      <c r="G7" s="96">
+        <v>0.76</v>
+      </c>
+      <c r="H7" s="97">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="I7" s="98">
+        <v>0.125</v>
+      </c>
       <c r="J7" s="43"/>
       <c r="K7" s="46"/>
       <c r="L7" s="36"/>
       <c r="M7" s="37"/>
     </row>
-    <row r="8" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="108"/>
-      <c r="B8" s="113"/>
-      <c r="C8" s="113" t="s">
+    <row r="8" spans="1:13" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="136"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="114"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="116"/>
+      <c r="D8" s="96">
+        <v>0.79</v>
+      </c>
+      <c r="E8" s="97">
+        <v>0.93</v>
+      </c>
+      <c r="F8" s="98">
+        <v>0.17</v>
+      </c>
+      <c r="G8" s="96">
+        <v>0.74</v>
+      </c>
+      <c r="H8" s="97">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="I8" s="98">
+        <v>0.18</v>
+      </c>
       <c r="J8" s="28"/>
       <c r="K8" s="46"/>
       <c r="L8" s="36"/>
       <c r="M8" s="37"/>
     </row>
     <row r="9" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="108"/>
-      <c r="B9" s="102" t="s">
+      <c r="A9" s="136"/>
+      <c r="B9" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="102" t="s">
+      <c r="C9" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="117">
+      <c r="D9" s="106">
         <v>0.9</v>
       </c>
-      <c r="E9" s="115">
+      <c r="E9" s="107">
         <v>0.98399999999999999</v>
       </c>
-      <c r="F9" s="116">
+      <c r="F9" s="108">
         <v>0.6</v>
       </c>
-      <c r="G9" s="148">
+      <c r="G9" s="123">
         <v>0.73399999999999999</v>
       </c>
-      <c r="H9" s="149">
+      <c r="H9" s="71">
         <v>0.99099999999999999</v>
       </c>
-      <c r="I9" s="150">
+      <c r="I9" s="124">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="J9" s="80"/>
+      <c r="J9" s="82"/>
       <c r="K9" s="46">
         <v>0.72799999999999998</v>
       </c>
@@ -4546,44 +4562,44 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="108"/>
-      <c r="B10" s="109"/>
-      <c r="C10" s="102" t="s">
+      <c r="A10" s="136"/>
+      <c r="B10" s="94"/>
+      <c r="C10" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="114"/>
-      <c r="E10" s="115"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="134"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="114"/>
       <c r="H10" s="56"/>
-      <c r="I10" s="135"/>
+      <c r="I10" s="115"/>
       <c r="J10" s="28"/>
       <c r="K10" s="46"/>
       <c r="L10" s="36"/>
       <c r="M10" s="37"/>
     </row>
     <row r="11" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="108"/>
-      <c r="B11" s="109"/>
-      <c r="C11" s="102" t="s">
+      <c r="A11" s="136"/>
+      <c r="B11" s="94"/>
+      <c r="C11" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="114">
+      <c r="D11" s="96">
         <v>0.9</v>
       </c>
-      <c r="E11" s="115">
+      <c r="E11" s="97">
         <v>0.98</v>
       </c>
-      <c r="F11" s="116">
+      <c r="F11" s="98">
         <v>0.6</v>
       </c>
-      <c r="G11" s="134">
+      <c r="G11" s="114">
         <v>0.73399999999999999</v>
       </c>
       <c r="H11" s="56">
         <v>0.99099999999999999</v>
       </c>
-      <c r="I11" s="135">
+      <c r="I11" s="115">
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="J11" s="28"/>
@@ -4598,27 +4614,27 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="108"/>
-      <c r="B12" s="109"/>
-      <c r="C12" s="102" t="s">
+      <c r="A12" s="136"/>
+      <c r="B12" s="94"/>
+      <c r="C12" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="114">
+      <c r="D12" s="96">
         <v>0.90100000000000002</v>
       </c>
-      <c r="E12" s="115">
+      <c r="E12" s="97">
         <v>0.98399999999999999</v>
       </c>
-      <c r="F12" s="116">
+      <c r="F12" s="98">
         <v>0.6</v>
       </c>
-      <c r="G12" s="134">
+      <c r="G12" s="114">
         <v>0.73399999999999999</v>
       </c>
       <c r="H12" s="56">
         <v>0.99099999999999999</v>
       </c>
-      <c r="I12" s="135">
+      <c r="I12" s="115">
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="J12" s="28"/>
@@ -4633,75 +4649,75 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="118"/>
-      <c r="B13" s="119"/>
-      <c r="C13" s="120" t="s">
+      <c r="A13" s="137"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="121">
+      <c r="D13" s="101">
         <v>0.73399999999999999</v>
       </c>
-      <c r="E13" s="122">
+      <c r="E13" s="102">
         <v>0.9</v>
       </c>
-      <c r="F13" s="123">
+      <c r="F13" s="103">
         <v>0.1</v>
       </c>
-      <c r="G13" s="136">
+      <c r="G13" s="116">
         <v>0.69699999999999995</v>
       </c>
       <c r="H13" s="77">
         <v>0.85499999999999998</v>
       </c>
-      <c r="I13" s="137">
+      <c r="I13" s="117">
         <v>0.27300000000000002</v>
       </c>
-      <c r="J13" s="81"/>
+      <c r="J13" s="80"/>
       <c r="K13" s="48"/>
       <c r="L13" s="32"/>
       <c r="M13" s="33"/>
     </row>
     <row r="14" spans="1:13" s="18" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="124"/>
-      <c r="B14" s="125"/>
-      <c r="C14" s="124"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="115"/>
-      <c r="F14" s="116"/>
-      <c r="G14" s="134"/>
+      <c r="A14" s="104"/>
+      <c r="B14" s="105"/>
+      <c r="C14" s="104"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="114"/>
       <c r="H14" s="56"/>
-      <c r="I14" s="135"/>
+      <c r="I14" s="115"/>
       <c r="J14" s="28"/>
       <c r="K14" s="46"/>
       <c r="L14" s="36"/>
       <c r="M14" s="37"/>
     </row>
     <row r="15" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="98" t="s">
+      <c r="A15" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="104" t="s">
+      <c r="B15" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="104" t="s">
+      <c r="C15" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="126">
+      <c r="D15" s="106">
         <v>1</v>
       </c>
-      <c r="E15" s="127">
+      <c r="E15" s="107">
         <v>1</v>
       </c>
-      <c r="F15" s="128">
+      <c r="F15" s="108">
         <v>1</v>
       </c>
-      <c r="G15" s="138">
+      <c r="G15" s="118">
         <v>0.78800000000000003</v>
       </c>
       <c r="H15" s="52">
         <v>0.91800000000000004</v>
       </c>
-      <c r="I15" s="139">
+      <c r="I15" s="119">
         <v>0.34399999999999997</v>
       </c>
       <c r="J15" s="23"/>
@@ -4710,27 +4726,27 @@
       <c r="M15" s="25"/>
     </row>
     <row r="16" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="108"/>
-      <c r="B16" s="109"/>
-      <c r="C16" s="102" t="s">
+      <c r="A16" s="136"/>
+      <c r="B16" s="94"/>
+      <c r="C16" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="114">
+      <c r="D16" s="96">
         <v>1</v>
       </c>
-      <c r="E16" s="115">
+      <c r="E16" s="97">
         <v>1</v>
       </c>
-      <c r="F16" s="116">
+      <c r="F16" s="98">
         <v>1</v>
       </c>
-      <c r="G16" s="134">
+      <c r="G16" s="114">
         <v>0.8</v>
       </c>
       <c r="H16" s="56">
         <v>0.94499999999999995</v>
       </c>
-      <c r="I16" s="135">
+      <c r="I16" s="115">
         <v>0.3125</v>
       </c>
       <c r="J16" s="28"/>
@@ -4739,56 +4755,56 @@
       <c r="M16" s="30"/>
     </row>
     <row r="17" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="108"/>
-      <c r="B17" s="109"/>
-      <c r="C17" s="102" t="s">
+      <c r="A17" s="136"/>
+      <c r="B17" s="94"/>
+      <c r="C17" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="114">
+      <c r="D17" s="96">
         <v>1</v>
       </c>
-      <c r="E17" s="115">
+      <c r="E17" s="97">
         <v>1</v>
       </c>
-      <c r="F17" s="116">
+      <c r="F17" s="98">
         <v>1</v>
       </c>
-      <c r="G17" s="140">
+      <c r="G17" s="120">
         <v>0.81699999999999995</v>
       </c>
-      <c r="H17" s="141">
+      <c r="H17" s="121">
         <v>0.96399999999999997</v>
       </c>
-      <c r="I17" s="142">
+      <c r="I17" s="122">
         <v>0.313</v>
       </c>
-      <c r="J17" s="86"/>
+      <c r="J17" s="85"/>
       <c r="K17" s="50"/>
       <c r="L17" s="29"/>
       <c r="M17" s="30"/>
     </row>
     <row r="18" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="108"/>
-      <c r="B18" s="109"/>
-      <c r="C18" s="102" t="s">
+      <c r="A18" s="136"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="114">
+      <c r="D18" s="96">
         <v>1</v>
       </c>
-      <c r="E18" s="115">
+      <c r="E18" s="97">
         <v>1</v>
       </c>
-      <c r="F18" s="116">
+      <c r="F18" s="98">
         <v>1</v>
       </c>
-      <c r="G18" s="134">
+      <c r="G18" s="114">
         <v>0.81</v>
       </c>
       <c r="H18" s="56">
         <v>0.96</v>
       </c>
-      <c r="I18" s="135">
+      <c r="I18" s="115">
         <v>0.28000000000000003</v>
       </c>
       <c r="J18" s="28"/>
@@ -4797,61 +4813,61 @@
       <c r="M18" s="30"/>
     </row>
     <row r="19" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="108"/>
-      <c r="B19" s="109"/>
-      <c r="C19" s="102" t="s">
+      <c r="A19" s="136"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="129">
+      <c r="D19" s="109">
         <v>0.97799999999999998</v>
       </c>
-      <c r="E19" s="122">
+      <c r="E19" s="102">
         <v>0.99</v>
       </c>
-      <c r="F19" s="116">
+      <c r="F19" s="98">
         <v>0.92900000000000005</v>
       </c>
-      <c r="G19" s="136">
+      <c r="G19" s="116">
         <v>0.80300000000000005</v>
       </c>
       <c r="H19" s="77">
         <v>0.94499999999999995</v>
       </c>
-      <c r="I19" s="137">
+      <c r="I19" s="117">
         <v>0.313</v>
       </c>
-      <c r="J19" s="81"/>
-      <c r="K19" s="82"/>
+      <c r="J19" s="80"/>
+      <c r="K19" s="81"/>
       <c r="L19" s="29"/>
       <c r="M19" s="30"/>
     </row>
     <row r="20" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="108"/>
-      <c r="B20" s="104" t="s">
+      <c r="A20" s="136"/>
+      <c r="B20" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="130" t="s">
+      <c r="C20" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="126">
+      <c r="D20" s="106">
         <v>0.92600000000000005</v>
       </c>
-      <c r="E20" s="127">
+      <c r="E20" s="107">
         <v>0.95499999999999996</v>
       </c>
-      <c r="F20" s="128">
+      <c r="F20" s="108">
         <v>0.81699999999999995</v>
       </c>
-      <c r="G20" s="143">
+      <c r="G20" s="123">
         <v>0.78800000000000003</v>
       </c>
       <c r="H20" s="71">
         <v>0.92400000000000004</v>
       </c>
-      <c r="I20" s="144">
+      <c r="I20" s="124">
         <v>0.38900000000000001</v>
       </c>
-      <c r="J20" s="83"/>
+      <c r="J20" s="82"/>
       <c r="K20" s="49">
         <v>0.64700000000000002</v>
       </c>
@@ -4863,27 +4879,27 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="108"/>
-      <c r="B21" s="109"/>
-      <c r="C21" s="102" t="s">
+      <c r="A21" s="136"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="114">
+      <c r="D21" s="96">
         <v>0.91200000000000003</v>
       </c>
-      <c r="E21" s="115">
+      <c r="E21" s="97">
         <v>0.98199999999999998</v>
       </c>
-      <c r="F21" s="116">
+      <c r="F21" s="98">
         <v>0.65</v>
       </c>
-      <c r="G21" s="134">
+      <c r="G21" s="114">
         <v>0.73199999999999998</v>
       </c>
       <c r="H21" s="56">
         <v>0.92400000000000004</v>
       </c>
-      <c r="I21" s="135">
+      <c r="I21" s="115">
         <v>0.16700000000000001</v>
       </c>
       <c r="J21" s="28"/>
@@ -4898,27 +4914,27 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="108"/>
-      <c r="B22" s="109"/>
-      <c r="C22" s="102" t="s">
+      <c r="A22" s="136"/>
+      <c r="B22" s="94"/>
+      <c r="C22" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="114">
+      <c r="D22" s="96">
         <v>0.94399999999999995</v>
       </c>
-      <c r="E22" s="115">
+      <c r="E22" s="97">
         <v>0.96</v>
       </c>
-      <c r="F22" s="116">
+      <c r="F22" s="98">
         <v>0.88</v>
       </c>
-      <c r="G22" s="134">
+      <c r="G22" s="114">
         <v>0.753</v>
       </c>
       <c r="H22" s="56">
         <v>0.877</v>
       </c>
-      <c r="I22" s="135">
+      <c r="I22" s="115">
         <v>0.38900000000000001</v>
       </c>
       <c r="J22" s="28"/>
@@ -4933,27 +4949,27 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="108"/>
-      <c r="B23" s="109"/>
-      <c r="C23" s="102" t="s">
+      <c r="A23" s="136"/>
+      <c r="B23" s="94"/>
+      <c r="C23" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="114">
+      <c r="D23" s="96">
         <v>0.94399999999999995</v>
       </c>
-      <c r="E23" s="115">
+      <c r="E23" s="97">
         <v>0.96</v>
       </c>
-      <c r="F23" s="116">
+      <c r="F23" s="98">
         <v>0.88300000000000001</v>
       </c>
-      <c r="G23" s="134">
+      <c r="G23" s="114">
         <v>0.754</v>
       </c>
       <c r="H23" s="56">
         <v>0.877</v>
       </c>
-      <c r="I23" s="135">
+      <c r="I23" s="115">
         <v>0.38900000000000001</v>
       </c>
       <c r="J23" s="28"/>
@@ -4968,27 +4984,27 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="118"/>
-      <c r="B24" s="131"/>
-      <c r="C24" s="131" t="s">
+      <c r="A24" s="137"/>
+      <c r="B24" s="111"/>
+      <c r="C24" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="132">
+      <c r="D24" s="112">
         <v>0.93600000000000005</v>
       </c>
-      <c r="E24" s="119">
+      <c r="E24" s="99">
         <v>0.98199999999999998</v>
       </c>
-      <c r="F24" s="133">
+      <c r="F24" s="113">
         <v>0.77</v>
       </c>
-      <c r="G24" s="145">
+      <c r="G24" s="125">
         <v>0.76700000000000002</v>
       </c>
-      <c r="H24" s="146">
+      <c r="H24" s="126">
         <v>0.89600000000000002</v>
       </c>
-      <c r="I24" s="147">
+      <c r="I24" s="127">
         <v>0.38900000000000001</v>
       </c>
       <c r="J24" s="79"/>
@@ -5027,7 +5043,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I14"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5065,21 +5081,21 @@
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
-      <c r="D2" s="89" t="s">
+      <c r="D2" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="90"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="89" t="s">
+      <c r="E2" s="139"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="90"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="93" t="s">
+      <c r="H2" s="139"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="134" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="93"/>
-      <c r="L2" s="94"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="135"/>
     </row>
     <row r="3" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="11"/>
@@ -5114,7 +5130,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="138" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="22" t="s">
@@ -5152,7 +5168,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="95"/>
+      <c r="A5" s="141"/>
       <c r="B5" s="26"/>
       <c r="C5" s="27" t="s">
         <v>11</v>
@@ -5168,7 +5184,7 @@
       <c r="L5" s="57"/>
     </row>
     <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="95"/>
+      <c r="A6" s="141"/>
       <c r="B6" s="26"/>
       <c r="C6" s="27" t="s">
         <v>12</v>
@@ -5202,7 +5218,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="95"/>
+      <c r="A7" s="141"/>
       <c r="B7" s="26"/>
       <c r="C7" s="27" t="s">
         <v>13</v>
@@ -5236,7 +5252,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="96"/>
+      <c r="A8" s="142"/>
       <c r="B8" s="38"/>
       <c r="C8" s="39" t="s">
         <v>18</v>
@@ -5278,7 +5294,7 @@
       <c r="L9" s="64"/>
     </row>
     <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="89" t="s">
+      <c r="A10" s="138" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="22" t="s">
@@ -5316,7 +5332,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="95"/>
+      <c r="A11" s="141"/>
       <c r="B11" s="26"/>
       <c r="C11" s="27" t="s">
         <v>11</v>
@@ -5350,7 +5366,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="95"/>
+      <c r="A12" s="141"/>
       <c r="B12" s="26"/>
       <c r="C12" s="27" t="s">
         <v>12</v>
@@ -5384,7 +5400,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="95"/>
+      <c r="A13" s="141"/>
       <c r="B13" s="26"/>
       <c r="C13" s="27" t="s">
         <v>13</v>
@@ -5418,7 +5434,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="96"/>
+      <c r="A14" s="142"/>
       <c r="B14" s="31"/>
       <c r="C14" s="31" t="s">
         <v>19</v>

--- a/model_performance.xlsx
+++ b/model_performance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SBP+DBP廢" sheetId="1" r:id="rId1"/>
@@ -632,7 +632,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -971,21 +971,6 @@
     <xf numFmtId="177" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -999,6 +984,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3763,21 +3757,21 @@
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="129" t="s">
+      <c r="D2" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129" t="s">
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="128" t="s">
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="128"/>
-      <c r="L2" s="128"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
     </row>
     <row r="3" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
@@ -3812,7 +3806,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="129" t="s">
+      <c r="A4" s="127" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -3832,7 +3826,7 @@
       <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="129"/>
+      <c r="A5" s="127"/>
       <c r="B5" s="4"/>
       <c r="C5" s="3" t="s">
         <v>11</v>
@@ -3848,7 +3842,7 @@
       <c r="L5" s="6"/>
     </row>
     <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="129"/>
+      <c r="A6" s="127"/>
       <c r="B6" s="4"/>
       <c r="C6" s="3" t="s">
         <v>12</v>
@@ -3864,7 +3858,7 @@
       <c r="L6" s="6"/>
     </row>
     <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="129"/>
+      <c r="A7" s="127"/>
       <c r="B7" s="4"/>
       <c r="C7" s="3" t="s">
         <v>13</v>
@@ -3880,7 +3874,7 @@
       <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="129"/>
+      <c r="A8" s="127"/>
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
@@ -3910,7 +3904,7 @@
       <c r="L8" s="6"/>
     </row>
     <row r="9" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="129"/>
+      <c r="A9" s="127"/>
       <c r="B9" s="4"/>
       <c r="C9" s="3" t="s">
         <v>11</v>
@@ -3938,7 +3932,7 @@
       <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="129"/>
+      <c r="A10" s="127"/>
       <c r="B10" s="4"/>
       <c r="C10" s="3" t="s">
         <v>12</v>
@@ -3966,7 +3960,7 @@
       <c r="L10" s="6"/>
     </row>
     <row r="11" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="129"/>
+      <c r="A11" s="127"/>
       <c r="B11" s="4"/>
       <c r="C11" s="3" t="s">
         <v>13</v>
@@ -3994,7 +3988,7 @@
       <c r="L11" s="6"/>
     </row>
     <row r="12" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="129" t="s">
+      <c r="A12" s="127" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -4032,7 +4026,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="129"/>
+      <c r="A13" s="127"/>
       <c r="B13" s="4"/>
       <c r="C13" s="3" t="s">
         <v>11</v>
@@ -4066,7 +4060,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="129"/>
+      <c r="A14" s="127"/>
       <c r="B14" s="4"/>
       <c r="C14" s="3" t="s">
         <v>12</v>
@@ -4100,7 +4094,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="129"/>
+      <c r="A15" s="127"/>
       <c r="B15" s="4"/>
       <c r="C15" s="3" t="s">
         <v>13</v>
@@ -4134,7 +4128,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="129"/>
+      <c r="A16" s="127"/>
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
@@ -4170,7 +4164,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="129"/>
+      <c r="A17" s="127"/>
       <c r="B17" s="4"/>
       <c r="C17" s="3" t="s">
         <v>11</v>
@@ -4204,7 +4198,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="129"/>
+      <c r="A18" s="127"/>
       <c r="B18" s="4"/>
       <c r="C18" s="3" t="s">
         <v>12</v>
@@ -4238,7 +4232,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="129"/>
+      <c r="A19" s="127"/>
       <c r="B19" s="4"/>
       <c r="C19" s="3" t="s">
         <v>13</v>
@@ -4289,11 +4283,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomRight" activeCell="G17" sqref="G17:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4333,24 +4327,24 @@
       <c r="A2" s="86"/>
       <c r="B2" s="86"/>
       <c r="C2" s="86"/>
-      <c r="D2" s="130" t="s">
+      <c r="D2" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="131"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="130" t="s">
+      <c r="E2" s="129"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="131"/>
-      <c r="I2" s="132"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="130"/>
       <c r="J2" s="84" t="s">
         <v>122</v>
       </c>
-      <c r="K2" s="133" t="s">
+      <c r="K2" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="134"/>
-      <c r="M2" s="135"/>
+      <c r="L2" s="132"/>
+      <c r="M2" s="133"/>
     </row>
     <row r="3" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="86"/>
@@ -4388,7 +4382,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="130" t="s">
+      <c r="A4" s="128" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="90" t="s">
@@ -4421,7 +4415,7 @@
       <c r="M4" s="35"/>
     </row>
     <row r="5" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="136"/>
+      <c r="A5" s="134"/>
       <c r="B5" s="94"/>
       <c r="C5" s="88" t="s">
         <v>11</v>
@@ -4438,7 +4432,7 @@
       <c r="M5" s="37"/>
     </row>
     <row r="6" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="136"/>
+      <c r="A6" s="134"/>
       <c r="B6" s="94"/>
       <c r="C6" s="88" t="s">
         <v>12</v>
@@ -4467,7 +4461,7 @@
       <c r="M6" s="37"/>
     </row>
     <row r="7" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="136"/>
+      <c r="A7" s="134"/>
       <c r="B7" s="94"/>
       <c r="C7" s="88" t="s">
         <v>13</v>
@@ -4496,7 +4490,7 @@
       <c r="M7" s="37"/>
     </row>
     <row r="8" spans="1:13" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="136"/>
+      <c r="A8" s="134"/>
       <c r="B8" s="95"/>
       <c r="C8" s="95" t="s">
         <v>17</v>
@@ -4525,7 +4519,7 @@
       <c r="M8" s="37"/>
     </row>
     <row r="9" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="136"/>
+      <c r="A9" s="134"/>
       <c r="B9" s="90" t="s">
         <v>9</v>
       </c>
@@ -4541,13 +4535,13 @@
       <c r="F9" s="108">
         <v>0.6</v>
       </c>
-      <c r="G9" s="123">
+      <c r="G9" s="118">
         <v>0.73399999999999999</v>
       </c>
       <c r="H9" s="71">
         <v>0.99099999999999999</v>
       </c>
-      <c r="I9" s="124">
+      <c r="I9" s="119">
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="J9" s="82"/>
@@ -4562,7 +4556,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="136"/>
+      <c r="A10" s="134"/>
       <c r="B10" s="94"/>
       <c r="C10" s="88" t="s">
         <v>11</v>
@@ -4579,7 +4573,7 @@
       <c r="M10" s="37"/>
     </row>
     <row r="11" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="136"/>
+      <c r="A11" s="134"/>
       <c r="B11" s="94"/>
       <c r="C11" s="88" t="s">
         <v>12</v>
@@ -4614,7 +4608,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="136"/>
+      <c r="A12" s="134"/>
       <c r="B12" s="94"/>
       <c r="C12" s="88" t="s">
         <v>13</v>
@@ -4649,7 +4643,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="137"/>
+      <c r="A13" s="135"/>
       <c r="B13" s="99"/>
       <c r="C13" s="100" t="s">
         <v>18</v>
@@ -4693,7 +4687,7 @@
       <c r="M14" s="37"/>
     </row>
     <row r="15" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="130" t="s">
+      <c r="A15" s="128" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="90" t="s">
@@ -4711,14 +4705,14 @@
       <c r="F15" s="108">
         <v>1</v>
       </c>
-      <c r="G15" s="118">
-        <v>0.78800000000000003</v>
-      </c>
-      <c r="H15" s="52">
-        <v>0.91800000000000004</v>
-      </c>
-      <c r="I15" s="119">
-        <v>0.34399999999999997</v>
+      <c r="G15" s="123">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="H15" s="124">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="I15" s="125">
+        <v>0.313</v>
       </c>
       <c r="J15" s="23"/>
       <c r="K15" s="49"/>
@@ -4726,7 +4720,7 @@
       <c r="M15" s="25"/>
     </row>
     <row r="16" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="136"/>
+      <c r="A16" s="134"/>
       <c r="B16" s="94"/>
       <c r="C16" s="88" t="s">
         <v>11</v>
@@ -4755,7 +4749,7 @@
       <c r="M16" s="30"/>
     </row>
     <row r="17" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="136"/>
+      <c r="A17" s="134"/>
       <c r="B17" s="94"/>
       <c r="C17" s="88" t="s">
         <v>12</v>
@@ -4769,13 +4763,13 @@
       <c r="F17" s="98">
         <v>1</v>
       </c>
-      <c r="G17" s="120">
-        <v>0.81699999999999995</v>
-      </c>
-      <c r="H17" s="121">
-        <v>0.96399999999999997</v>
-      </c>
-      <c r="I17" s="122">
+      <c r="G17" s="114">
+        <v>0.79</v>
+      </c>
+      <c r="H17" s="56">
+        <v>0.93</v>
+      </c>
+      <c r="I17" s="115">
         <v>0.313</v>
       </c>
       <c r="J17" s="85"/>
@@ -4784,7 +4778,7 @@
       <c r="M17" s="30"/>
     </row>
     <row r="18" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="136"/>
+      <c r="A18" s="134"/>
       <c r="B18" s="94"/>
       <c r="C18" s="88" t="s">
         <v>13</v>
@@ -4813,7 +4807,7 @@
       <c r="M18" s="30"/>
     </row>
     <row r="19" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="136"/>
+      <c r="A19" s="134"/>
       <c r="B19" s="94"/>
       <c r="C19" s="88" t="s">
         <v>18</v>
@@ -4842,7 +4836,7 @@
       <c r="M19" s="30"/>
     </row>
     <row r="20" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="136"/>
+      <c r="A20" s="134"/>
       <c r="B20" s="90" t="s">
         <v>9</v>
       </c>
@@ -4858,13 +4852,13 @@
       <c r="F20" s="108">
         <v>0.81699999999999995</v>
       </c>
-      <c r="G20" s="123">
+      <c r="G20" s="118">
         <v>0.78800000000000003</v>
       </c>
       <c r="H20" s="71">
         <v>0.92400000000000004</v>
       </c>
-      <c r="I20" s="124">
+      <c r="I20" s="119">
         <v>0.38900000000000001</v>
       </c>
       <c r="J20" s="82"/>
@@ -4879,7 +4873,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="136"/>
+      <c r="A21" s="134"/>
       <c r="B21" s="94"/>
       <c r="C21" s="88" t="s">
         <v>11</v>
@@ -4914,7 +4908,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="136"/>
+      <c r="A22" s="134"/>
       <c r="B22" s="94"/>
       <c r="C22" s="88" t="s">
         <v>12</v>
@@ -4949,7 +4943,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="136"/>
+      <c r="A23" s="134"/>
       <c r="B23" s="94"/>
       <c r="C23" s="88" t="s">
         <v>13</v>
@@ -4984,7 +4978,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="137"/>
+      <c r="A24" s="135"/>
       <c r="B24" s="111"/>
       <c r="C24" s="111" t="s">
         <v>19</v>
@@ -4998,13 +4992,13 @@
       <c r="F24" s="113">
         <v>0.77</v>
       </c>
-      <c r="G24" s="125">
+      <c r="G24" s="120">
         <v>0.76700000000000002</v>
       </c>
-      <c r="H24" s="126">
+      <c r="H24" s="121">
         <v>0.89600000000000002</v>
       </c>
-      <c r="I24" s="127">
+      <c r="I24" s="122">
         <v>0.38900000000000001</v>
       </c>
       <c r="J24" s="79"/>
@@ -5042,8 +5036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5051,8 +5045,8 @@
     <col min="1" max="1" width="12.5" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="14" customWidth="1"/>
-    <col min="4" max="4" width="11.8984375" style="4" hidden="1" customWidth="1"/>
-    <col min="5" max="6" width="13.19921875" style="4" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="11.8984375" style="4" customWidth="1"/>
+    <col min="5" max="6" width="13.19921875" style="4" customWidth="1"/>
     <col min="7" max="7" width="11.8984375" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.8984375" style="14" bestFit="1" customWidth="1"/>
@@ -5081,21 +5075,21 @@
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
-      <c r="D2" s="138" t="s">
+      <c r="D2" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="139"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="138" t="s">
+      <c r="E2" s="137"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="139"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="134" t="s">
+      <c r="H2" s="137"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="132" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="134"/>
-      <c r="L2" s="135"/>
+      <c r="K2" s="132"/>
+      <c r="L2" s="133"/>
     </row>
     <row r="3" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="11"/>
@@ -5130,7 +5124,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="138" t="s">
+      <c r="A4" s="136" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="22" t="s">
@@ -5168,7 +5162,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="141"/>
+      <c r="A5" s="139"/>
       <c r="B5" s="26"/>
       <c r="C5" s="27" t="s">
         <v>11</v>
@@ -5184,7 +5178,7 @@
       <c r="L5" s="57"/>
     </row>
     <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="141"/>
+      <c r="A6" s="139"/>
       <c r="B6" s="26"/>
       <c r="C6" s="27" t="s">
         <v>12</v>
@@ -5218,7 +5212,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="141"/>
+      <c r="A7" s="139"/>
       <c r="B7" s="26"/>
       <c r="C7" s="27" t="s">
         <v>13</v>
@@ -5252,7 +5246,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="142"/>
+      <c r="A8" s="140"/>
       <c r="B8" s="38"/>
       <c r="C8" s="39" t="s">
         <v>18</v>
@@ -5294,7 +5288,7 @@
       <c r="L9" s="64"/>
     </row>
     <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="138" t="s">
+      <c r="A10" s="136" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="22" t="s">
@@ -5332,7 +5326,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="141"/>
+      <c r="A11" s="139"/>
       <c r="B11" s="26"/>
       <c r="C11" s="27" t="s">
         <v>11</v>
@@ -5366,7 +5360,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="141"/>
+      <c r="A12" s="139"/>
       <c r="B12" s="26"/>
       <c r="C12" s="27" t="s">
         <v>12</v>
@@ -5400,7 +5394,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="141"/>
+      <c r="A13" s="139"/>
       <c r="B13" s="26"/>
       <c r="C13" s="27" t="s">
         <v>13</v>
@@ -5434,7 +5428,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="142"/>
+      <c r="A14" s="140"/>
       <c r="B14" s="31"/>
       <c r="C14" s="31" t="s">
         <v>19</v>

--- a/model_performance.xlsx
+++ b/model_performance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="SBP+DBP廢" sheetId="1" r:id="rId1"/>
@@ -1073,6 +1073,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5036,8 +5037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5473,8 +5474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>

--- a/model_performance.xlsx
+++ b/model_performance.xlsx
@@ -4,15 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="SBP+DBP廢" sheetId="1" r:id="rId1"/>
-    <sheet name="Visit" sheetId="6" r:id="rId2"/>
-    <sheet name="Case" sheetId="7" r:id="rId3"/>
-    <sheet name="Case_變數重要性" sheetId="8" r:id="rId4"/>
-    <sheet name="Visit_變數重要性" sheetId="9" r:id="rId5"/>
-    <sheet name="mtry" sheetId="10" r:id="rId6"/>
+    <sheet name="Case_變數重要性" sheetId="8" r:id="rId2"/>
+    <sheet name="Visit_變數重要性" sheetId="9" r:id="rId3"/>
+    <sheet name="mtry" sheetId="10" r:id="rId4"/>
+    <sheet name="Visit" sheetId="6" r:id="rId5"/>
+    <sheet name="XCase" sheetId="7" r:id="rId6"/>
+    <sheet name="Case" sheetId="13" r:id="rId7"/>
+    <sheet name="Visit1p1r" sheetId="11" r:id="rId8"/>
+    <sheet name="Case1p1r" sheetId="12" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="127">
   <si>
     <t>seed</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -424,11 +427,23 @@
     <t xml:space="preserve"> model was mtry = 15.</t>
   </si>
   <si>
-    <t>F1 -score</t>
+    <t>V1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>算完再下結論</t>
+    <t>non-cov</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cov</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Non-cov</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cov</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -440,7 +455,7 @@
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -491,6 +506,20 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -506,7 +535,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -625,6 +654,114 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -632,7 +769,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -687,9 +824,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -702,9 +836,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -743,12 +874,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -854,27 +979,9 @@
     <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1001,6 +1108,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1038,6 +1160,70 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1735,6 +1921,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3722,7 +3909,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12:L15"/>
+      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3758,21 +3945,21 @@
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="127" t="s">
+      <c r="D2" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127" t="s">
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="126" t="s">
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
     </row>
     <row r="3" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
@@ -3807,7 +3994,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="127" t="s">
+      <c r="A4" s="122" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -3827,7 +4014,7 @@
       <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="127"/>
+      <c r="A5" s="122"/>
       <c r="B5" s="4"/>
       <c r="C5" s="3" t="s">
         <v>11</v>
@@ -3843,7 +4030,7 @@
       <c r="L5" s="6"/>
     </row>
     <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="127"/>
+      <c r="A6" s="122"/>
       <c r="B6" s="4"/>
       <c r="C6" s="3" t="s">
         <v>12</v>
@@ -3859,7 +4046,7 @@
       <c r="L6" s="6"/>
     </row>
     <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="127"/>
+      <c r="A7" s="122"/>
       <c r="B7" s="4"/>
       <c r="C7" s="3" t="s">
         <v>13</v>
@@ -3875,7 +4062,7 @@
       <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="127"/>
+      <c r="A8" s="122"/>
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
@@ -3905,7 +4092,7 @@
       <c r="L8" s="6"/>
     </row>
     <row r="9" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="127"/>
+      <c r="A9" s="122"/>
       <c r="B9" s="4"/>
       <c r="C9" s="3" t="s">
         <v>11</v>
@@ -3933,7 +4120,7 @@
       <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="127"/>
+      <c r="A10" s="122"/>
       <c r="B10" s="4"/>
       <c r="C10" s="3" t="s">
         <v>12</v>
@@ -3961,7 +4148,7 @@
       <c r="L10" s="6"/>
     </row>
     <row r="11" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="127"/>
+      <c r="A11" s="122"/>
       <c r="B11" s="4"/>
       <c r="C11" s="3" t="s">
         <v>13</v>
@@ -3989,7 +4176,7 @@
       <c r="L11" s="6"/>
     </row>
     <row r="12" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="127" t="s">
+      <c r="A12" s="122" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -4027,7 +4214,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="127"/>
+      <c r="A13" s="122"/>
       <c r="B13" s="4"/>
       <c r="C13" s="3" t="s">
         <v>11</v>
@@ -4061,7 +4248,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="127"/>
+      <c r="A14" s="122"/>
       <c r="B14" s="4"/>
       <c r="C14" s="3" t="s">
         <v>12</v>
@@ -4095,7 +4282,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="127"/>
+      <c r="A15" s="122"/>
       <c r="B15" s="4"/>
       <c r="C15" s="3" t="s">
         <v>13</v>
@@ -4129,7 +4316,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="127"/>
+      <c r="A16" s="122"/>
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
@@ -4165,7 +4352,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="127"/>
+      <c r="A17" s="122"/>
       <c r="B17" s="4"/>
       <c r="C17" s="3" t="s">
         <v>11</v>
@@ -4199,7 +4386,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="127"/>
+      <c r="A18" s="122"/>
       <c r="B18" s="4"/>
       <c r="C18" s="3" t="s">
         <v>12</v>
@@ -4233,7 +4420,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="127"/>
+      <c r="A19" s="122"/>
       <c r="B19" s="4"/>
       <c r="C19" s="3" t="s">
         <v>13</v>
@@ -4282,1199 +4469,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:L65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G17" sqref="G17:I17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="12.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="9" customWidth="1"/>
-    <col min="4" max="4" width="11.8984375" style="4" customWidth="1"/>
-    <col min="5" max="6" width="13.19921875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="11.8984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.8984375" style="9" hidden="1" customWidth="1"/>
-    <col min="12" max="13" width="13.19921875" style="9" hidden="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.796875" style="9"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="10">
-        <v>123</v>
-      </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="83"/>
-    </row>
-    <row r="2" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="86"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="128" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="129"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="128" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="129"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="84" t="s">
-        <v>122</v>
-      </c>
-      <c r="K2" s="131" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="132"/>
-      <c r="M2" s="133"/>
-    </row>
-    <row r="3" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="86"/>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="87" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="88" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="89" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="87" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="88" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="89" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="K3" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="M3" s="45" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="128" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="90" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="90" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="91">
-        <v>1</v>
-      </c>
-      <c r="E4" s="92">
-        <v>1</v>
-      </c>
-      <c r="F4" s="93">
-        <v>1</v>
-      </c>
-      <c r="G4" s="91">
-        <v>0.76</v>
-      </c>
-      <c r="H4" s="92">
-        <v>0.96699999999999997</v>
-      </c>
-      <c r="I4" s="93">
-        <v>0.125</v>
-      </c>
-      <c r="J4" s="42"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="35"/>
-    </row>
-    <row r="5" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="134"/>
-      <c r="B5" s="94"/>
-      <c r="C5" s="88" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="96"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="37"/>
-    </row>
-    <row r="6" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="134"/>
-      <c r="B6" s="94"/>
-      <c r="C6" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="96">
-        <v>1</v>
-      </c>
-      <c r="E6" s="97">
-        <v>1</v>
-      </c>
-      <c r="F6" s="98">
-        <v>1</v>
-      </c>
-      <c r="G6" s="96">
-        <v>0.76</v>
-      </c>
-      <c r="H6" s="97">
-        <v>0.96699999999999997</v>
-      </c>
-      <c r="I6" s="98">
-        <v>0.125</v>
-      </c>
-      <c r="J6" s="43"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="37"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="134"/>
-      <c r="B7" s="94"/>
-      <c r="C7" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="96">
-        <v>1</v>
-      </c>
-      <c r="E7" s="97">
-        <v>1</v>
-      </c>
-      <c r="F7" s="98">
-        <v>1</v>
-      </c>
-      <c r="G7" s="96">
-        <v>0.76</v>
-      </c>
-      <c r="H7" s="97">
-        <v>0.96699999999999997</v>
-      </c>
-      <c r="I7" s="98">
-        <v>0.125</v>
-      </c>
-      <c r="J7" s="43"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="37"/>
-    </row>
-    <row r="8" spans="1:13" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="134"/>
-      <c r="B8" s="95"/>
-      <c r="C8" s="95" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="96">
-        <v>0.79</v>
-      </c>
-      <c r="E8" s="97">
-        <v>0.93</v>
-      </c>
-      <c r="F8" s="98">
-        <v>0.17</v>
-      </c>
-      <c r="G8" s="96">
-        <v>0.74</v>
-      </c>
-      <c r="H8" s="97">
-        <v>0.92600000000000005</v>
-      </c>
-      <c r="I8" s="98">
-        <v>0.18</v>
-      </c>
-      <c r="J8" s="28"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="37"/>
-    </row>
-    <row r="9" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="134"/>
-      <c r="B9" s="90" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="106">
-        <v>0.9</v>
-      </c>
-      <c r="E9" s="107">
-        <v>0.98399999999999999</v>
-      </c>
-      <c r="F9" s="108">
-        <v>0.6</v>
-      </c>
-      <c r="G9" s="118">
-        <v>0.73399999999999999</v>
-      </c>
-      <c r="H9" s="71">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="I9" s="119">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="J9" s="82"/>
-      <c r="K9" s="46">
-        <v>0.72799999999999998</v>
-      </c>
-      <c r="L9" s="36">
-        <v>1</v>
-      </c>
-      <c r="M9" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="134"/>
-      <c r="B10" s="94"/>
-      <c r="C10" s="88" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="96"/>
-      <c r="E10" s="97"/>
-      <c r="F10" s="98"/>
-      <c r="G10" s="114"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="115"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="37"/>
-    </row>
-    <row r="11" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="134"/>
-      <c r="B11" s="94"/>
-      <c r="C11" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="96">
-        <v>0.9</v>
-      </c>
-      <c r="E11" s="97">
-        <v>0.98</v>
-      </c>
-      <c r="F11" s="98">
-        <v>0.6</v>
-      </c>
-      <c r="G11" s="114">
-        <v>0.73399999999999999</v>
-      </c>
-      <c r="H11" s="56">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="I11" s="115">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="J11" s="28"/>
-      <c r="K11" s="46">
-        <v>0.70899999999999996</v>
-      </c>
-      <c r="L11" s="36">
-        <v>0.80400000000000005</v>
-      </c>
-      <c r="M11" s="37">
-        <v>0.29499999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="134"/>
-      <c r="B12" s="94"/>
-      <c r="C12" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="96">
-        <v>0.90100000000000002</v>
-      </c>
-      <c r="E12" s="97">
-        <v>0.98399999999999999</v>
-      </c>
-      <c r="F12" s="98">
-        <v>0.6</v>
-      </c>
-      <c r="G12" s="114">
-        <v>0.73399999999999999</v>
-      </c>
-      <c r="H12" s="56">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="I12" s="115">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="J12" s="28"/>
-      <c r="K12" s="46">
-        <v>0.70899999999999996</v>
-      </c>
-      <c r="L12" s="36">
-        <v>0.80400000000000005</v>
-      </c>
-      <c r="M12" s="37">
-        <v>0.29499999999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="135"/>
-      <c r="B13" s="99"/>
-      <c r="C13" s="100" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="101">
-        <v>0.73399999999999999</v>
-      </c>
-      <c r="E13" s="102">
-        <v>0.9</v>
-      </c>
-      <c r="F13" s="103">
-        <v>0.1</v>
-      </c>
-      <c r="G13" s="116">
-        <v>0.69699999999999995</v>
-      </c>
-      <c r="H13" s="77">
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="I13" s="117">
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="J13" s="80"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="33"/>
-    </row>
-    <row r="14" spans="1:13" s="18" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="104"/>
-      <c r="B14" s="105"/>
-      <c r="C14" s="104"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="114"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="115"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="37"/>
-    </row>
-    <row r="15" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="128" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="90" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="90" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="106">
-        <v>1</v>
-      </c>
-      <c r="E15" s="107">
-        <v>1</v>
-      </c>
-      <c r="F15" s="108">
-        <v>1</v>
-      </c>
-      <c r="G15" s="123">
-        <v>0.81699999999999995</v>
-      </c>
-      <c r="H15" s="124">
-        <v>0.96399999999999997</v>
-      </c>
-      <c r="I15" s="125">
-        <v>0.313</v>
-      </c>
-      <c r="J15" s="23"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="25"/>
-    </row>
-    <row r="16" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="134"/>
-      <c r="B16" s="94"/>
-      <c r="C16" s="88" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="96">
-        <v>1</v>
-      </c>
-      <c r="E16" s="97">
-        <v>1</v>
-      </c>
-      <c r="F16" s="98">
-        <v>1</v>
-      </c>
-      <c r="G16" s="114">
-        <v>0.8</v>
-      </c>
-      <c r="H16" s="56">
-        <v>0.94499999999999995</v>
-      </c>
-      <c r="I16" s="115">
-        <v>0.3125</v>
-      </c>
-      <c r="J16" s="28"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="30"/>
-    </row>
-    <row r="17" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="134"/>
-      <c r="B17" s="94"/>
-      <c r="C17" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="96">
-        <v>1</v>
-      </c>
-      <c r="E17" s="97">
-        <v>1</v>
-      </c>
-      <c r="F17" s="98">
-        <v>1</v>
-      </c>
-      <c r="G17" s="114">
-        <v>0.79</v>
-      </c>
-      <c r="H17" s="56">
-        <v>0.93</v>
-      </c>
-      <c r="I17" s="115">
-        <v>0.313</v>
-      </c>
-      <c r="J17" s="85"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="30"/>
-    </row>
-    <row r="18" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="134"/>
-      <c r="B18" s="94"/>
-      <c r="C18" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="96">
-        <v>1</v>
-      </c>
-      <c r="E18" s="97">
-        <v>1</v>
-      </c>
-      <c r="F18" s="98">
-        <v>1</v>
-      </c>
-      <c r="G18" s="114">
-        <v>0.81</v>
-      </c>
-      <c r="H18" s="56">
-        <v>0.96</v>
-      </c>
-      <c r="I18" s="115">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="J18" s="28"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="30"/>
-    </row>
-    <row r="19" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="134"/>
-      <c r="B19" s="94"/>
-      <c r="C19" s="88" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="109">
-        <v>0.97799999999999998</v>
-      </c>
-      <c r="E19" s="102">
-        <v>0.99</v>
-      </c>
-      <c r="F19" s="98">
-        <v>0.92900000000000005</v>
-      </c>
-      <c r="G19" s="116">
-        <v>0.80300000000000005</v>
-      </c>
-      <c r="H19" s="77">
-        <v>0.94499999999999995</v>
-      </c>
-      <c r="I19" s="117">
-        <v>0.313</v>
-      </c>
-      <c r="J19" s="80"/>
-      <c r="K19" s="81"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="30"/>
-    </row>
-    <row r="20" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="134"/>
-      <c r="B20" s="90" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="106">
-        <v>0.92600000000000005</v>
-      </c>
-      <c r="E20" s="107">
-        <v>0.95499999999999996</v>
-      </c>
-      <c r="F20" s="108">
-        <v>0.81699999999999995</v>
-      </c>
-      <c r="G20" s="118">
-        <v>0.78800000000000003</v>
-      </c>
-      <c r="H20" s="71">
-        <v>0.92400000000000004</v>
-      </c>
-      <c r="I20" s="119">
-        <v>0.38900000000000001</v>
-      </c>
-      <c r="J20" s="82"/>
-      <c r="K20" s="49">
-        <v>0.64700000000000002</v>
-      </c>
-      <c r="L20" s="24">
-        <v>0.82</v>
-      </c>
-      <c r="M20" s="25">
-        <v>0.13900000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="134"/>
-      <c r="B21" s="94"/>
-      <c r="C21" s="88" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="96">
-        <v>0.91200000000000003</v>
-      </c>
-      <c r="E21" s="97">
-        <v>0.98199999999999998</v>
-      </c>
-      <c r="F21" s="98">
-        <v>0.65</v>
-      </c>
-      <c r="G21" s="114">
-        <v>0.73199999999999998</v>
-      </c>
-      <c r="H21" s="56">
-        <v>0.92400000000000004</v>
-      </c>
-      <c r="I21" s="115">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="J21" s="28"/>
-      <c r="K21" s="50">
-        <v>0.69</v>
-      </c>
-      <c r="L21" s="29">
-        <v>0.89600000000000002</v>
-      </c>
-      <c r="M21" s="30">
-        <v>8.3000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="134"/>
-      <c r="B22" s="94"/>
-      <c r="C22" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="96">
-        <v>0.94399999999999995</v>
-      </c>
-      <c r="E22" s="97">
-        <v>0.96</v>
-      </c>
-      <c r="F22" s="98">
-        <v>0.88</v>
-      </c>
-      <c r="G22" s="114">
-        <v>0.753</v>
-      </c>
-      <c r="H22" s="56">
-        <v>0.877</v>
-      </c>
-      <c r="I22" s="115">
-        <v>0.38900000000000001</v>
-      </c>
-      <c r="J22" s="28"/>
-      <c r="K22" s="50">
-        <v>0.65500000000000003</v>
-      </c>
-      <c r="L22" s="29">
-        <v>0.85</v>
-      </c>
-      <c r="M22" s="30">
-        <v>8.3000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="134"/>
-      <c r="B23" s="94"/>
-      <c r="C23" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="96">
-        <v>0.94399999999999995</v>
-      </c>
-      <c r="E23" s="97">
-        <v>0.96</v>
-      </c>
-      <c r="F23" s="98">
-        <v>0.88300000000000001</v>
-      </c>
-      <c r="G23" s="114">
-        <v>0.754</v>
-      </c>
-      <c r="H23" s="56">
-        <v>0.877</v>
-      </c>
-      <c r="I23" s="115">
-        <v>0.38900000000000001</v>
-      </c>
-      <c r="J23" s="28"/>
-      <c r="K23" s="50">
-        <v>0.65500000000000003</v>
-      </c>
-      <c r="L23" s="29">
-        <v>0.85</v>
-      </c>
-      <c r="M23" s="30">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="135"/>
-      <c r="B24" s="111"/>
-      <c r="C24" s="111" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="112">
-        <v>0.93600000000000005</v>
-      </c>
-      <c r="E24" s="99">
-        <v>0.98199999999999998</v>
-      </c>
-      <c r="F24" s="113">
-        <v>0.77</v>
-      </c>
-      <c r="G24" s="120">
-        <v>0.76700000000000002</v>
-      </c>
-      <c r="H24" s="121">
-        <v>0.89600000000000002</v>
-      </c>
-      <c r="I24" s="122">
-        <v>0.38900000000000001</v>
-      </c>
-      <c r="J24" s="79"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="33"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="A15:A24"/>
-    <mergeCell ref="A4:A13"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="12.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="14" customWidth="1"/>
-    <col min="4" max="4" width="11.8984375" style="4" customWidth="1"/>
-    <col min="5" max="6" width="13.19921875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="11.8984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.8984375" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.19921875" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.796875" style="14"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="15">
-        <v>123</v>
-      </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-    </row>
-    <row r="2" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="136" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="137"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="136" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="137"/>
-      <c r="I2" s="138"/>
-      <c r="J2" s="132" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="132"/>
-      <c r="L2" s="133"/>
-    </row>
-    <row r="3" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="L3" s="41" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="136" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="51">
-        <v>0.76</v>
-      </c>
-      <c r="E4" s="52">
-        <v>1</v>
-      </c>
-      <c r="F4" s="53">
-        <v>0</v>
-      </c>
-      <c r="G4" s="71">
-        <v>0.76600000000000001</v>
-      </c>
-      <c r="H4" s="71">
-        <v>0.94599999999999995</v>
-      </c>
-      <c r="I4" s="74">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="J4" s="54">
-        <v>0.79500000000000004</v>
-      </c>
-      <c r="K4" s="54">
-        <v>1</v>
-      </c>
-      <c r="L4" s="53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="139"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="57"/>
-    </row>
-    <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="139"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="55">
-        <v>0.77500000000000002</v>
-      </c>
-      <c r="E6" s="56">
-        <v>1</v>
-      </c>
-      <c r="F6" s="57">
-        <v>0</v>
-      </c>
-      <c r="G6" s="56">
-        <v>0.69799999999999995</v>
-      </c>
-      <c r="H6" s="56">
-        <v>0.9</v>
-      </c>
-      <c r="I6" s="57">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="J6" s="58">
-        <v>0.76500000000000001</v>
-      </c>
-      <c r="K6" s="58">
-        <v>1</v>
-      </c>
-      <c r="L6" s="57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="139"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="55">
-        <v>0.77500000000000002</v>
-      </c>
-      <c r="E7" s="56">
-        <v>1</v>
-      </c>
-      <c r="F7" s="57">
-        <v>0</v>
-      </c>
-      <c r="G7" s="56">
-        <v>0.69799999999999995</v>
-      </c>
-      <c r="H7" s="56">
-        <v>0.9</v>
-      </c>
-      <c r="I7" s="57">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="J7" s="58">
-        <v>0.76500000000000001</v>
-      </c>
-      <c r="K7" s="58">
-        <v>1</v>
-      </c>
-      <c r="L7" s="57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="140"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="59">
-        <v>0.68799999999999994</v>
-      </c>
-      <c r="E8" s="60">
-        <v>0.86199999999999999</v>
-      </c>
-      <c r="F8" s="61">
-        <v>0.13</v>
-      </c>
-      <c r="G8" s="77">
-        <v>0.73</v>
-      </c>
-      <c r="H8" s="77">
-        <v>0.88</v>
-      </c>
-      <c r="I8" s="72">
-        <v>0.16</v>
-      </c>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="61"/>
-    </row>
-    <row r="9" spans="1:12" s="18" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="19"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="64"/>
-    </row>
-    <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="136" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="51">
-        <v>0.92600000000000005</v>
-      </c>
-      <c r="E10" s="52">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="F10" s="65">
-        <v>0.75900000000000001</v>
-      </c>
-      <c r="G10" s="73">
-        <v>0.91900000000000004</v>
-      </c>
-      <c r="H10" s="73">
-        <v>0.99299999999999999</v>
-      </c>
-      <c r="I10" s="78">
-        <v>0.68600000000000005</v>
-      </c>
-      <c r="J10" s="66">
-        <v>0.68500000000000005</v>
-      </c>
-      <c r="K10" s="66">
-        <v>0.78500000000000003</v>
-      </c>
-      <c r="L10" s="65">
-        <v>0.28499999999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="139"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="55">
-        <v>0.89700000000000002</v>
-      </c>
-      <c r="E11" s="56">
-        <v>0.98899999999999999</v>
-      </c>
-      <c r="F11" s="67">
-        <v>0.58599999999999997</v>
-      </c>
-      <c r="G11" s="56">
-        <v>0.76100000000000001</v>
-      </c>
-      <c r="H11" s="56">
-        <v>1</v>
-      </c>
-      <c r="I11" s="67">
-        <v>1.9E-2</v>
-      </c>
-      <c r="J11" s="68">
-        <v>0.71399999999999997</v>
-      </c>
-      <c r="K11" s="68">
-        <v>0.86099999999999999</v>
-      </c>
-      <c r="L11" s="67">
-        <v>0.254</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="139"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="55">
-        <v>0.91700000000000004</v>
-      </c>
-      <c r="E12" s="56">
-        <v>0.96699999999999997</v>
-      </c>
-      <c r="F12" s="67">
-        <v>0.748</v>
-      </c>
-      <c r="G12" s="56">
-        <v>0.88500000000000001</v>
-      </c>
-      <c r="H12" s="56">
-        <v>0.94299999999999995</v>
-      </c>
-      <c r="I12" s="67">
-        <v>0.70499999999999996</v>
-      </c>
-      <c r="J12" s="68">
-        <v>0.68500000000000005</v>
-      </c>
-      <c r="K12" s="68">
-        <v>0.79800000000000004</v>
-      </c>
-      <c r="L12" s="67">
-        <v>0.33300000000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="139"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="55">
-        <v>0.91700000000000004</v>
-      </c>
-      <c r="E13" s="56">
-        <v>0.96699999999999997</v>
-      </c>
-      <c r="F13" s="67">
-        <v>0.748</v>
-      </c>
-      <c r="G13" s="56">
-        <v>0.88500000000000001</v>
-      </c>
-      <c r="H13" s="56">
-        <v>0.94299999999999995</v>
-      </c>
-      <c r="I13" s="67">
-        <v>0.70499999999999996</v>
-      </c>
-      <c r="J13" s="68">
-        <v>0.68500000000000005</v>
-      </c>
-      <c r="K13" s="68">
-        <v>0.79800000000000004</v>
-      </c>
-      <c r="L13" s="67">
-        <v>0.33300000000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="140"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="69">
-        <v>0.92100000000000004</v>
-      </c>
-      <c r="E14" s="70">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="F14" s="61">
-        <v>0.68799999999999994</v>
-      </c>
-      <c r="G14" s="76">
-        <v>0.94799999999999995</v>
-      </c>
-      <c r="H14" s="76">
-        <v>1</v>
-      </c>
-      <c r="I14" s="75">
-        <v>0.74399999999999999</v>
-      </c>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="61"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A10:A14"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L65"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -7170,7 +6167,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H51"/>
   <sheetViews>
@@ -8219,7 +7216,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B22"/>
   <sheetViews>
@@ -8345,4 +7342,1697 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="9" customWidth="1"/>
+    <col min="4" max="4" width="11.8984375" style="4" customWidth="1"/>
+    <col min="5" max="6" width="13.19921875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="11.8984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.8984375" style="9" customWidth="1"/>
+    <col min="11" max="12" width="13.19921875" style="9" customWidth="1"/>
+    <col min="13" max="16384" width="8.796875" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="10">
+        <v>123</v>
+      </c>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="76"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="123" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="124"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="123" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="124"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="126" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="127"/>
+      <c r="L2" s="128"/>
+    </row>
+    <row r="3" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="76"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="77" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="77" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="123" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="81">
+        <v>1</v>
+      </c>
+      <c r="E4" s="82">
+        <v>1</v>
+      </c>
+      <c r="F4" s="83">
+        <v>1</v>
+      </c>
+      <c r="G4" s="81">
+        <v>0.76</v>
+      </c>
+      <c r="H4" s="82">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="I4" s="83">
+        <v>0.125</v>
+      </c>
+      <c r="J4" s="43"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="33"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="129"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="86"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="35"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="129"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="86">
+        <v>1</v>
+      </c>
+      <c r="E6" s="87">
+        <v>1</v>
+      </c>
+      <c r="F6" s="88">
+        <v>1</v>
+      </c>
+      <c r="G6" s="86">
+        <v>0.76</v>
+      </c>
+      <c r="H6" s="87">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="I6" s="88">
+        <v>0.125</v>
+      </c>
+      <c r="J6" s="42"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="35"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="129"/>
+      <c r="B7" s="84"/>
+      <c r="C7" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="86">
+        <v>1</v>
+      </c>
+      <c r="E7" s="87">
+        <v>1</v>
+      </c>
+      <c r="F7" s="88">
+        <v>1</v>
+      </c>
+      <c r="G7" s="86">
+        <v>0.76</v>
+      </c>
+      <c r="H7" s="87">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="I7" s="88">
+        <v>0.125</v>
+      </c>
+      <c r="J7" s="42"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="35"/>
+    </row>
+    <row r="8" spans="1:12" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="129"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="85" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="86">
+        <v>0.79</v>
+      </c>
+      <c r="E8" s="87">
+        <v>0.93</v>
+      </c>
+      <c r="F8" s="88">
+        <v>0.17</v>
+      </c>
+      <c r="G8" s="86">
+        <v>0.74</v>
+      </c>
+      <c r="H8" s="87">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="I8" s="88">
+        <v>0.18</v>
+      </c>
+      <c r="J8" s="42"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="35"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="129"/>
+      <c r="B9" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="100" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="96">
+        <v>0.9</v>
+      </c>
+      <c r="E9" s="97">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="F9" s="98">
+        <v>0.6</v>
+      </c>
+      <c r="G9" s="108">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="H9" s="67">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="I9" s="109">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="J9" s="42">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="K9" s="34">
+        <v>1</v>
+      </c>
+      <c r="L9" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="129"/>
+      <c r="B10" s="84"/>
+      <c r="C10" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="86"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="105"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="35"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="129"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="86">
+        <v>0.9</v>
+      </c>
+      <c r="E11" s="87">
+        <v>0.98</v>
+      </c>
+      <c r="F11" s="88">
+        <v>0.6</v>
+      </c>
+      <c r="G11" s="104">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="H11" s="52">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="I11" s="105">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="J11" s="42">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="K11" s="34">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="L11" s="35">
+        <v>0.29499999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="129"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="86">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="E12" s="87">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="F12" s="88">
+        <v>0.6</v>
+      </c>
+      <c r="G12" s="104">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="H12" s="52">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="I12" s="105">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="J12" s="42">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="K12" s="34">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="L12" s="35">
+        <v>0.29499999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="130"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="90" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="91">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="E13" s="92">
+        <v>0.9</v>
+      </c>
+      <c r="F13" s="93">
+        <v>0.1</v>
+      </c>
+      <c r="G13" s="106">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="H13" s="73">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="I13" s="107">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="J13" s="44"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="31"/>
+    </row>
+    <row r="14" spans="1:12" s="18" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="94"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="104"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="105"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="35"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="123" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="96">
+        <v>1</v>
+      </c>
+      <c r="E15" s="97">
+        <v>1</v>
+      </c>
+      <c r="F15" s="98">
+        <v>1</v>
+      </c>
+      <c r="G15" s="113">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="H15" s="114">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="I15" s="115">
+        <v>0.313</v>
+      </c>
+      <c r="J15" s="45"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="24"/>
+    </row>
+    <row r="16" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="129"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="86">
+        <v>1</v>
+      </c>
+      <c r="E16" s="87">
+        <v>1</v>
+      </c>
+      <c r="F16" s="88">
+        <v>1</v>
+      </c>
+      <c r="G16" s="104">
+        <v>0.8</v>
+      </c>
+      <c r="H16" s="52">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="I16" s="105">
+        <v>0.3125</v>
+      </c>
+      <c r="J16" s="46"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="28"/>
+    </row>
+    <row r="17" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="129"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="86">
+        <v>1</v>
+      </c>
+      <c r="E17" s="87">
+        <v>1</v>
+      </c>
+      <c r="F17" s="88">
+        <v>1</v>
+      </c>
+      <c r="G17" s="104">
+        <v>0.79</v>
+      </c>
+      <c r="H17" s="52">
+        <v>0.93</v>
+      </c>
+      <c r="I17" s="105">
+        <v>0.313</v>
+      </c>
+      <c r="J17" s="46"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="28"/>
+    </row>
+    <row r="18" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="129"/>
+      <c r="B18" s="84"/>
+      <c r="C18" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="86">
+        <v>1</v>
+      </c>
+      <c r="E18" s="87">
+        <v>1</v>
+      </c>
+      <c r="F18" s="88">
+        <v>1</v>
+      </c>
+      <c r="G18" s="104">
+        <v>0.81</v>
+      </c>
+      <c r="H18" s="52">
+        <v>0.96</v>
+      </c>
+      <c r="I18" s="105">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J18" s="46"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="28"/>
+    </row>
+    <row r="19" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="129"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="99">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="E19" s="92">
+        <v>0.99</v>
+      </c>
+      <c r="F19" s="88">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="G19" s="106">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="H19" s="73">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="I19" s="107">
+        <v>0.313</v>
+      </c>
+      <c r="J19" s="75"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="28"/>
+    </row>
+    <row r="20" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="129"/>
+      <c r="B20" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="100" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="96">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="E20" s="97">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="F20" s="98">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="G20" s="108">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="H20" s="67">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="I20" s="109">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="J20" s="45">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="K20" s="23">
+        <v>0.82</v>
+      </c>
+      <c r="L20" s="24">
+        <v>0.13900000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="129"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="86">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="E21" s="87">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="F21" s="88">
+        <v>0.65</v>
+      </c>
+      <c r="G21" s="104">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="H21" s="52">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="I21" s="105">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="J21" s="46">
+        <v>0.69</v>
+      </c>
+      <c r="K21" s="27">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="L21" s="28">
+        <v>8.3000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="129"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="86">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="E22" s="87">
+        <v>0.96</v>
+      </c>
+      <c r="F22" s="88">
+        <v>0.88</v>
+      </c>
+      <c r="G22" s="104">
+        <v>0.753</v>
+      </c>
+      <c r="H22" s="52">
+        <v>0.877</v>
+      </c>
+      <c r="I22" s="105">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="J22" s="46">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="K22" s="27">
+        <v>0.85</v>
+      </c>
+      <c r="L22" s="28">
+        <v>8.3000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="129"/>
+      <c r="B23" s="84"/>
+      <c r="C23" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="86">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="E23" s="87">
+        <v>0.96</v>
+      </c>
+      <c r="F23" s="88">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="G23" s="104">
+        <v>0.754</v>
+      </c>
+      <c r="H23" s="52">
+        <v>0.877</v>
+      </c>
+      <c r="I23" s="105">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="J23" s="46">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="K23" s="27">
+        <v>0.85</v>
+      </c>
+      <c r="L23" s="28">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="130"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="101" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="102">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="E24" s="89">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="F24" s="103">
+        <v>0.77</v>
+      </c>
+      <c r="G24" s="110">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="H24" s="111">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="I24" s="112">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="J24" s="44"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="31"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="A15:A24"/>
+    <mergeCell ref="A4:A13"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="14" customWidth="1"/>
+    <col min="4" max="4" width="11.8984375" style="4" customWidth="1"/>
+    <col min="5" max="6" width="13.19921875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="11.8984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.8984375" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.19921875" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.796875" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="15">
+        <v>123</v>
+      </c>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="131" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="132"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="131" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="132"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="127" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="127"/>
+      <c r="L2" s="128"/>
+    </row>
+    <row r="3" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="131" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="47">
+        <v>0.76</v>
+      </c>
+      <c r="E4" s="48">
+        <v>1</v>
+      </c>
+      <c r="F4" s="49">
+        <v>0</v>
+      </c>
+      <c r="G4" s="67">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="H4" s="67">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="I4" s="70">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="J4" s="50">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="K4" s="50">
+        <v>1</v>
+      </c>
+      <c r="L4" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="134"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="51"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="53"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="134"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="51">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="E6" s="52">
+        <v>1</v>
+      </c>
+      <c r="F6" s="53">
+        <v>0</v>
+      </c>
+      <c r="G6" s="52">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="H6" s="52">
+        <v>0.9</v>
+      </c>
+      <c r="I6" s="53">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="J6" s="54">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="K6" s="54">
+        <v>1</v>
+      </c>
+      <c r="L6" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="134"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="51">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="E7" s="52">
+        <v>1</v>
+      </c>
+      <c r="F7" s="53">
+        <v>0</v>
+      </c>
+      <c r="G7" s="52">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="H7" s="52">
+        <v>0.9</v>
+      </c>
+      <c r="I7" s="53">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="J7" s="54">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="K7" s="54">
+        <v>1</v>
+      </c>
+      <c r="L7" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="135"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="55">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="E8" s="56">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="F8" s="57">
+        <v>0.13</v>
+      </c>
+      <c r="G8" s="73">
+        <v>0.73</v>
+      </c>
+      <c r="H8" s="73">
+        <v>0.88</v>
+      </c>
+      <c r="I8" s="68">
+        <v>0.16</v>
+      </c>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="57"/>
+    </row>
+    <row r="9" spans="1:12" s="18" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="19"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="47">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="E10" s="48">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="F10" s="61">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="G10" s="69">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="H10" s="69">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="I10" s="74">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="J10" s="62">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="K10" s="62">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="L10" s="61">
+        <v>0.28499999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="134"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="51">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="E11" s="52">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="F11" s="63">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="G11" s="52">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="H11" s="52">
+        <v>1</v>
+      </c>
+      <c r="I11" s="63">
+        <v>1.9E-2</v>
+      </c>
+      <c r="J11" s="64">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="K11" s="64">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="L11" s="63">
+        <v>0.254</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="134"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="51">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="E12" s="52">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="F12" s="63">
+        <v>0.748</v>
+      </c>
+      <c r="G12" s="52">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="H12" s="52">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="I12" s="63">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="J12" s="64">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="K12" s="64">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="L12" s="63">
+        <v>0.33300000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="134"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="51">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="E13" s="52">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="F13" s="63">
+        <v>0.748</v>
+      </c>
+      <c r="G13" s="52">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="H13" s="52">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="I13" s="63">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="J13" s="64">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="K13" s="64">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="L13" s="63">
+        <v>0.33300000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="135"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="65">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="E14" s="66">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="F14" s="57">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="G14" s="72">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="H14" s="72">
+        <v>1</v>
+      </c>
+      <c r="I14" s="71">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="57"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A10:A14"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="117">
+        <v>123</v>
+      </c>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="131" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="132"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="131" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="132"/>
+      <c r="I2" s="133"/>
+    </row>
+    <row r="3" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="131" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="118" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="47"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="70"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="134"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="51"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="53"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="134"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="51"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="53"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="134"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="51"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="53"/>
+    </row>
+    <row r="8" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="135"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="55"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="68"/>
+    </row>
+    <row r="9" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="117"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="117"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="60"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="131" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="118" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="47"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="74"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="134"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="51"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="63"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="134"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="51"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="63"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="134"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="51"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="63"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="135"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="65"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="71"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A10:A14"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.69921875" style="151" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="151" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.796875" style="151" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.8984375" style="151" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.19921875" style="151" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.8984375" style="151" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.19921875" style="151" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.8984375" style="151" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.19921875" style="151" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.796875" style="151"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D1" s="152" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="153" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="153"/>
+      <c r="L1" s="153"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D2" s="154" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="154" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="154" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="154" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="154" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="154" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="155" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="155" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="155" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="151" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="154" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="156" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B4" s="154" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="154" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B5" s="157"/>
+      <c r="C5" s="154" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B6" s="157"/>
+      <c r="C6" s="154" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B7" s="156"/>
+      <c r="C7" s="154" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="151" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="154" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="156" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B9" s="154" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="154" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B10" s="157"/>
+      <c r="C10" s="154" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B11" s="157"/>
+      <c r="C11" s="154" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B12" s="156"/>
+      <c r="C12" s="154" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="117">
+        <v>123</v>
+      </c>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="131" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="132"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="131" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="132"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="127" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="127"/>
+      <c r="L2" s="128"/>
+    </row>
+    <row r="3" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="119" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="119" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="137" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="138" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="149" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="147"/>
+      <c r="E4" s="147"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="144"/>
+      <c r="I4" s="142"/>
+      <c r="J4" s="141"/>
+      <c r="K4" s="140"/>
+      <c r="L4" s="140"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="136" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="139" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="150" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="148"/>
+      <c r="E5" s="148"/>
+      <c r="F5" s="140"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="145"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="141"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="141"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/model_performance.xlsx
+++ b/model_performance.xlsx
@@ -11,11 +11,11 @@
     <sheet name="Case_變數重要性" sheetId="8" r:id="rId2"/>
     <sheet name="Visit_變數重要性" sheetId="9" r:id="rId3"/>
     <sheet name="mtry" sheetId="10" r:id="rId4"/>
-    <sheet name="Visit" sheetId="6" r:id="rId5"/>
-    <sheet name="XCase" sheetId="7" r:id="rId6"/>
-    <sheet name="Case" sheetId="13" r:id="rId7"/>
-    <sheet name="Visit1p1r" sheetId="11" r:id="rId8"/>
-    <sheet name="Case1p1r" sheetId="12" r:id="rId9"/>
+    <sheet name="XCase" sheetId="7" r:id="rId5"/>
+    <sheet name="Visit1p1r" sheetId="11" r:id="rId6"/>
+    <sheet name="Visit" sheetId="6" r:id="rId7"/>
+    <sheet name="Case1p1r" sheetId="12" r:id="rId8"/>
+    <sheet name="Case" sheetId="13" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="127">
   <si>
     <t>seed</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -455,7 +455,7 @@
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -520,6 +520,19 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Microsoft JhengHei UI"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -535,7 +548,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -762,6 +775,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -769,7 +819,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -815,53 +865,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -874,26 +891,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -979,9 +978,6 @@
     <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1102,45 +1098,57 @@
     <xf numFmtId="10" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1162,68 +1170,229 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1259,7 +1428,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1921,7 +2089,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3945,21 +4112,21 @@
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="122" t="s">
+      <c r="D2" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122" t="s">
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="121" t="s">
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
     </row>
     <row r="3" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
@@ -3994,7 +4161,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="122" t="s">
+      <c r="A4" s="109" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -4014,7 +4181,7 @@
       <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="122"/>
+      <c r="A5" s="109"/>
       <c r="B5" s="4"/>
       <c r="C5" s="3" t="s">
         <v>11</v>
@@ -4030,7 +4197,7 @@
       <c r="L5" s="6"/>
     </row>
     <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="122"/>
+      <c r="A6" s="109"/>
       <c r="B6" s="4"/>
       <c r="C6" s="3" t="s">
         <v>12</v>
@@ -4046,7 +4213,7 @@
       <c r="L6" s="6"/>
     </row>
     <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="122"/>
+      <c r="A7" s="109"/>
       <c r="B7" s="4"/>
       <c r="C7" s="3" t="s">
         <v>13</v>
@@ -4062,7 +4229,7 @@
       <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="122"/>
+      <c r="A8" s="109"/>
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
@@ -4092,7 +4259,7 @@
       <c r="L8" s="6"/>
     </row>
     <row r="9" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="122"/>
+      <c r="A9" s="109"/>
       <c r="B9" s="4"/>
       <c r="C9" s="3" t="s">
         <v>11</v>
@@ -4120,7 +4287,7 @@
       <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="122"/>
+      <c r="A10" s="109"/>
       <c r="B10" s="4"/>
       <c r="C10" s="3" t="s">
         <v>12</v>
@@ -4148,7 +4315,7 @@
       <c r="L10" s="6"/>
     </row>
     <row r="11" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="122"/>
+      <c r="A11" s="109"/>
       <c r="B11" s="4"/>
       <c r="C11" s="3" t="s">
         <v>13</v>
@@ -4176,7 +4343,7 @@
       <c r="L11" s="6"/>
     </row>
     <row r="12" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="122" t="s">
+      <c r="A12" s="109" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -4214,7 +4381,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="122"/>
+      <c r="A13" s="109"/>
       <c r="B13" s="4"/>
       <c r="C13" s="3" t="s">
         <v>11</v>
@@ -4248,7 +4415,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="122"/>
+      <c r="A14" s="109"/>
       <c r="B14" s="4"/>
       <c r="C14" s="3" t="s">
         <v>12</v>
@@ -4282,7 +4449,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="122"/>
+      <c r="A15" s="109"/>
       <c r="B15" s="4"/>
       <c r="C15" s="3" t="s">
         <v>13</v>
@@ -4316,7 +4483,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="122"/>
+      <c r="A16" s="109"/>
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
@@ -4352,7 +4519,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="122"/>
+      <c r="A17" s="109"/>
       <c r="B17" s="4"/>
       <c r="C17" s="3" t="s">
         <v>11</v>
@@ -4386,7 +4553,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="122"/>
+      <c r="A18" s="109"/>
       <c r="B18" s="4"/>
       <c r="C18" s="3" t="s">
         <v>12</v>
@@ -4420,7 +4587,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="122"/>
+      <c r="A19" s="109"/>
       <c r="B19" s="4"/>
       <c r="C19" s="3" t="s">
         <v>13</v>
@@ -7346,733 +7513,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G24" sqref="G24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="12.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="9" customWidth="1"/>
-    <col min="4" max="4" width="11.8984375" style="4" customWidth="1"/>
-    <col min="5" max="6" width="13.19921875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="11.8984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.8984375" style="9" customWidth="1"/>
-    <col min="11" max="12" width="13.19921875" style="9" customWidth="1"/>
-    <col min="13" max="16384" width="8.796875" style="9"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="10">
-        <v>123</v>
-      </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-    </row>
-    <row r="2" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="76"/>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="123" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="124"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="123" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="124"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="126" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="127"/>
-      <c r="L2" s="128"/>
-    </row>
-    <row r="3" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="76"/>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="77" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="78" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="79" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="77" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="78" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="79" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="L3" s="41" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="123" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="80" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="80" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="81">
-        <v>1</v>
-      </c>
-      <c r="E4" s="82">
-        <v>1</v>
-      </c>
-      <c r="F4" s="83">
-        <v>1</v>
-      </c>
-      <c r="G4" s="81">
-        <v>0.76</v>
-      </c>
-      <c r="H4" s="82">
-        <v>0.96699999999999997</v>
-      </c>
-      <c r="I4" s="83">
-        <v>0.125</v>
-      </c>
-      <c r="J4" s="43"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="33"/>
-    </row>
-    <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="129"/>
-      <c r="B5" s="84"/>
-      <c r="C5" s="78" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="86"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="35"/>
-    </row>
-    <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="129"/>
-      <c r="B6" s="84"/>
-      <c r="C6" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="86">
-        <v>1</v>
-      </c>
-      <c r="E6" s="87">
-        <v>1</v>
-      </c>
-      <c r="F6" s="88">
-        <v>1</v>
-      </c>
-      <c r="G6" s="86">
-        <v>0.76</v>
-      </c>
-      <c r="H6" s="87">
-        <v>0.96699999999999997</v>
-      </c>
-      <c r="I6" s="88">
-        <v>0.125</v>
-      </c>
-      <c r="J6" s="42"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="35"/>
-    </row>
-    <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="129"/>
-      <c r="B7" s="84"/>
-      <c r="C7" s="78" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="86">
-        <v>1</v>
-      </c>
-      <c r="E7" s="87">
-        <v>1</v>
-      </c>
-      <c r="F7" s="88">
-        <v>1</v>
-      </c>
-      <c r="G7" s="86">
-        <v>0.76</v>
-      </c>
-      <c r="H7" s="87">
-        <v>0.96699999999999997</v>
-      </c>
-      <c r="I7" s="88">
-        <v>0.125</v>
-      </c>
-      <c r="J7" s="42"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="35"/>
-    </row>
-    <row r="8" spans="1:12" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="129"/>
-      <c r="B8" s="85"/>
-      <c r="C8" s="85" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="86">
-        <v>0.79</v>
-      </c>
-      <c r="E8" s="87">
-        <v>0.93</v>
-      </c>
-      <c r="F8" s="88">
-        <v>0.17</v>
-      </c>
-      <c r="G8" s="86">
-        <v>0.74</v>
-      </c>
-      <c r="H8" s="87">
-        <v>0.92600000000000005</v>
-      </c>
-      <c r="I8" s="88">
-        <v>0.18</v>
-      </c>
-      <c r="J8" s="42"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="35"/>
-    </row>
-    <row r="9" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="129"/>
-      <c r="B9" s="80" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="100" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="96">
-        <v>0.9</v>
-      </c>
-      <c r="E9" s="97">
-        <v>0.98399999999999999</v>
-      </c>
-      <c r="F9" s="98">
-        <v>0.6</v>
-      </c>
-      <c r="G9" s="108">
-        <v>0.73399999999999999</v>
-      </c>
-      <c r="H9" s="67">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="I9" s="109">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="J9" s="42">
-        <v>0.72799999999999998</v>
-      </c>
-      <c r="K9" s="34">
-        <v>1</v>
-      </c>
-      <c r="L9" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="129"/>
-      <c r="B10" s="84"/>
-      <c r="C10" s="78" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="86"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="35"/>
-    </row>
-    <row r="11" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="129"/>
-      <c r="B11" s="84"/>
-      <c r="C11" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="86">
-        <v>0.9</v>
-      </c>
-      <c r="E11" s="87">
-        <v>0.98</v>
-      </c>
-      <c r="F11" s="88">
-        <v>0.6</v>
-      </c>
-      <c r="G11" s="104">
-        <v>0.73399999999999999</v>
-      </c>
-      <c r="H11" s="52">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="I11" s="105">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="J11" s="42">
-        <v>0.70899999999999996</v>
-      </c>
-      <c r="K11" s="34">
-        <v>0.80400000000000005</v>
-      </c>
-      <c r="L11" s="35">
-        <v>0.29499999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="129"/>
-      <c r="B12" s="84"/>
-      <c r="C12" s="78" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="86">
-        <v>0.90100000000000002</v>
-      </c>
-      <c r="E12" s="87">
-        <v>0.98399999999999999</v>
-      </c>
-      <c r="F12" s="88">
-        <v>0.6</v>
-      </c>
-      <c r="G12" s="104">
-        <v>0.73399999999999999</v>
-      </c>
-      <c r="H12" s="52">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="I12" s="105">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="J12" s="42">
-        <v>0.70899999999999996</v>
-      </c>
-      <c r="K12" s="34">
-        <v>0.80400000000000005</v>
-      </c>
-      <c r="L12" s="35">
-        <v>0.29499999999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="130"/>
-      <c r="B13" s="89"/>
-      <c r="C13" s="90" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="91">
-        <v>0.73399999999999999</v>
-      </c>
-      <c r="E13" s="92">
-        <v>0.9</v>
-      </c>
-      <c r="F13" s="93">
-        <v>0.1</v>
-      </c>
-      <c r="G13" s="106">
-        <v>0.69699999999999995</v>
-      </c>
-      <c r="H13" s="73">
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="I13" s="107">
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="J13" s="44"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="31"/>
-    </row>
-    <row r="14" spans="1:12" s="18" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="94"/>
-      <c r="B14" s="95"/>
-      <c r="C14" s="94"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="104"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="105"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="35"/>
-    </row>
-    <row r="15" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="123" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="80" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="80" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="96">
-        <v>1</v>
-      </c>
-      <c r="E15" s="97">
-        <v>1</v>
-      </c>
-      <c r="F15" s="98">
-        <v>1</v>
-      </c>
-      <c r="G15" s="113">
-        <v>0.81699999999999995</v>
-      </c>
-      <c r="H15" s="114">
-        <v>0.96399999999999997</v>
-      </c>
-      <c r="I15" s="115">
-        <v>0.313</v>
-      </c>
-      <c r="J15" s="45"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="24"/>
-    </row>
-    <row r="16" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="129"/>
-      <c r="B16" s="84"/>
-      <c r="C16" s="78" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="86">
-        <v>1</v>
-      </c>
-      <c r="E16" s="87">
-        <v>1</v>
-      </c>
-      <c r="F16" s="88">
-        <v>1</v>
-      </c>
-      <c r="G16" s="104">
-        <v>0.8</v>
-      </c>
-      <c r="H16" s="52">
-        <v>0.94499999999999995</v>
-      </c>
-      <c r="I16" s="105">
-        <v>0.3125</v>
-      </c>
-      <c r="J16" s="46"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="28"/>
-    </row>
-    <row r="17" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="129"/>
-      <c r="B17" s="84"/>
-      <c r="C17" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="86">
-        <v>1</v>
-      </c>
-      <c r="E17" s="87">
-        <v>1</v>
-      </c>
-      <c r="F17" s="88">
-        <v>1</v>
-      </c>
-      <c r="G17" s="104">
-        <v>0.79</v>
-      </c>
-      <c r="H17" s="52">
-        <v>0.93</v>
-      </c>
-      <c r="I17" s="105">
-        <v>0.313</v>
-      </c>
-      <c r="J17" s="46"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="28"/>
-    </row>
-    <row r="18" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="129"/>
-      <c r="B18" s="84"/>
-      <c r="C18" s="78" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="86">
-        <v>1</v>
-      </c>
-      <c r="E18" s="87">
-        <v>1</v>
-      </c>
-      <c r="F18" s="88">
-        <v>1</v>
-      </c>
-      <c r="G18" s="104">
-        <v>0.81</v>
-      </c>
-      <c r="H18" s="52">
-        <v>0.96</v>
-      </c>
-      <c r="I18" s="105">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="J18" s="46"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="28"/>
-    </row>
-    <row r="19" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="129"/>
-      <c r="B19" s="84"/>
-      <c r="C19" s="78" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="99">
-        <v>0.97799999999999998</v>
-      </c>
-      <c r="E19" s="92">
-        <v>0.99</v>
-      </c>
-      <c r="F19" s="88">
-        <v>0.92900000000000005</v>
-      </c>
-      <c r="G19" s="106">
-        <v>0.80300000000000005</v>
-      </c>
-      <c r="H19" s="73">
-        <v>0.94499999999999995</v>
-      </c>
-      <c r="I19" s="107">
-        <v>0.313</v>
-      </c>
-      <c r="J19" s="75"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="28"/>
-    </row>
-    <row r="20" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="129"/>
-      <c r="B20" s="80" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="100" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="96">
-        <v>0.92600000000000005</v>
-      </c>
-      <c r="E20" s="97">
-        <v>0.95499999999999996</v>
-      </c>
-      <c r="F20" s="98">
-        <v>0.81699999999999995</v>
-      </c>
-      <c r="G20" s="108">
-        <v>0.78800000000000003</v>
-      </c>
-      <c r="H20" s="67">
-        <v>0.92400000000000004</v>
-      </c>
-      <c r="I20" s="109">
-        <v>0.38900000000000001</v>
-      </c>
-      <c r="J20" s="45">
-        <v>0.64700000000000002</v>
-      </c>
-      <c r="K20" s="23">
-        <v>0.82</v>
-      </c>
-      <c r="L20" s="24">
-        <v>0.13900000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="129"/>
-      <c r="B21" s="84"/>
-      <c r="C21" s="78" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="86">
-        <v>0.91200000000000003</v>
-      </c>
-      <c r="E21" s="87">
-        <v>0.98199999999999998</v>
-      </c>
-      <c r="F21" s="88">
-        <v>0.65</v>
-      </c>
-      <c r="G21" s="104">
-        <v>0.73199999999999998</v>
-      </c>
-      <c r="H21" s="52">
-        <v>0.92400000000000004</v>
-      </c>
-      <c r="I21" s="105">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="J21" s="46">
-        <v>0.69</v>
-      </c>
-      <c r="K21" s="27">
-        <v>0.89600000000000002</v>
-      </c>
-      <c r="L21" s="28">
-        <v>8.3000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="129"/>
-      <c r="B22" s="84"/>
-      <c r="C22" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="86">
-        <v>0.94399999999999995</v>
-      </c>
-      <c r="E22" s="87">
-        <v>0.96</v>
-      </c>
-      <c r="F22" s="88">
-        <v>0.88</v>
-      </c>
-      <c r="G22" s="104">
-        <v>0.753</v>
-      </c>
-      <c r="H22" s="52">
-        <v>0.877</v>
-      </c>
-      <c r="I22" s="105">
-        <v>0.38900000000000001</v>
-      </c>
-      <c r="J22" s="46">
-        <v>0.65500000000000003</v>
-      </c>
-      <c r="K22" s="27">
-        <v>0.85</v>
-      </c>
-      <c r="L22" s="28">
-        <v>8.3000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="129"/>
-      <c r="B23" s="84"/>
-      <c r="C23" s="78" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="86">
-        <v>0.94399999999999995</v>
-      </c>
-      <c r="E23" s="87">
-        <v>0.96</v>
-      </c>
-      <c r="F23" s="88">
-        <v>0.88300000000000001</v>
-      </c>
-      <c r="G23" s="104">
-        <v>0.754</v>
-      </c>
-      <c r="H23" s="52">
-        <v>0.877</v>
-      </c>
-      <c r="I23" s="105">
-        <v>0.38900000000000001</v>
-      </c>
-      <c r="J23" s="46">
-        <v>0.65500000000000003</v>
-      </c>
-      <c r="K23" s="27">
-        <v>0.85</v>
-      </c>
-      <c r="L23" s="28">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="130"/>
-      <c r="B24" s="101"/>
-      <c r="C24" s="101" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="102">
-        <v>0.93600000000000005</v>
-      </c>
-      <c r="E24" s="89">
-        <v>0.98199999999999998</v>
-      </c>
-      <c r="F24" s="103">
-        <v>0.77</v>
-      </c>
-      <c r="G24" s="110">
-        <v>0.76700000000000002</v>
-      </c>
-      <c r="H24" s="111">
-        <v>0.89600000000000002</v>
-      </c>
-      <c r="I24" s="112">
-        <v>0.38900000000000001</v>
-      </c>
-      <c r="J24" s="44"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="31"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="A15:A24"/>
-    <mergeCell ref="A4:A13"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:L14"/>
+      <selection activeCell="G14" sqref="G14:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8110,385 +7554,385 @@
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
-      <c r="D2" s="131" t="s">
+      <c r="D2" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="132"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="131" t="s">
+      <c r="E2" s="118"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="132"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="127" t="s">
+      <c r="H2" s="118"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="127"/>
-      <c r="L2" s="128"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="111"/>
     </row>
     <row r="3" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="H3" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="39" t="s">
+      <c r="I3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="37" t="s">
+      <c r="J3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="37" t="s">
+      <c r="K3" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="39" t="s">
+      <c r="L3" s="28" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="131" t="s">
+      <c r="A4" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="47">
+      <c r="D4" s="30">
         <v>0.76</v>
       </c>
-      <c r="E4" s="48">
+      <c r="E4" s="31">
         <v>1</v>
       </c>
-      <c r="F4" s="49">
+      <c r="F4" s="32">
         <v>0</v>
       </c>
-      <c r="G4" s="67">
+      <c r="G4" s="50">
         <v>0.76600000000000001</v>
       </c>
-      <c r="H4" s="67">
+      <c r="H4" s="50">
         <v>0.94599999999999995</v>
       </c>
-      <c r="I4" s="70">
+      <c r="I4" s="53">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="J4" s="50">
+      <c r="J4" s="33">
         <v>0.79500000000000004</v>
       </c>
-      <c r="K4" s="50">
+      <c r="K4" s="33">
         <v>1</v>
       </c>
-      <c r="L4" s="49">
+      <c r="L4" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="134"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26" t="s">
+      <c r="A5" s="120"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="51"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="53"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="36"/>
     </row>
     <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="134"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="26" t="s">
+      <c r="A6" s="120"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="51">
+      <c r="D6" s="34">
         <v>0.77500000000000002</v>
       </c>
-      <c r="E6" s="52">
+      <c r="E6" s="35">
         <v>1</v>
       </c>
-      <c r="F6" s="53">
+      <c r="F6" s="36">
         <v>0</v>
       </c>
-      <c r="G6" s="52">
+      <c r="G6" s="35">
         <v>0.69799999999999995</v>
       </c>
-      <c r="H6" s="52">
+      <c r="H6" s="35">
         <v>0.9</v>
       </c>
-      <c r="I6" s="53">
+      <c r="I6" s="36">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="J6" s="54">
+      <c r="J6" s="37">
         <v>0.76500000000000001</v>
       </c>
-      <c r="K6" s="54">
+      <c r="K6" s="37">
         <v>1</v>
       </c>
-      <c r="L6" s="53">
+      <c r="L6" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="134"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="26" t="s">
+      <c r="A7" s="120"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="51">
+      <c r="D7" s="34">
         <v>0.77500000000000002</v>
       </c>
-      <c r="E7" s="52">
+      <c r="E7" s="35">
         <v>1</v>
       </c>
-      <c r="F7" s="53">
+      <c r="F7" s="36">
         <v>0</v>
       </c>
-      <c r="G7" s="52">
+      <c r="G7" s="35">
         <v>0.69799999999999995</v>
       </c>
-      <c r="H7" s="52">
+      <c r="H7" s="35">
         <v>0.9</v>
       </c>
-      <c r="I7" s="53">
+      <c r="I7" s="36">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="J7" s="54">
+      <c r="J7" s="37">
         <v>0.76500000000000001</v>
       </c>
-      <c r="K7" s="54">
+      <c r="K7" s="37">
         <v>1</v>
       </c>
-      <c r="L7" s="53">
+      <c r="L7" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="135"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="37" t="s">
+      <c r="A8" s="121"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="55">
+      <c r="D8" s="38">
         <v>0.68799999999999994</v>
       </c>
-      <c r="E8" s="56">
+      <c r="E8" s="39">
         <v>0.86199999999999999</v>
       </c>
-      <c r="F8" s="57">
+      <c r="F8" s="40">
         <v>0.13</v>
       </c>
-      <c r="G8" s="73">
+      <c r="G8" s="56">
         <v>0.73</v>
       </c>
-      <c r="H8" s="73">
+      <c r="H8" s="56">
         <v>0.88</v>
       </c>
-      <c r="I8" s="68">
+      <c r="I8" s="51">
         <v>0.16</v>
       </c>
-      <c r="J8" s="58"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="57"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="40"/>
     </row>
     <row r="9" spans="1:12" s="18" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="19"/>
       <c r="B9" s="4"/>
       <c r="C9" s="19"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
     </row>
     <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="131" t="s">
+      <c r="A10" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="47">
+      <c r="D10" s="30">
         <v>0.92600000000000005</v>
       </c>
-      <c r="E10" s="48">
+      <c r="E10" s="31">
         <v>0.97499999999999998</v>
       </c>
-      <c r="F10" s="61">
+      <c r="F10" s="44">
         <v>0.75900000000000001</v>
       </c>
-      <c r="G10" s="69">
+      <c r="G10" s="52">
         <v>0.91900000000000004</v>
       </c>
-      <c r="H10" s="69">
+      <c r="H10" s="52">
         <v>0.99299999999999999</v>
       </c>
-      <c r="I10" s="74">
+      <c r="I10" s="57">
         <v>0.68600000000000005</v>
       </c>
-      <c r="J10" s="62">
+      <c r="J10" s="45">
         <v>0.68500000000000005</v>
       </c>
-      <c r="K10" s="62">
+      <c r="K10" s="45">
         <v>0.78500000000000003</v>
       </c>
-      <c r="L10" s="61">
+      <c r="L10" s="44">
         <v>0.28499999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="134"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="26" t="s">
+      <c r="A11" s="120"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="51">
+      <c r="D11" s="34">
         <v>0.89700000000000002</v>
       </c>
-      <c r="E11" s="52">
+      <c r="E11" s="35">
         <v>0.98899999999999999</v>
       </c>
-      <c r="F11" s="63">
+      <c r="F11" s="46">
         <v>0.58599999999999997</v>
       </c>
-      <c r="G11" s="52">
+      <c r="G11" s="35">
         <v>0.76100000000000001</v>
       </c>
-      <c r="H11" s="52">
+      <c r="H11" s="35">
         <v>1</v>
       </c>
-      <c r="I11" s="63">
+      <c r="I11" s="46">
         <v>1.9E-2</v>
       </c>
-      <c r="J11" s="64">
+      <c r="J11" s="47">
         <v>0.71399999999999997</v>
       </c>
-      <c r="K11" s="64">
+      <c r="K11" s="47">
         <v>0.86099999999999999</v>
       </c>
-      <c r="L11" s="63">
+      <c r="L11" s="46">
         <v>0.254</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="134"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="26" t="s">
+      <c r="A12" s="120"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="51">
+      <c r="D12" s="34">
         <v>0.91700000000000004</v>
       </c>
-      <c r="E12" s="52">
+      <c r="E12" s="35">
         <v>0.96699999999999997</v>
       </c>
-      <c r="F12" s="63">
+      <c r="F12" s="46">
         <v>0.748</v>
       </c>
-      <c r="G12" s="52">
+      <c r="G12" s="35">
         <v>0.88500000000000001</v>
       </c>
-      <c r="H12" s="52">
+      <c r="H12" s="35">
         <v>0.94299999999999995</v>
       </c>
-      <c r="I12" s="63">
+      <c r="I12" s="46">
         <v>0.70499999999999996</v>
       </c>
-      <c r="J12" s="64">
+      <c r="J12" s="47">
         <v>0.68500000000000005</v>
       </c>
-      <c r="K12" s="64">
+      <c r="K12" s="47">
         <v>0.79800000000000004</v>
       </c>
-      <c r="L12" s="63">
+      <c r="L12" s="46">
         <v>0.33300000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="134"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="26" t="s">
+      <c r="A13" s="120"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="51">
+      <c r="D13" s="34">
         <v>0.91700000000000004</v>
       </c>
-      <c r="E13" s="52">
+      <c r="E13" s="35">
         <v>0.96699999999999997</v>
       </c>
-      <c r="F13" s="63">
+      <c r="F13" s="46">
         <v>0.748</v>
       </c>
-      <c r="G13" s="52">
+      <c r="G13" s="35">
         <v>0.88500000000000001</v>
       </c>
-      <c r="H13" s="52">
+      <c r="H13" s="35">
         <v>0.94299999999999995</v>
       </c>
-      <c r="I13" s="63">
+      <c r="I13" s="46">
         <v>0.70499999999999996</v>
       </c>
-      <c r="J13" s="64">
+      <c r="J13" s="47">
         <v>0.68500000000000005</v>
       </c>
-      <c r="K13" s="64">
+      <c r="K13" s="47">
         <v>0.79800000000000004</v>
       </c>
-      <c r="L13" s="63">
+      <c r="L13" s="46">
         <v>0.33300000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="135"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29" t="s">
+      <c r="A14" s="121"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="65">
+      <c r="D14" s="48">
         <v>0.92100000000000004</v>
       </c>
-      <c r="E14" s="66">
+      <c r="E14" s="49">
         <v>0.99399999999999999</v>
       </c>
-      <c r="F14" s="57">
+      <c r="F14" s="40">
         <v>0.68799999999999994</v>
       </c>
-      <c r="G14" s="72">
+      <c r="G14" s="55">
         <v>0.94799999999999995</v>
       </c>
-      <c r="H14" s="72">
+      <c r="H14" s="55">
         <v>1</v>
       </c>
-      <c r="I14" s="71">
+      <c r="I14" s="54">
         <v>0.74399999999999999</v>
       </c>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="57"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -8504,12 +7948,862 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.69921875" style="173" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="173" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.796875" style="173" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.8984375" style="173" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.19921875" style="173" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.8984375" style="173" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.19921875" style="173" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.796875" style="173"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="171"/>
+      <c r="B1" s="172"/>
+      <c r="C1" s="172"/>
+      <c r="D1" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="140"/>
+      <c r="I1" s="148"/>
+    </row>
+    <row r="2" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="174"/>
+      <c r="D2" s="149" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="141" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="141" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="141" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="141" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="150" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="175" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="142" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="176" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="177"/>
+      <c r="B4" s="143" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="143" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="172"/>
+      <c r="E4" s="172"/>
+      <c r="F4" s="172"/>
+      <c r="G4" s="172"/>
+      <c r="H4" s="172"/>
+      <c r="I4" s="178"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="177"/>
+      <c r="B5" s="144"/>
+      <c r="C5" s="145" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="179"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="177"/>
+      <c r="B6" s="144"/>
+      <c r="C6" s="145" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="179"/>
+    </row>
+    <row r="7" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="180"/>
+      <c r="B7" s="181"/>
+      <c r="C7" s="146" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="182"/>
+      <c r="E7" s="182"/>
+      <c r="F7" s="182"/>
+      <c r="G7" s="182"/>
+      <c r="H7" s="182"/>
+      <c r="I7" s="183"/>
+    </row>
+    <row r="8" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="177" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="142" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="176" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="184">
+        <v>0.79</v>
+      </c>
+      <c r="E8" s="184">
+        <v>0.89</v>
+      </c>
+      <c r="F8" s="184">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G8" s="193">
+        <v>0.77</v>
+      </c>
+      <c r="H8" s="193">
+        <v>0.89</v>
+      </c>
+      <c r="I8" s="194">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="177"/>
+      <c r="B9" s="143" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="143" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="185">
+        <v>0.8</v>
+      </c>
+      <c r="E9" s="186">
+        <v>0.97</v>
+      </c>
+      <c r="F9" s="186">
+        <v>0.13</v>
+      </c>
+      <c r="G9" s="195">
+        <v>0.76</v>
+      </c>
+      <c r="H9" s="195">
+        <v>0.94</v>
+      </c>
+      <c r="I9" s="196">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="177"/>
+      <c r="B10" s="144"/>
+      <c r="C10" s="145" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="187">
+        <v>0.8</v>
+      </c>
+      <c r="E10" s="188">
+        <v>0.97</v>
+      </c>
+      <c r="F10" s="188">
+        <v>0.2</v>
+      </c>
+      <c r="G10" s="188">
+        <v>0.76</v>
+      </c>
+      <c r="H10" s="188">
+        <v>1</v>
+      </c>
+      <c r="I10" s="189">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="177"/>
+      <c r="B11" s="144"/>
+      <c r="C11" s="145" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="187">
+        <v>0.8</v>
+      </c>
+      <c r="E11" s="188">
+        <v>0.95</v>
+      </c>
+      <c r="F11" s="188">
+        <v>0.23</v>
+      </c>
+      <c r="G11" s="188">
+        <v>0.7</v>
+      </c>
+      <c r="H11" s="188">
+        <v>0.86</v>
+      </c>
+      <c r="I11" s="189">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="180"/>
+      <c r="B12" s="181"/>
+      <c r="C12" s="146" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="190">
+        <v>0.8</v>
+      </c>
+      <c r="E12" s="191">
+        <v>0.95</v>
+      </c>
+      <c r="F12" s="191">
+        <v>0.23</v>
+      </c>
+      <c r="G12" s="191">
+        <v>0.7</v>
+      </c>
+      <c r="H12" s="191">
+        <v>0.86</v>
+      </c>
+      <c r="I12" s="192">
+        <v>0.22</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="9" customWidth="1"/>
+    <col min="4" max="4" width="11.8984375" style="4" customWidth="1"/>
+    <col min="5" max="6" width="13.19921875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="11.8984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.796875" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="10">
+        <v>123</v>
+      </c>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="112" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="113"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="112" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="113"/>
+      <c r="I2" s="114"/>
+    </row>
+    <row r="3" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="58"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="61" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="112" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="63">
+        <v>1</v>
+      </c>
+      <c r="E4" s="64">
+        <v>1</v>
+      </c>
+      <c r="F4" s="65">
+        <v>1</v>
+      </c>
+      <c r="G4" s="63">
+        <v>0.76</v>
+      </c>
+      <c r="H4" s="64">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="I4" s="65">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="115"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="68"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="70"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="115"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="68">
+        <v>1</v>
+      </c>
+      <c r="E6" s="69">
+        <v>1</v>
+      </c>
+      <c r="F6" s="70">
+        <v>1</v>
+      </c>
+      <c r="G6" s="68">
+        <v>0.76</v>
+      </c>
+      <c r="H6" s="69">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="I6" s="70">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="115"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="68">
+        <v>1</v>
+      </c>
+      <c r="E7" s="69">
+        <v>1</v>
+      </c>
+      <c r="F7" s="70">
+        <v>1</v>
+      </c>
+      <c r="G7" s="68">
+        <v>0.76</v>
+      </c>
+      <c r="H7" s="69">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="I7" s="70">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="115"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="68">
+        <v>0.79</v>
+      </c>
+      <c r="E8" s="69">
+        <v>0.93</v>
+      </c>
+      <c r="F8" s="70">
+        <v>0.17</v>
+      </c>
+      <c r="G8" s="68">
+        <v>0.74</v>
+      </c>
+      <c r="H8" s="69">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="I8" s="70">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="115"/>
+      <c r="B9" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="78">
+        <v>0.9</v>
+      </c>
+      <c r="E9" s="79">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="F9" s="80">
+        <v>0.6</v>
+      </c>
+      <c r="G9" s="90">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="H9" s="50">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="I9" s="91">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="115"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="68"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="87"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="115"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="68">
+        <v>0.9</v>
+      </c>
+      <c r="E11" s="69">
+        <v>0.98</v>
+      </c>
+      <c r="F11" s="70">
+        <v>0.6</v>
+      </c>
+      <c r="G11" s="86">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="H11" s="35">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="I11" s="87">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="115"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="68">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="E12" s="69">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="F12" s="70">
+        <v>0.6</v>
+      </c>
+      <c r="G12" s="86">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="H12" s="35">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="I12" s="87">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="116"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="73">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="E13" s="74">
+        <v>0.9</v>
+      </c>
+      <c r="F13" s="75">
+        <v>0.1</v>
+      </c>
+      <c r="G13" s="88">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="H13" s="56">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="I13" s="89">
+        <v>0.27300000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="18" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="76"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="87"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="112" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="78">
+        <v>1</v>
+      </c>
+      <c r="E15" s="79">
+        <v>1</v>
+      </c>
+      <c r="F15" s="80">
+        <v>1</v>
+      </c>
+      <c r="G15" s="95">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="H15" s="96">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="I15" s="97">
+        <v>0.313</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="115"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="68">
+        <v>1</v>
+      </c>
+      <c r="E16" s="69">
+        <v>1</v>
+      </c>
+      <c r="F16" s="70">
+        <v>1</v>
+      </c>
+      <c r="G16" s="86">
+        <v>0.8</v>
+      </c>
+      <c r="H16" s="35">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="I16" s="87">
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="115"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="68">
+        <v>1</v>
+      </c>
+      <c r="E17" s="69">
+        <v>1</v>
+      </c>
+      <c r="F17" s="70">
+        <v>1</v>
+      </c>
+      <c r="G17" s="86">
+        <v>0.79</v>
+      </c>
+      <c r="H17" s="35">
+        <v>0.93</v>
+      </c>
+      <c r="I17" s="87">
+        <v>0.313</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="115"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="68">
+        <v>1</v>
+      </c>
+      <c r="E18" s="69">
+        <v>1</v>
+      </c>
+      <c r="F18" s="70">
+        <v>1</v>
+      </c>
+      <c r="G18" s="86">
+        <v>0.81</v>
+      </c>
+      <c r="H18" s="35">
+        <v>0.96</v>
+      </c>
+      <c r="I18" s="87">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="115"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="81">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="E19" s="74">
+        <v>0.99</v>
+      </c>
+      <c r="F19" s="70">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="G19" s="88">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="H19" s="56">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="I19" s="89">
+        <v>0.313</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="115"/>
+      <c r="B20" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="78">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="E20" s="79">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="F20" s="80">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="G20" s="90">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="H20" s="50">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="I20" s="91">
+        <v>0.38900000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="115"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="68">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="E21" s="69">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="F21" s="70">
+        <v>0.65</v>
+      </c>
+      <c r="G21" s="86">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="H21" s="35">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="I21" s="87">
+        <v>0.16700000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="115"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="68">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="E22" s="69">
+        <v>0.96</v>
+      </c>
+      <c r="F22" s="70">
+        <v>0.88</v>
+      </c>
+      <c r="G22" s="86">
+        <v>0.753</v>
+      </c>
+      <c r="H22" s="35">
+        <v>0.877</v>
+      </c>
+      <c r="I22" s="87">
+        <v>0.38900000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="115"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="68">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="E23" s="69">
+        <v>0.96</v>
+      </c>
+      <c r="F23" s="70">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="G23" s="86">
+        <v>0.754</v>
+      </c>
+      <c r="H23" s="35">
+        <v>0.877</v>
+      </c>
+      <c r="I23" s="87">
+        <v>0.38900000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="116"/>
+      <c r="B24" s="83"/>
+      <c r="C24" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="84">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="E24" s="71">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="F24" s="85">
+        <v>0.77</v>
+      </c>
+      <c r="G24" s="92">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="H24" s="93">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="I24" s="94">
+        <v>0.38900000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="A15:A24"/>
+    <mergeCell ref="A4:A13"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -8529,375 +8823,118 @@
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
-      <c r="D1" s="117" t="s">
+      <c r="D1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="117">
+      <c r="E1" s="98">
         <v>123</v>
       </c>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
     </row>
     <row r="2" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
-      <c r="D2" s="131" t="s">
+      <c r="D2" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="132"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="131" t="s">
+      <c r="E2" s="118"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="132"/>
-      <c r="I2" s="133"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="119"/>
     </row>
     <row r="3" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
-      <c r="D3" s="120" t="s">
+      <c r="D3" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="120" t="s">
+      <c r="G3" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="H3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="39" t="s">
+      <c r="I3" s="29" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="131" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="118" t="s">
+    <row r="4" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="103" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="118" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="70"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="134"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="51"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="53"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="134"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="51"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="53"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="134"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="53"/>
-    </row>
-    <row r="8" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="135"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="37" t="s">
+      <c r="C4" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="68"/>
-    </row>
-    <row r="9" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="117"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="117"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="60"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="131" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="118" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="118" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="47"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="74"/>
-    </row>
-    <row r="11" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="134"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="51"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="63"/>
-    </row>
-    <row r="12" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="134"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="51"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="63"/>
-    </row>
-    <row r="13" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="134"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="51"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="63"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="135"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29" t="s">
+      <c r="D4" s="138"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="137"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="102" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="105" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="65"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="71"/>
+      <c r="D5" s="167">
+        <v>0.63</v>
+      </c>
+      <c r="E5" s="167">
+        <v>0.72</v>
+      </c>
+      <c r="F5" s="168">
+        <v>0.34</v>
+      </c>
+      <c r="G5" s="162">
+        <v>0.68</v>
+      </c>
+      <c r="H5" s="169">
+        <v>0.79</v>
+      </c>
+      <c r="I5" s="170">
+        <v>0.3</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="2">
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A10:A14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="10.69921875" style="151" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" style="151" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.796875" style="151" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.8984375" style="151" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.19921875" style="151" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.8984375" style="151" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.19921875" style="151" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.8984375" style="151" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.19921875" style="151" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.796875" style="151"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="D1" s="152" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="153" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="153"/>
-      <c r="L1" s="153"/>
-    </row>
-    <row r="2" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="D2" s="154" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="154" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="154" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="154" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="154" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="154" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="155" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" s="155" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="155" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="151" t="s">
-        <v>125</v>
-      </c>
-      <c r="B3" s="154" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="156" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="154" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="154" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B5" s="157"/>
-      <c r="C5" s="154" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B6" s="157"/>
-      <c r="C6" s="154" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B7" s="156"/>
-      <c r="C7" s="154" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="151" t="s">
-        <v>126</v>
-      </c>
-      <c r="B8" s="154" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="156" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B9" s="154" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="154" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="157"/>
-      <c r="C10" s="154" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B11" s="157"/>
-      <c r="C11" s="154" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B12" s="156"/>
-      <c r="C12" s="154" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -8909,127 +8946,278 @@
     <col min="5" max="6" width="13.19921875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.8984375" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="13.19921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.8984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
-      <c r="D1" s="117" t="s">
+      <c r="D1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="117">
+      <c r="E1" s="98">
         <v>123</v>
       </c>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-    </row>
-    <row r="2" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
-      <c r="D2" s="131" t="s">
+      <c r="D2" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="132"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="131" t="s">
+      <c r="E2" s="118"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="132"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="127" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="127"/>
-      <c r="L2" s="128"/>
-    </row>
-    <row r="3" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H2" s="118"/>
+      <c r="I2" s="119"/>
+    </row>
+    <row r="3" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
-      <c r="D3" s="119" t="s">
+      <c r="D3" s="101" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="119" t="s">
+      <c r="G3" s="101" t="s">
         <v>2</v>
       </c>
       <c r="H3" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="41" t="s">
+      <c r="I3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="L3" s="41" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="137" t="s">
-        <v>123</v>
-      </c>
-      <c r="B4" s="138" t="s">
+    </row>
+    <row r="4" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="117" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="149" t="s">
+      <c r="C4" s="99" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="128"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="123"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="120"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="131"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="124"/>
+      <c r="H5" s="124"/>
+      <c r="I5" s="125"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="120"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="131"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="124"/>
+      <c r="H6" s="124"/>
+      <c r="I6" s="125"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="120"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="131"/>
+      <c r="E7" s="124"/>
+      <c r="F7" s="125"/>
+      <c r="G7" s="124"/>
+      <c r="H7" s="124"/>
+      <c r="I7" s="125"/>
+    </row>
+    <row r="8" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="121"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="147"/>
-      <c r="E4" s="147"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="144"/>
-      <c r="I4" s="142"/>
-      <c r="J4" s="141"/>
-      <c r="K4" s="140"/>
-      <c r="L4" s="140"/>
-    </row>
-    <row r="5" spans="1:12" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="136" t="s">
-        <v>124</v>
-      </c>
-      <c r="B5" s="139" t="s">
-        <v>122</v>
-      </c>
-      <c r="C5" s="150" t="s">
+      <c r="D8" s="132"/>
+      <c r="E8" s="133"/>
+      <c r="F8" s="134"/>
+      <c r="G8" s="126"/>
+      <c r="H8" s="126"/>
+      <c r="I8" s="127"/>
+    </row>
+    <row r="9" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="98"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="98"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="43"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="117" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="99" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="99" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="151">
+        <v>0.95</v>
+      </c>
+      <c r="E10" s="152">
+        <v>0.97</v>
+      </c>
+      <c r="F10" s="153">
+        <v>0.88</v>
+      </c>
+      <c r="G10" s="154">
+        <v>0.64</v>
+      </c>
+      <c r="H10" s="154">
+        <v>0.71</v>
+      </c>
+      <c r="I10" s="155">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="120"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="156">
+        <v>0.86</v>
+      </c>
+      <c r="E11" s="157">
+        <v>0.97</v>
+      </c>
+      <c r="F11" s="158">
+        <v>0.49</v>
+      </c>
+      <c r="G11" s="165">
+        <v>0.74</v>
+      </c>
+      <c r="H11" s="165">
+        <v>0.86</v>
+      </c>
+      <c r="I11" s="166">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="120"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="156">
+        <v>0.73</v>
+      </c>
+      <c r="E12" s="157">
+        <v>0.85</v>
+      </c>
+      <c r="F12" s="158">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="G12" s="157">
+        <v>0.65</v>
+      </c>
+      <c r="H12" s="157">
+        <v>0.7</v>
+      </c>
+      <c r="I12" s="158">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="120"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="156">
+        <v>0.73</v>
+      </c>
+      <c r="E13" s="157">
+        <v>0.84</v>
+      </c>
+      <c r="F13" s="158">
+        <v>0.42</v>
+      </c>
+      <c r="G13" s="157">
+        <v>0.65</v>
+      </c>
+      <c r="H13" s="157">
+        <v>0.7</v>
+      </c>
+      <c r="I13" s="158">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="121"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="148"/>
-      <c r="E5" s="148"/>
-      <c r="F5" s="140"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="145"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="141"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="141"/>
+      <c r="D14" s="159">
+        <v>0.84</v>
+      </c>
+      <c r="E14" s="160">
+        <v>0.8</v>
+      </c>
+      <c r="F14" s="161">
+        <v>0.9</v>
+      </c>
+      <c r="G14" s="163">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="H14" s="163">
+        <v>0.67</v>
+      </c>
+      <c r="I14" s="164">
+        <v>0.4</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A10:A14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/model_performance.xlsx
+++ b/model_performance.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="133">
   <si>
     <t>seed</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -444,6 +444,30 @@
   </si>
   <si>
     <t>cov</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>71*2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 補做只有V1 V2的人 n=129</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>logistic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>XGB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1/V2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -548,7 +572,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -683,49 +707,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -743,19 +724,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -812,6 +780,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -819,7 +800,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="194">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -903,9 +884,6 @@
     <xf numFmtId="177" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -915,9 +893,6 @@
     <xf numFmtId="177" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -927,9 +902,6 @@
     <xf numFmtId="177" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -939,15 +911,9 @@
     <xf numFmtId="177" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1104,29 +1070,209 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1134,265 +1280,91 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2089,6 +2061,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4112,21 +4085,21 @@
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="109" t="s">
+      <c r="D2" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109" t="s">
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="108" t="s">
+      <c r="H2" s="164"/>
+      <c r="I2" s="164"/>
+      <c r="J2" s="163" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
+      <c r="K2" s="163"/>
+      <c r="L2" s="163"/>
     </row>
     <row r="3" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
@@ -4161,7 +4134,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="164" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -4181,7 +4154,7 @@
       <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="109"/>
+      <c r="A5" s="164"/>
       <c r="B5" s="4"/>
       <c r="C5" s="3" t="s">
         <v>11</v>
@@ -4197,7 +4170,7 @@
       <c r="L5" s="6"/>
     </row>
     <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="109"/>
+      <c r="A6" s="164"/>
       <c r="B6" s="4"/>
       <c r="C6" s="3" t="s">
         <v>12</v>
@@ -4213,7 +4186,7 @@
       <c r="L6" s="6"/>
     </row>
     <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="109"/>
+      <c r="A7" s="164"/>
       <c r="B7" s="4"/>
       <c r="C7" s="3" t="s">
         <v>13</v>
@@ -4229,7 +4202,7 @@
       <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="109"/>
+      <c r="A8" s="164"/>
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
@@ -4259,7 +4232,7 @@
       <c r="L8" s="6"/>
     </row>
     <row r="9" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="109"/>
+      <c r="A9" s="164"/>
       <c r="B9" s="4"/>
       <c r="C9" s="3" t="s">
         <v>11</v>
@@ -4287,7 +4260,7 @@
       <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="109"/>
+      <c r="A10" s="164"/>
       <c r="B10" s="4"/>
       <c r="C10" s="3" t="s">
         <v>12</v>
@@ -4315,7 +4288,7 @@
       <c r="L10" s="6"/>
     </row>
     <row r="11" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="109"/>
+      <c r="A11" s="164"/>
       <c r="B11" s="4"/>
       <c r="C11" s="3" t="s">
         <v>13</v>
@@ -4343,7 +4316,7 @@
       <c r="L11" s="6"/>
     </row>
     <row r="12" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="109" t="s">
+      <c r="A12" s="164" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -4381,7 +4354,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="109"/>
+      <c r="A13" s="164"/>
       <c r="B13" s="4"/>
       <c r="C13" s="3" t="s">
         <v>11</v>
@@ -4415,7 +4388,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="109"/>
+      <c r="A14" s="164"/>
       <c r="B14" s="4"/>
       <c r="C14" s="3" t="s">
         <v>12</v>
@@ -4449,7 +4422,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="109"/>
+      <c r="A15" s="164"/>
       <c r="B15" s="4"/>
       <c r="C15" s="3" t="s">
         <v>13</v>
@@ -4483,7 +4456,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="109"/>
+      <c r="A16" s="164"/>
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
@@ -4519,7 +4492,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="109"/>
+      <c r="A17" s="164"/>
       <c r="B17" s="4"/>
       <c r="C17" s="3" t="s">
         <v>11</v>
@@ -4553,7 +4526,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="109"/>
+      <c r="A18" s="164"/>
       <c r="B18" s="4"/>
       <c r="C18" s="3" t="s">
         <v>12</v>
@@ -4587,7 +4560,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="109"/>
+      <c r="A19" s="164"/>
       <c r="B19" s="4"/>
       <c r="C19" s="3" t="s">
         <v>13</v>
@@ -7513,10 +7486,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14:I14"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7528,12 +7504,10 @@
     <col min="5" max="6" width="13.19921875" style="4" customWidth="1"/>
     <col min="7" max="7" width="11.8984375" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.8984375" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.19921875" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.796875" style="14"/>
+    <col min="10" max="16384" width="8.796875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
         <v>16</v>
       </c>
@@ -7550,27 +7524,22 @@
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
     </row>
-    <row r="2" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
-      <c r="D2" s="117" t="s">
+      <c r="D2" s="165" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="118"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="117" t="s">
+      <c r="E2" s="166"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="165" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="118"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="110" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="110"/>
-      <c r="L2" s="111"/>
-    </row>
-    <row r="3" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H2" s="166"/>
+      <c r="I2" s="167"/>
+    </row>
+    <row r="3" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -7592,18 +7561,9 @@
       <c r="I3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="L3" s="28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="117" t="s">
+    </row>
+    <row r="4" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="165" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="21" t="s">
@@ -7621,153 +7581,117 @@
       <c r="F4" s="32">
         <v>0</v>
       </c>
-      <c r="G4" s="50">
+      <c r="G4" s="45">
         <v>0.76600000000000001</v>
       </c>
-      <c r="H4" s="50">
+      <c r="H4" s="45">
         <v>0.94599999999999995</v>
       </c>
-      <c r="I4" s="53">
+      <c r="I4" s="48">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="J4" s="33">
-        <v>0.79500000000000004</v>
-      </c>
-      <c r="K4" s="33">
-        <v>1</v>
-      </c>
-      <c r="L4" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="120"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="168"/>
       <c r="B5" s="22"/>
       <c r="C5" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="36"/>
-    </row>
-    <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="120"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="35"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="168"/>
       <c r="B6" s="22"/>
       <c r="C6" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="33">
         <v>0.77500000000000002</v>
       </c>
-      <c r="E6" s="35">
+      <c r="E6" s="34">
         <v>1</v>
       </c>
-      <c r="F6" s="36">
+      <c r="F6" s="35">
         <v>0</v>
       </c>
-      <c r="G6" s="35">
+      <c r="G6" s="34">
         <v>0.69799999999999995</v>
       </c>
-      <c r="H6" s="35">
+      <c r="H6" s="34">
         <v>0.9</v>
       </c>
-      <c r="I6" s="36">
+      <c r="I6" s="35">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="J6" s="37">
-        <v>0.76500000000000001</v>
-      </c>
-      <c r="K6" s="37">
-        <v>1</v>
-      </c>
-      <c r="L6" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="120"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="168"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="33">
         <v>0.77500000000000002</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E7" s="34">
         <v>1</v>
       </c>
-      <c r="F7" s="36">
+      <c r="F7" s="35">
         <v>0</v>
       </c>
-      <c r="G7" s="35">
+      <c r="G7" s="34">
         <v>0.69799999999999995</v>
       </c>
-      <c r="H7" s="35">
+      <c r="H7" s="34">
         <v>0.9</v>
       </c>
-      <c r="I7" s="36">
+      <c r="I7" s="35">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="J7" s="37">
-        <v>0.76500000000000001</v>
-      </c>
-      <c r="K7" s="37">
-        <v>1</v>
-      </c>
-      <c r="L7" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="121"/>
+    </row>
+    <row r="8" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="169"/>
       <c r="B8" s="25"/>
       <c r="C8" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="36">
         <v>0.68799999999999994</v>
       </c>
-      <c r="E8" s="39">
+      <c r="E8" s="37">
         <v>0.86199999999999999</v>
       </c>
-      <c r="F8" s="40">
+      <c r="F8" s="38">
         <v>0.13</v>
       </c>
-      <c r="G8" s="56">
+      <c r="G8" s="51">
         <v>0.73</v>
       </c>
-      <c r="H8" s="56">
+      <c r="H8" s="51">
         <v>0.88</v>
       </c>
-      <c r="I8" s="51">
+      <c r="I8" s="46">
         <v>0.16</v>
       </c>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="40"/>
-    </row>
-    <row r="9" spans="1:12" s="18" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="9" spans="1:9" s="18" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="19"/>
       <c r="B9" s="4"/>
       <c r="C9" s="19"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-    </row>
-    <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="117" t="s">
+      <c r="D9" s="33"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="40"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="165" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="21" t="s">
@@ -7782,163 +7706,123 @@
       <c r="E10" s="31">
         <v>0.97499999999999998</v>
       </c>
-      <c r="F10" s="44">
+      <c r="F10" s="41">
         <v>0.75900000000000001</v>
       </c>
-      <c r="G10" s="52">
+      <c r="G10" s="47">
         <v>0.91900000000000004</v>
       </c>
-      <c r="H10" s="52">
+      <c r="H10" s="47">
         <v>0.99299999999999999</v>
       </c>
-      <c r="I10" s="57">
+      <c r="I10" s="52">
         <v>0.68600000000000005</v>
       </c>
-      <c r="J10" s="45">
-        <v>0.68500000000000005</v>
-      </c>
-      <c r="K10" s="45">
-        <v>0.78500000000000003</v>
-      </c>
-      <c r="L10" s="44">
-        <v>0.28499999999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="120"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="168"/>
       <c r="B11" s="22"/>
       <c r="C11" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="34">
+      <c r="D11" s="33">
         <v>0.89700000000000002</v>
       </c>
-      <c r="E11" s="35">
+      <c r="E11" s="34">
         <v>0.98899999999999999</v>
       </c>
-      <c r="F11" s="46">
+      <c r="F11" s="42">
         <v>0.58599999999999997</v>
       </c>
-      <c r="G11" s="35">
+      <c r="G11" s="34">
         <v>0.76100000000000001</v>
       </c>
-      <c r="H11" s="35">
+      <c r="H11" s="34">
         <v>1</v>
       </c>
-      <c r="I11" s="46">
+      <c r="I11" s="42">
         <v>1.9E-2</v>
       </c>
-      <c r="J11" s="47">
-        <v>0.71399999999999997</v>
-      </c>
-      <c r="K11" s="47">
-        <v>0.86099999999999999</v>
-      </c>
-      <c r="L11" s="46">
-        <v>0.254</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="120"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="168"/>
       <c r="B12" s="22"/>
       <c r="C12" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="34">
+      <c r="D12" s="33">
         <v>0.91700000000000004</v>
       </c>
-      <c r="E12" s="35">
+      <c r="E12" s="34">
         <v>0.96699999999999997</v>
       </c>
-      <c r="F12" s="46">
+      <c r="F12" s="42">
         <v>0.748</v>
       </c>
-      <c r="G12" s="35">
+      <c r="G12" s="34">
         <v>0.88500000000000001</v>
       </c>
-      <c r="H12" s="35">
+      <c r="H12" s="34">
         <v>0.94299999999999995</v>
       </c>
-      <c r="I12" s="46">
+      <c r="I12" s="42">
         <v>0.70499999999999996</v>
       </c>
-      <c r="J12" s="47">
-        <v>0.68500000000000005</v>
-      </c>
-      <c r="K12" s="47">
-        <v>0.79800000000000004</v>
-      </c>
-      <c r="L12" s="46">
-        <v>0.33300000000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="120"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="168"/>
       <c r="B13" s="22"/>
       <c r="C13" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="34">
+      <c r="D13" s="33">
         <v>0.91700000000000004</v>
       </c>
-      <c r="E13" s="35">
+      <c r="E13" s="34">
         <v>0.96699999999999997</v>
       </c>
-      <c r="F13" s="46">
+      <c r="F13" s="42">
         <v>0.748</v>
       </c>
-      <c r="G13" s="35">
+      <c r="G13" s="34">
         <v>0.88500000000000001</v>
       </c>
-      <c r="H13" s="35">
+      <c r="H13" s="34">
         <v>0.94299999999999995</v>
       </c>
-      <c r="I13" s="46">
+      <c r="I13" s="42">
         <v>0.70499999999999996</v>
       </c>
-      <c r="J13" s="47">
-        <v>0.68500000000000005</v>
-      </c>
-      <c r="K13" s="47">
-        <v>0.79800000000000004</v>
-      </c>
-      <c r="L13" s="46">
-        <v>0.33300000000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="121"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="169"/>
       <c r="B14" s="24"/>
       <c r="C14" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="48">
+      <c r="D14" s="43">
         <v>0.92100000000000004</v>
       </c>
-      <c r="E14" s="49">
+      <c r="E14" s="44">
         <v>0.99399999999999999</v>
       </c>
-      <c r="F14" s="40">
+      <c r="F14" s="38">
         <v>0.68799999999999994</v>
       </c>
-      <c r="G14" s="55">
+      <c r="G14" s="50">
         <v>0.94799999999999995</v>
       </c>
-      <c r="H14" s="55">
+      <c r="H14" s="50">
         <v>1</v>
       </c>
-      <c r="I14" s="54">
+      <c r="I14" s="49">
         <v>0.74399999999999999</v>
       </c>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:L2"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="A10:A14"/>
   </mergeCells>
@@ -7950,243 +7834,252 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.69921875" style="173" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" style="173" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.796875" style="173" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.8984375" style="173" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.19921875" style="173" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.8984375" style="173" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.19921875" style="173" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.796875" style="173"/>
+    <col min="1" max="1" width="10.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="136" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.796875" style="136" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.8984375" style="136" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.8984375" style="136" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.796875" style="136"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="171"/>
-      <c r="B1" s="172"/>
-      <c r="C1" s="172"/>
-      <c r="D1" s="147" t="s">
+    <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="134"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="170" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140" t="s">
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="140"/>
-      <c r="I1" s="148"/>
-    </row>
-    <row r="2" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="174"/>
-      <c r="D2" s="149" t="s">
+      <c r="H1" s="171"/>
+      <c r="I1" s="172"/>
+    </row>
+    <row r="2" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="137"/>
+      <c r="D2" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="141" t="s">
+      <c r="E2" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="141" t="s">
+      <c r="F2" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="141" t="s">
+      <c r="G2" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="141" t="s">
+      <c r="H2" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="150" t="s">
+      <c r="I2" s="118" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="175" t="s">
+    <row r="3" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="138" t="s">
         <v>125</v>
       </c>
-      <c r="B3" s="142" t="s">
+      <c r="B3" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="176" t="s">
+      <c r="C3" s="139" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="177"/>
-      <c r="B4" s="143" t="s">
+    <row r="4" spans="1:10" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="140"/>
+      <c r="B4" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="143" t="s">
+      <c r="C4" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="172"/>
-      <c r="E4" s="172"/>
-      <c r="F4" s="172"/>
-      <c r="G4" s="172"/>
-      <c r="H4" s="172"/>
-      <c r="I4" s="178"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="177"/>
-      <c r="B5" s="144"/>
-      <c r="C5" s="145" t="s">
+      <c r="D4" s="135"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="135"/>
+      <c r="I4" s="141"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="140"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="179"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="177"/>
-      <c r="B6" s="144"/>
-      <c r="C6" s="145" t="s">
+      <c r="I5" s="142"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="140"/>
+      <c r="B6" s="114"/>
+      <c r="C6" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="179"/>
-    </row>
-    <row r="7" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="180"/>
-      <c r="B7" s="181"/>
-      <c r="C7" s="146" t="s">
+      <c r="I6" s="142"/>
+    </row>
+    <row r="7" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="143"/>
+      <c r="B7" s="144"/>
+      <c r="C7" s="116" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="182"/>
-      <c r="E7" s="182"/>
-      <c r="F7" s="182"/>
-      <c r="G7" s="182"/>
-      <c r="H7" s="182"/>
-      <c r="I7" s="183"/>
-    </row>
-    <row r="8" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="177" t="s">
+      <c r="D7" s="145"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="145"/>
+      <c r="I7" s="146"/>
+    </row>
+    <row r="8" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="140" t="s">
         <v>126</v>
       </c>
-      <c r="B8" s="142" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="176" t="s">
+      <c r="B8" s="112" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="139" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="184">
+      <c r="D8" s="147">
         <v>0.79</v>
       </c>
-      <c r="E8" s="184">
+      <c r="E8" s="147">
         <v>0.89</v>
       </c>
-      <c r="F8" s="184">
+      <c r="F8" s="147">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G8" s="193">
+      <c r="G8" s="156">
         <v>0.77</v>
       </c>
-      <c r="H8" s="193">
+      <c r="H8" s="156">
         <v>0.89</v>
       </c>
-      <c r="I8" s="194">
+      <c r="I8" s="157">
         <v>0.375</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="177"/>
-      <c r="B9" s="143" t="s">
+      <c r="J8" s="136">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="140"/>
+      <c r="B9" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="143" t="s">
+      <c r="C9" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="185">
+      <c r="D9" s="148">
         <v>0.8</v>
       </c>
-      <c r="E9" s="186">
+      <c r="E9" s="149">
         <v>0.97</v>
       </c>
-      <c r="F9" s="186">
+      <c r="F9" s="149">
         <v>0.13</v>
       </c>
-      <c r="G9" s="195">
+      <c r="G9" s="158">
         <v>0.76</v>
       </c>
-      <c r="H9" s="195">
+      <c r="H9" s="158">
         <v>0.94</v>
       </c>
-      <c r="I9" s="196">
+      <c r="I9" s="159">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="177"/>
-      <c r="B10" s="144"/>
-      <c r="C10" s="145" t="s">
+      <c r="J9" s="136" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="140"/>
+      <c r="B10" s="114"/>
+      <c r="C10" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="187">
+      <c r="D10" s="150">
         <v>0.8</v>
       </c>
-      <c r="E10" s="188">
+      <c r="E10" s="151">
         <v>0.97</v>
       </c>
-      <c r="F10" s="188">
+      <c r="F10" s="151">
         <v>0.2</v>
       </c>
-      <c r="G10" s="188">
+      <c r="G10" s="151">
         <v>0.76</v>
       </c>
-      <c r="H10" s="188">
+      <c r="H10" s="151">
         <v>1</v>
       </c>
-      <c r="I10" s="189">
+      <c r="I10" s="152">
         <v>0.05</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="177"/>
-      <c r="B11" s="144"/>
-      <c r="C11" s="145" t="s">
+    <row r="11" spans="1:10" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="140"/>
+      <c r="B11" s="114"/>
+      <c r="C11" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="187">
+      <c r="D11" s="150">
         <v>0.8</v>
       </c>
-      <c r="E11" s="188">
+      <c r="E11" s="151">
         <v>0.95</v>
       </c>
-      <c r="F11" s="188">
+      <c r="F11" s="151">
         <v>0.23</v>
       </c>
-      <c r="G11" s="188">
+      <c r="G11" s="151">
         <v>0.7</v>
       </c>
-      <c r="H11" s="188">
+      <c r="H11" s="151">
         <v>0.86</v>
       </c>
-      <c r="I11" s="189">
+      <c r="I11" s="152">
         <v>0.22</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="180"/>
-      <c r="B12" s="181"/>
-      <c r="C12" s="146" t="s">
+    <row r="12" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="143"/>
+      <c r="B12" s="144"/>
+      <c r="C12" s="116" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="190">
+      <c r="D12" s="153">
         <v>0.8</v>
       </c>
-      <c r="E12" s="191">
+      <c r="E12" s="154">
         <v>0.95</v>
       </c>
-      <c r="F12" s="191">
+      <c r="F12" s="154">
         <v>0.23</v>
       </c>
-      <c r="G12" s="191">
+      <c r="G12" s="154">
         <v>0.7</v>
       </c>
-      <c r="H12" s="191">
+      <c r="H12" s="154">
         <v>0.86</v>
       </c>
-      <c r="I12" s="192">
+      <c r="I12" s="155">
         <v>0.22</v>
       </c>
     </row>
@@ -8197,18 +8090,19 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J17" sqref="J17"/>
+      <selection pane="bottomRight" activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8220,10 +8114,11 @@
     <col min="5" max="6" width="13.19921875" style="4" customWidth="1"/>
     <col min="7" max="7" width="11.8984375" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.796875" style="9"/>
+    <col min="10" max="10" width="30.59765625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.796875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
         <v>16</v>
       </c>
@@ -8240,540 +8135,543 @@
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
     </row>
-    <row r="2" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="112" t="s">
+    <row r="2" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="173" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="113"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="112" t="s">
+      <c r="E2" s="174"/>
+      <c r="F2" s="175"/>
+      <c r="G2" s="173" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="113"/>
-      <c r="I2" s="114"/>
-    </row>
-    <row r="3" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="58"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="59" t="s">
+      <c r="H2" s="174"/>
+      <c r="I2" s="175"/>
+    </row>
+    <row r="3" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="60" t="s">
+      <c r="E3" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="61" t="s">
+      <c r="F3" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="59" t="s">
+      <c r="G3" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="60" t="s">
+      <c r="H3" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="61" t="s">
+      <c r="I3" s="56" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="112" t="s">
+    <row r="4" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="173" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="63">
+      <c r="D4" s="58">
         <v>1</v>
       </c>
-      <c r="E4" s="64">
+      <c r="E4" s="59">
         <v>1</v>
       </c>
-      <c r="F4" s="65">
+      <c r="F4" s="60">
         <v>1</v>
       </c>
-      <c r="G4" s="63">
+      <c r="G4" s="58">
         <v>0.76</v>
       </c>
-      <c r="H4" s="64">
+      <c r="H4" s="59">
         <v>0.96699999999999997</v>
       </c>
-      <c r="I4" s="65">
+      <c r="I4" s="60">
         <v>0.125</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="115"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="60" t="s">
+    <row r="5" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="176"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="68"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="70"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="115"/>
-      <c r="B6" s="66"/>
-      <c r="C6" s="60" t="s">
+      <c r="D5" s="63"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="65"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="176"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="68">
+      <c r="D6" s="63">
         <v>1</v>
       </c>
-      <c r="E6" s="69">
+      <c r="E6" s="64">
         <v>1</v>
       </c>
-      <c r="F6" s="70">
+      <c r="F6" s="65">
         <v>1</v>
       </c>
-      <c r="G6" s="68">
+      <c r="G6" s="63">
         <v>0.76</v>
       </c>
-      <c r="H6" s="69">
+      <c r="H6" s="64">
         <v>0.96699999999999997</v>
       </c>
-      <c r="I6" s="70">
+      <c r="I6" s="65">
         <v>0.125</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="115"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="60" t="s">
+    <row r="7" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="176"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="68">
+      <c r="D7" s="63">
         <v>1</v>
       </c>
-      <c r="E7" s="69">
+      <c r="E7" s="64">
         <v>1</v>
       </c>
-      <c r="F7" s="70">
+      <c r="F7" s="65">
         <v>1</v>
       </c>
-      <c r="G7" s="68">
+      <c r="G7" s="63">
         <v>0.76</v>
       </c>
-      <c r="H7" s="69">
+      <c r="H7" s="64">
         <v>0.96699999999999997</v>
       </c>
-      <c r="I7" s="70">
+      <c r="I7" s="65">
         <v>0.125</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="115"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67" t="s">
+    <row r="8" spans="1:10" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="176"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="68">
+      <c r="D8" s="63">
         <v>0.79</v>
       </c>
-      <c r="E8" s="69">
+      <c r="E8" s="64">
         <v>0.93</v>
       </c>
-      <c r="F8" s="70">
+      <c r="F8" s="65">
         <v>0.17</v>
       </c>
-      <c r="G8" s="68">
+      <c r="G8" s="63">
         <v>0.74</v>
       </c>
-      <c r="H8" s="69">
+      <c r="H8" s="64">
         <v>0.92600000000000005</v>
       </c>
-      <c r="I8" s="70">
+      <c r="I8" s="65">
         <v>0.18</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="115"/>
-      <c r="B9" s="62" t="s">
+    <row r="9" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="176"/>
+      <c r="B9" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="82" t="s">
+      <c r="C9" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="78">
+      <c r="D9" s="73">
         <v>0.9</v>
       </c>
-      <c r="E9" s="79">
+      <c r="E9" s="74">
         <v>0.98399999999999999</v>
       </c>
-      <c r="F9" s="80">
+      <c r="F9" s="75">
         <v>0.6</v>
       </c>
-      <c r="G9" s="90">
+      <c r="G9" s="85">
         <v>0.73399999999999999</v>
       </c>
-      <c r="H9" s="50">
+      <c r="H9" s="45">
         <v>0.99099999999999999</v>
       </c>
-      <c r="I9" s="91">
+      <c r="I9" s="86">
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="115"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="60" t="s">
+    <row r="10" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="176"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="68"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="87"/>
-    </row>
-    <row r="11" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="115"/>
-      <c r="B11" s="66"/>
-      <c r="C11" s="60" t="s">
+      <c r="D10" s="63"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="82"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="176"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="68">
+      <c r="D11" s="63">
         <v>0.9</v>
       </c>
-      <c r="E11" s="69">
+      <c r="E11" s="64">
         <v>0.98</v>
       </c>
-      <c r="F11" s="70">
+      <c r="F11" s="65">
         <v>0.6</v>
       </c>
-      <c r="G11" s="86">
+      <c r="G11" s="81">
         <v>0.73399999999999999</v>
       </c>
-      <c r="H11" s="35">
+      <c r="H11" s="34">
         <v>0.99099999999999999</v>
       </c>
-      <c r="I11" s="87">
+      <c r="I11" s="82">
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="115"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="60" t="s">
+    <row r="12" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="176"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="68">
+      <c r="D12" s="63">
         <v>0.90100000000000002</v>
       </c>
-      <c r="E12" s="69">
+      <c r="E12" s="64">
         <v>0.98399999999999999</v>
       </c>
-      <c r="F12" s="70">
+      <c r="F12" s="65">
         <v>0.6</v>
       </c>
-      <c r="G12" s="86">
+      <c r="G12" s="81">
         <v>0.73399999999999999</v>
       </c>
-      <c r="H12" s="35">
+      <c r="H12" s="34">
         <v>0.99099999999999999</v>
       </c>
-      <c r="I12" s="87">
+      <c r="I12" s="82">
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="116"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="72" t="s">
+    <row r="13" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="177"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="73">
+      <c r="D13" s="68">
         <v>0.73399999999999999</v>
       </c>
-      <c r="E13" s="74">
+      <c r="E13" s="69">
         <v>0.9</v>
       </c>
-      <c r="F13" s="75">
+      <c r="F13" s="70">
         <v>0.1</v>
       </c>
-      <c r="G13" s="88">
+      <c r="G13" s="83">
         <v>0.69699999999999995</v>
       </c>
-      <c r="H13" s="56">
+      <c r="H13" s="51">
         <v>0.85499999999999998</v>
       </c>
-      <c r="I13" s="89">
+      <c r="I13" s="84">
         <v>0.27300000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="18" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="76"/>
-      <c r="B14" s="77"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="87"/>
-    </row>
-    <row r="15" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="112" t="s">
+    <row r="14" spans="1:10" s="18" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="71"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="82"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="173" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="62" t="s">
+      <c r="C15" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="78">
+      <c r="D15" s="73">
         <v>1</v>
       </c>
-      <c r="E15" s="79">
+      <c r="E15" s="74">
         <v>1</v>
       </c>
-      <c r="F15" s="80">
+      <c r="F15" s="75">
         <v>1</v>
       </c>
-      <c r="G15" s="95">
+      <c r="G15" s="90">
         <v>0.81699999999999995</v>
       </c>
-      <c r="H15" s="96">
+      <c r="H15" s="91">
         <v>0.96399999999999997</v>
       </c>
-      <c r="I15" s="97">
+      <c r="I15" s="92">
         <v>0.313</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="115"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="60" t="s">
+      <c r="J15" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="176"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="68">
+      <c r="D16" s="63">
         <v>1</v>
       </c>
-      <c r="E16" s="69">
+      <c r="E16" s="64">
         <v>1</v>
       </c>
-      <c r="F16" s="70">
+      <c r="F16" s="65">
         <v>1</v>
       </c>
-      <c r="G16" s="86">
+      <c r="G16" s="81">
         <v>0.8</v>
       </c>
-      <c r="H16" s="35">
+      <c r="H16" s="34">
         <v>0.94499999999999995</v>
       </c>
-      <c r="I16" s="87">
+      <c r="I16" s="82">
         <v>0.3125</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="115"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="60" t="s">
+      <c r="A17" s="176"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="68">
+      <c r="D17" s="63">
         <v>1</v>
       </c>
-      <c r="E17" s="69">
+      <c r="E17" s="64">
         <v>1</v>
       </c>
-      <c r="F17" s="70">
+      <c r="F17" s="65">
         <v>1</v>
       </c>
-      <c r="G17" s="86">
+      <c r="G17" s="81">
         <v>0.79</v>
       </c>
-      <c r="H17" s="35">
+      <c r="H17" s="34">
         <v>0.93</v>
       </c>
-      <c r="I17" s="87">
+      <c r="I17" s="82">
         <v>0.313</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="115"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="60" t="s">
+      <c r="A18" s="176"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="68">
+      <c r="D18" s="63">
         <v>1</v>
       </c>
-      <c r="E18" s="69">
+      <c r="E18" s="64">
         <v>1</v>
       </c>
-      <c r="F18" s="70">
+      <c r="F18" s="65">
         <v>1</v>
       </c>
-      <c r="G18" s="86">
+      <c r="G18" s="81">
         <v>0.81</v>
       </c>
-      <c r="H18" s="35">
+      <c r="H18" s="34">
         <v>0.96</v>
       </c>
-      <c r="I18" s="87">
+      <c r="I18" s="82">
         <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="115"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="81">
+      <c r="A19" s="176"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" s="76">
         <v>0.97799999999999998</v>
       </c>
-      <c r="E19" s="74">
+      <c r="E19" s="69">
         <v>0.99</v>
       </c>
-      <c r="F19" s="70">
+      <c r="F19" s="65">
         <v>0.92900000000000005</v>
       </c>
-      <c r="G19" s="88">
+      <c r="G19" s="83">
         <v>0.80300000000000005</v>
       </c>
-      <c r="H19" s="56">
+      <c r="H19" s="51">
         <v>0.94499999999999995</v>
       </c>
-      <c r="I19" s="89">
+      <c r="I19" s="84">
         <v>0.313</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="115"/>
-      <c r="B20" s="62" t="s">
+      <c r="A20" s="176"/>
+      <c r="B20" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="82" t="s">
+      <c r="C20" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="78">
+      <c r="D20" s="73">
         <v>0.92600000000000005</v>
       </c>
-      <c r="E20" s="79">
+      <c r="E20" s="74">
         <v>0.95499999999999996</v>
       </c>
-      <c r="F20" s="80">
+      <c r="F20" s="75">
         <v>0.81699999999999995</v>
       </c>
-      <c r="G20" s="90">
+      <c r="G20" s="85">
         <v>0.78800000000000003</v>
       </c>
-      <c r="H20" s="50">
+      <c r="H20" s="45">
         <v>0.92400000000000004</v>
       </c>
-      <c r="I20" s="91">
+      <c r="I20" s="86">
         <v>0.38900000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="115"/>
-      <c r="B21" s="66"/>
-      <c r="C21" s="60" t="s">
+      <c r="A21" s="176"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="68">
+      <c r="D21" s="63">
         <v>0.91200000000000003</v>
       </c>
-      <c r="E21" s="69">
+      <c r="E21" s="64">
         <v>0.98199999999999998</v>
       </c>
-      <c r="F21" s="70">
+      <c r="F21" s="65">
         <v>0.65</v>
       </c>
-      <c r="G21" s="86">
+      <c r="G21" s="81">
         <v>0.73199999999999998</v>
       </c>
-      <c r="H21" s="35">
+      <c r="H21" s="34">
         <v>0.92400000000000004</v>
       </c>
-      <c r="I21" s="87">
+      <c r="I21" s="82">
         <v>0.16700000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="115"/>
-      <c r="B22" s="66"/>
-      <c r="C22" s="60" t="s">
+      <c r="A22" s="176"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="68">
+      <c r="D22" s="63">
         <v>0.94399999999999995</v>
       </c>
-      <c r="E22" s="69">
+      <c r="E22" s="64">
         <v>0.96</v>
       </c>
-      <c r="F22" s="70">
+      <c r="F22" s="65">
         <v>0.88</v>
       </c>
-      <c r="G22" s="86">
+      <c r="G22" s="81">
         <v>0.753</v>
       </c>
-      <c r="H22" s="35">
+      <c r="H22" s="34">
         <v>0.877</v>
       </c>
-      <c r="I22" s="87">
+      <c r="I22" s="82">
         <v>0.38900000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="115"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="60" t="s">
+      <c r="A23" s="176"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="68">
+      <c r="D23" s="63">
         <v>0.94399999999999995</v>
       </c>
-      <c r="E23" s="69">
+      <c r="E23" s="64">
         <v>0.96</v>
       </c>
-      <c r="F23" s="70">
+      <c r="F23" s="65">
         <v>0.88300000000000001</v>
       </c>
-      <c r="G23" s="86">
+      <c r="G23" s="81">
         <v>0.754</v>
       </c>
-      <c r="H23" s="35">
+      <c r="H23" s="34">
         <v>0.877</v>
       </c>
-      <c r="I23" s="87">
+      <c r="I23" s="82">
         <v>0.38900000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="116"/>
-      <c r="B24" s="83"/>
-      <c r="C24" s="83" t="s">
+      <c r="A24" s="177"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="84">
+      <c r="D24" s="79">
         <v>0.93600000000000005</v>
       </c>
-      <c r="E24" s="71">
+      <c r="E24" s="66">
         <v>0.98199999999999998</v>
       </c>
-      <c r="F24" s="85">
+      <c r="F24" s="80">
         <v>0.77</v>
       </c>
-      <c r="G24" s="92">
+      <c r="G24" s="87">
         <v>0.76700000000000002</v>
       </c>
-      <c r="H24" s="93">
+      <c r="H24" s="88">
         <v>0.89600000000000002</v>
       </c>
-      <c r="I24" s="94">
+      <c r="I24" s="89">
         <v>0.38900000000000001</v>
       </c>
     </row>
@@ -8800,10 +8698,177 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.8984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.8984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.796875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="160" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="160">
+        <v>123</v>
+      </c>
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="160"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="160"/>
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="166"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="165" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="166"/>
+      <c r="I2" s="167"/>
+    </row>
+    <row r="3" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="160"/>
+      <c r="B3" s="160"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="162" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="162" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="182" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="97" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="183"/>
+      <c r="E4" s="183"/>
+      <c r="F4" s="184"/>
+      <c r="G4" s="185"/>
+      <c r="H4" s="186"/>
+      <c r="I4" s="187"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="161" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="188" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="191" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="120">
+        <v>0.63</v>
+      </c>
+      <c r="E5" s="120">
+        <v>0.72</v>
+      </c>
+      <c r="F5" s="120">
+        <v>0.34</v>
+      </c>
+      <c r="G5" s="189">
+        <v>0.68</v>
+      </c>
+      <c r="H5" s="189">
+        <v>0.79</v>
+      </c>
+      <c r="I5" s="190">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="178"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="192" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="125">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H6" s="125">
+        <v>0.6</v>
+      </c>
+      <c r="I6" s="179">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="180"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="193" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="181"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -8823,168 +8888,37 @@
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
-      <c r="D1" s="98" t="s">
+      <c r="D1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="98">
+      <c r="E1" s="93">
         <v>123</v>
       </c>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
     </row>
     <row r="2" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
-      <c r="D2" s="117" t="s">
+      <c r="D2" s="165" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="118"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="117" t="s">
+      <c r="E2" s="166"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="165" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="118"/>
-      <c r="I2" s="119"/>
+      <c r="H2" s="166"/>
+      <c r="I2" s="167"/>
     </row>
     <row r="3" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
-      <c r="D3" s="100" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="100" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="103" t="s">
-        <v>123</v>
-      </c>
-      <c r="B4" s="104" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="106" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="138"/>
-      <c r="E4" s="138"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="135"/>
-      <c r="H4" s="136"/>
-      <c r="I4" s="137"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="102" t="s">
-        <v>124</v>
-      </c>
-      <c r="B5" s="105" t="s">
-        <v>122</v>
-      </c>
-      <c r="C5" s="107" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="167">
-        <v>0.63</v>
-      </c>
-      <c r="E5" s="167">
-        <v>0.72</v>
-      </c>
-      <c r="F5" s="168">
-        <v>0.34</v>
-      </c>
-      <c r="G5" s="162">
-        <v>0.68</v>
-      </c>
-      <c r="H5" s="169">
-        <v>0.79</v>
-      </c>
-      <c r="I5" s="170">
-        <v>0.3</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.19921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.8984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.19921875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="98" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="98">
-        <v>123</v>
-      </c>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="118"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="117" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="118"/>
-      <c r="I2" s="119"/>
-    </row>
-    <row r="3" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="101" t="s">
+      <c r="D3" s="95" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="26" t="s">
@@ -8993,7 +8927,7 @@
       <c r="F3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="101" t="s">
+      <c r="G3" s="95" t="s">
         <v>2</v>
       </c>
       <c r="H3" s="26" t="s">
@@ -9004,211 +8938,211 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="165" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="99" t="s">
+      <c r="B4" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="99" t="s">
+      <c r="C4" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="128"/>
-      <c r="E4" s="129"/>
-      <c r="F4" s="130"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="122"/>
-      <c r="I4" s="123"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="99"/>
     </row>
     <row r="5" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="120"/>
+      <c r="A5" s="168"/>
       <c r="B5" s="22"/>
       <c r="C5" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="131"/>
-      <c r="E5" s="124"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="124"/>
-      <c r="H5" s="124"/>
-      <c r="I5" s="125"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="101"/>
     </row>
     <row r="6" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="120"/>
+      <c r="A6" s="168"/>
       <c r="B6" s="22"/>
       <c r="C6" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="131"/>
-      <c r="E6" s="124"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="124"/>
-      <c r="H6" s="124"/>
-      <c r="I6" s="125"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="101"/>
     </row>
     <row r="7" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="120"/>
+      <c r="A7" s="168"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="131"/>
-      <c r="E7" s="124"/>
-      <c r="F7" s="125"/>
-      <c r="G7" s="124"/>
-      <c r="H7" s="124"/>
-      <c r="I7" s="125"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="101"/>
     </row>
     <row r="8" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="121"/>
+      <c r="A8" s="169"/>
       <c r="B8" s="25"/>
       <c r="C8" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="132"/>
-      <c r="E8" s="133"/>
-      <c r="F8" s="134"/>
-      <c r="G8" s="126"/>
-      <c r="H8" s="126"/>
-      <c r="I8" s="127"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="103"/>
     </row>
     <row r="9" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="98"/>
+      <c r="A9" s="93"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="98"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="43"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="40"/>
     </row>
     <row r="10" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="117" t="s">
+      <c r="A10" s="165" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="99" t="s">
+      <c r="B10" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="99" t="s">
+      <c r="C10" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="151">
+      <c r="D10" s="119">
         <v>0.95</v>
       </c>
-      <c r="E10" s="152">
+      <c r="E10" s="120">
         <v>0.97</v>
       </c>
-      <c r="F10" s="153">
+      <c r="F10" s="121">
         <v>0.88</v>
       </c>
-      <c r="G10" s="154">
+      <c r="G10" s="122">
         <v>0.64</v>
       </c>
-      <c r="H10" s="154">
+      <c r="H10" s="122">
         <v>0.71</v>
       </c>
-      <c r="I10" s="155">
+      <c r="I10" s="123">
         <v>0.36</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="120"/>
+      <c r="A11" s="168"/>
       <c r="B11" s="22"/>
       <c r="C11" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="156">
+      <c r="D11" s="124">
         <v>0.86</v>
       </c>
-      <c r="E11" s="157">
+      <c r="E11" s="125">
         <v>0.97</v>
       </c>
-      <c r="F11" s="158">
+      <c r="F11" s="126">
         <v>0.49</v>
       </c>
-      <c r="G11" s="165">
+      <c r="G11" s="132">
         <v>0.74</v>
       </c>
-      <c r="H11" s="165">
+      <c r="H11" s="132">
         <v>0.86</v>
       </c>
-      <c r="I11" s="166">
+      <c r="I11" s="133">
         <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="120"/>
+      <c r="A12" s="168"/>
       <c r="B12" s="22"/>
       <c r="C12" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="156">
+      <c r="D12" s="124">
         <v>0.73</v>
       </c>
-      <c r="E12" s="157">
+      <c r="E12" s="125">
         <v>0.85</v>
       </c>
-      <c r="F12" s="158">
+      <c r="F12" s="126">
         <v>0.36499999999999999</v>
       </c>
-      <c r="G12" s="157">
+      <c r="G12" s="125">
         <v>0.65</v>
       </c>
-      <c r="H12" s="157">
+      <c r="H12" s="125">
         <v>0.7</v>
       </c>
-      <c r="I12" s="158">
+      <c r="I12" s="126">
         <v>0.43</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="120"/>
+      <c r="A13" s="168"/>
       <c r="B13" s="22"/>
       <c r="C13" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="156">
+      <c r="D13" s="124">
         <v>0.73</v>
       </c>
-      <c r="E13" s="157">
+      <c r="E13" s="125">
         <v>0.84</v>
       </c>
-      <c r="F13" s="158">
+      <c r="F13" s="126">
         <v>0.42</v>
       </c>
-      <c r="G13" s="157">
+      <c r="G13" s="125">
         <v>0.65</v>
       </c>
-      <c r="H13" s="157">
+      <c r="H13" s="125">
         <v>0.7</v>
       </c>
-      <c r="I13" s="158">
+      <c r="I13" s="126">
         <v>0.43</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="121"/>
+      <c r="A14" s="169"/>
       <c r="B14" s="24"/>
       <c r="C14" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="159">
+      <c r="D14" s="127">
         <v>0.84</v>
       </c>
-      <c r="E14" s="160">
+      <c r="E14" s="128">
         <v>0.8</v>
       </c>
-      <c r="F14" s="161">
+      <c r="F14" s="129">
         <v>0.9</v>
       </c>
-      <c r="G14" s="163">
+      <c r="G14" s="130">
         <v>0.61899999999999999</v>
       </c>
-      <c r="H14" s="163">
+      <c r="H14" s="130">
         <v>0.67</v>
       </c>
-      <c r="I14" s="164">
+      <c r="I14" s="131">
         <v>0.4</v>
       </c>
     </row>

--- a/model_performance.xlsx
+++ b/model_performance.xlsx
@@ -1274,6 +1274,45 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1319,52 +1358,13 @@
     <xf numFmtId="10" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2061,7 +2061,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4085,21 +4084,21 @@
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="164" t="s">
+      <c r="D2" s="177" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="164" t="s">
+      <c r="E2" s="177"/>
+      <c r="F2" s="177"/>
+      <c r="G2" s="177" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="164"/>
-      <c r="I2" s="164"/>
-      <c r="J2" s="163" t="s">
+      <c r="H2" s="177"/>
+      <c r="I2" s="177"/>
+      <c r="J2" s="176" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="163"/>
-      <c r="L2" s="163"/>
+      <c r="K2" s="176"/>
+      <c r="L2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
@@ -4134,7 +4133,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="164" t="s">
+      <c r="A4" s="177" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -4154,7 +4153,7 @@
       <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="164"/>
+      <c r="A5" s="177"/>
       <c r="B5" s="4"/>
       <c r="C5" s="3" t="s">
         <v>11</v>
@@ -4170,7 +4169,7 @@
       <c r="L5" s="6"/>
     </row>
     <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="164"/>
+      <c r="A6" s="177"/>
       <c r="B6" s="4"/>
       <c r="C6" s="3" t="s">
         <v>12</v>
@@ -4186,7 +4185,7 @@
       <c r="L6" s="6"/>
     </row>
     <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="164"/>
+      <c r="A7" s="177"/>
       <c r="B7" s="4"/>
       <c r="C7" s="3" t="s">
         <v>13</v>
@@ -4202,7 +4201,7 @@
       <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="164"/>
+      <c r="A8" s="177"/>
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
@@ -4232,7 +4231,7 @@
       <c r="L8" s="6"/>
     </row>
     <row r="9" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="164"/>
+      <c r="A9" s="177"/>
       <c r="B9" s="4"/>
       <c r="C9" s="3" t="s">
         <v>11</v>
@@ -4260,7 +4259,7 @@
       <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="164"/>
+      <c r="A10" s="177"/>
       <c r="B10" s="4"/>
       <c r="C10" s="3" t="s">
         <v>12</v>
@@ -4288,7 +4287,7 @@
       <c r="L10" s="6"/>
     </row>
     <row r="11" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="164"/>
+      <c r="A11" s="177"/>
       <c r="B11" s="4"/>
       <c r="C11" s="3" t="s">
         <v>13</v>
@@ -4316,7 +4315,7 @@
       <c r="L11" s="6"/>
     </row>
     <row r="12" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="164" t="s">
+      <c r="A12" s="177" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -4354,7 +4353,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="164"/>
+      <c r="A13" s="177"/>
       <c r="B13" s="4"/>
       <c r="C13" s="3" t="s">
         <v>11</v>
@@ -4388,7 +4387,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="164"/>
+      <c r="A14" s="177"/>
       <c r="B14" s="4"/>
       <c r="C14" s="3" t="s">
         <v>12</v>
@@ -4422,7 +4421,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="164"/>
+      <c r="A15" s="177"/>
       <c r="B15" s="4"/>
       <c r="C15" s="3" t="s">
         <v>13</v>
@@ -4456,7 +4455,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="164"/>
+      <c r="A16" s="177"/>
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
@@ -4492,7 +4491,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="164"/>
+      <c r="A17" s="177"/>
       <c r="B17" s="4"/>
       <c r="C17" s="3" t="s">
         <v>11</v>
@@ -4526,7 +4525,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="164"/>
+      <c r="A18" s="177"/>
       <c r="B18" s="4"/>
       <c r="C18" s="3" t="s">
         <v>12</v>
@@ -4560,7 +4559,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="164"/>
+      <c r="A19" s="177"/>
       <c r="B19" s="4"/>
       <c r="C19" s="3" t="s">
         <v>13</v>
@@ -7528,16 +7527,16 @@
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
-      <c r="D2" s="165" t="s">
+      <c r="D2" s="178" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="166"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="165" t="s">
+      <c r="E2" s="179"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="178" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="166"/>
-      <c r="I2" s="167"/>
+      <c r="H2" s="179"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="11"/>
@@ -7563,7 +7562,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="165" t="s">
+      <c r="A4" s="178" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="21" t="s">
@@ -7592,7 +7591,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="168"/>
+      <c r="A5" s="181"/>
       <c r="B5" s="22"/>
       <c r="C5" s="23" t="s">
         <v>11</v>
@@ -7605,7 +7604,7 @@
       <c r="I5" s="35"/>
     </row>
     <row r="6" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="168"/>
+      <c r="A6" s="181"/>
       <c r="B6" s="22"/>
       <c r="C6" s="23" t="s">
         <v>12</v>
@@ -7630,7 +7629,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="168"/>
+      <c r="A7" s="181"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23" t="s">
         <v>13</v>
@@ -7655,7 +7654,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="169"/>
+      <c r="A8" s="182"/>
       <c r="B8" s="25"/>
       <c r="C8" s="26" t="s">
         <v>18</v>
@@ -7691,7 +7690,7 @@
       <c r="I9" s="40"/>
     </row>
     <row r="10" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="165" t="s">
+      <c r="A10" s="178" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="21" t="s">
@@ -7720,7 +7719,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="168"/>
+      <c r="A11" s="181"/>
       <c r="B11" s="22"/>
       <c r="C11" s="23" t="s">
         <v>11</v>
@@ -7745,7 +7744,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="168"/>
+      <c r="A12" s="181"/>
       <c r="B12" s="22"/>
       <c r="C12" s="23" t="s">
         <v>12</v>
@@ -7770,7 +7769,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="168"/>
+      <c r="A13" s="181"/>
       <c r="B13" s="22"/>
       <c r="C13" s="23" t="s">
         <v>13</v>
@@ -7795,7 +7794,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="169"/>
+      <c r="A14" s="182"/>
       <c r="B14" s="24"/>
       <c r="C14" s="24" t="s">
         <v>19</v>
@@ -7859,16 +7858,16 @@
       <c r="A1" s="134"/>
       <c r="B1" s="135"/>
       <c r="C1" s="135"/>
-      <c r="D1" s="170" t="s">
+      <c r="D1" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="171"/>
-      <c r="F1" s="171"/>
-      <c r="G1" s="171" t="s">
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="171"/>
-      <c r="I1" s="172"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="185"/>
     </row>
     <row r="2" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="137"/>
@@ -8139,16 +8138,16 @@
       <c r="A2" s="53"/>
       <c r="B2" s="53"/>
       <c r="C2" s="53"/>
-      <c r="D2" s="173" t="s">
+      <c r="D2" s="186" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="174"/>
-      <c r="F2" s="175"/>
-      <c r="G2" s="173" t="s">
+      <c r="E2" s="187"/>
+      <c r="F2" s="188"/>
+      <c r="G2" s="186" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="174"/>
-      <c r="I2" s="175"/>
+      <c r="H2" s="187"/>
+      <c r="I2" s="188"/>
     </row>
     <row r="3" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="53"/>
@@ -8174,7 +8173,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="173" t="s">
+      <c r="A4" s="186" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="57" t="s">
@@ -8203,7 +8202,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="176"/>
+      <c r="A5" s="189"/>
       <c r="B5" s="61"/>
       <c r="C5" s="55" t="s">
         <v>11</v>
@@ -8216,7 +8215,7 @@
       <c r="I5" s="65"/>
     </row>
     <row r="6" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="176"/>
+      <c r="A6" s="189"/>
       <c r="B6" s="61"/>
       <c r="C6" s="55" t="s">
         <v>12</v>
@@ -8241,7 +8240,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="176"/>
+      <c r="A7" s="189"/>
       <c r="B7" s="61"/>
       <c r="C7" s="55" t="s">
         <v>13</v>
@@ -8266,7 +8265,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="176"/>
+      <c r="A8" s="189"/>
       <c r="B8" s="62"/>
       <c r="C8" s="62" t="s">
         <v>17</v>
@@ -8291,7 +8290,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="176"/>
+      <c r="A9" s="189"/>
       <c r="B9" s="57" t="s">
         <v>9</v>
       </c>
@@ -8318,7 +8317,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="176"/>
+      <c r="A10" s="189"/>
       <c r="B10" s="61"/>
       <c r="C10" s="55" t="s">
         <v>11</v>
@@ -8331,7 +8330,7 @@
       <c r="I10" s="82"/>
     </row>
     <row r="11" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="176"/>
+      <c r="A11" s="189"/>
       <c r="B11" s="61"/>
       <c r="C11" s="55" t="s">
         <v>12</v>
@@ -8356,7 +8355,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="176"/>
+      <c r="A12" s="189"/>
       <c r="B12" s="61"/>
       <c r="C12" s="55" t="s">
         <v>13</v>
@@ -8381,7 +8380,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="177"/>
+      <c r="A13" s="190"/>
       <c r="B13" s="66"/>
       <c r="C13" s="67" t="s">
         <v>18</v>
@@ -8417,7 +8416,7 @@
       <c r="I14" s="82"/>
     </row>
     <row r="15" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="173" t="s">
+      <c r="A15" s="186" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="57" t="s">
@@ -8449,7 +8448,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="176"/>
+      <c r="A16" s="189"/>
       <c r="B16" s="61"/>
       <c r="C16" s="55" t="s">
         <v>11</v>
@@ -8474,7 +8473,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="176"/>
+      <c r="A17" s="189"/>
       <c r="B17" s="61"/>
       <c r="C17" s="55" t="s">
         <v>12</v>
@@ -8499,7 +8498,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="176"/>
+      <c r="A18" s="189"/>
       <c r="B18" s="61"/>
       <c r="C18" s="55" t="s">
         <v>13</v>
@@ -8524,7 +8523,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="176"/>
+      <c r="A19" s="189"/>
       <c r="B19" s="61"/>
       <c r="C19" s="55" t="s">
         <v>127</v>
@@ -8549,7 +8548,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="176"/>
+      <c r="A20" s="189"/>
       <c r="B20" s="57" t="s">
         <v>9</v>
       </c>
@@ -8576,7 +8575,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="176"/>
+      <c r="A21" s="189"/>
       <c r="B21" s="61"/>
       <c r="C21" s="55" t="s">
         <v>11</v>
@@ -8601,7 +8600,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="176"/>
+      <c r="A22" s="189"/>
       <c r="B22" s="61"/>
       <c r="C22" s="55" t="s">
         <v>12</v>
@@ -8626,7 +8625,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="176"/>
+      <c r="A23" s="189"/>
       <c r="B23" s="61"/>
       <c r="C23" s="55" t="s">
         <v>13</v>
@@ -8651,7 +8650,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="177"/>
+      <c r="A24" s="190"/>
       <c r="B24" s="78"/>
       <c r="C24" s="78" t="s">
         <v>19</v>
@@ -8701,7 +8700,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -8709,8 +8708,8 @@
     <col min="1" max="1" width="12.59765625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.59765625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.8984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.8984375" style="4" hidden="1" customWidth="1"/>
+    <col min="5" max="6" width="13.19921875" style="4" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="11.8984375" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="8.796875" style="4"/>
@@ -8737,16 +8736,16 @@
       <c r="A2" s="160"/>
       <c r="B2" s="160"/>
       <c r="C2" s="160"/>
-      <c r="D2" s="165" t="s">
+      <c r="D2" s="178" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="166"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="165" t="s">
+      <c r="E2" s="179"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="178" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="166"/>
-      <c r="I2" s="167"/>
+      <c r="H2" s="179"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="160"/>
@@ -8771,8 +8770,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="182" t="s">
+    <row r="4" spans="1:9" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="166" t="s">
         <v>123</v>
       </c>
       <c r="B4" s="96" t="s">
@@ -8781,21 +8780,21 @@
       <c r="C4" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="183"/>
-      <c r="E4" s="183"/>
-      <c r="F4" s="184"/>
-      <c r="G4" s="185"/>
-      <c r="H4" s="186"/>
-      <c r="I4" s="187"/>
+      <c r="D4" s="167"/>
+      <c r="E4" s="167"/>
+      <c r="F4" s="168"/>
+      <c r="G4" s="169"/>
+      <c r="H4" s="170"/>
+      <c r="I4" s="171"/>
     </row>
     <row r="5" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="161" t="s">
         <v>124</v>
       </c>
-      <c r="B5" s="188" t="s">
+      <c r="B5" s="172" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="191" t="s">
+      <c r="C5" s="173" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="120">
@@ -8807,20 +8806,20 @@
       <c r="F5" s="120">
         <v>0.34</v>
       </c>
-      <c r="G5" s="189">
+      <c r="G5" s="192">
         <v>0.68</v>
       </c>
-      <c r="H5" s="189">
+      <c r="H5" s="192">
         <v>0.79</v>
       </c>
-      <c r="I5" s="190">
+      <c r="I5" s="193">
         <v>0.3</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="178"/>
+      <c r="A6" s="163"/>
       <c r="B6" s="22"/>
-      <c r="C6" s="192" t="s">
+      <c r="C6" s="174" t="s">
         <v>130</v>
       </c>
       <c r="D6" s="22"/>
@@ -8832,22 +8831,28 @@
       <c r="H6" s="125">
         <v>0.6</v>
       </c>
-      <c r="I6" s="179">
+      <c r="I6" s="164">
         <v>0.47</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="180"/>
+      <c r="A7" s="165"/>
       <c r="B7" s="25"/>
-      <c r="C7" s="193" t="s">
+      <c r="C7" s="175" t="s">
         <v>131</v>
       </c>
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
       <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="181"/>
+      <c r="G7" s="128">
+        <v>0.72</v>
+      </c>
+      <c r="H7" s="128">
+        <v>0.88</v>
+      </c>
+      <c r="I7" s="191">
+        <v>0.17</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8868,7 +8873,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -8903,16 +8908,16 @@
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
-      <c r="D2" s="165" t="s">
+      <c r="D2" s="178" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="166"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="165" t="s">
+      <c r="E2" s="179"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="178" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="166"/>
-      <c r="I2" s="167"/>
+      <c r="H2" s="179"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="11"/>
@@ -8938,7 +8943,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="165" t="s">
+      <c r="A4" s="178" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="94" t="s">
@@ -8955,7 +8960,7 @@
       <c r="I4" s="99"/>
     </row>
     <row r="5" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="168"/>
+      <c r="A5" s="181"/>
       <c r="B5" s="22"/>
       <c r="C5" s="23" t="s">
         <v>11</v>
@@ -8968,7 +8973,7 @@
       <c r="I5" s="101"/>
     </row>
     <row r="6" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="168"/>
+      <c r="A6" s="181"/>
       <c r="B6" s="22"/>
       <c r="C6" s="23" t="s">
         <v>12</v>
@@ -8981,7 +8986,7 @@
       <c r="I6" s="101"/>
     </row>
     <row r="7" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="168"/>
+      <c r="A7" s="181"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23" t="s">
         <v>13</v>
@@ -8994,7 +8999,7 @@
       <c r="I7" s="101"/>
     </row>
     <row r="8" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="169"/>
+      <c r="A8" s="182"/>
       <c r="B8" s="25"/>
       <c r="C8" s="26" t="s">
         <v>17</v>
@@ -9018,7 +9023,7 @@
       <c r="I9" s="40"/>
     </row>
     <row r="10" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="165" t="s">
+      <c r="A10" s="178" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="94" t="s">
@@ -9047,7 +9052,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="168"/>
+      <c r="A11" s="181"/>
       <c r="B11" s="22"/>
       <c r="C11" s="23" t="s">
         <v>11</v>
@@ -9072,7 +9077,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="168"/>
+      <c r="A12" s="181"/>
       <c r="B12" s="22"/>
       <c r="C12" s="23" t="s">
         <v>12</v>
@@ -9097,7 +9102,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="168"/>
+      <c r="A13" s="181"/>
       <c r="B13" s="22"/>
       <c r="C13" s="23" t="s">
         <v>13</v>
@@ -9122,7 +9127,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="169"/>
+      <c r="A14" s="182"/>
       <c r="B14" s="24"/>
       <c r="C14" s="24" t="s">
         <v>17</v>

--- a/model_performance.xlsx
+++ b/model_performance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="SBP+DBP廢" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <sheet name="Visit" sheetId="6" r:id="rId7"/>
     <sheet name="Case1p1r" sheetId="12" r:id="rId8"/>
     <sheet name="Case" sheetId="13" r:id="rId9"/>
+    <sheet name="ensemble" sheetId="14" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="143">
   <si>
     <t>seed</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -468,6 +469,43 @@
   </si>
   <si>
     <t>V1/V2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>XGB BIMMH1多數決</t>
+  </si>
+  <si>
+    <t>XGB BIMMH1聯集(任一個是0結果就是0)</t>
+  </si>
+  <si>
+    <t>XGB BIMMH1聯集(任一個是1結果就是1)</t>
+  </si>
+  <si>
+    <t>準確度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏感度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特異度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF XGB Logistic聯集(任一個是1結果就是1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF XGB Logistic多數決</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF XGB Logistic聯集(任一個是0結果就是0)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>對模型預測結果做ensemble</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -800,7 +838,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="194">
+  <cellXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1366,6 +1404,12 @@
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4606,6 +4650,127 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="48.5" style="194" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="17.59765625" style="194" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.796875" style="194"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="194" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B2" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="194" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="195">
+        <v>0.73333333333333295</v>
+      </c>
+      <c r="C3" s="195">
+        <v>0.89024390243902396</v>
+      </c>
+      <c r="D3" s="195">
+        <v>0.173913043478261</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="194" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" s="195">
+        <v>0.56190476190476202</v>
+      </c>
+      <c r="C4" s="195">
+        <v>0.54878048780487798</v>
+      </c>
+      <c r="D4" s="195">
+        <v>0.60869565217391297</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="194" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="195">
+        <v>0.68571428571428605</v>
+      </c>
+      <c r="C5" s="195">
+        <v>0.80487804878048796</v>
+      </c>
+      <c r="D5" s="195">
+        <v>0.26086956521739102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="194" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="195">
+        <v>0.69523809523809499</v>
+      </c>
+      <c r="C6" s="195">
+        <v>0.86585365853658502</v>
+      </c>
+      <c r="D6" s="195">
+        <v>8.6956521739130405E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="194" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" s="195">
+        <v>0.76190476190476197</v>
+      </c>
+      <c r="C7" s="195">
+        <v>0.97560975609756095</v>
+      </c>
+      <c r="D7" s="195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="194" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" s="195">
+        <v>0.64761904761904798</v>
+      </c>
+      <c r="C8" s="195">
+        <v>0.75609756097560998</v>
+      </c>
+      <c r="D8" s="195">
+        <v>0.26086956521739102</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L65"/>
@@ -8101,7 +8266,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H27" sqref="H27"/>
+      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8699,8 +8864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -8873,7 +9038,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomRight" activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>

--- a/model_performance.xlsx
+++ b/model_performance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="3" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="SBP+DBP廢" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="Case1p1r" sheetId="12" r:id="rId8"/>
     <sheet name="Case" sheetId="13" r:id="rId9"/>
     <sheet name="ensemble" sheetId="14" r:id="rId10"/>
+    <sheet name="2stage ensemble" sheetId="15" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="163">
   <si>
     <t>seed</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -478,9 +479,6 @@
     <t>XGB BIMMH1聯集(任一個是0結果就是0)</t>
   </si>
   <si>
-    <t>XGB BIMMH1聯集(任一個是1結果就是1)</t>
-  </si>
-  <si>
     <t>準確度</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -506,6 +504,90 @@
   </si>
   <si>
     <t>對模型預測結果做ensemble</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>XGB BIMMH1聯集(任一個是1結果就是1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>XGB Logistic BIMMH1多數決</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>XGB Logistic BIMMH1聯集(任一個是0結果就是0)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>XGB Logistic BIMMH1聯集(任一個是1結果就是1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Logistic BIMMH1多數決</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Logistic BIMMH1聯集(任一個是1結果就是1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Logistic BIMMH1聯集(任一個是0結果就是0)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>logistic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-stage (logistic =1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-stage(XGB=1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>結果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-stage (logistic =0)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"=任1個有0結果為0"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"=任一個有1結果為1"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-stage (logistic =1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-stage(XGB=0)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-stage (logistic =0)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-stage(XGB=0)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>XGB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-stage (XGB =1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-stage(logistic=1)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -838,7 +920,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="196">
+  <cellXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1351,6 +1433,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1396,19 +1493,7 @@
     <xf numFmtId="10" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4128,21 +4213,21 @@
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="177" t="s">
+      <c r="D2" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
-      <c r="G2" s="177" t="s">
+      <c r="E2" s="182"/>
+      <c r="F2" s="182"/>
+      <c r="G2" s="182" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="177"/>
-      <c r="I2" s="177"/>
-      <c r="J2" s="176" t="s">
+      <c r="H2" s="182"/>
+      <c r="I2" s="182"/>
+      <c r="J2" s="181" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="176"/>
-      <c r="L2" s="176"/>
+      <c r="K2" s="181"/>
+      <c r="L2" s="181"/>
     </row>
     <row r="3" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
@@ -4177,7 +4262,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="182" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -4197,7 +4282,7 @@
       <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="177"/>
+      <c r="A5" s="182"/>
       <c r="B5" s="4"/>
       <c r="C5" s="3" t="s">
         <v>11</v>
@@ -4213,7 +4298,7 @@
       <c r="L5" s="6"/>
     </row>
     <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="177"/>
+      <c r="A6" s="182"/>
       <c r="B6" s="4"/>
       <c r="C6" s="3" t="s">
         <v>12</v>
@@ -4229,7 +4314,7 @@
       <c r="L6" s="6"/>
     </row>
     <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="177"/>
+      <c r="A7" s="182"/>
       <c r="B7" s="4"/>
       <c r="C7" s="3" t="s">
         <v>13</v>
@@ -4245,7 +4330,7 @@
       <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="177"/>
+      <c r="A8" s="182"/>
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
@@ -4275,7 +4360,7 @@
       <c r="L8" s="6"/>
     </row>
     <row r="9" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="177"/>
+      <c r="A9" s="182"/>
       <c r="B9" s="4"/>
       <c r="C9" s="3" t="s">
         <v>11</v>
@@ -4303,7 +4388,7 @@
       <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="177"/>
+      <c r="A10" s="182"/>
       <c r="B10" s="4"/>
       <c r="C10" s="3" t="s">
         <v>12</v>
@@ -4331,7 +4416,7 @@
       <c r="L10" s="6"/>
     </row>
     <row r="11" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="177"/>
+      <c r="A11" s="182"/>
       <c r="B11" s="4"/>
       <c r="C11" s="3" t="s">
         <v>13</v>
@@ -4359,7 +4444,7 @@
       <c r="L11" s="6"/>
     </row>
     <row r="12" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="177" t="s">
+      <c r="A12" s="182" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -4397,7 +4482,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="177"/>
+      <c r="A13" s="182"/>
       <c r="B13" s="4"/>
       <c r="C13" s="3" t="s">
         <v>11</v>
@@ -4431,7 +4516,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="177"/>
+      <c r="A14" s="182"/>
       <c r="B14" s="4"/>
       <c r="C14" s="3" t="s">
         <v>12</v>
@@ -4465,7 +4550,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="177"/>
+      <c r="A15" s="182"/>
       <c r="B15" s="4"/>
       <c r="C15" s="3" t="s">
         <v>13</v>
@@ -4499,7 +4584,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="177"/>
+      <c r="A16" s="182"/>
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
@@ -4535,7 +4620,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="177"/>
+      <c r="A17" s="182"/>
       <c r="B17" s="4"/>
       <c r="C17" s="3" t="s">
         <v>11</v>
@@ -4569,7 +4654,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="177"/>
+      <c r="A18" s="182"/>
       <c r="B18" s="4"/>
       <c r="C18" s="3" t="s">
         <v>12</v>
@@ -4603,7 +4688,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="177"/>
+      <c r="A19" s="182"/>
       <c r="B19" s="4"/>
       <c r="C19" s="3" t="s">
         <v>13</v>
@@ -4652,117 +4737,549 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="48.5" style="194" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="17.59765625" style="194" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.796875" style="194"/>
+    <col min="1" max="1" width="58.5" style="179" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="17.59765625" style="179" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.796875" style="179"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="194" t="s">
-        <v>142</v>
+      <c r="A1" s="179" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="D2" s="11" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="179" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="194" t="s">
+      <c r="B3" s="180">
+        <v>0.73333333333333295</v>
+      </c>
+      <c r="C3" s="180">
+        <v>0.89024390243902396</v>
+      </c>
+      <c r="D3" s="180">
+        <v>0.173913043478261</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="179" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="180">
+        <v>0.56190476190476202</v>
+      </c>
+      <c r="C4" s="180">
+        <v>0.54878048780487798</v>
+      </c>
+      <c r="D4" s="180">
+        <v>0.60869565217391297</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="179" t="s">
         <v>139</v>
       </c>
-      <c r="B3" s="195">
-        <v>0.73333333333333295</v>
-      </c>
-      <c r="C3" s="195">
-        <v>0.89024390243902396</v>
-      </c>
-      <c r="D3" s="195">
-        <v>0.173913043478261</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="194" t="s">
-        <v>141</v>
-      </c>
-      <c r="B4" s="195">
-        <v>0.56190476190476202</v>
-      </c>
-      <c r="C4" s="195">
-        <v>0.54878048780487798</v>
-      </c>
-      <c r="D4" s="195">
-        <v>0.60869565217391297</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="194" t="s">
-        <v>140</v>
-      </c>
-      <c r="B5" s="195">
+      <c r="B5" s="180">
         <v>0.68571428571428605</v>
       </c>
-      <c r="C5" s="195">
+      <c r="C5" s="180">
         <v>0.80487804878048796</v>
       </c>
-      <c r="D5" s="195">
+      <c r="D5" s="180">
         <v>0.26086956521739102</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="194" t="s">
+      <c r="A6" s="179" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="195">
+      <c r="B6" s="180">
         <v>0.69523809523809499</v>
       </c>
-      <c r="C6" s="195">
+      <c r="C6" s="180">
         <v>0.86585365853658502</v>
       </c>
-      <c r="D6" s="195">
+      <c r="D6" s="180">
         <v>8.6956521739130405E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="194" t="s">
-        <v>135</v>
-      </c>
-      <c r="B7" s="195">
+      <c r="A7" s="179" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="180">
         <v>0.76190476190476197</v>
       </c>
-      <c r="C7" s="195">
+      <c r="C7" s="180">
         <v>0.97560975609756095</v>
       </c>
-      <c r="D7" s="195">
+      <c r="D7" s="180">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="194" t="s">
+      <c r="A8" s="179" t="s">
         <v>134</v>
       </c>
-      <c r="B8" s="195">
+      <c r="B8" s="180">
         <v>0.64761904761904798</v>
       </c>
-      <c r="C8" s="195">
+      <c r="C8" s="180">
         <v>0.75609756097560998</v>
       </c>
-      <c r="D8" s="195">
+      <c r="D8" s="180">
         <v>0.26086956521739102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="179" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="179" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="179" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="179" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="179" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="179" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="9.09765625" style="196" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.59765625" style="196" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.296875" style="196" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" style="196" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.09765625" style="196" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.796875" style="196"/>
+    <col min="8" max="8" width="6" style="196" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.09765625" style="196" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.59765625" style="196" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.296875" style="196" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6" style="196" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.09765625" style="196" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.796875" style="196"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="196" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="196" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="196" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" s="196" t="s">
+        <v>151</v>
+      </c>
+      <c r="E1" s="196" t="s">
+        <v>152</v>
+      </c>
+      <c r="F1" s="196" t="s">
+        <v>155</v>
+      </c>
+      <c r="H1" s="196" t="s">
+        <v>160</v>
+      </c>
+      <c r="I1" s="196" t="s">
+        <v>149</v>
+      </c>
+      <c r="J1" s="196" t="s">
+        <v>161</v>
+      </c>
+      <c r="K1" s="196" t="s">
+        <v>162</v>
+      </c>
+      <c r="L1" s="196" t="s">
+        <v>152</v>
+      </c>
+      <c r="M1" s="196" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="196">
+        <v>1</v>
+      </c>
+      <c r="B2" s="196">
+        <v>1</v>
+      </c>
+      <c r="C2" s="196">
+        <v>1</v>
+      </c>
+      <c r="E2" s="196">
+        <v>1</v>
+      </c>
+      <c r="H2" s="196">
+        <v>1</v>
+      </c>
+      <c r="I2" s="196">
+        <v>1</v>
+      </c>
+      <c r="J2" s="196">
+        <v>1</v>
+      </c>
+      <c r="L2" s="196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="196">
+        <v>0</v>
+      </c>
+      <c r="B3" s="196">
+        <v>0</v>
+      </c>
+      <c r="D3" s="196">
+        <v>0</v>
+      </c>
+      <c r="E3" s="196">
+        <v>0</v>
+      </c>
+      <c r="H3" s="196">
+        <v>0</v>
+      </c>
+      <c r="I3" s="196">
+        <v>0</v>
+      </c>
+      <c r="K3" s="196">
+        <v>0</v>
+      </c>
+      <c r="L3" s="196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" s="196">
+        <v>1</v>
+      </c>
+      <c r="B4" s="196">
+        <v>0</v>
+      </c>
+      <c r="C4" s="196">
+        <v>1</v>
+      </c>
+      <c r="E4" s="196">
+        <v>1</v>
+      </c>
+      <c r="H4" s="196">
+        <v>1</v>
+      </c>
+      <c r="I4" s="196">
+        <v>0</v>
+      </c>
+      <c r="J4" s="196">
+        <v>1</v>
+      </c>
+      <c r="L4" s="196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" s="196">
+        <v>0</v>
+      </c>
+      <c r="B5" s="196">
+        <v>1</v>
+      </c>
+      <c r="D5" s="196">
+        <v>1</v>
+      </c>
+      <c r="E5" s="196">
+        <v>1</v>
+      </c>
+      <c r="H5" s="196">
+        <v>0</v>
+      </c>
+      <c r="I5" s="196">
+        <v>1</v>
+      </c>
+      <c r="K5" s="196">
+        <v>1</v>
+      </c>
+      <c r="L5" s="196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" s="196" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7" s="196" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" s="196" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7" s="196" t="s">
+        <v>151</v>
+      </c>
+      <c r="E7" s="196" t="s">
+        <v>152</v>
+      </c>
+      <c r="F7" s="196" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" s="196">
+        <v>1</v>
+      </c>
+      <c r="B8" s="196">
+        <v>1</v>
+      </c>
+      <c r="D8" s="196">
+        <v>1</v>
+      </c>
+      <c r="E8" s="196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" s="196">
+        <v>0</v>
+      </c>
+      <c r="B9" s="196">
+        <v>0</v>
+      </c>
+      <c r="C9" s="196">
+        <v>0</v>
+      </c>
+      <c r="E9" s="196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" s="196">
+        <v>1</v>
+      </c>
+      <c r="B10" s="196">
+        <v>0</v>
+      </c>
+      <c r="D10" s="196">
+        <v>0</v>
+      </c>
+      <c r="E10" s="196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" s="196">
+        <v>0</v>
+      </c>
+      <c r="B11" s="196">
+        <v>1</v>
+      </c>
+      <c r="C11" s="196">
+        <v>0</v>
+      </c>
+      <c r="E11" s="196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" s="196" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" s="196" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" s="196" t="s">
+        <v>156</v>
+      </c>
+      <c r="D13" s="196" t="s">
+        <v>157</v>
+      </c>
+      <c r="E13" s="196" t="s">
+        <v>152</v>
+      </c>
+      <c r="F13" s="196" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" s="196">
+        <v>1</v>
+      </c>
+      <c r="B14" s="196">
+        <v>1</v>
+      </c>
+      <c r="C14" s="196">
+        <v>1</v>
+      </c>
+      <c r="E14" s="196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" s="196">
+        <v>0</v>
+      </c>
+      <c r="B15" s="196">
+        <v>0</v>
+      </c>
+      <c r="D15" s="196">
+        <v>0</v>
+      </c>
+      <c r="E15" s="196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" s="196">
+        <v>1</v>
+      </c>
+      <c r="B16" s="196">
+        <v>0</v>
+      </c>
+      <c r="C16" s="196">
+        <v>1</v>
+      </c>
+      <c r="E16" s="196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="196">
+        <v>0</v>
+      </c>
+      <c r="B17" s="196">
+        <v>1</v>
+      </c>
+      <c r="D17" s="196">
+        <v>1</v>
+      </c>
+      <c r="E17" s="196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="196" t="s">
+        <v>149</v>
+      </c>
+      <c r="B19" s="196" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" s="196" t="s">
+        <v>158</v>
+      </c>
+      <c r="D19" s="196" t="s">
+        <v>159</v>
+      </c>
+      <c r="E19" s="196" t="s">
+        <v>152</v>
+      </c>
+      <c r="F19" s="196" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="196">
+        <v>1</v>
+      </c>
+      <c r="B20" s="196">
+        <v>1</v>
+      </c>
+      <c r="D20" s="196">
+        <v>1</v>
+      </c>
+      <c r="E20" s="196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="196">
+        <v>0</v>
+      </c>
+      <c r="B21" s="196">
+        <v>0</v>
+      </c>
+      <c r="C21" s="196">
+        <v>0</v>
+      </c>
+      <c r="E21" s="196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="196">
+        <v>1</v>
+      </c>
+      <c r="B22" s="196">
+        <v>0</v>
+      </c>
+      <c r="D22" s="196">
+        <v>0</v>
+      </c>
+      <c r="E22" s="196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="196">
+        <v>0</v>
+      </c>
+      <c r="B23" s="196">
+        <v>1</v>
+      </c>
+      <c r="C23" s="196">
+        <v>0</v>
+      </c>
+      <c r="E23" s="196">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7692,16 +8209,16 @@
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
-      <c r="D2" s="178" t="s">
+      <c r="D2" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="179"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="178" t="s">
+      <c r="E2" s="184"/>
+      <c r="F2" s="185"/>
+      <c r="G2" s="183" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="179"/>
-      <c r="I2" s="180"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="185"/>
     </row>
     <row r="3" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="11"/>
@@ -7727,7 +8244,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="178" t="s">
+      <c r="A4" s="183" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="21" t="s">
@@ -7756,7 +8273,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="181"/>
+      <c r="A5" s="186"/>
       <c r="B5" s="22"/>
       <c r="C5" s="23" t="s">
         <v>11</v>
@@ -7769,7 +8286,7 @@
       <c r="I5" s="35"/>
     </row>
     <row r="6" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="181"/>
+      <c r="A6" s="186"/>
       <c r="B6" s="22"/>
       <c r="C6" s="23" t="s">
         <v>12</v>
@@ -7794,7 +8311,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="181"/>
+      <c r="A7" s="186"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23" t="s">
         <v>13</v>
@@ -7819,7 +8336,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="182"/>
+      <c r="A8" s="187"/>
       <c r="B8" s="25"/>
       <c r="C8" s="26" t="s">
         <v>18</v>
@@ -7855,7 +8372,7 @@
       <c r="I9" s="40"/>
     </row>
     <row r="10" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="178" t="s">
+      <c r="A10" s="183" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="21" t="s">
@@ -7884,7 +8401,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="181"/>
+      <c r="A11" s="186"/>
       <c r="B11" s="22"/>
       <c r="C11" s="23" t="s">
         <v>11</v>
@@ -7909,7 +8426,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="181"/>
+      <c r="A12" s="186"/>
       <c r="B12" s="22"/>
       <c r="C12" s="23" t="s">
         <v>12</v>
@@ -7934,7 +8451,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="181"/>
+      <c r="A13" s="186"/>
       <c r="B13" s="22"/>
       <c r="C13" s="23" t="s">
         <v>13</v>
@@ -7959,7 +8476,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="182"/>
+      <c r="A14" s="187"/>
       <c r="B14" s="24"/>
       <c r="C14" s="24" t="s">
         <v>19</v>
@@ -8023,16 +8540,16 @@
       <c r="A1" s="134"/>
       <c r="B1" s="135"/>
       <c r="C1" s="135"/>
-      <c r="D1" s="183" t="s">
+      <c r="D1" s="188" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184" t="s">
+      <c r="E1" s="189"/>
+      <c r="F1" s="189"/>
+      <c r="G1" s="189" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="184"/>
-      <c r="I1" s="185"/>
+      <c r="H1" s="189"/>
+      <c r="I1" s="190"/>
     </row>
     <row r="2" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="137"/>
@@ -8303,16 +8820,16 @@
       <c r="A2" s="53"/>
       <c r="B2" s="53"/>
       <c r="C2" s="53"/>
-      <c r="D2" s="186" t="s">
+      <c r="D2" s="191" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="187"/>
-      <c r="F2" s="188"/>
-      <c r="G2" s="186" t="s">
+      <c r="E2" s="192"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="191" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="187"/>
-      <c r="I2" s="188"/>
+      <c r="H2" s="192"/>
+      <c r="I2" s="193"/>
     </row>
     <row r="3" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="53"/>
@@ -8338,7 +8855,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="186" t="s">
+      <c r="A4" s="191" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="57" t="s">
@@ -8367,7 +8884,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="189"/>
+      <c r="A5" s="194"/>
       <c r="B5" s="61"/>
       <c r="C5" s="55" t="s">
         <v>11</v>
@@ -8380,7 +8897,7 @@
       <c r="I5" s="65"/>
     </row>
     <row r="6" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="189"/>
+      <c r="A6" s="194"/>
       <c r="B6" s="61"/>
       <c r="C6" s="55" t="s">
         <v>12</v>
@@ -8405,7 +8922,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="189"/>
+      <c r="A7" s="194"/>
       <c r="B7" s="61"/>
       <c r="C7" s="55" t="s">
         <v>13</v>
@@ -8430,7 +8947,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="189"/>
+      <c r="A8" s="194"/>
       <c r="B8" s="62"/>
       <c r="C8" s="62" t="s">
         <v>17</v>
@@ -8455,7 +8972,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="189"/>
+      <c r="A9" s="194"/>
       <c r="B9" s="57" t="s">
         <v>9</v>
       </c>
@@ -8482,7 +8999,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="189"/>
+      <c r="A10" s="194"/>
       <c r="B10" s="61"/>
       <c r="C10" s="55" t="s">
         <v>11</v>
@@ -8495,7 +9012,7 @@
       <c r="I10" s="82"/>
     </row>
     <row r="11" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="189"/>
+      <c r="A11" s="194"/>
       <c r="B11" s="61"/>
       <c r="C11" s="55" t="s">
         <v>12</v>
@@ -8520,7 +9037,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="189"/>
+      <c r="A12" s="194"/>
       <c r="B12" s="61"/>
       <c r="C12" s="55" t="s">
         <v>13</v>
@@ -8545,7 +9062,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="190"/>
+      <c r="A13" s="195"/>
       <c r="B13" s="66"/>
       <c r="C13" s="67" t="s">
         <v>18</v>
@@ -8581,7 +9098,7 @@
       <c r="I14" s="82"/>
     </row>
     <row r="15" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="186" t="s">
+      <c r="A15" s="191" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="57" t="s">
@@ -8613,7 +9130,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="189"/>
+      <c r="A16" s="194"/>
       <c r="B16" s="61"/>
       <c r="C16" s="55" t="s">
         <v>11</v>
@@ -8638,7 +9155,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="189"/>
+      <c r="A17" s="194"/>
       <c r="B17" s="61"/>
       <c r="C17" s="55" t="s">
         <v>12</v>
@@ -8663,7 +9180,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="189"/>
+      <c r="A18" s="194"/>
       <c r="B18" s="61"/>
       <c r="C18" s="55" t="s">
         <v>13</v>
@@ -8688,7 +9205,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="189"/>
+      <c r="A19" s="194"/>
       <c r="B19" s="61"/>
       <c r="C19" s="55" t="s">
         <v>127</v>
@@ -8713,7 +9230,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="189"/>
+      <c r="A20" s="194"/>
       <c r="B20" s="57" t="s">
         <v>9</v>
       </c>
@@ -8740,7 +9257,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="189"/>
+      <c r="A21" s="194"/>
       <c r="B21" s="61"/>
       <c r="C21" s="55" t="s">
         <v>11</v>
@@ -8765,7 +9282,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="189"/>
+      <c r="A22" s="194"/>
       <c r="B22" s="61"/>
       <c r="C22" s="55" t="s">
         <v>12</v>
@@ -8790,7 +9307,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="189"/>
+      <c r="A23" s="194"/>
       <c r="B23" s="61"/>
       <c r="C23" s="55" t="s">
         <v>13</v>
@@ -8815,7 +9332,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="190"/>
+      <c r="A24" s="195"/>
       <c r="B24" s="78"/>
       <c r="C24" s="78" t="s">
         <v>19</v>
@@ -8865,7 +9382,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -8901,16 +9418,16 @@
       <c r="A2" s="160"/>
       <c r="B2" s="160"/>
       <c r="C2" s="160"/>
-      <c r="D2" s="178" t="s">
+      <c r="D2" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="179"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="178" t="s">
+      <c r="E2" s="184"/>
+      <c r="F2" s="185"/>
+      <c r="G2" s="183" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="179"/>
-      <c r="I2" s="180"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="185"/>
     </row>
     <row r="3" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="160"/>
@@ -8971,13 +9488,13 @@
       <c r="F5" s="120">
         <v>0.34</v>
       </c>
-      <c r="G5" s="192">
+      <c r="G5" s="177">
         <v>0.68</v>
       </c>
-      <c r="H5" s="192">
+      <c r="H5" s="177">
         <v>0.79</v>
       </c>
-      <c r="I5" s="193">
+      <c r="I5" s="178">
         <v>0.3</v>
       </c>
     </row>
@@ -9015,7 +9532,7 @@
       <c r="H7" s="128">
         <v>0.88</v>
       </c>
-      <c r="I7" s="191">
+      <c r="I7" s="176">
         <v>0.17</v>
       </c>
     </row>
@@ -9073,16 +9590,16 @@
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
-      <c r="D2" s="178" t="s">
+      <c r="D2" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="179"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="178" t="s">
+      <c r="E2" s="184"/>
+      <c r="F2" s="185"/>
+      <c r="G2" s="183" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="179"/>
-      <c r="I2" s="180"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="185"/>
     </row>
     <row r="3" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="11"/>
@@ -9108,7 +9625,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="178" t="s">
+      <c r="A4" s="183" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="94" t="s">
@@ -9125,7 +9642,7 @@
       <c r="I4" s="99"/>
     </row>
     <row r="5" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="181"/>
+      <c r="A5" s="186"/>
       <c r="B5" s="22"/>
       <c r="C5" s="23" t="s">
         <v>11</v>
@@ -9138,7 +9655,7 @@
       <c r="I5" s="101"/>
     </row>
     <row r="6" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="181"/>
+      <c r="A6" s="186"/>
       <c r="B6" s="22"/>
       <c r="C6" s="23" t="s">
         <v>12</v>
@@ -9151,7 +9668,7 @@
       <c r="I6" s="101"/>
     </row>
     <row r="7" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="181"/>
+      <c r="A7" s="186"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23" t="s">
         <v>13</v>
@@ -9164,7 +9681,7 @@
       <c r="I7" s="101"/>
     </row>
     <row r="8" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="182"/>
+      <c r="A8" s="187"/>
       <c r="B8" s="25"/>
       <c r="C8" s="26" t="s">
         <v>17</v>
@@ -9188,7 +9705,7 @@
       <c r="I9" s="40"/>
     </row>
     <row r="10" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="178" t="s">
+      <c r="A10" s="183" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="94" t="s">
@@ -9217,7 +9734,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="181"/>
+      <c r="A11" s="186"/>
       <c r="B11" s="22"/>
       <c r="C11" s="23" t="s">
         <v>11</v>
@@ -9242,7 +9759,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="181"/>
+      <c r="A12" s="186"/>
       <c r="B12" s="22"/>
       <c r="C12" s="23" t="s">
         <v>12</v>
@@ -9267,7 +9784,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="181"/>
+      <c r="A13" s="186"/>
       <c r="B13" s="22"/>
       <c r="C13" s="23" t="s">
         <v>13</v>
@@ -9292,7 +9809,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="182"/>
+      <c r="A14" s="187"/>
       <c r="B14" s="24"/>
       <c r="C14" s="24" t="s">
         <v>17</v>

--- a/model_performance.xlsx
+++ b/model_performance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="3" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="SBP+DBP廢" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="166">
   <si>
     <t>seed</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -511,30 +511,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>XGB Logistic BIMMH1多數決</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>XGB Logistic BIMMH1聯集(任一個是0結果就是0)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>XGB Logistic BIMMH1聯集(任一個是1結果就是1)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Logistic BIMMH1多數決</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Logistic BIMMH1聯集(任一個是1結果就是1)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Logistic BIMMH1聯集(任一個是0結果就是0)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>logistic</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -588,6 +564,42 @@
   </si>
   <si>
     <t>2-stage(logistic=1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-stage(logistic=0)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-stage (XGB =0)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-stage(logistic=1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>XGB Logistic聯集(任一個是1結果就是1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>XGB Logistic聯集(任一個是0結果就是0)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF  Logistic聯集(任一個是0結果就是0)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF  Logistic聯集(任一個是1結果就是1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF XGB聯集(任一個是1結果就是1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF XGB聯集(任一個是0結果就是0)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -599,7 +611,7 @@
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -673,6 +685,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <u val="double"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="微軟正黑體"/>
       <family val="2"/>
       <charset val="136"/>
@@ -920,7 +940,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1448,6 +1468,9 @@
     <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1493,7 +1516,10 @@
     <xf numFmtId="10" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4213,21 +4239,21 @@
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="182" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="182"/>
-      <c r="F2" s="182"/>
-      <c r="G2" s="182" t="s">
+      <c r="D2" s="183" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="183"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="183" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="182"/>
-      <c r="I2" s="182"/>
-      <c r="J2" s="181" t="s">
+      <c r="H2" s="183"/>
+      <c r="I2" s="183"/>
+      <c r="J2" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="181"/>
-      <c r="L2" s="181"/>
+      <c r="K2" s="182"/>
+      <c r="L2" s="182"/>
     </row>
     <row r="3" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
@@ -4262,7 +4288,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="182" t="s">
+      <c r="A4" s="183" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -4282,7 +4308,7 @@
       <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="182"/>
+      <c r="A5" s="183"/>
       <c r="B5" s="4"/>
       <c r="C5" s="3" t="s">
         <v>11</v>
@@ -4298,7 +4324,7 @@
       <c r="L5" s="6"/>
     </row>
     <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="182"/>
+      <c r="A6" s="183"/>
       <c r="B6" s="4"/>
       <c r="C6" s="3" t="s">
         <v>12</v>
@@ -4314,7 +4340,7 @@
       <c r="L6" s="6"/>
     </row>
     <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="182"/>
+      <c r="A7" s="183"/>
       <c r="B7" s="4"/>
       <c r="C7" s="3" t="s">
         <v>13</v>
@@ -4330,7 +4356,7 @@
       <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="182"/>
+      <c r="A8" s="183"/>
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
@@ -4360,7 +4386,7 @@
       <c r="L8" s="6"/>
     </row>
     <row r="9" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="182"/>
+      <c r="A9" s="183"/>
       <c r="B9" s="4"/>
       <c r="C9" s="3" t="s">
         <v>11</v>
@@ -4388,7 +4414,7 @@
       <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="182"/>
+      <c r="A10" s="183"/>
       <c r="B10" s="4"/>
       <c r="C10" s="3" t="s">
         <v>12</v>
@@ -4416,7 +4442,7 @@
       <c r="L10" s="6"/>
     </row>
     <row r="11" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="182"/>
+      <c r="A11" s="183"/>
       <c r="B11" s="4"/>
       <c r="C11" s="3" t="s">
         <v>13</v>
@@ -4444,7 +4470,7 @@
       <c r="L11" s="6"/>
     </row>
     <row r="12" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="182" t="s">
+      <c r="A12" s="183" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -4482,7 +4508,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="182"/>
+      <c r="A13" s="183"/>
       <c r="B13" s="4"/>
       <c r="C13" s="3" t="s">
         <v>11</v>
@@ -4516,7 +4542,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="182"/>
+      <c r="A14" s="183"/>
       <c r="B14" s="4"/>
       <c r="C14" s="3" t="s">
         <v>12</v>
@@ -4550,7 +4576,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="182"/>
+      <c r="A15" s="183"/>
       <c r="B15" s="4"/>
       <c r="C15" s="3" t="s">
         <v>13</v>
@@ -4584,7 +4610,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="182"/>
+      <c r="A16" s="183"/>
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
@@ -4620,7 +4646,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="182"/>
+      <c r="A17" s="183"/>
       <c r="B17" s="4"/>
       <c r="C17" s="3" t="s">
         <v>11</v>
@@ -4654,7 +4680,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="182"/>
+      <c r="A18" s="183"/>
       <c r="B18" s="4"/>
       <c r="C18" s="3" t="s">
         <v>12</v>
@@ -4688,7 +4714,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="182"/>
+      <c r="A19" s="183"/>
       <c r="B19" s="4"/>
       <c r="C19" s="3" t="s">
         <v>13</v>
@@ -4739,15 +4765,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="58.5" style="179" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="17.59765625" style="179" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.796875" style="179"/>
+    <col min="2" max="4" width="17.59765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.796875" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -4770,13 +4796,13 @@
       <c r="A3" s="179" t="s">
         <v>138</v>
       </c>
-      <c r="B3" s="180">
+      <c r="B3" s="198">
         <v>0.73333333333333295</v>
       </c>
-      <c r="C3" s="180">
+      <c r="C3" s="198">
         <v>0.89024390243902396</v>
       </c>
-      <c r="D3" s="180">
+      <c r="D3" s="198">
         <v>0.173913043478261</v>
       </c>
     </row>
@@ -4852,32 +4878,86 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="179" t="s">
-        <v>143</v>
+        <v>160</v>
+      </c>
+      <c r="B9" s="198">
+        <v>0.73333333333333295</v>
+      </c>
+      <c r="C9" s="198">
+        <v>0.89024390243902396</v>
+      </c>
+      <c r="D9" s="198">
+        <v>0.173913043478261</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="179" t="s">
-        <v>145</v>
+        <v>161</v>
+      </c>
+      <c r="B10" s="180">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="C10" s="180">
+        <v>0.59756097560975596</v>
+      </c>
+      <c r="D10" s="180">
+        <v>0.47826086956521702</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="179" t="s">
-        <v>144</v>
+        <v>163</v>
+      </c>
+      <c r="B11" s="180">
+        <v>0.68571428571428605</v>
+      </c>
+      <c r="C11" s="180">
+        <v>0.80487804878048796</v>
+      </c>
+      <c r="D11" s="180">
+        <v>0.26086956521739102</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="179" t="s">
-        <v>146</v>
+        <v>162</v>
+      </c>
+      <c r="B12" s="180">
+        <v>0.56190476190476202</v>
+      </c>
+      <c r="C12" s="180">
+        <v>0.54878048780487798</v>
+      </c>
+      <c r="D12" s="180">
+        <v>0.60869565217391297</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="179" t="s">
-        <v>147</v>
+        <v>164</v>
+      </c>
+      <c r="B13" s="198">
+        <v>0.73333333333333295</v>
+      </c>
+      <c r="C13" s="198">
+        <v>0.89024390243902396</v>
+      </c>
+      <c r="D13" s="198">
+        <v>0.173913043478261</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="179" t="s">
-        <v>148</v>
+        <v>165</v>
+      </c>
+      <c r="B14" s="180">
+        <v>0.67619047619047601</v>
+      </c>
+      <c r="C14" s="180">
+        <v>0.75609756097560998</v>
+      </c>
+      <c r="D14" s="180">
+        <v>0.39130434782608697</v>
       </c>
     </row>
   </sheetData>
@@ -4891,400 +4971,600 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="9.09765625" style="196" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.59765625" style="196" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.296875" style="196" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" style="196" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.09765625" style="196" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.796875" style="196"/>
-    <col min="8" max="8" width="6" style="196" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.09765625" style="196" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.59765625" style="196" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.296875" style="196" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6" style="196" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.09765625" style="196" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.796875" style="196"/>
+    <col min="1" max="1" width="9.09765625" style="181" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" style="181" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.59765625" style="181" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.8984375" style="181" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" style="181" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.09765625" style="181" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.796875" style="181" customWidth="1"/>
+    <col min="8" max="8" width="6" style="181" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.09765625" style="181" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.19921875" style="181" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.296875" style="181" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6" style="181" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.09765625" style="181" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.796875" style="181"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="196" t="s">
+      <c r="A1" s="181" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="181" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="181" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" s="181" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1" s="181" t="s">
+        <v>146</v>
+      </c>
+      <c r="F1" s="181" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="196" t="s">
+      <c r="H1" s="181" t="s">
+        <v>154</v>
+      </c>
+      <c r="I1" s="181" t="s">
+        <v>143</v>
+      </c>
+      <c r="J1" s="181" t="s">
+        <v>155</v>
+      </c>
+      <c r="K1" s="181" t="s">
+        <v>156</v>
+      </c>
+      <c r="L1" s="181" t="s">
+        <v>146</v>
+      </c>
+      <c r="M1" s="181" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="181">
+        <v>1</v>
+      </c>
+      <c r="B2" s="181">
+        <v>1</v>
+      </c>
+      <c r="C2" s="181">
+        <v>1</v>
+      </c>
+      <c r="E2" s="181">
+        <v>1</v>
+      </c>
+      <c r="H2" s="181">
+        <v>1</v>
+      </c>
+      <c r="I2" s="181">
+        <v>1</v>
+      </c>
+      <c r="J2" s="181">
+        <v>1</v>
+      </c>
+      <c r="L2" s="181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="181">
+        <v>0</v>
+      </c>
+      <c r="B3" s="181">
+        <v>0</v>
+      </c>
+      <c r="D3" s="181">
+        <v>0</v>
+      </c>
+      <c r="E3" s="181">
+        <v>0</v>
+      </c>
+      <c r="H3" s="181">
+        <v>0</v>
+      </c>
+      <c r="I3" s="181">
+        <v>0</v>
+      </c>
+      <c r="K3" s="181">
+        <v>0</v>
+      </c>
+      <c r="L3" s="181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" s="197">
+        <v>1</v>
+      </c>
+      <c r="B4" s="197">
+        <v>0</v>
+      </c>
+      <c r="C4" s="181">
+        <v>1</v>
+      </c>
+      <c r="E4" s="181">
+        <v>1</v>
+      </c>
+      <c r="H4" s="181">
+        <v>1</v>
+      </c>
+      <c r="I4" s="181">
+        <v>0</v>
+      </c>
+      <c r="J4" s="181">
+        <v>1</v>
+      </c>
+      <c r="L4" s="181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" s="181">
+        <v>0</v>
+      </c>
+      <c r="B5" s="181">
+        <v>1</v>
+      </c>
+      <c r="D5" s="181">
+        <v>1</v>
+      </c>
+      <c r="E5" s="181">
+        <v>1</v>
+      </c>
+      <c r="H5" s="181">
+        <v>0</v>
+      </c>
+      <c r="I5" s="181">
+        <v>1</v>
+      </c>
+      <c r="K5" s="181">
+        <v>1</v>
+      </c>
+      <c r="L5" s="181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" s="181" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" s="181" t="s">
         <v>131</v>
       </c>
-      <c r="C1" s="196" t="s">
+      <c r="C7" s="181" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="181" t="s">
+        <v>145</v>
+      </c>
+      <c r="E7" s="181" t="s">
+        <v>146</v>
+      </c>
+      <c r="F7" s="181" t="s">
+        <v>148</v>
+      </c>
+      <c r="H7" s="181" t="s">
+        <v>131</v>
+      </c>
+      <c r="I7" s="181" t="s">
+        <v>130</v>
+      </c>
+      <c r="J7" s="181" t="s">
+        <v>155</v>
+      </c>
+      <c r="K7" s="181" t="s">
+        <v>157</v>
+      </c>
+      <c r="L7" s="181" t="s">
+        <v>146</v>
+      </c>
+      <c r="M7" s="181" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" s="181">
+        <v>1</v>
+      </c>
+      <c r="B8" s="181">
+        <v>1</v>
+      </c>
+      <c r="D8" s="181">
+        <v>1</v>
+      </c>
+      <c r="E8" s="181">
+        <v>1</v>
+      </c>
+      <c r="H8" s="181">
+        <v>1</v>
+      </c>
+      <c r="I8" s="181">
+        <v>1</v>
+      </c>
+      <c r="J8" s="181">
+        <v>1</v>
+      </c>
+      <c r="L8" s="181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" s="181">
+        <v>0</v>
+      </c>
+      <c r="B9" s="181">
+        <v>0</v>
+      </c>
+      <c r="C9" s="181">
+        <v>0</v>
+      </c>
+      <c r="E9" s="181">
+        <v>0</v>
+      </c>
+      <c r="H9" s="181">
+        <v>0</v>
+      </c>
+      <c r="I9" s="181">
+        <v>0</v>
+      </c>
+      <c r="K9" s="181">
+        <v>0</v>
+      </c>
+      <c r="L9" s="181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" s="181">
+        <v>1</v>
+      </c>
+      <c r="B10" s="181">
+        <v>0</v>
+      </c>
+      <c r="D10" s="181">
+        <v>0</v>
+      </c>
+      <c r="E10" s="181">
+        <v>0</v>
+      </c>
+      <c r="H10" s="181">
+        <v>1</v>
+      </c>
+      <c r="I10" s="181">
+        <v>0</v>
+      </c>
+      <c r="J10" s="181">
+        <v>1</v>
+      </c>
+      <c r="L10" s="181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" s="181">
+        <v>0</v>
+      </c>
+      <c r="B11" s="181">
+        <v>1</v>
+      </c>
+      <c r="C11" s="181">
+        <v>0</v>
+      </c>
+      <c r="E11" s="181">
+        <v>0</v>
+      </c>
+      <c r="H11" s="181">
+        <v>0</v>
+      </c>
+      <c r="I11" s="181">
+        <v>1</v>
+      </c>
+      <c r="K11" s="181">
+        <v>1</v>
+      </c>
+      <c r="L11" s="181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" s="181" t="s">
+        <v>143</v>
+      </c>
+      <c r="B13" s="181" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" s="181" t="s">
         <v>150</v>
       </c>
-      <c r="D1" s="196" t="s">
+      <c r="D13" s="181" t="s">
         <v>151</v>
       </c>
-      <c r="E1" s="196" t="s">
+      <c r="E13" s="181" t="s">
+        <v>146</v>
+      </c>
+      <c r="F13" s="181" t="s">
+        <v>149</v>
+      </c>
+      <c r="H13" s="181" t="s">
+        <v>131</v>
+      </c>
+      <c r="I13" s="181" t="s">
+        <v>130</v>
+      </c>
+      <c r="J13" s="181" t="s">
+        <v>158</v>
+      </c>
+      <c r="K13" s="181" t="s">
+        <v>157</v>
+      </c>
+      <c r="L13" s="181" t="s">
+        <v>146</v>
+      </c>
+      <c r="M13" s="181" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" s="181">
+        <v>1</v>
+      </c>
+      <c r="B14" s="181">
+        <v>1</v>
+      </c>
+      <c r="C14" s="181">
+        <v>1</v>
+      </c>
+      <c r="E14" s="181">
+        <v>1</v>
+      </c>
+      <c r="H14" s="181">
+        <v>1</v>
+      </c>
+      <c r="I14" s="181">
+        <v>1</v>
+      </c>
+      <c r="K14" s="181">
+        <v>1</v>
+      </c>
+      <c r="L14" s="181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" s="181">
+        <v>0</v>
+      </c>
+      <c r="B15" s="181">
+        <v>0</v>
+      </c>
+      <c r="D15" s="181">
+        <v>0</v>
+      </c>
+      <c r="E15" s="181">
+        <v>0</v>
+      </c>
+      <c r="H15" s="181">
+        <v>0</v>
+      </c>
+      <c r="I15" s="181">
+        <v>0</v>
+      </c>
+      <c r="J15" s="181">
+        <v>0</v>
+      </c>
+      <c r="L15" s="181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" s="181">
+        <v>1</v>
+      </c>
+      <c r="B16" s="181">
+        <v>0</v>
+      </c>
+      <c r="C16" s="181">
+        <v>1</v>
+      </c>
+      <c r="E16" s="181">
+        <v>1</v>
+      </c>
+      <c r="H16" s="181">
+        <v>1</v>
+      </c>
+      <c r="I16" s="181">
+        <v>0</v>
+      </c>
+      <c r="K16" s="181">
+        <v>0</v>
+      </c>
+      <c r="L16" s="181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" s="181">
+        <v>0</v>
+      </c>
+      <c r="B17" s="181">
+        <v>1</v>
+      </c>
+      <c r="D17" s="181">
+        <v>1</v>
+      </c>
+      <c r="E17" s="181">
+        <v>1</v>
+      </c>
+      <c r="H17" s="181">
+        <v>0</v>
+      </c>
+      <c r="I17" s="181">
+        <v>1</v>
+      </c>
+      <c r="J17" s="181">
+        <v>0</v>
+      </c>
+      <c r="L17" s="181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" s="181" t="s">
+        <v>143</v>
+      </c>
+      <c r="B19" s="181" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" s="181" t="s">
         <v>152</v>
       </c>
-      <c r="F1" s="196" t="s">
-        <v>155</v>
-      </c>
-      <c r="H1" s="196" t="s">
-        <v>160</v>
-      </c>
-      <c r="I1" s="196" t="s">
-        <v>149</v>
-      </c>
-      <c r="J1" s="196" t="s">
-        <v>161</v>
-      </c>
-      <c r="K1" s="196" t="s">
-        <v>162</v>
-      </c>
-      <c r="L1" s="196" t="s">
-        <v>152</v>
-      </c>
-      <c r="M1" s="196" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="196">
-        <v>1</v>
-      </c>
-      <c r="B2" s="196">
-        <v>1</v>
-      </c>
-      <c r="C2" s="196">
-        <v>1</v>
-      </c>
-      <c r="E2" s="196">
-        <v>1</v>
-      </c>
-      <c r="H2" s="196">
-        <v>1</v>
-      </c>
-      <c r="I2" s="196">
-        <v>1</v>
-      </c>
-      <c r="J2" s="196">
-        <v>1</v>
-      </c>
-      <c r="L2" s="196">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="196">
+      <c r="D19" s="181" t="s">
+        <v>153</v>
+      </c>
+      <c r="E19" s="181" t="s">
+        <v>146</v>
+      </c>
+      <c r="F19" s="181" t="s">
+        <v>148</v>
+      </c>
+      <c r="H19" s="181" t="s">
+        <v>131</v>
+      </c>
+      <c r="I19" s="181" t="s">
+        <v>130</v>
+      </c>
+      <c r="J19" s="181" t="s">
+        <v>158</v>
+      </c>
+      <c r="K19" s="181" t="s">
+        <v>159</v>
+      </c>
+      <c r="L19" s="181" t="s">
+        <v>146</v>
+      </c>
+      <c r="M19" s="181" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20" s="181">
+        <v>1</v>
+      </c>
+      <c r="B20" s="181">
+        <v>1</v>
+      </c>
+      <c r="D20" s="181">
+        <v>1</v>
+      </c>
+      <c r="E20" s="181">
+        <v>1</v>
+      </c>
+      <c r="H20" s="181">
+        <v>1</v>
+      </c>
+      <c r="I20" s="181">
+        <v>1</v>
+      </c>
+      <c r="K20" s="181">
+        <v>1</v>
+      </c>
+      <c r="L20" s="181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21" s="181">
         <v>0</v>
       </c>
-      <c r="B3" s="196">
+      <c r="B21" s="181">
         <v>0</v>
       </c>
-      <c r="D3" s="196">
+      <c r="C21" s="181">
         <v>0</v>
       </c>
-      <c r="E3" s="196">
+      <c r="E21" s="181">
         <v>0</v>
       </c>
-      <c r="H3" s="196">
+      <c r="H21" s="181">
         <v>0</v>
       </c>
-      <c r="I3" s="196">
+      <c r="I21" s="181">
         <v>0</v>
       </c>
-      <c r="K3" s="196">
+      <c r="J21" s="181">
         <v>0</v>
       </c>
-      <c r="L3" s="196">
+      <c r="L21" s="181">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="196">
-        <v>1</v>
-      </c>
-      <c r="B4" s="196">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22" s="181">
+        <v>1</v>
+      </c>
+      <c r="B22" s="181">
         <v>0</v>
       </c>
-      <c r="C4" s="196">
-        <v>1</v>
-      </c>
-      <c r="E4" s="196">
-        <v>1</v>
-      </c>
-      <c r="H4" s="196">
-        <v>1</v>
-      </c>
-      <c r="I4" s="196">
+      <c r="D22" s="181">
         <v>0</v>
       </c>
-      <c r="J4" s="196">
-        <v>1</v>
-      </c>
-      <c r="L4" s="196">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="196">
+      <c r="E22" s="181">
         <v>0</v>
       </c>
-      <c r="B5" s="196">
-        <v>1</v>
-      </c>
-      <c r="D5" s="196">
-        <v>1</v>
-      </c>
-      <c r="E5" s="196">
-        <v>1</v>
-      </c>
-      <c r="H5" s="196">
+      <c r="H22" s="181">
+        <v>1</v>
+      </c>
+      <c r="I22" s="181">
         <v>0</v>
       </c>
-      <c r="I5" s="196">
-        <v>1</v>
-      </c>
-      <c r="K5" s="196">
-        <v>1</v>
-      </c>
-      <c r="L5" s="196">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="196" t="s">
-        <v>149</v>
-      </c>
-      <c r="B7" s="196" t="s">
-        <v>131</v>
-      </c>
-      <c r="C7" s="196" t="s">
-        <v>153</v>
-      </c>
-      <c r="D7" s="196" t="s">
-        <v>151</v>
-      </c>
-      <c r="E7" s="196" t="s">
-        <v>152</v>
-      </c>
-      <c r="F7" s="196" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="196">
-        <v>1</v>
-      </c>
-      <c r="B8" s="196">
-        <v>1</v>
-      </c>
-      <c r="D8" s="196">
-        <v>1</v>
-      </c>
-      <c r="E8" s="196">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="196">
+      <c r="K22" s="181">
         <v>0</v>
       </c>
-      <c r="B9" s="196">
+      <c r="L22" s="181">
         <v>0</v>
       </c>
-      <c r="C9" s="196">
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23" s="181">
         <v>0</v>
       </c>
-      <c r="E9" s="196">
+      <c r="B23" s="181">
+        <v>1</v>
+      </c>
+      <c r="C23" s="181">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="196">
-        <v>1</v>
-      </c>
-      <c r="B10" s="196">
+      <c r="E23" s="181">
         <v>0</v>
       </c>
-      <c r="D10" s="196">
+      <c r="H23" s="181">
         <v>0</v>
       </c>
-      <c r="E10" s="196">
+      <c r="I23" s="181">
+        <v>1</v>
+      </c>
+      <c r="J23" s="181">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" s="196">
-        <v>0</v>
-      </c>
-      <c r="B11" s="196">
-        <v>1</v>
-      </c>
-      <c r="C11" s="196">
-        <v>0</v>
-      </c>
-      <c r="E11" s="196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="196" t="s">
-        <v>149</v>
-      </c>
-      <c r="B13" s="196" t="s">
-        <v>131</v>
-      </c>
-      <c r="C13" s="196" t="s">
-        <v>156</v>
-      </c>
-      <c r="D13" s="196" t="s">
-        <v>157</v>
-      </c>
-      <c r="E13" s="196" t="s">
-        <v>152</v>
-      </c>
-      <c r="F13" s="196" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" s="196">
-        <v>1</v>
-      </c>
-      <c r="B14" s="196">
-        <v>1</v>
-      </c>
-      <c r="C14" s="196">
-        <v>1</v>
-      </c>
-      <c r="E14" s="196">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" s="196">
-        <v>0</v>
-      </c>
-      <c r="B15" s="196">
-        <v>0</v>
-      </c>
-      <c r="D15" s="196">
-        <v>0</v>
-      </c>
-      <c r="E15" s="196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A16" s="196">
-        <v>1</v>
-      </c>
-      <c r="B16" s="196">
-        <v>0</v>
-      </c>
-      <c r="C16" s="196">
-        <v>1</v>
-      </c>
-      <c r="E16" s="196">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="196">
-        <v>0</v>
-      </c>
-      <c r="B17" s="196">
-        <v>1</v>
-      </c>
-      <c r="D17" s="196">
-        <v>1</v>
-      </c>
-      <c r="E17" s="196">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="196" t="s">
-        <v>149</v>
-      </c>
-      <c r="B19" s="196" t="s">
-        <v>131</v>
-      </c>
-      <c r="C19" s="196" t="s">
-        <v>158</v>
-      </c>
-      <c r="D19" s="196" t="s">
-        <v>159</v>
-      </c>
-      <c r="E19" s="196" t="s">
-        <v>152</v>
-      </c>
-      <c r="F19" s="196" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="196">
-        <v>1</v>
-      </c>
-      <c r="B20" s="196">
-        <v>1</v>
-      </c>
-      <c r="D20" s="196">
-        <v>1</v>
-      </c>
-      <c r="E20" s="196">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="196">
-        <v>0</v>
-      </c>
-      <c r="B21" s="196">
-        <v>0</v>
-      </c>
-      <c r="C21" s="196">
-        <v>0</v>
-      </c>
-      <c r="E21" s="196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="196">
-        <v>1</v>
-      </c>
-      <c r="B22" s="196">
-        <v>0</v>
-      </c>
-      <c r="D22" s="196">
-        <v>0</v>
-      </c>
-      <c r="E22" s="196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="196">
-        <v>0</v>
-      </c>
-      <c r="B23" s="196">
-        <v>1</v>
-      </c>
-      <c r="C23" s="196">
-        <v>0</v>
-      </c>
-      <c r="E23" s="196">
+      <c r="L23" s="181">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8209,16 +8489,16 @@
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
-      <c r="D2" s="183" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="184"/>
-      <c r="F2" s="185"/>
-      <c r="G2" s="183" t="s">
+      <c r="D2" s="184" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="185"/>
+      <c r="F2" s="186"/>
+      <c r="G2" s="184" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="184"/>
-      <c r="I2" s="185"/>
+      <c r="H2" s="185"/>
+      <c r="I2" s="186"/>
     </row>
     <row r="3" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="11"/>
@@ -8244,7 +8524,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="183" t="s">
+      <c r="A4" s="184" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="21" t="s">
@@ -8273,7 +8553,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="186"/>
+      <c r="A5" s="187"/>
       <c r="B5" s="22"/>
       <c r="C5" s="23" t="s">
         <v>11</v>
@@ -8286,7 +8566,7 @@
       <c r="I5" s="35"/>
     </row>
     <row r="6" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="186"/>
+      <c r="A6" s="187"/>
       <c r="B6" s="22"/>
       <c r="C6" s="23" t="s">
         <v>12</v>
@@ -8311,7 +8591,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="186"/>
+      <c r="A7" s="187"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23" t="s">
         <v>13</v>
@@ -8336,7 +8616,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="187"/>
+      <c r="A8" s="188"/>
       <c r="B8" s="25"/>
       <c r="C8" s="26" t="s">
         <v>18</v>
@@ -8372,7 +8652,7 @@
       <c r="I9" s="40"/>
     </row>
     <row r="10" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="183" t="s">
+      <c r="A10" s="184" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="21" t="s">
@@ -8401,7 +8681,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="186"/>
+      <c r="A11" s="187"/>
       <c r="B11" s="22"/>
       <c r="C11" s="23" t="s">
         <v>11</v>
@@ -8426,7 +8706,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="186"/>
+      <c r="A12" s="187"/>
       <c r="B12" s="22"/>
       <c r="C12" s="23" t="s">
         <v>12</v>
@@ -8451,7 +8731,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="186"/>
+      <c r="A13" s="187"/>
       <c r="B13" s="22"/>
       <c r="C13" s="23" t="s">
         <v>13</v>
@@ -8476,7 +8756,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="187"/>
+      <c r="A14" s="188"/>
       <c r="B14" s="24"/>
       <c r="C14" s="24" t="s">
         <v>19</v>
@@ -8540,16 +8820,16 @@
       <c r="A1" s="134"/>
       <c r="B1" s="135"/>
       <c r="C1" s="135"/>
-      <c r="D1" s="188" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="189"/>
-      <c r="F1" s="189"/>
-      <c r="G1" s="189" t="s">
+      <c r="D1" s="189" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
+      <c r="G1" s="190" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="189"/>
-      <c r="I1" s="190"/>
+      <c r="H1" s="190"/>
+      <c r="I1" s="191"/>
     </row>
     <row r="2" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="137"/>
@@ -8820,16 +9100,16 @@
       <c r="A2" s="53"/>
       <c r="B2" s="53"/>
       <c r="C2" s="53"/>
-      <c r="D2" s="191" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="192"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="191" t="s">
+      <c r="D2" s="192" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="193"/>
+      <c r="F2" s="194"/>
+      <c r="G2" s="192" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="192"/>
-      <c r="I2" s="193"/>
+      <c r="H2" s="193"/>
+      <c r="I2" s="194"/>
     </row>
     <row r="3" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="53"/>
@@ -8855,7 +9135,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="191" t="s">
+      <c r="A4" s="192" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="57" t="s">
@@ -8884,7 +9164,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="194"/>
+      <c r="A5" s="195"/>
       <c r="B5" s="61"/>
       <c r="C5" s="55" t="s">
         <v>11</v>
@@ -8897,7 +9177,7 @@
       <c r="I5" s="65"/>
     </row>
     <row r="6" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="194"/>
+      <c r="A6" s="195"/>
       <c r="B6" s="61"/>
       <c r="C6" s="55" t="s">
         <v>12</v>
@@ -8922,7 +9202,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="194"/>
+      <c r="A7" s="195"/>
       <c r="B7" s="61"/>
       <c r="C7" s="55" t="s">
         <v>13</v>
@@ -8947,7 +9227,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="194"/>
+      <c r="A8" s="195"/>
       <c r="B8" s="62"/>
       <c r="C8" s="62" t="s">
         <v>17</v>
@@ -8972,7 +9252,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="194"/>
+      <c r="A9" s="195"/>
       <c r="B9" s="57" t="s">
         <v>9</v>
       </c>
@@ -8999,7 +9279,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="194"/>
+      <c r="A10" s="195"/>
       <c r="B10" s="61"/>
       <c r="C10" s="55" t="s">
         <v>11</v>
@@ -9012,7 +9292,7 @@
       <c r="I10" s="82"/>
     </row>
     <row r="11" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="194"/>
+      <c r="A11" s="195"/>
       <c r="B11" s="61"/>
       <c r="C11" s="55" t="s">
         <v>12</v>
@@ -9037,7 +9317,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="194"/>
+      <c r="A12" s="195"/>
       <c r="B12" s="61"/>
       <c r="C12" s="55" t="s">
         <v>13</v>
@@ -9062,7 +9342,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="195"/>
+      <c r="A13" s="196"/>
       <c r="B13" s="66"/>
       <c r="C13" s="67" t="s">
         <v>18</v>
@@ -9098,7 +9378,7 @@
       <c r="I14" s="82"/>
     </row>
     <row r="15" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="191" t="s">
+      <c r="A15" s="192" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="57" t="s">
@@ -9130,7 +9410,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="194"/>
+      <c r="A16" s="195"/>
       <c r="B16" s="61"/>
       <c r="C16" s="55" t="s">
         <v>11</v>
@@ -9155,7 +9435,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="194"/>
+      <c r="A17" s="195"/>
       <c r="B17" s="61"/>
       <c r="C17" s="55" t="s">
         <v>12</v>
@@ -9180,7 +9460,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="194"/>
+      <c r="A18" s="195"/>
       <c r="B18" s="61"/>
       <c r="C18" s="55" t="s">
         <v>13</v>
@@ -9205,7 +9485,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="194"/>
+      <c r="A19" s="195"/>
       <c r="B19" s="61"/>
       <c r="C19" s="55" t="s">
         <v>127</v>
@@ -9230,7 +9510,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="194"/>
+      <c r="A20" s="195"/>
       <c r="B20" s="57" t="s">
         <v>9</v>
       </c>
@@ -9257,7 +9537,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="194"/>
+      <c r="A21" s="195"/>
       <c r="B21" s="61"/>
       <c r="C21" s="55" t="s">
         <v>11</v>
@@ -9282,7 +9562,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="194"/>
+      <c r="A22" s="195"/>
       <c r="B22" s="61"/>
       <c r="C22" s="55" t="s">
         <v>12</v>
@@ -9307,7 +9587,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="194"/>
+      <c r="A23" s="195"/>
       <c r="B23" s="61"/>
       <c r="C23" s="55" t="s">
         <v>13</v>
@@ -9332,7 +9612,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="195"/>
+      <c r="A24" s="196"/>
       <c r="B24" s="78"/>
       <c r="C24" s="78" t="s">
         <v>19</v>
@@ -9382,7 +9662,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -9418,16 +9698,16 @@
       <c r="A2" s="160"/>
       <c r="B2" s="160"/>
       <c r="C2" s="160"/>
-      <c r="D2" s="183" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="184"/>
-      <c r="F2" s="185"/>
-      <c r="G2" s="183" t="s">
+      <c r="D2" s="184" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="185"/>
+      <c r="F2" s="186"/>
+      <c r="G2" s="184" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="184"/>
-      <c r="I2" s="185"/>
+      <c r="H2" s="185"/>
+      <c r="I2" s="186"/>
     </row>
     <row r="3" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="160"/>
@@ -9555,7 +9835,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H28" sqref="H28"/>
+      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -9590,16 +9870,16 @@
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
-      <c r="D2" s="183" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="184"/>
-      <c r="F2" s="185"/>
-      <c r="G2" s="183" t="s">
+      <c r="D2" s="184" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="185"/>
+      <c r="F2" s="186"/>
+      <c r="G2" s="184" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="184"/>
-      <c r="I2" s="185"/>
+      <c r="H2" s="185"/>
+      <c r="I2" s="186"/>
     </row>
     <row r="3" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="11"/>
@@ -9625,7 +9905,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="183" t="s">
+      <c r="A4" s="184" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="94" t="s">
@@ -9642,7 +9922,7 @@
       <c r="I4" s="99"/>
     </row>
     <row r="5" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="186"/>
+      <c r="A5" s="187"/>
       <c r="B5" s="22"/>
       <c r="C5" s="23" t="s">
         <v>11</v>
@@ -9655,7 +9935,7 @@
       <c r="I5" s="101"/>
     </row>
     <row r="6" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="186"/>
+      <c r="A6" s="187"/>
       <c r="B6" s="22"/>
       <c r="C6" s="23" t="s">
         <v>12</v>
@@ -9668,7 +9948,7 @@
       <c r="I6" s="101"/>
     </row>
     <row r="7" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="186"/>
+      <c r="A7" s="187"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23" t="s">
         <v>13</v>
@@ -9681,7 +9961,7 @@
       <c r="I7" s="101"/>
     </row>
     <row r="8" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="187"/>
+      <c r="A8" s="188"/>
       <c r="B8" s="25"/>
       <c r="C8" s="26" t="s">
         <v>17</v>
@@ -9705,7 +9985,7 @@
       <c r="I9" s="40"/>
     </row>
     <row r="10" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="183" t="s">
+      <c r="A10" s="184" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="94" t="s">
@@ -9734,7 +10014,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="186"/>
+      <c r="A11" s="187"/>
       <c r="B11" s="22"/>
       <c r="C11" s="23" t="s">
         <v>11</v>
@@ -9759,7 +10039,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="186"/>
+      <c r="A12" s="187"/>
       <c r="B12" s="22"/>
       <c r="C12" s="23" t="s">
         <v>12</v>
@@ -9784,7 +10064,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="186"/>
+      <c r="A13" s="187"/>
       <c r="B13" s="22"/>
       <c r="C13" s="23" t="s">
         <v>13</v>
@@ -9809,7 +10089,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="187"/>
+      <c r="A14" s="188"/>
       <c r="B14" s="24"/>
       <c r="C14" s="24" t="s">
         <v>17</v>

--- a/model_performance.xlsx
+++ b/model_performance.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="3" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="3" activeTab="10"/>
   </bookViews>
   <sheets>
-    <sheet name="SBP+DBP廢" sheetId="1" r:id="rId1"/>
-    <sheet name="Case_變數重要性" sheetId="8" r:id="rId2"/>
-    <sheet name="Visit_變數重要性" sheetId="9" r:id="rId3"/>
-    <sheet name="mtry" sheetId="10" r:id="rId4"/>
-    <sheet name="XCase" sheetId="7" r:id="rId5"/>
-    <sheet name="Visit1p1r" sheetId="11" r:id="rId6"/>
+    <sheet name="2stage ensemble" sheetId="15" r:id="rId1"/>
+    <sheet name="SBP+DBP廢" sheetId="1" r:id="rId2"/>
+    <sheet name="Case_變數重要性" sheetId="8" r:id="rId3"/>
+    <sheet name="Visit_變數重要性" sheetId="9" r:id="rId4"/>
+    <sheet name="mtry" sheetId="10" r:id="rId5"/>
+    <sheet name="XCase" sheetId="7" r:id="rId6"/>
     <sheet name="Visit" sheetId="6" r:id="rId7"/>
-    <sheet name="Case1p1r" sheetId="12" r:id="rId8"/>
-    <sheet name="Case" sheetId="13" r:id="rId9"/>
-    <sheet name="ensemble" sheetId="14" r:id="rId10"/>
-    <sheet name="2stage ensemble" sheetId="15" r:id="rId11"/>
+    <sheet name="Case" sheetId="13" r:id="rId8"/>
+    <sheet name="Visit1p1r" sheetId="11" r:id="rId9"/>
+    <sheet name="Case1p1r" sheetId="12" r:id="rId10"/>
+    <sheet name="ensemble" sheetId="14" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -457,10 +457,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 補做只有V1 V2的人 n=129</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>logistic</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -600,6 +596,10 @@
   </si>
   <si>
     <t>RF XGB聯集(任一個是0結果就是0)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1471,6 +1471,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1515,12 +1521,6 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4197,6 +4197,988 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.09765625" style="181" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" style="181" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.59765625" style="181" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.8984375" style="181" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" style="181" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.09765625" style="181" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.796875" style="181" customWidth="1"/>
+    <col min="8" max="8" width="6" style="181" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.09765625" style="181" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.19921875" style="181" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.296875" style="181" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6" style="181" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.09765625" style="181" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.796875" style="181"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="181" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="181" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="181" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="181" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" s="181" t="s">
+        <v>145</v>
+      </c>
+      <c r="F1" s="181" t="s">
+        <v>148</v>
+      </c>
+      <c r="H1" s="181" t="s">
+        <v>153</v>
+      </c>
+      <c r="I1" s="181" t="s">
+        <v>142</v>
+      </c>
+      <c r="J1" s="181" t="s">
+        <v>154</v>
+      </c>
+      <c r="K1" s="181" t="s">
+        <v>155</v>
+      </c>
+      <c r="L1" s="181" t="s">
+        <v>145</v>
+      </c>
+      <c r="M1" s="181" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="181">
+        <v>1</v>
+      </c>
+      <c r="B2" s="181">
+        <v>1</v>
+      </c>
+      <c r="C2" s="181">
+        <v>1</v>
+      </c>
+      <c r="E2" s="181">
+        <v>1</v>
+      </c>
+      <c r="H2" s="181">
+        <v>1</v>
+      </c>
+      <c r="I2" s="181">
+        <v>1</v>
+      </c>
+      <c r="J2" s="181">
+        <v>1</v>
+      </c>
+      <c r="L2" s="181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="181">
+        <v>0</v>
+      </c>
+      <c r="B3" s="181">
+        <v>0</v>
+      </c>
+      <c r="D3" s="181">
+        <v>0</v>
+      </c>
+      <c r="E3" s="181">
+        <v>0</v>
+      </c>
+      <c r="H3" s="181">
+        <v>0</v>
+      </c>
+      <c r="I3" s="181">
+        <v>0</v>
+      </c>
+      <c r="K3" s="181">
+        <v>0</v>
+      </c>
+      <c r="L3" s="181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" s="182">
+        <v>1</v>
+      </c>
+      <c r="B4" s="182">
+        <v>0</v>
+      </c>
+      <c r="C4" s="181">
+        <v>1</v>
+      </c>
+      <c r="E4" s="181">
+        <v>1</v>
+      </c>
+      <c r="H4" s="181">
+        <v>1</v>
+      </c>
+      <c r="I4" s="181">
+        <v>0</v>
+      </c>
+      <c r="J4" s="181">
+        <v>1</v>
+      </c>
+      <c r="L4" s="181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" s="181">
+        <v>0</v>
+      </c>
+      <c r="B5" s="181">
+        <v>1</v>
+      </c>
+      <c r="D5" s="181">
+        <v>1</v>
+      </c>
+      <c r="E5" s="181">
+        <v>1</v>
+      </c>
+      <c r="H5" s="181">
+        <v>0</v>
+      </c>
+      <c r="I5" s="181">
+        <v>1</v>
+      </c>
+      <c r="K5" s="181">
+        <v>1</v>
+      </c>
+      <c r="L5" s="181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" s="181" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="181" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="181" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" s="181" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7" s="181" t="s">
+        <v>145</v>
+      </c>
+      <c r="F7" s="181" t="s">
+        <v>147</v>
+      </c>
+      <c r="H7" s="181" t="s">
+        <v>130</v>
+      </c>
+      <c r="I7" s="181" t="s">
+        <v>129</v>
+      </c>
+      <c r="J7" s="181" t="s">
+        <v>154</v>
+      </c>
+      <c r="K7" s="181" t="s">
+        <v>156</v>
+      </c>
+      <c r="L7" s="181" t="s">
+        <v>145</v>
+      </c>
+      <c r="M7" s="181" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" s="181">
+        <v>1</v>
+      </c>
+      <c r="B8" s="181">
+        <v>1</v>
+      </c>
+      <c r="D8" s="181">
+        <v>1</v>
+      </c>
+      <c r="E8" s="181">
+        <v>1</v>
+      </c>
+      <c r="H8" s="181">
+        <v>1</v>
+      </c>
+      <c r="I8" s="181">
+        <v>1</v>
+      </c>
+      <c r="J8" s="181">
+        <v>1</v>
+      </c>
+      <c r="L8" s="181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" s="181">
+        <v>0</v>
+      </c>
+      <c r="B9" s="181">
+        <v>0</v>
+      </c>
+      <c r="C9" s="181">
+        <v>0</v>
+      </c>
+      <c r="E9" s="181">
+        <v>0</v>
+      </c>
+      <c r="H9" s="181">
+        <v>0</v>
+      </c>
+      <c r="I9" s="181">
+        <v>0</v>
+      </c>
+      <c r="K9" s="181">
+        <v>0</v>
+      </c>
+      <c r="L9" s="181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" s="181">
+        <v>1</v>
+      </c>
+      <c r="B10" s="181">
+        <v>0</v>
+      </c>
+      <c r="D10" s="181">
+        <v>0</v>
+      </c>
+      <c r="E10" s="181">
+        <v>0</v>
+      </c>
+      <c r="H10" s="181">
+        <v>1</v>
+      </c>
+      <c r="I10" s="181">
+        <v>0</v>
+      </c>
+      <c r="J10" s="181">
+        <v>1</v>
+      </c>
+      <c r="L10" s="181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" s="181">
+        <v>0</v>
+      </c>
+      <c r="B11" s="181">
+        <v>1</v>
+      </c>
+      <c r="C11" s="181">
+        <v>0</v>
+      </c>
+      <c r="E11" s="181">
+        <v>0</v>
+      </c>
+      <c r="H11" s="181">
+        <v>0</v>
+      </c>
+      <c r="I11" s="181">
+        <v>1</v>
+      </c>
+      <c r="K11" s="181">
+        <v>1</v>
+      </c>
+      <c r="L11" s="181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" s="181" t="s">
+        <v>142</v>
+      </c>
+      <c r="B13" s="181" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="181" t="s">
+        <v>149</v>
+      </c>
+      <c r="D13" s="181" t="s">
+        <v>150</v>
+      </c>
+      <c r="E13" s="181" t="s">
+        <v>145</v>
+      </c>
+      <c r="F13" s="181" t="s">
+        <v>148</v>
+      </c>
+      <c r="H13" s="181" t="s">
+        <v>130</v>
+      </c>
+      <c r="I13" s="181" t="s">
+        <v>129</v>
+      </c>
+      <c r="J13" s="181" t="s">
+        <v>157</v>
+      </c>
+      <c r="K13" s="181" t="s">
+        <v>156</v>
+      </c>
+      <c r="L13" s="181" t="s">
+        <v>145</v>
+      </c>
+      <c r="M13" s="181" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" s="181">
+        <v>1</v>
+      </c>
+      <c r="B14" s="181">
+        <v>1</v>
+      </c>
+      <c r="C14" s="181">
+        <v>1</v>
+      </c>
+      <c r="E14" s="181">
+        <v>1</v>
+      </c>
+      <c r="H14" s="181">
+        <v>1</v>
+      </c>
+      <c r="I14" s="181">
+        <v>1</v>
+      </c>
+      <c r="K14" s="181">
+        <v>1</v>
+      </c>
+      <c r="L14" s="181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" s="181">
+        <v>0</v>
+      </c>
+      <c r="B15" s="181">
+        <v>0</v>
+      </c>
+      <c r="D15" s="181">
+        <v>0</v>
+      </c>
+      <c r="E15" s="181">
+        <v>0</v>
+      </c>
+      <c r="H15" s="181">
+        <v>0</v>
+      </c>
+      <c r="I15" s="181">
+        <v>0</v>
+      </c>
+      <c r="J15" s="181">
+        <v>0</v>
+      </c>
+      <c r="L15" s="181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" s="181">
+        <v>1</v>
+      </c>
+      <c r="B16" s="181">
+        <v>0</v>
+      </c>
+      <c r="C16" s="181">
+        <v>1</v>
+      </c>
+      <c r="E16" s="181">
+        <v>1</v>
+      </c>
+      <c r="H16" s="181">
+        <v>1</v>
+      </c>
+      <c r="I16" s="181">
+        <v>0</v>
+      </c>
+      <c r="K16" s="181">
+        <v>0</v>
+      </c>
+      <c r="L16" s="181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" s="181">
+        <v>0</v>
+      </c>
+      <c r="B17" s="181">
+        <v>1</v>
+      </c>
+      <c r="D17" s="181">
+        <v>1</v>
+      </c>
+      <c r="E17" s="181">
+        <v>1</v>
+      </c>
+      <c r="H17" s="181">
+        <v>0</v>
+      </c>
+      <c r="I17" s="181">
+        <v>1</v>
+      </c>
+      <c r="J17" s="181">
+        <v>0</v>
+      </c>
+      <c r="L17" s="181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" s="181" t="s">
+        <v>142</v>
+      </c>
+      <c r="B19" s="181" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="181" t="s">
+        <v>151</v>
+      </c>
+      <c r="D19" s="181" t="s">
+        <v>152</v>
+      </c>
+      <c r="E19" s="181" t="s">
+        <v>145</v>
+      </c>
+      <c r="F19" s="181" t="s">
+        <v>147</v>
+      </c>
+      <c r="H19" s="181" t="s">
+        <v>130</v>
+      </c>
+      <c r="I19" s="181" t="s">
+        <v>129</v>
+      </c>
+      <c r="J19" s="181" t="s">
+        <v>157</v>
+      </c>
+      <c r="K19" s="181" t="s">
+        <v>158</v>
+      </c>
+      <c r="L19" s="181" t="s">
+        <v>145</v>
+      </c>
+      <c r="M19" s="181" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20" s="181">
+        <v>1</v>
+      </c>
+      <c r="B20" s="181">
+        <v>1</v>
+      </c>
+      <c r="D20" s="181">
+        <v>1</v>
+      </c>
+      <c r="E20" s="181">
+        <v>1</v>
+      </c>
+      <c r="H20" s="181">
+        <v>1</v>
+      </c>
+      <c r="I20" s="181">
+        <v>1</v>
+      </c>
+      <c r="K20" s="181">
+        <v>1</v>
+      </c>
+      <c r="L20" s="181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21" s="181">
+        <v>0</v>
+      </c>
+      <c r="B21" s="181">
+        <v>0</v>
+      </c>
+      <c r="C21" s="181">
+        <v>0</v>
+      </c>
+      <c r="E21" s="181">
+        <v>0</v>
+      </c>
+      <c r="H21" s="181">
+        <v>0</v>
+      </c>
+      <c r="I21" s="181">
+        <v>0</v>
+      </c>
+      <c r="J21" s="181">
+        <v>0</v>
+      </c>
+      <c r="L21" s="181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22" s="181">
+        <v>1</v>
+      </c>
+      <c r="B22" s="181">
+        <v>0</v>
+      </c>
+      <c r="D22" s="181">
+        <v>0</v>
+      </c>
+      <c r="E22" s="181">
+        <v>0</v>
+      </c>
+      <c r="H22" s="181">
+        <v>1</v>
+      </c>
+      <c r="I22" s="181">
+        <v>0</v>
+      </c>
+      <c r="K22" s="181">
+        <v>0</v>
+      </c>
+      <c r="L22" s="181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23" s="181">
+        <v>0</v>
+      </c>
+      <c r="B23" s="181">
+        <v>1</v>
+      </c>
+      <c r="C23" s="181">
+        <v>0</v>
+      </c>
+      <c r="E23" s="181">
+        <v>0</v>
+      </c>
+      <c r="H23" s="181">
+        <v>0</v>
+      </c>
+      <c r="I23" s="181">
+        <v>1</v>
+      </c>
+      <c r="J23" s="181">
+        <v>0</v>
+      </c>
+      <c r="L23" s="181">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.8984375" style="4" hidden="1" customWidth="1"/>
+    <col min="5" max="6" width="13.19921875" style="4" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="11.8984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.796875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="160" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="160">
+        <v>123</v>
+      </c>
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="160"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="160"/>
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="186" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="187"/>
+      <c r="F2" s="188"/>
+      <c r="G2" s="186" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="187"/>
+      <c r="I2" s="188"/>
+    </row>
+    <row r="3" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="160"/>
+      <c r="B3" s="160"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="162" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="162" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="166" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="97" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="167"/>
+      <c r="E4" s="167"/>
+      <c r="F4" s="168"/>
+      <c r="G4" s="169"/>
+      <c r="H4" s="170"/>
+      <c r="I4" s="171"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="161" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="172" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="173" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="120">
+        <v>0.63</v>
+      </c>
+      <c r="E5" s="120">
+        <v>0.72</v>
+      </c>
+      <c r="F5" s="120">
+        <v>0.34</v>
+      </c>
+      <c r="G5" s="177">
+        <v>0.68</v>
+      </c>
+      <c r="H5" s="177">
+        <v>0.79</v>
+      </c>
+      <c r="I5" s="178">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="163"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="174" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="125">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H6" s="125">
+        <v>0.6</v>
+      </c>
+      <c r="I6" s="164">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="165"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="175" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="128">
+        <v>0.72</v>
+      </c>
+      <c r="H7" s="128">
+        <v>0.88</v>
+      </c>
+      <c r="I7" s="176">
+        <v>0.17</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="58.5" style="179" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="17.59765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.796875" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="179" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B2" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="179" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="183">
+        <v>0.73333333333333295</v>
+      </c>
+      <c r="C3" s="183">
+        <v>0.89024390243902396</v>
+      </c>
+      <c r="D3" s="183">
+        <v>0.173913043478261</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="179" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" s="180">
+        <v>0.56190476190476202</v>
+      </c>
+      <c r="C4" s="180">
+        <v>0.54878048780487798</v>
+      </c>
+      <c r="D4" s="180">
+        <v>0.60869565217391297</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="179" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="180">
+        <v>0.68571428571428605</v>
+      </c>
+      <c r="C5" s="180">
+        <v>0.80487804878048796</v>
+      </c>
+      <c r="D5" s="180">
+        <v>0.26086956521739102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="179" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="180">
+        <v>0.69523809523809499</v>
+      </c>
+      <c r="C6" s="180">
+        <v>0.86585365853658502</v>
+      </c>
+      <c r="D6" s="180">
+        <v>8.6956521739130405E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="179" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" s="180">
+        <v>0.76190476190476197</v>
+      </c>
+      <c r="C7" s="180">
+        <v>0.97560975609756095</v>
+      </c>
+      <c r="D7" s="180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="179" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" s="180">
+        <v>0.64761904761904798</v>
+      </c>
+      <c r="C8" s="180">
+        <v>0.75609756097560998</v>
+      </c>
+      <c r="D8" s="180">
+        <v>0.26086956521739102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B9" s="180"/>
+      <c r="C9" s="180"/>
+      <c r="D9" s="180"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="179" t="s">
+        <v>159</v>
+      </c>
+      <c r="B10" s="183">
+        <v>0.73333333333333295</v>
+      </c>
+      <c r="C10" s="183">
+        <v>0.89024390243902396</v>
+      </c>
+      <c r="D10" s="183">
+        <v>0.173913043478261</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="179" t="s">
+        <v>160</v>
+      </c>
+      <c r="B11" s="180">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="C11" s="180">
+        <v>0.59756097560975596</v>
+      </c>
+      <c r="D11" s="180">
+        <v>0.47826086956521702</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="179" t="s">
+        <v>162</v>
+      </c>
+      <c r="B12" s="180">
+        <v>0.68571428571428605</v>
+      </c>
+      <c r="C12" s="180">
+        <v>0.80487804878048796</v>
+      </c>
+      <c r="D12" s="180">
+        <v>0.26086956521739102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="179" t="s">
+        <v>161</v>
+      </c>
+      <c r="B13" s="180">
+        <v>0.56190476190476202</v>
+      </c>
+      <c r="C13" s="180">
+        <v>0.54878048780487798</v>
+      </c>
+      <c r="D13" s="180">
+        <v>0.60869565217391297</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="179" t="s">
+        <v>163</v>
+      </c>
+      <c r="B14" s="183">
+        <v>0.73333333333333295</v>
+      </c>
+      <c r="C14" s="183">
+        <v>0.89024390243902396</v>
+      </c>
+      <c r="D14" s="183">
+        <v>0.173913043478261</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="179" t="s">
+        <v>164</v>
+      </c>
+      <c r="B15" s="180">
+        <v>0.67619047619047601</v>
+      </c>
+      <c r="C15" s="180">
+        <v>0.75609756097560998</v>
+      </c>
+      <c r="D15" s="180">
+        <v>0.39130434782608697</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4239,21 +5221,21 @@
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="183" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="183"/>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183" t="s">
+      <c r="D2" s="185" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="185"/>
+      <c r="F2" s="185"/>
+      <c r="G2" s="185" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="183"/>
-      <c r="I2" s="183"/>
-      <c r="J2" s="182" t="s">
+      <c r="H2" s="185"/>
+      <c r="I2" s="185"/>
+      <c r="J2" s="184" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="182"/>
-      <c r="L2" s="182"/>
+      <c r="K2" s="184"/>
+      <c r="L2" s="184"/>
     </row>
     <row r="3" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
@@ -4288,7 +5270,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="183" t="s">
+      <c r="A4" s="185" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -4308,7 +5290,7 @@
       <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="183"/>
+      <c r="A5" s="185"/>
       <c r="B5" s="4"/>
       <c r="C5" s="3" t="s">
         <v>11</v>
@@ -4324,7 +5306,7 @@
       <c r="L5" s="6"/>
     </row>
     <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="183"/>
+      <c r="A6" s="185"/>
       <c r="B6" s="4"/>
       <c r="C6" s="3" t="s">
         <v>12</v>
@@ -4340,7 +5322,7 @@
       <c r="L6" s="6"/>
     </row>
     <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="183"/>
+      <c r="A7" s="185"/>
       <c r="B7" s="4"/>
       <c r="C7" s="3" t="s">
         <v>13</v>
@@ -4356,7 +5338,7 @@
       <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="183"/>
+      <c r="A8" s="185"/>
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
@@ -4386,7 +5368,7 @@
       <c r="L8" s="6"/>
     </row>
     <row r="9" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="183"/>
+      <c r="A9" s="185"/>
       <c r="B9" s="4"/>
       <c r="C9" s="3" t="s">
         <v>11</v>
@@ -4414,7 +5396,7 @@
       <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="183"/>
+      <c r="A10" s="185"/>
       <c r="B10" s="4"/>
       <c r="C10" s="3" t="s">
         <v>12</v>
@@ -4442,7 +5424,7 @@
       <c r="L10" s="6"/>
     </row>
     <row r="11" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="183"/>
+      <c r="A11" s="185"/>
       <c r="B11" s="4"/>
       <c r="C11" s="3" t="s">
         <v>13</v>
@@ -4470,7 +5452,7 @@
       <c r="L11" s="6"/>
     </row>
     <row r="12" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="183" t="s">
+      <c r="A12" s="185" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -4508,7 +5490,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="183"/>
+      <c r="A13" s="185"/>
       <c r="B13" s="4"/>
       <c r="C13" s="3" t="s">
         <v>11</v>
@@ -4542,7 +5524,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="183"/>
+      <c r="A14" s="185"/>
       <c r="B14" s="4"/>
       <c r="C14" s="3" t="s">
         <v>12</v>
@@ -4576,7 +5558,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="183"/>
+      <c r="A15" s="185"/>
       <c r="B15" s="4"/>
       <c r="C15" s="3" t="s">
         <v>13</v>
@@ -4610,7 +5592,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="183"/>
+      <c r="A16" s="185"/>
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
@@ -4646,7 +5628,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="183"/>
+      <c r="A17" s="185"/>
       <c r="B17" s="4"/>
       <c r="C17" s="3" t="s">
         <v>11</v>
@@ -4680,7 +5662,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="183"/>
+      <c r="A18" s="185"/>
       <c r="B18" s="4"/>
       <c r="C18" s="3" t="s">
         <v>12</v>
@@ -4714,7 +5696,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="183"/>
+      <c r="A19" s="185"/>
       <c r="B19" s="4"/>
       <c r="C19" s="3" t="s">
         <v>13</v>
@@ -4761,819 +5743,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="58.5" style="179" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="17.59765625" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.796875" style="11"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="179" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B2" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="179" t="s">
-        <v>138</v>
-      </c>
-      <c r="B3" s="198">
-        <v>0.73333333333333295</v>
-      </c>
-      <c r="C3" s="198">
-        <v>0.89024390243902396</v>
-      </c>
-      <c r="D3" s="198">
-        <v>0.173913043478261</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="179" t="s">
-        <v>140</v>
-      </c>
-      <c r="B4" s="180">
-        <v>0.56190476190476202</v>
-      </c>
-      <c r="C4" s="180">
-        <v>0.54878048780487798</v>
-      </c>
-      <c r="D4" s="180">
-        <v>0.60869565217391297</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="179" t="s">
-        <v>139</v>
-      </c>
-      <c r="B5" s="180">
-        <v>0.68571428571428605</v>
-      </c>
-      <c r="C5" s="180">
-        <v>0.80487804878048796</v>
-      </c>
-      <c r="D5" s="180">
-        <v>0.26086956521739102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="179" t="s">
-        <v>133</v>
-      </c>
-      <c r="B6" s="180">
-        <v>0.69523809523809499</v>
-      </c>
-      <c r="C6" s="180">
-        <v>0.86585365853658502</v>
-      </c>
-      <c r="D6" s="180">
-        <v>8.6956521739130405E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="179" t="s">
-        <v>142</v>
-      </c>
-      <c r="B7" s="180">
-        <v>0.76190476190476197</v>
-      </c>
-      <c r="C7" s="180">
-        <v>0.97560975609756095</v>
-      </c>
-      <c r="D7" s="180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="179" t="s">
-        <v>134</v>
-      </c>
-      <c r="B8" s="180">
-        <v>0.64761904761904798</v>
-      </c>
-      <c r="C8" s="180">
-        <v>0.75609756097560998</v>
-      </c>
-      <c r="D8" s="180">
-        <v>0.26086956521739102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="179" t="s">
-        <v>160</v>
-      </c>
-      <c r="B9" s="198">
-        <v>0.73333333333333295</v>
-      </c>
-      <c r="C9" s="198">
-        <v>0.89024390243902396</v>
-      </c>
-      <c r="D9" s="198">
-        <v>0.173913043478261</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="179" t="s">
-        <v>161</v>
-      </c>
-      <c r="B10" s="180">
-        <v>0.57142857142857095</v>
-      </c>
-      <c r="C10" s="180">
-        <v>0.59756097560975596</v>
-      </c>
-      <c r="D10" s="180">
-        <v>0.47826086956521702</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="179" t="s">
-        <v>163</v>
-      </c>
-      <c r="B11" s="180">
-        <v>0.68571428571428605</v>
-      </c>
-      <c r="C11" s="180">
-        <v>0.80487804878048796</v>
-      </c>
-      <c r="D11" s="180">
-        <v>0.26086956521739102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="179" t="s">
-        <v>162</v>
-      </c>
-      <c r="B12" s="180">
-        <v>0.56190476190476202</v>
-      </c>
-      <c r="C12" s="180">
-        <v>0.54878048780487798</v>
-      </c>
-      <c r="D12" s="180">
-        <v>0.60869565217391297</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="179" t="s">
-        <v>164</v>
-      </c>
-      <c r="B13" s="198">
-        <v>0.73333333333333295</v>
-      </c>
-      <c r="C13" s="198">
-        <v>0.89024390243902396</v>
-      </c>
-      <c r="D13" s="198">
-        <v>0.173913043478261</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="179" t="s">
-        <v>165</v>
-      </c>
-      <c r="B14" s="180">
-        <v>0.67619047619047601</v>
-      </c>
-      <c r="C14" s="180">
-        <v>0.75609756097560998</v>
-      </c>
-      <c r="D14" s="180">
-        <v>0.39130434782608697</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="9.09765625" style="181" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6" style="181" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.59765625" style="181" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.8984375" style="181" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" style="181" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.09765625" style="181" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.796875" style="181" customWidth="1"/>
-    <col min="8" max="8" width="6" style="181" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.09765625" style="181" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.19921875" style="181" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.296875" style="181" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6" style="181" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.09765625" style="181" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.796875" style="181"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="181" t="s">
-        <v>143</v>
-      </c>
-      <c r="B1" s="181" t="s">
-        <v>131</v>
-      </c>
-      <c r="C1" s="181" t="s">
-        <v>144</v>
-      </c>
-      <c r="D1" s="181" t="s">
-        <v>145</v>
-      </c>
-      <c r="E1" s="181" t="s">
-        <v>146</v>
-      </c>
-      <c r="F1" s="181" t="s">
-        <v>149</v>
-      </c>
-      <c r="H1" s="181" t="s">
-        <v>154</v>
-      </c>
-      <c r="I1" s="181" t="s">
-        <v>143</v>
-      </c>
-      <c r="J1" s="181" t="s">
-        <v>155</v>
-      </c>
-      <c r="K1" s="181" t="s">
-        <v>156</v>
-      </c>
-      <c r="L1" s="181" t="s">
-        <v>146</v>
-      </c>
-      <c r="M1" s="181" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="181">
-        <v>1</v>
-      </c>
-      <c r="B2" s="181">
-        <v>1</v>
-      </c>
-      <c r="C2" s="181">
-        <v>1</v>
-      </c>
-      <c r="E2" s="181">
-        <v>1</v>
-      </c>
-      <c r="H2" s="181">
-        <v>1</v>
-      </c>
-      <c r="I2" s="181">
-        <v>1</v>
-      </c>
-      <c r="J2" s="181">
-        <v>1</v>
-      </c>
-      <c r="L2" s="181">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="181">
-        <v>0</v>
-      </c>
-      <c r="B3" s="181">
-        <v>0</v>
-      </c>
-      <c r="D3" s="181">
-        <v>0</v>
-      </c>
-      <c r="E3" s="181">
-        <v>0</v>
-      </c>
-      <c r="H3" s="181">
-        <v>0</v>
-      </c>
-      <c r="I3" s="181">
-        <v>0</v>
-      </c>
-      <c r="K3" s="181">
-        <v>0</v>
-      </c>
-      <c r="L3" s="181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="197">
-        <v>1</v>
-      </c>
-      <c r="B4" s="197">
-        <v>0</v>
-      </c>
-      <c r="C4" s="181">
-        <v>1</v>
-      </c>
-      <c r="E4" s="181">
-        <v>1</v>
-      </c>
-      <c r="H4" s="181">
-        <v>1</v>
-      </c>
-      <c r="I4" s="181">
-        <v>0</v>
-      </c>
-      <c r="J4" s="181">
-        <v>1</v>
-      </c>
-      <c r="L4" s="181">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="181">
-        <v>0</v>
-      </c>
-      <c r="B5" s="181">
-        <v>1</v>
-      </c>
-      <c r="D5" s="181">
-        <v>1</v>
-      </c>
-      <c r="E5" s="181">
-        <v>1</v>
-      </c>
-      <c r="H5" s="181">
-        <v>0</v>
-      </c>
-      <c r="I5" s="181">
-        <v>1</v>
-      </c>
-      <c r="K5" s="181">
-        <v>1</v>
-      </c>
-      <c r="L5" s="181">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="181" t="s">
-        <v>143</v>
-      </c>
-      <c r="B7" s="181" t="s">
-        <v>131</v>
-      </c>
-      <c r="C7" s="181" t="s">
-        <v>147</v>
-      </c>
-      <c r="D7" s="181" t="s">
-        <v>145</v>
-      </c>
-      <c r="E7" s="181" t="s">
-        <v>146</v>
-      </c>
-      <c r="F7" s="181" t="s">
-        <v>148</v>
-      </c>
-      <c r="H7" s="181" t="s">
-        <v>131</v>
-      </c>
-      <c r="I7" s="181" t="s">
-        <v>130</v>
-      </c>
-      <c r="J7" s="181" t="s">
-        <v>155</v>
-      </c>
-      <c r="K7" s="181" t="s">
-        <v>157</v>
-      </c>
-      <c r="L7" s="181" t="s">
-        <v>146</v>
-      </c>
-      <c r="M7" s="181" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="181">
-        <v>1</v>
-      </c>
-      <c r="B8" s="181">
-        <v>1</v>
-      </c>
-      <c r="D8" s="181">
-        <v>1</v>
-      </c>
-      <c r="E8" s="181">
-        <v>1</v>
-      </c>
-      <c r="H8" s="181">
-        <v>1</v>
-      </c>
-      <c r="I8" s="181">
-        <v>1</v>
-      </c>
-      <c r="J8" s="181">
-        <v>1</v>
-      </c>
-      <c r="L8" s="181">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="181">
-        <v>0</v>
-      </c>
-      <c r="B9" s="181">
-        <v>0</v>
-      </c>
-      <c r="C9" s="181">
-        <v>0</v>
-      </c>
-      <c r="E9" s="181">
-        <v>0</v>
-      </c>
-      <c r="H9" s="181">
-        <v>0</v>
-      </c>
-      <c r="I9" s="181">
-        <v>0</v>
-      </c>
-      <c r="K9" s="181">
-        <v>0</v>
-      </c>
-      <c r="L9" s="181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="181">
-        <v>1</v>
-      </c>
-      <c r="B10" s="181">
-        <v>0</v>
-      </c>
-      <c r="D10" s="181">
-        <v>0</v>
-      </c>
-      <c r="E10" s="181">
-        <v>0</v>
-      </c>
-      <c r="H10" s="181">
-        <v>1</v>
-      </c>
-      <c r="I10" s="181">
-        <v>0</v>
-      </c>
-      <c r="J10" s="181">
-        <v>1</v>
-      </c>
-      <c r="L10" s="181">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" s="181">
-        <v>0</v>
-      </c>
-      <c r="B11" s="181">
-        <v>1</v>
-      </c>
-      <c r="C11" s="181">
-        <v>0</v>
-      </c>
-      <c r="E11" s="181">
-        <v>0</v>
-      </c>
-      <c r="H11" s="181">
-        <v>0</v>
-      </c>
-      <c r="I11" s="181">
-        <v>1</v>
-      </c>
-      <c r="K11" s="181">
-        <v>1</v>
-      </c>
-      <c r="L11" s="181">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="181" t="s">
-        <v>143</v>
-      </c>
-      <c r="B13" s="181" t="s">
-        <v>131</v>
-      </c>
-      <c r="C13" s="181" t="s">
-        <v>150</v>
-      </c>
-      <c r="D13" s="181" t="s">
-        <v>151</v>
-      </c>
-      <c r="E13" s="181" t="s">
-        <v>146</v>
-      </c>
-      <c r="F13" s="181" t="s">
-        <v>149</v>
-      </c>
-      <c r="H13" s="181" t="s">
-        <v>131</v>
-      </c>
-      <c r="I13" s="181" t="s">
-        <v>130</v>
-      </c>
-      <c r="J13" s="181" t="s">
-        <v>158</v>
-      </c>
-      <c r="K13" s="181" t="s">
-        <v>157</v>
-      </c>
-      <c r="L13" s="181" t="s">
-        <v>146</v>
-      </c>
-      <c r="M13" s="181" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" s="181">
-        <v>1</v>
-      </c>
-      <c r="B14" s="181">
-        <v>1</v>
-      </c>
-      <c r="C14" s="181">
-        <v>1</v>
-      </c>
-      <c r="E14" s="181">
-        <v>1</v>
-      </c>
-      <c r="H14" s="181">
-        <v>1</v>
-      </c>
-      <c r="I14" s="181">
-        <v>1</v>
-      </c>
-      <c r="K14" s="181">
-        <v>1</v>
-      </c>
-      <c r="L14" s="181">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" s="181">
-        <v>0</v>
-      </c>
-      <c r="B15" s="181">
-        <v>0</v>
-      </c>
-      <c r="D15" s="181">
-        <v>0</v>
-      </c>
-      <c r="E15" s="181">
-        <v>0</v>
-      </c>
-      <c r="H15" s="181">
-        <v>0</v>
-      </c>
-      <c r="I15" s="181">
-        <v>0</v>
-      </c>
-      <c r="J15" s="181">
-        <v>0</v>
-      </c>
-      <c r="L15" s="181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A16" s="181">
-        <v>1</v>
-      </c>
-      <c r="B16" s="181">
-        <v>0</v>
-      </c>
-      <c r="C16" s="181">
-        <v>1</v>
-      </c>
-      <c r="E16" s="181">
-        <v>1</v>
-      </c>
-      <c r="H16" s="181">
-        <v>1</v>
-      </c>
-      <c r="I16" s="181">
-        <v>0</v>
-      </c>
-      <c r="K16" s="181">
-        <v>0</v>
-      </c>
-      <c r="L16" s="181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" s="181">
-        <v>0</v>
-      </c>
-      <c r="B17" s="181">
-        <v>1</v>
-      </c>
-      <c r="D17" s="181">
-        <v>1</v>
-      </c>
-      <c r="E17" s="181">
-        <v>1</v>
-      </c>
-      <c r="H17" s="181">
-        <v>0</v>
-      </c>
-      <c r="I17" s="181">
-        <v>1</v>
-      </c>
-      <c r="J17" s="181">
-        <v>0</v>
-      </c>
-      <c r="L17" s="181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A19" s="181" t="s">
-        <v>143</v>
-      </c>
-      <c r="B19" s="181" t="s">
-        <v>131</v>
-      </c>
-      <c r="C19" s="181" t="s">
-        <v>152</v>
-      </c>
-      <c r="D19" s="181" t="s">
-        <v>153</v>
-      </c>
-      <c r="E19" s="181" t="s">
-        <v>146</v>
-      </c>
-      <c r="F19" s="181" t="s">
-        <v>148</v>
-      </c>
-      <c r="H19" s="181" t="s">
-        <v>131</v>
-      </c>
-      <c r="I19" s="181" t="s">
-        <v>130</v>
-      </c>
-      <c r="J19" s="181" t="s">
-        <v>158</v>
-      </c>
-      <c r="K19" s="181" t="s">
-        <v>159</v>
-      </c>
-      <c r="L19" s="181" t="s">
-        <v>146</v>
-      </c>
-      <c r="M19" s="181" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A20" s="181">
-        <v>1</v>
-      </c>
-      <c r="B20" s="181">
-        <v>1</v>
-      </c>
-      <c r="D20" s="181">
-        <v>1</v>
-      </c>
-      <c r="E20" s="181">
-        <v>1</v>
-      </c>
-      <c r="H20" s="181">
-        <v>1</v>
-      </c>
-      <c r="I20" s="181">
-        <v>1</v>
-      </c>
-      <c r="K20" s="181">
-        <v>1</v>
-      </c>
-      <c r="L20" s="181">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A21" s="181">
-        <v>0</v>
-      </c>
-      <c r="B21" s="181">
-        <v>0</v>
-      </c>
-      <c r="C21" s="181">
-        <v>0</v>
-      </c>
-      <c r="E21" s="181">
-        <v>0</v>
-      </c>
-      <c r="H21" s="181">
-        <v>0</v>
-      </c>
-      <c r="I21" s="181">
-        <v>0</v>
-      </c>
-      <c r="J21" s="181">
-        <v>0</v>
-      </c>
-      <c r="L21" s="181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A22" s="181">
-        <v>1</v>
-      </c>
-      <c r="B22" s="181">
-        <v>0</v>
-      </c>
-      <c r="D22" s="181">
-        <v>0</v>
-      </c>
-      <c r="E22" s="181">
-        <v>0</v>
-      </c>
-      <c r="H22" s="181">
-        <v>1</v>
-      </c>
-      <c r="I22" s="181">
-        <v>0</v>
-      </c>
-      <c r="K22" s="181">
-        <v>0</v>
-      </c>
-      <c r="L22" s="181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A23" s="181">
-        <v>0</v>
-      </c>
-      <c r="B23" s="181">
-        <v>1</v>
-      </c>
-      <c r="C23" s="181">
-        <v>0</v>
-      </c>
-      <c r="E23" s="181">
-        <v>0</v>
-      </c>
-      <c r="H23" s="181">
-        <v>0</v>
-      </c>
-      <c r="I23" s="181">
-        <v>1</v>
-      </c>
-      <c r="J23" s="181">
-        <v>0</v>
-      </c>
-      <c r="L23" s="181">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -7268,7 +7443,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H51"/>
   <sheetViews>
@@ -8317,7 +8492,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B22"/>
   <sheetViews>
@@ -8445,12 +8620,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
@@ -8489,16 +8664,16 @@
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
-      <c r="D2" s="184" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="185"/>
-      <c r="F2" s="186"/>
-      <c r="G2" s="184" t="s">
+      <c r="D2" s="186" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="187"/>
+      <c r="F2" s="188"/>
+      <c r="G2" s="186" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="185"/>
-      <c r="I2" s="186"/>
+      <c r="H2" s="187"/>
+      <c r="I2" s="188"/>
     </row>
     <row r="3" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="11"/>
@@ -8524,7 +8699,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="184" t="s">
+      <c r="A4" s="186" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="21" t="s">
@@ -8553,7 +8728,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="187"/>
+      <c r="A5" s="189"/>
       <c r="B5" s="22"/>
       <c r="C5" s="23" t="s">
         <v>11</v>
@@ -8566,7 +8741,7 @@
       <c r="I5" s="35"/>
     </row>
     <row r="6" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="187"/>
+      <c r="A6" s="189"/>
       <c r="B6" s="22"/>
       <c r="C6" s="23" t="s">
         <v>12</v>
@@ -8591,7 +8766,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="187"/>
+      <c r="A7" s="189"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23" t="s">
         <v>13</v>
@@ -8616,7 +8791,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="188"/>
+      <c r="A8" s="190"/>
       <c r="B8" s="25"/>
       <c r="C8" s="26" t="s">
         <v>18</v>
@@ -8652,7 +8827,7 @@
       <c r="I9" s="40"/>
     </row>
     <row r="10" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="184" t="s">
+      <c r="A10" s="186" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="21" t="s">
@@ -8681,7 +8856,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="187"/>
+      <c r="A11" s="189"/>
       <c r="B11" s="22"/>
       <c r="C11" s="23" t="s">
         <v>11</v>
@@ -8706,7 +8881,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="187"/>
+      <c r="A12" s="189"/>
       <c r="B12" s="22"/>
       <c r="C12" s="23" t="s">
         <v>12</v>
@@ -8731,7 +8906,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="187"/>
+      <c r="A13" s="189"/>
       <c r="B13" s="22"/>
       <c r="C13" s="23" t="s">
         <v>13</v>
@@ -8756,7 +8931,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="188"/>
+      <c r="A14" s="190"/>
       <c r="B14" s="24"/>
       <c r="C14" s="24" t="s">
         <v>19</v>
@@ -8793,15 +8968,913 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="9" customWidth="1"/>
+    <col min="4" max="4" width="11.8984375" style="4" customWidth="1"/>
+    <col min="5" max="6" width="13.19921875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="11.8984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.59765625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.796875" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="10">
+        <v>123</v>
+      </c>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="194" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="195"/>
+      <c r="F2" s="196"/>
+      <c r="G2" s="194" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="195"/>
+      <c r="I2" s="196"/>
+    </row>
+    <row r="3" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="56" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="194" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="58">
+        <v>1</v>
+      </c>
+      <c r="E4" s="59">
+        <v>1</v>
+      </c>
+      <c r="F4" s="60">
+        <v>1</v>
+      </c>
+      <c r="G4" s="58">
+        <v>0.76</v>
+      </c>
+      <c r="H4" s="59">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="I4" s="60">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="197"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="63"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="65"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="197"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="63">
+        <v>1</v>
+      </c>
+      <c r="E6" s="64">
+        <v>1</v>
+      </c>
+      <c r="F6" s="65">
+        <v>1</v>
+      </c>
+      <c r="G6" s="63">
+        <v>0.76</v>
+      </c>
+      <c r="H6" s="64">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="I6" s="65">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="197"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="63">
+        <v>1</v>
+      </c>
+      <c r="E7" s="64">
+        <v>1</v>
+      </c>
+      <c r="F7" s="65">
+        <v>1</v>
+      </c>
+      <c r="G7" s="63">
+        <v>0.76</v>
+      </c>
+      <c r="H7" s="64">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="I7" s="65">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="197"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="63">
+        <v>0.79</v>
+      </c>
+      <c r="E8" s="64">
+        <v>0.93</v>
+      </c>
+      <c r="F8" s="65">
+        <v>0.17</v>
+      </c>
+      <c r="G8" s="63">
+        <v>0.74</v>
+      </c>
+      <c r="H8" s="64">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="I8" s="65">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="197"/>
+      <c r="B9" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="73">
+        <v>0.9</v>
+      </c>
+      <c r="E9" s="74">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="F9" s="75">
+        <v>0.6</v>
+      </c>
+      <c r="G9" s="85">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="H9" s="45">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="I9" s="86">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="197"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="63"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="82"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="197"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="63">
+        <v>0.9</v>
+      </c>
+      <c r="E11" s="64">
+        <v>0.98</v>
+      </c>
+      <c r="F11" s="65">
+        <v>0.6</v>
+      </c>
+      <c r="G11" s="81">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="H11" s="34">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="I11" s="82">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="197"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="63">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="E12" s="64">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="F12" s="65">
+        <v>0.6</v>
+      </c>
+      <c r="G12" s="81">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="H12" s="34">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="I12" s="82">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="198"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="68">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="E13" s="69">
+        <v>0.9</v>
+      </c>
+      <c r="F13" s="70">
+        <v>0.1</v>
+      </c>
+      <c r="G13" s="83">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="H13" s="51">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="I13" s="84">
+        <v>0.27300000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="18" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="71"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="82"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="194" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="73">
+        <v>1</v>
+      </c>
+      <c r="E15" s="74">
+        <v>1</v>
+      </c>
+      <c r="F15" s="75">
+        <v>1</v>
+      </c>
+      <c r="G15" s="90">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="H15" s="91">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="I15" s="92">
+        <v>0.313</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="197"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="63">
+        <v>1</v>
+      </c>
+      <c r="E16" s="64">
+        <v>1</v>
+      </c>
+      <c r="F16" s="65">
+        <v>1</v>
+      </c>
+      <c r="G16" s="81">
+        <v>0.8</v>
+      </c>
+      <c r="H16" s="34">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="I16" s="82">
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="197"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="63">
+        <v>1</v>
+      </c>
+      <c r="E17" s="64">
+        <v>1</v>
+      </c>
+      <c r="F17" s="65">
+        <v>1</v>
+      </c>
+      <c r="G17" s="81">
+        <v>0.79</v>
+      </c>
+      <c r="H17" s="34">
+        <v>0.93</v>
+      </c>
+      <c r="I17" s="82">
+        <v>0.313</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="197"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="63">
+        <v>1</v>
+      </c>
+      <c r="E18" s="64">
+        <v>1</v>
+      </c>
+      <c r="F18" s="65">
+        <v>1</v>
+      </c>
+      <c r="G18" s="81">
+        <v>0.81</v>
+      </c>
+      <c r="H18" s="34">
+        <v>0.96</v>
+      </c>
+      <c r="I18" s="82">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="197"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" s="76">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="E19" s="69">
+        <v>0.99</v>
+      </c>
+      <c r="F19" s="65">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="G19" s="83">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="H19" s="51">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="I19" s="84">
+        <v>0.313</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="197"/>
+      <c r="B20" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="73">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="E20" s="74">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="F20" s="75">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="G20" s="85">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="H20" s="45">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="I20" s="86">
+        <v>0.38900000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="197"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="63">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="E21" s="64">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="F21" s="65">
+        <v>0.65</v>
+      </c>
+      <c r="G21" s="81">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="H21" s="34">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="I21" s="82">
+        <v>0.16700000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="197"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="63">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="E22" s="64">
+        <v>0.96</v>
+      </c>
+      <c r="F22" s="65">
+        <v>0.88</v>
+      </c>
+      <c r="G22" s="81">
+        <v>0.753</v>
+      </c>
+      <c r="H22" s="34">
+        <v>0.877</v>
+      </c>
+      <c r="I22" s="82">
+        <v>0.38900000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="197"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="63">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="E23" s="64">
+        <v>0.96</v>
+      </c>
+      <c r="F23" s="65">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="G23" s="81">
+        <v>0.754</v>
+      </c>
+      <c r="H23" s="34">
+        <v>0.877</v>
+      </c>
+      <c r="I23" s="82">
+        <v>0.38900000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="198"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="78" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="79">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="E24" s="66">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="F24" s="80">
+        <v>0.77</v>
+      </c>
+      <c r="G24" s="87">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="H24" s="88">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="I24" s="89">
+        <v>0.38900000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="A15:A24"/>
+    <mergeCell ref="A4:A13"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="93">
+        <v>123</v>
+      </c>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="186" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="187"/>
+      <c r="F2" s="188"/>
+      <c r="G2" s="186" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="187"/>
+      <c r="I2" s="188"/>
+    </row>
+    <row r="3" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="95" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="95" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="186" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="94" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="104"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="99"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="189"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="107"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="101"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="189"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="107"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="101"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="189"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="107"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="101"/>
+    </row>
+    <row r="8" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="190"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="108"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="103"/>
+    </row>
+    <row r="9" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="93"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="40"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="186" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="94" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="119">
+        <v>0.95</v>
+      </c>
+      <c r="E10" s="120">
+        <v>0.97</v>
+      </c>
+      <c r="F10" s="121">
+        <v>0.88</v>
+      </c>
+      <c r="G10" s="122">
+        <v>0.64</v>
+      </c>
+      <c r="H10" s="122">
+        <v>0.71</v>
+      </c>
+      <c r="I10" s="123">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="189"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="124">
+        <v>0.86</v>
+      </c>
+      <c r="E11" s="125">
+        <v>0.97</v>
+      </c>
+      <c r="F11" s="126">
+        <v>0.49</v>
+      </c>
+      <c r="G11" s="132">
+        <v>0.74</v>
+      </c>
+      <c r="H11" s="132">
+        <v>0.86</v>
+      </c>
+      <c r="I11" s="133">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="189"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="124">
+        <v>0.73</v>
+      </c>
+      <c r="E12" s="125">
+        <v>0.85</v>
+      </c>
+      <c r="F12" s="126">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="G12" s="125">
+        <v>0.65</v>
+      </c>
+      <c r="H12" s="125">
+        <v>0.7</v>
+      </c>
+      <c r="I12" s="126">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="189"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="124">
+        <v>0.73</v>
+      </c>
+      <c r="E13" s="125">
+        <v>0.84</v>
+      </c>
+      <c r="F13" s="126">
+        <v>0.42</v>
+      </c>
+      <c r="G13" s="125">
+        <v>0.65</v>
+      </c>
+      <c r="H13" s="125">
+        <v>0.7</v>
+      </c>
+      <c r="I13" s="126">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="190"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="127">
+        <v>0.84</v>
+      </c>
+      <c r="E14" s="128">
+        <v>0.8</v>
+      </c>
+      <c r="F14" s="129">
+        <v>0.9</v>
+      </c>
+      <c r="G14" s="130">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="H14" s="130">
+        <v>0.67</v>
+      </c>
+      <c r="I14" s="131">
+        <v>0.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A10:A14"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -8820,16 +9893,16 @@
       <c r="A1" s="134"/>
       <c r="B1" s="135"/>
       <c r="C1" s="135"/>
-      <c r="D1" s="189" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="190"/>
-      <c r="F1" s="190"/>
-      <c r="G1" s="190" t="s">
+      <c r="D1" s="191" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="192"/>
+      <c r="F1" s="192"/>
+      <c r="G1" s="192" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="190"/>
-      <c r="I1" s="191"/>
+      <c r="H1" s="192"/>
+      <c r="I1" s="193"/>
     </row>
     <row r="2" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="137"/>
@@ -8851,8 +9924,11 @@
       <c r="I2" s="118" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J2" s="136" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="138" t="s">
         <v>125</v>
       </c>
@@ -8863,7 +9939,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="15.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="140"/>
       <c r="B4" s="113" t="s">
         <v>9</v>
@@ -8878,7 +9954,7 @@
       <c r="H4" s="135"/>
       <c r="I4" s="141"/>
     </row>
-    <row r="5" spans="1:10" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="140"/>
       <c r="B5" s="114"/>
       <c r="C5" s="115" t="s">
@@ -8886,7 +9962,7 @@
       </c>
       <c r="I5" s="142"/>
     </row>
-    <row r="6" spans="1:10" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="140"/>
       <c r="B6" s="114"/>
       <c r="C6" s="115" t="s">
@@ -8894,7 +9970,7 @@
       </c>
       <c r="I6" s="142"/>
     </row>
-    <row r="7" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="143"/>
       <c r="B7" s="144"/>
       <c r="C7" s="116" t="s">
@@ -8912,7 +9988,7 @@
         <v>126</v>
       </c>
       <c r="B8" s="112" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C8" s="139" t="s">
         <v>17</v>
@@ -9053,1075 +10129,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="12.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="9" customWidth="1"/>
-    <col min="4" max="4" width="11.8984375" style="4" customWidth="1"/>
-    <col min="5" max="6" width="13.19921875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="11.8984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.59765625" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.796875" style="9"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="10">
-        <v>123</v>
-      </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="192" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="193"/>
-      <c r="F2" s="194"/>
-      <c r="G2" s="192" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="193"/>
-      <c r="I2" s="194"/>
-    </row>
-    <row r="3" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="53"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="56" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="192" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="58">
-        <v>1</v>
-      </c>
-      <c r="E4" s="59">
-        <v>1</v>
-      </c>
-      <c r="F4" s="60">
-        <v>1</v>
-      </c>
-      <c r="G4" s="58">
-        <v>0.76</v>
-      </c>
-      <c r="H4" s="59">
-        <v>0.96699999999999997</v>
-      </c>
-      <c r="I4" s="60">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="195"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="63"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="65"/>
-    </row>
-    <row r="6" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="195"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="63">
-        <v>1</v>
-      </c>
-      <c r="E6" s="64">
-        <v>1</v>
-      </c>
-      <c r="F6" s="65">
-        <v>1</v>
-      </c>
-      <c r="G6" s="63">
-        <v>0.76</v>
-      </c>
-      <c r="H6" s="64">
-        <v>0.96699999999999997</v>
-      </c>
-      <c r="I6" s="65">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="195"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="63">
-        <v>1</v>
-      </c>
-      <c r="E7" s="64">
-        <v>1</v>
-      </c>
-      <c r="F7" s="65">
-        <v>1</v>
-      </c>
-      <c r="G7" s="63">
-        <v>0.76</v>
-      </c>
-      <c r="H7" s="64">
-        <v>0.96699999999999997</v>
-      </c>
-      <c r="I7" s="65">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="195"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="63">
-        <v>0.79</v>
-      </c>
-      <c r="E8" s="64">
-        <v>0.93</v>
-      </c>
-      <c r="F8" s="65">
-        <v>0.17</v>
-      </c>
-      <c r="G8" s="63">
-        <v>0.74</v>
-      </c>
-      <c r="H8" s="64">
-        <v>0.92600000000000005</v>
-      </c>
-      <c r="I8" s="65">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="195"/>
-      <c r="B9" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="77" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="73">
-        <v>0.9</v>
-      </c>
-      <c r="E9" s="74">
-        <v>0.98399999999999999</v>
-      </c>
-      <c r="F9" s="75">
-        <v>0.6</v>
-      </c>
-      <c r="G9" s="85">
-        <v>0.73399999999999999</v>
-      </c>
-      <c r="H9" s="45">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="I9" s="86">
-        <v>4.4999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="195"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="63"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="82"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="195"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="63">
-        <v>0.9</v>
-      </c>
-      <c r="E11" s="64">
-        <v>0.98</v>
-      </c>
-      <c r="F11" s="65">
-        <v>0.6</v>
-      </c>
-      <c r="G11" s="81">
-        <v>0.73399999999999999</v>
-      </c>
-      <c r="H11" s="34">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="I11" s="82">
-        <v>4.4999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="195"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="63">
-        <v>0.90100000000000002</v>
-      </c>
-      <c r="E12" s="64">
-        <v>0.98399999999999999</v>
-      </c>
-      <c r="F12" s="65">
-        <v>0.6</v>
-      </c>
-      <c r="G12" s="81">
-        <v>0.73399999999999999</v>
-      </c>
-      <c r="H12" s="34">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="I12" s="82">
-        <v>4.4999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="196"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="67" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="68">
-        <v>0.73399999999999999</v>
-      </c>
-      <c r="E13" s="69">
-        <v>0.9</v>
-      </c>
-      <c r="F13" s="70">
-        <v>0.1</v>
-      </c>
-      <c r="G13" s="83">
-        <v>0.69699999999999995</v>
-      </c>
-      <c r="H13" s="51">
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="I13" s="84">
-        <v>0.27300000000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="18" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="71"/>
-      <c r="B14" s="72"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="82"/>
-    </row>
-    <row r="15" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="192" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="73">
-        <v>1</v>
-      </c>
-      <c r="E15" s="74">
-        <v>1</v>
-      </c>
-      <c r="F15" s="75">
-        <v>1</v>
-      </c>
-      <c r="G15" s="90">
-        <v>0.81699999999999995</v>
-      </c>
-      <c r="H15" s="91">
-        <v>0.96399999999999997</v>
-      </c>
-      <c r="I15" s="92">
-        <v>0.313</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="195"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="63">
-        <v>1</v>
-      </c>
-      <c r="E16" s="64">
-        <v>1</v>
-      </c>
-      <c r="F16" s="65">
-        <v>1</v>
-      </c>
-      <c r="G16" s="81">
-        <v>0.8</v>
-      </c>
-      <c r="H16" s="34">
-        <v>0.94499999999999995</v>
-      </c>
-      <c r="I16" s="82">
-        <v>0.3125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="195"/>
-      <c r="B17" s="61"/>
-      <c r="C17" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="63">
-        <v>1</v>
-      </c>
-      <c r="E17" s="64">
-        <v>1</v>
-      </c>
-      <c r="F17" s="65">
-        <v>1</v>
-      </c>
-      <c r="G17" s="81">
-        <v>0.79</v>
-      </c>
-      <c r="H17" s="34">
-        <v>0.93</v>
-      </c>
-      <c r="I17" s="82">
-        <v>0.313</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="195"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="63">
-        <v>1</v>
-      </c>
-      <c r="E18" s="64">
-        <v>1</v>
-      </c>
-      <c r="F18" s="65">
-        <v>1</v>
-      </c>
-      <c r="G18" s="81">
-        <v>0.81</v>
-      </c>
-      <c r="H18" s="34">
-        <v>0.96</v>
-      </c>
-      <c r="I18" s="82">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="195"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="55" t="s">
-        <v>127</v>
-      </c>
-      <c r="D19" s="76">
-        <v>0.97799999999999998</v>
-      </c>
-      <c r="E19" s="69">
-        <v>0.99</v>
-      </c>
-      <c r="F19" s="65">
-        <v>0.92900000000000005</v>
-      </c>
-      <c r="G19" s="83">
-        <v>0.80300000000000005</v>
-      </c>
-      <c r="H19" s="51">
-        <v>0.94499999999999995</v>
-      </c>
-      <c r="I19" s="84">
-        <v>0.313</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="195"/>
-      <c r="B20" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="77" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="73">
-        <v>0.92600000000000005</v>
-      </c>
-      <c r="E20" s="74">
-        <v>0.95499999999999996</v>
-      </c>
-      <c r="F20" s="75">
-        <v>0.81699999999999995</v>
-      </c>
-      <c r="G20" s="85">
-        <v>0.78800000000000003</v>
-      </c>
-      <c r="H20" s="45">
-        <v>0.92400000000000004</v>
-      </c>
-      <c r="I20" s="86">
-        <v>0.38900000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="195"/>
-      <c r="B21" s="61"/>
-      <c r="C21" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="63">
-        <v>0.91200000000000003</v>
-      </c>
-      <c r="E21" s="64">
-        <v>0.98199999999999998</v>
-      </c>
-      <c r="F21" s="65">
-        <v>0.65</v>
-      </c>
-      <c r="G21" s="81">
-        <v>0.73199999999999998</v>
-      </c>
-      <c r="H21" s="34">
-        <v>0.92400000000000004</v>
-      </c>
-      <c r="I21" s="82">
-        <v>0.16700000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="195"/>
-      <c r="B22" s="61"/>
-      <c r="C22" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="63">
-        <v>0.94399999999999995</v>
-      </c>
-      <c r="E22" s="64">
-        <v>0.96</v>
-      </c>
-      <c r="F22" s="65">
-        <v>0.88</v>
-      </c>
-      <c r="G22" s="81">
-        <v>0.753</v>
-      </c>
-      <c r="H22" s="34">
-        <v>0.877</v>
-      </c>
-      <c r="I22" s="82">
-        <v>0.38900000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="195"/>
-      <c r="B23" s="61"/>
-      <c r="C23" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="63">
-        <v>0.94399999999999995</v>
-      </c>
-      <c r="E23" s="64">
-        <v>0.96</v>
-      </c>
-      <c r="F23" s="65">
-        <v>0.88300000000000001</v>
-      </c>
-      <c r="G23" s="81">
-        <v>0.754</v>
-      </c>
-      <c r="H23" s="34">
-        <v>0.877</v>
-      </c>
-      <c r="I23" s="82">
-        <v>0.38900000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="196"/>
-      <c r="B24" s="78"/>
-      <c r="C24" s="78" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="79">
-        <v>0.93600000000000005</v>
-      </c>
-      <c r="E24" s="66">
-        <v>0.98199999999999998</v>
-      </c>
-      <c r="F24" s="80">
-        <v>0.77</v>
-      </c>
-      <c r="G24" s="87">
-        <v>0.76700000000000002</v>
-      </c>
-      <c r="H24" s="88">
-        <v>0.89600000000000002</v>
-      </c>
-      <c r="I24" s="89">
-        <v>0.38900000000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="A15:A24"/>
-    <mergeCell ref="A4:A13"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.59765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.59765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.8984375" style="4" hidden="1" customWidth="1"/>
-    <col min="5" max="6" width="13.19921875" style="4" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="11.8984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.796875" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="160" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="160">
-        <v>123</v>
-      </c>
-      <c r="F1" s="160"/>
-      <c r="G1" s="160"/>
-      <c r="H1" s="160"/>
-      <c r="I1" s="160"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="160"/>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="184" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="185"/>
-      <c r="F2" s="186"/>
-      <c r="G2" s="184" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="185"/>
-      <c r="I2" s="186"/>
-    </row>
-    <row r="3" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="160"/>
-      <c r="B3" s="160"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="162" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="162" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="166" t="s">
-        <v>123</v>
-      </c>
-      <c r="B4" s="96" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="97" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="167"/>
-      <c r="E4" s="167"/>
-      <c r="F4" s="168"/>
-      <c r="G4" s="169"/>
-      <c r="H4" s="170"/>
-      <c r="I4" s="171"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="161" t="s">
-        <v>124</v>
-      </c>
-      <c r="B5" s="172" t="s">
-        <v>122</v>
-      </c>
-      <c r="C5" s="173" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="120">
-        <v>0.63</v>
-      </c>
-      <c r="E5" s="120">
-        <v>0.72</v>
-      </c>
-      <c r="F5" s="120">
-        <v>0.34</v>
-      </c>
-      <c r="G5" s="177">
-        <v>0.68</v>
-      </c>
-      <c r="H5" s="177">
-        <v>0.79</v>
-      </c>
-      <c r="I5" s="178">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="163"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="174" t="s">
-        <v>130</v>
-      </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="125">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="H6" s="125">
-        <v>0.6</v>
-      </c>
-      <c r="I6" s="164">
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="165"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="175" t="s">
-        <v>131</v>
-      </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="128">
-        <v>0.72</v>
-      </c>
-      <c r="H7" s="128">
-        <v>0.88</v>
-      </c>
-      <c r="I7" s="176">
-        <v>0.17</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.19921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.8984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.19921875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="93">
-        <v>123</v>
-      </c>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="184" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="185"/>
-      <c r="F2" s="186"/>
-      <c r="G2" s="184" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="185"/>
-      <c r="I2" s="186"/>
-    </row>
-    <row r="3" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="95" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="95" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="184" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="94" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="94" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="104"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="99"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="187"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="107"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="101"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="187"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="107"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="101"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="187"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="107"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="101"/>
-    </row>
-    <row r="8" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="188"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="108"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="103"/>
-    </row>
-    <row r="9" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="93"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="40"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="184" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="94" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="94" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="119">
-        <v>0.95</v>
-      </c>
-      <c r="E10" s="120">
-        <v>0.97</v>
-      </c>
-      <c r="F10" s="121">
-        <v>0.88</v>
-      </c>
-      <c r="G10" s="122">
-        <v>0.64</v>
-      </c>
-      <c r="H10" s="122">
-        <v>0.71</v>
-      </c>
-      <c r="I10" s="123">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="187"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="124">
-        <v>0.86</v>
-      </c>
-      <c r="E11" s="125">
-        <v>0.97</v>
-      </c>
-      <c r="F11" s="126">
-        <v>0.49</v>
-      </c>
-      <c r="G11" s="132">
-        <v>0.74</v>
-      </c>
-      <c r="H11" s="132">
-        <v>0.86</v>
-      </c>
-      <c r="I11" s="133">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="187"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="124">
-        <v>0.73</v>
-      </c>
-      <c r="E12" s="125">
-        <v>0.85</v>
-      </c>
-      <c r="F12" s="126">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="G12" s="125">
-        <v>0.65</v>
-      </c>
-      <c r="H12" s="125">
-        <v>0.7</v>
-      </c>
-      <c r="I12" s="126">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="187"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="124">
-        <v>0.73</v>
-      </c>
-      <c r="E13" s="125">
-        <v>0.84</v>
-      </c>
-      <c r="F13" s="126">
-        <v>0.42</v>
-      </c>
-      <c r="G13" s="125">
-        <v>0.65</v>
-      </c>
-      <c r="H13" s="125">
-        <v>0.7</v>
-      </c>
-      <c r="I13" s="126">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="188"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="127">
-        <v>0.84</v>
-      </c>
-      <c r="E14" s="128">
-        <v>0.8</v>
-      </c>
-      <c r="F14" s="129">
-        <v>0.9</v>
-      </c>
-      <c r="G14" s="130">
-        <v>0.61899999999999999</v>
-      </c>
-      <c r="H14" s="130">
-        <v>0.67</v>
-      </c>
-      <c r="I14" s="131">
-        <v>0.4</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A10:A14"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/model_performance.xlsx
+++ b/model_performance.xlsx
@@ -14,8 +14,8 @@
     <sheet name="mtry" sheetId="10" r:id="rId5"/>
     <sheet name="XCase" sheetId="7" r:id="rId6"/>
     <sheet name="Visit" sheetId="6" r:id="rId7"/>
-    <sheet name="Case" sheetId="13" r:id="rId8"/>
-    <sheet name="Visit1p1r" sheetId="11" r:id="rId9"/>
+    <sheet name="Visit1p1r" sheetId="11" r:id="rId8"/>
+    <sheet name="Case" sheetId="13" r:id="rId9"/>
     <sheet name="Case1p1r" sheetId="12" r:id="rId10"/>
     <sheet name="ensemble" sheetId="14" r:id="rId11"/>
   </sheets>
@@ -1498,6 +1498,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1505,21 +1520,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4801,7 +4801,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -4971,7 +4971,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -8628,7 +8628,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8976,7 +8976,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J17" sqref="J17"/>
+      <selection pane="bottomRight" activeCell="A15" sqref="A15:I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9013,16 +9013,16 @@
       <c r="A2" s="53"/>
       <c r="B2" s="53"/>
       <c r="C2" s="53"/>
-      <c r="D2" s="194" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="195"/>
-      <c r="F2" s="196"/>
-      <c r="G2" s="194" t="s">
+      <c r="D2" s="191" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="192"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="191" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="195"/>
-      <c r="I2" s="196"/>
+      <c r="H2" s="192"/>
+      <c r="I2" s="193"/>
     </row>
     <row r="3" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="53"/>
@@ -9048,7 +9048,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="194" t="s">
+      <c r="A4" s="191" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="57" t="s">
@@ -9077,7 +9077,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="197"/>
+      <c r="A5" s="194"/>
       <c r="B5" s="61"/>
       <c r="C5" s="55" t="s">
         <v>11</v>
@@ -9090,7 +9090,7 @@
       <c r="I5" s="65"/>
     </row>
     <row r="6" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="197"/>
+      <c r="A6" s="194"/>
       <c r="B6" s="61"/>
       <c r="C6" s="55" t="s">
         <v>12</v>
@@ -9115,7 +9115,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="197"/>
+      <c r="A7" s="194"/>
       <c r="B7" s="61"/>
       <c r="C7" s="55" t="s">
         <v>13</v>
@@ -9140,7 +9140,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="197"/>
+      <c r="A8" s="194"/>
       <c r="B8" s="62"/>
       <c r="C8" s="62" t="s">
         <v>17</v>
@@ -9165,7 +9165,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="197"/>
+      <c r="A9" s="194"/>
       <c r="B9" s="57" t="s">
         <v>9</v>
       </c>
@@ -9192,7 +9192,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="197"/>
+      <c r="A10" s="194"/>
       <c r="B10" s="61"/>
       <c r="C10" s="55" t="s">
         <v>11</v>
@@ -9205,7 +9205,7 @@
       <c r="I10" s="82"/>
     </row>
     <row r="11" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="197"/>
+      <c r="A11" s="194"/>
       <c r="B11" s="61"/>
       <c r="C11" s="55" t="s">
         <v>12</v>
@@ -9230,7 +9230,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="197"/>
+      <c r="A12" s="194"/>
       <c r="B12" s="61"/>
       <c r="C12" s="55" t="s">
         <v>13</v>
@@ -9255,7 +9255,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="198"/>
+      <c r="A13" s="195"/>
       <c r="B13" s="66"/>
       <c r="C13" s="67" t="s">
         <v>18</v>
@@ -9291,7 +9291,7 @@
       <c r="I14" s="82"/>
     </row>
     <row r="15" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="194" t="s">
+      <c r="A15" s="191" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="57" t="s">
@@ -9320,7 +9320,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="197"/>
+      <c r="A16" s="194"/>
       <c r="B16" s="61"/>
       <c r="C16" s="55" t="s">
         <v>11</v>
@@ -9345,7 +9345,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="197"/>
+      <c r="A17" s="194"/>
       <c r="B17" s="61"/>
       <c r="C17" s="55" t="s">
         <v>12</v>
@@ -9369,8 +9369,8 @@
         <v>0.313</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="197"/>
+    <row r="18" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="194"/>
       <c r="B18" s="61"/>
       <c r="C18" s="55" t="s">
         <v>13</v>
@@ -9394,8 +9394,8 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="197"/>
+    <row r="19" spans="1:9" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="194"/>
       <c r="B19" s="61"/>
       <c r="C19" s="55" t="s">
         <v>127</v>
@@ -9420,7 +9420,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="197"/>
+      <c r="A20" s="194"/>
       <c r="B20" s="57" t="s">
         <v>9</v>
       </c>
@@ -9447,7 +9447,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="197"/>
+      <c r="A21" s="194"/>
       <c r="B21" s="61"/>
       <c r="C21" s="55" t="s">
         <v>11</v>
@@ -9472,7 +9472,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="197"/>
+      <c r="A22" s="194"/>
       <c r="B22" s="61"/>
       <c r="C22" s="55" t="s">
         <v>12</v>
@@ -9497,7 +9497,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="197"/>
+      <c r="A23" s="194"/>
       <c r="B23" s="61"/>
       <c r="C23" s="55" t="s">
         <v>13</v>
@@ -9521,8 +9521,8 @@
         <v>0.38900000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="198"/>
+    <row r="24" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="195"/>
       <c r="B24" s="78"/>
       <c r="C24" s="78" t="s">
         <v>19</v>
@@ -9569,312 +9569,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.19921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.8984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.19921875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="93">
-        <v>123</v>
-      </c>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="186" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="187"/>
-      <c r="F2" s="188"/>
-      <c r="G2" s="186" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="187"/>
-      <c r="I2" s="188"/>
-    </row>
-    <row r="3" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="95" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="95" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="186" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="94" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="94" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="104"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="99"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="189"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="107"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="101"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="189"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="107"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="101"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="189"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="107"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="101"/>
-    </row>
-    <row r="8" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="190"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="108"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="103"/>
-    </row>
-    <row r="9" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="93"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="40"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="186" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="94" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="94" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="119">
-        <v>0.95</v>
-      </c>
-      <c r="E10" s="120">
-        <v>0.97</v>
-      </c>
-      <c r="F10" s="121">
-        <v>0.88</v>
-      </c>
-      <c r="G10" s="122">
-        <v>0.64</v>
-      </c>
-      <c r="H10" s="122">
-        <v>0.71</v>
-      </c>
-      <c r="I10" s="123">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="189"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="124">
-        <v>0.86</v>
-      </c>
-      <c r="E11" s="125">
-        <v>0.97</v>
-      </c>
-      <c r="F11" s="126">
-        <v>0.49</v>
-      </c>
-      <c r="G11" s="132">
-        <v>0.74</v>
-      </c>
-      <c r="H11" s="132">
-        <v>0.86</v>
-      </c>
-      <c r="I11" s="133">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="189"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="124">
-        <v>0.73</v>
-      </c>
-      <c r="E12" s="125">
-        <v>0.85</v>
-      </c>
-      <c r="F12" s="126">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="G12" s="125">
-        <v>0.65</v>
-      </c>
-      <c r="H12" s="125">
-        <v>0.7</v>
-      </c>
-      <c r="I12" s="126">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="189"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="124">
-        <v>0.73</v>
-      </c>
-      <c r="E13" s="125">
-        <v>0.84</v>
-      </c>
-      <c r="F13" s="126">
-        <v>0.42</v>
-      </c>
-      <c r="G13" s="125">
-        <v>0.65</v>
-      </c>
-      <c r="H13" s="125">
-        <v>0.7</v>
-      </c>
-      <c r="I13" s="126">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="190"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="127">
-        <v>0.84</v>
-      </c>
-      <c r="E14" s="128">
-        <v>0.8</v>
-      </c>
-      <c r="F14" s="129">
-        <v>0.9</v>
-      </c>
-      <c r="G14" s="130">
-        <v>0.61899999999999999</v>
-      </c>
-      <c r="H14" s="130">
-        <v>0.67</v>
-      </c>
-      <c r="I14" s="131">
-        <v>0.4</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A10:A14"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomRight" sqref="A1:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -9893,16 +9594,16 @@
       <c r="A1" s="134"/>
       <c r="B1" s="135"/>
       <c r="C1" s="135"/>
-      <c r="D1" s="191" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="192"/>
-      <c r="F1" s="192"/>
-      <c r="G1" s="192" t="s">
+      <c r="D1" s="196" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="197"/>
+      <c r="F1" s="197"/>
+      <c r="G1" s="197" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="192"/>
-      <c r="I1" s="193"/>
+      <c r="H1" s="197"/>
+      <c r="I1" s="198"/>
     </row>
     <row r="2" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="137"/>
@@ -10129,4 +9830,303 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10:I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="93">
+        <v>123</v>
+      </c>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="186" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="187"/>
+      <c r="F2" s="188"/>
+      <c r="G2" s="186" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="187"/>
+      <c r="I2" s="188"/>
+    </row>
+    <row r="3" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="95" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="95" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="186" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="94" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="104"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="99"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="189"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="107"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="101"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="189"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="107"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="101"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="189"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="107"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="101"/>
+    </row>
+    <row r="8" spans="1:9" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="190"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="108"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="103"/>
+    </row>
+    <row r="9" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="93"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="40"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="186" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="94" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="119">
+        <v>0.95</v>
+      </c>
+      <c r="E10" s="120">
+        <v>0.97</v>
+      </c>
+      <c r="F10" s="121">
+        <v>0.88</v>
+      </c>
+      <c r="G10" s="122">
+        <v>0.64</v>
+      </c>
+      <c r="H10" s="122">
+        <v>0.71</v>
+      </c>
+      <c r="I10" s="123">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="189"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="124">
+        <v>0.86</v>
+      </c>
+      <c r="E11" s="125">
+        <v>0.97</v>
+      </c>
+      <c r="F11" s="126">
+        <v>0.49</v>
+      </c>
+      <c r="G11" s="132">
+        <v>0.74</v>
+      </c>
+      <c r="H11" s="132">
+        <v>0.86</v>
+      </c>
+      <c r="I11" s="133">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="189"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="124">
+        <v>0.73</v>
+      </c>
+      <c r="E12" s="125">
+        <v>0.85</v>
+      </c>
+      <c r="F12" s="126">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="G12" s="125">
+        <v>0.65</v>
+      </c>
+      <c r="H12" s="125">
+        <v>0.7</v>
+      </c>
+      <c r="I12" s="126">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="189"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="124">
+        <v>0.73</v>
+      </c>
+      <c r="E13" s="125">
+        <v>0.84</v>
+      </c>
+      <c r="F13" s="126">
+        <v>0.42</v>
+      </c>
+      <c r="G13" s="125">
+        <v>0.65</v>
+      </c>
+      <c r="H13" s="125">
+        <v>0.7</v>
+      </c>
+      <c r="I13" s="126">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="190"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="127">
+        <v>0.84</v>
+      </c>
+      <c r="E14" s="128">
+        <v>0.8</v>
+      </c>
+      <c r="F14" s="129">
+        <v>0.9</v>
+      </c>
+      <c r="G14" s="130">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="H14" s="130">
+        <v>0.67</v>
+      </c>
+      <c r="I14" s="131">
+        <v>0.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A10:A14"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/model_performance.xlsx
+++ b/model_performance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="3" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="2stage ensemble" sheetId="15" r:id="rId1"/>
@@ -940,7 +940,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="199">
+  <cellXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1219,27 +1219,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1520,6 +1505,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4205,587 +4199,587 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.09765625" style="181" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6" style="181" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.59765625" style="181" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.8984375" style="181" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" style="181" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.09765625" style="181" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.796875" style="181" customWidth="1"/>
-    <col min="8" max="8" width="6" style="181" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.09765625" style="181" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.19921875" style="181" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.296875" style="181" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6" style="181" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.09765625" style="181" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.796875" style="181"/>
+    <col min="1" max="1" width="9.09765625" style="176" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" style="176" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.59765625" style="176" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.8984375" style="176" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" style="176" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.09765625" style="176" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.796875" style="176" customWidth="1"/>
+    <col min="8" max="8" width="6" style="176" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.09765625" style="176" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.19921875" style="176" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.296875" style="176" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6" style="176" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.09765625" style="176" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.796875" style="176"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="181" t="s">
+      <c r="A1" s="176" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="181" t="s">
+      <c r="B1" s="176" t="s">
         <v>130</v>
       </c>
-      <c r="C1" s="181" t="s">
+      <c r="C1" s="176" t="s">
         <v>143</v>
       </c>
-      <c r="D1" s="181" t="s">
+      <c r="D1" s="176" t="s">
         <v>144</v>
       </c>
-      <c r="E1" s="181" t="s">
+      <c r="E1" s="176" t="s">
         <v>145</v>
       </c>
-      <c r="F1" s="181" t="s">
+      <c r="F1" s="176" t="s">
         <v>148</v>
       </c>
-      <c r="H1" s="181" t="s">
+      <c r="H1" s="176" t="s">
         <v>153</v>
       </c>
-      <c r="I1" s="181" t="s">
+      <c r="I1" s="176" t="s">
         <v>142</v>
       </c>
-      <c r="J1" s="181" t="s">
+      <c r="J1" s="176" t="s">
         <v>154</v>
       </c>
-      <c r="K1" s="181" t="s">
+      <c r="K1" s="176" t="s">
         <v>155</v>
       </c>
-      <c r="L1" s="181" t="s">
+      <c r="L1" s="176" t="s">
         <v>145</v>
       </c>
-      <c r="M1" s="181" t="s">
+      <c r="M1" s="176" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="181">
-        <v>1</v>
-      </c>
-      <c r="B2" s="181">
-        <v>1</v>
-      </c>
-      <c r="C2" s="181">
-        <v>1</v>
-      </c>
-      <c r="E2" s="181">
-        <v>1</v>
-      </c>
-      <c r="H2" s="181">
-        <v>1</v>
-      </c>
-      <c r="I2" s="181">
-        <v>1</v>
-      </c>
-      <c r="J2" s="181">
-        <v>1</v>
-      </c>
-      <c r="L2" s="181">
+      <c r="A2" s="176">
+        <v>1</v>
+      </c>
+      <c r="B2" s="176">
+        <v>1</v>
+      </c>
+      <c r="C2" s="176">
+        <v>1</v>
+      </c>
+      <c r="E2" s="176">
+        <v>1</v>
+      </c>
+      <c r="H2" s="176">
+        <v>1</v>
+      </c>
+      <c r="I2" s="176">
+        <v>1</v>
+      </c>
+      <c r="J2" s="176">
+        <v>1</v>
+      </c>
+      <c r="L2" s="176">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="181">
+      <c r="A3" s="176">
         <v>0</v>
       </c>
-      <c r="B3" s="181">
+      <c r="B3" s="176">
         <v>0</v>
       </c>
-      <c r="D3" s="181">
+      <c r="D3" s="176">
         <v>0</v>
       </c>
-      <c r="E3" s="181">
+      <c r="E3" s="176">
         <v>0</v>
       </c>
-      <c r="H3" s="181">
+      <c r="H3" s="176">
         <v>0</v>
       </c>
-      <c r="I3" s="181">
+      <c r="I3" s="176">
         <v>0</v>
       </c>
-      <c r="K3" s="181">
+      <c r="K3" s="176">
         <v>0</v>
       </c>
-      <c r="L3" s="181">
+      <c r="L3" s="176">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="182">
-        <v>1</v>
-      </c>
-      <c r="B4" s="182">
+      <c r="A4" s="177">
+        <v>1</v>
+      </c>
+      <c r="B4" s="177">
         <v>0</v>
       </c>
-      <c r="C4" s="181">
-        <v>1</v>
-      </c>
-      <c r="E4" s="181">
-        <v>1</v>
-      </c>
-      <c r="H4" s="181">
-        <v>1</v>
-      </c>
-      <c r="I4" s="181">
+      <c r="C4" s="176">
+        <v>1</v>
+      </c>
+      <c r="E4" s="176">
+        <v>1</v>
+      </c>
+      <c r="H4" s="176">
+        <v>1</v>
+      </c>
+      <c r="I4" s="176">
         <v>0</v>
       </c>
-      <c r="J4" s="181">
-        <v>1</v>
-      </c>
-      <c r="L4" s="181">
+      <c r="J4" s="176">
+        <v>1</v>
+      </c>
+      <c r="L4" s="176">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="181">
+      <c r="A5" s="176">
         <v>0</v>
       </c>
-      <c r="B5" s="181">
-        <v>1</v>
-      </c>
-      <c r="D5" s="181">
-        <v>1</v>
-      </c>
-      <c r="E5" s="181">
-        <v>1</v>
-      </c>
-      <c r="H5" s="181">
+      <c r="B5" s="176">
+        <v>1</v>
+      </c>
+      <c r="D5" s="176">
+        <v>1</v>
+      </c>
+      <c r="E5" s="176">
+        <v>1</v>
+      </c>
+      <c r="H5" s="176">
         <v>0</v>
       </c>
-      <c r="I5" s="181">
-        <v>1</v>
-      </c>
-      <c r="K5" s="181">
-        <v>1</v>
-      </c>
-      <c r="L5" s="181">
+      <c r="I5" s="176">
+        <v>1</v>
+      </c>
+      <c r="K5" s="176">
+        <v>1</v>
+      </c>
+      <c r="L5" s="176">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="181" t="s">
+      <c r="A7" s="176" t="s">
         <v>142</v>
       </c>
-      <c r="B7" s="181" t="s">
+      <c r="B7" s="176" t="s">
         <v>130</v>
       </c>
-      <c r="C7" s="181" t="s">
+      <c r="C7" s="176" t="s">
         <v>146</v>
       </c>
-      <c r="D7" s="181" t="s">
+      <c r="D7" s="176" t="s">
         <v>144</v>
       </c>
-      <c r="E7" s="181" t="s">
+      <c r="E7" s="176" t="s">
         <v>145</v>
       </c>
-      <c r="F7" s="181" t="s">
+      <c r="F7" s="176" t="s">
         <v>147</v>
       </c>
-      <c r="H7" s="181" t="s">
+      <c r="H7" s="176" t="s">
         <v>130</v>
       </c>
-      <c r="I7" s="181" t="s">
+      <c r="I7" s="176" t="s">
         <v>129</v>
       </c>
-      <c r="J7" s="181" t="s">
+      <c r="J7" s="176" t="s">
         <v>154</v>
       </c>
-      <c r="K7" s="181" t="s">
+      <c r="K7" s="176" t="s">
         <v>156</v>
       </c>
-      <c r="L7" s="181" t="s">
+      <c r="L7" s="176" t="s">
         <v>145</v>
       </c>
-      <c r="M7" s="181" t="s">
+      <c r="M7" s="176" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="181">
-        <v>1</v>
-      </c>
-      <c r="B8" s="181">
-        <v>1</v>
-      </c>
-      <c r="D8" s="181">
-        <v>1</v>
-      </c>
-      <c r="E8" s="181">
-        <v>1</v>
-      </c>
-      <c r="H8" s="181">
-        <v>1</v>
-      </c>
-      <c r="I8" s="181">
-        <v>1</v>
-      </c>
-      <c r="J8" s="181">
-        <v>1</v>
-      </c>
-      <c r="L8" s="181">
+      <c r="A8" s="176">
+        <v>1</v>
+      </c>
+      <c r="B8" s="176">
+        <v>1</v>
+      </c>
+      <c r="D8" s="176">
+        <v>1</v>
+      </c>
+      <c r="E8" s="176">
+        <v>1</v>
+      </c>
+      <c r="H8" s="176">
+        <v>1</v>
+      </c>
+      <c r="I8" s="176">
+        <v>1</v>
+      </c>
+      <c r="J8" s="176">
+        <v>1</v>
+      </c>
+      <c r="L8" s="176">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="181">
+      <c r="A9" s="176">
         <v>0</v>
       </c>
-      <c r="B9" s="181">
+      <c r="B9" s="176">
         <v>0</v>
       </c>
-      <c r="C9" s="181">
+      <c r="C9" s="176">
         <v>0</v>
       </c>
-      <c r="E9" s="181">
+      <c r="E9" s="176">
         <v>0</v>
       </c>
-      <c r="H9" s="181">
+      <c r="H9" s="176">
         <v>0</v>
       </c>
-      <c r="I9" s="181">
+      <c r="I9" s="176">
         <v>0</v>
       </c>
-      <c r="K9" s="181">
+      <c r="K9" s="176">
         <v>0</v>
       </c>
-      <c r="L9" s="181">
+      <c r="L9" s="176">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="181">
-        <v>1</v>
-      </c>
-      <c r="B10" s="181">
+      <c r="A10" s="176">
+        <v>1</v>
+      </c>
+      <c r="B10" s="176">
         <v>0</v>
       </c>
-      <c r="D10" s="181">
+      <c r="D10" s="176">
         <v>0</v>
       </c>
-      <c r="E10" s="181">
+      <c r="E10" s="176">
         <v>0</v>
       </c>
-      <c r="H10" s="181">
-        <v>1</v>
-      </c>
-      <c r="I10" s="181">
+      <c r="H10" s="176">
+        <v>1</v>
+      </c>
+      <c r="I10" s="176">
         <v>0</v>
       </c>
-      <c r="J10" s="181">
-        <v>1</v>
-      </c>
-      <c r="L10" s="181">
+      <c r="J10" s="176">
+        <v>1</v>
+      </c>
+      <c r="L10" s="176">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" s="181">
+      <c r="A11" s="176">
         <v>0</v>
       </c>
-      <c r="B11" s="181">
-        <v>1</v>
-      </c>
-      <c r="C11" s="181">
+      <c r="B11" s="176">
+        <v>1</v>
+      </c>
+      <c r="C11" s="176">
         <v>0</v>
       </c>
-      <c r="E11" s="181">
+      <c r="E11" s="176">
         <v>0</v>
       </c>
-      <c r="H11" s="181">
+      <c r="H11" s="176">
         <v>0</v>
       </c>
-      <c r="I11" s="181">
-        <v>1</v>
-      </c>
-      <c r="K11" s="181">
-        <v>1</v>
-      </c>
-      <c r="L11" s="181">
+      <c r="I11" s="176">
+        <v>1</v>
+      </c>
+      <c r="K11" s="176">
+        <v>1</v>
+      </c>
+      <c r="L11" s="176">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="181" t="s">
+      <c r="A13" s="176" t="s">
         <v>142</v>
       </c>
-      <c r="B13" s="181" t="s">
+      <c r="B13" s="176" t="s">
         <v>130</v>
       </c>
-      <c r="C13" s="181" t="s">
+      <c r="C13" s="176" t="s">
         <v>149</v>
       </c>
-      <c r="D13" s="181" t="s">
+      <c r="D13" s="176" t="s">
         <v>150</v>
       </c>
-      <c r="E13" s="181" t="s">
+      <c r="E13" s="176" t="s">
         <v>145</v>
       </c>
-      <c r="F13" s="181" t="s">
+      <c r="F13" s="176" t="s">
         <v>148</v>
       </c>
-      <c r="H13" s="181" t="s">
+      <c r="H13" s="176" t="s">
         <v>130</v>
       </c>
-      <c r="I13" s="181" t="s">
+      <c r="I13" s="176" t="s">
         <v>129</v>
       </c>
-      <c r="J13" s="181" t="s">
+      <c r="J13" s="176" t="s">
         <v>157</v>
       </c>
-      <c r="K13" s="181" t="s">
+      <c r="K13" s="176" t="s">
         <v>156</v>
       </c>
-      <c r="L13" s="181" t="s">
+      <c r="L13" s="176" t="s">
         <v>145</v>
       </c>
-      <c r="M13" s="181" t="s">
+      <c r="M13" s="176" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" s="181">
-        <v>1</v>
-      </c>
-      <c r="B14" s="181">
-        <v>1</v>
-      </c>
-      <c r="C14" s="181">
-        <v>1</v>
-      </c>
-      <c r="E14" s="181">
-        <v>1</v>
-      </c>
-      <c r="H14" s="181">
-        <v>1</v>
-      </c>
-      <c r="I14" s="181">
-        <v>1</v>
-      </c>
-      <c r="K14" s="181">
-        <v>1</v>
-      </c>
-      <c r="L14" s="181">
+      <c r="A14" s="176">
+        <v>1</v>
+      </c>
+      <c r="B14" s="176">
+        <v>1</v>
+      </c>
+      <c r="C14" s="176">
+        <v>1</v>
+      </c>
+      <c r="E14" s="176">
+        <v>1</v>
+      </c>
+      <c r="H14" s="176">
+        <v>1</v>
+      </c>
+      <c r="I14" s="176">
+        <v>1</v>
+      </c>
+      <c r="K14" s="176">
+        <v>1</v>
+      </c>
+      <c r="L14" s="176">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" s="181">
+      <c r="A15" s="176">
         <v>0</v>
       </c>
-      <c r="B15" s="181">
+      <c r="B15" s="176">
         <v>0</v>
       </c>
-      <c r="D15" s="181">
+      <c r="D15" s="176">
         <v>0</v>
       </c>
-      <c r="E15" s="181">
+      <c r="E15" s="176">
         <v>0</v>
       </c>
-      <c r="H15" s="181">
+      <c r="H15" s="176">
         <v>0</v>
       </c>
-      <c r="I15" s="181">
+      <c r="I15" s="176">
         <v>0</v>
       </c>
-      <c r="J15" s="181">
+      <c r="J15" s="176">
         <v>0</v>
       </c>
-      <c r="L15" s="181">
+      <c r="L15" s="176">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A16" s="181">
-        <v>1</v>
-      </c>
-      <c r="B16" s="181">
+      <c r="A16" s="176">
+        <v>1</v>
+      </c>
+      <c r="B16" s="176">
         <v>0</v>
       </c>
-      <c r="C16" s="181">
-        <v>1</v>
-      </c>
-      <c r="E16" s="181">
-        <v>1</v>
-      </c>
-      <c r="H16" s="181">
-        <v>1</v>
-      </c>
-      <c r="I16" s="181">
+      <c r="C16" s="176">
+        <v>1</v>
+      </c>
+      <c r="E16" s="176">
+        <v>1</v>
+      </c>
+      <c r="H16" s="176">
+        <v>1</v>
+      </c>
+      <c r="I16" s="176">
         <v>0</v>
       </c>
-      <c r="K16" s="181">
+      <c r="K16" s="176">
         <v>0</v>
       </c>
-      <c r="L16" s="181">
+      <c r="L16" s="176">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" s="181">
+      <c r="A17" s="176">
         <v>0</v>
       </c>
-      <c r="B17" s="181">
-        <v>1</v>
-      </c>
-      <c r="D17" s="181">
-        <v>1</v>
-      </c>
-      <c r="E17" s="181">
-        <v>1</v>
-      </c>
-      <c r="H17" s="181">
+      <c r="B17" s="176">
+        <v>1</v>
+      </c>
+      <c r="D17" s="176">
+        <v>1</v>
+      </c>
+      <c r="E17" s="176">
+        <v>1</v>
+      </c>
+      <c r="H17" s="176">
         <v>0</v>
       </c>
-      <c r="I17" s="181">
-        <v>1</v>
-      </c>
-      <c r="J17" s="181">
+      <c r="I17" s="176">
+        <v>1</v>
+      </c>
+      <c r="J17" s="176">
         <v>0</v>
       </c>
-      <c r="L17" s="181">
+      <c r="L17" s="176">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A19" s="181" t="s">
+      <c r="A19" s="176" t="s">
         <v>142</v>
       </c>
-      <c r="B19" s="181" t="s">
+      <c r="B19" s="176" t="s">
         <v>130</v>
       </c>
-      <c r="C19" s="181" t="s">
+      <c r="C19" s="176" t="s">
         <v>151</v>
       </c>
-      <c r="D19" s="181" t="s">
+      <c r="D19" s="176" t="s">
         <v>152</v>
       </c>
-      <c r="E19" s="181" t="s">
+      <c r="E19" s="176" t="s">
         <v>145</v>
       </c>
-      <c r="F19" s="181" t="s">
+      <c r="F19" s="176" t="s">
         <v>147</v>
       </c>
-      <c r="H19" s="181" t="s">
+      <c r="H19" s="176" t="s">
         <v>130</v>
       </c>
-      <c r="I19" s="181" t="s">
+      <c r="I19" s="176" t="s">
         <v>129</v>
       </c>
-      <c r="J19" s="181" t="s">
+      <c r="J19" s="176" t="s">
         <v>157</v>
       </c>
-      <c r="K19" s="181" t="s">
+      <c r="K19" s="176" t="s">
         <v>158</v>
       </c>
-      <c r="L19" s="181" t="s">
+      <c r="L19" s="176" t="s">
         <v>145</v>
       </c>
-      <c r="M19" s="181" t="s">
+      <c r="M19" s="176" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A20" s="181">
-        <v>1</v>
-      </c>
-      <c r="B20" s="181">
-        <v>1</v>
-      </c>
-      <c r="D20" s="181">
-        <v>1</v>
-      </c>
-      <c r="E20" s="181">
-        <v>1</v>
-      </c>
-      <c r="H20" s="181">
-        <v>1</v>
-      </c>
-      <c r="I20" s="181">
-        <v>1</v>
-      </c>
-      <c r="K20" s="181">
-        <v>1</v>
-      </c>
-      <c r="L20" s="181">
+      <c r="A20" s="176">
+        <v>1</v>
+      </c>
+      <c r="B20" s="176">
+        <v>1</v>
+      </c>
+      <c r="D20" s="176">
+        <v>1</v>
+      </c>
+      <c r="E20" s="176">
+        <v>1</v>
+      </c>
+      <c r="H20" s="176">
+        <v>1</v>
+      </c>
+      <c r="I20" s="176">
+        <v>1</v>
+      </c>
+      <c r="K20" s="176">
+        <v>1</v>
+      </c>
+      <c r="L20" s="176">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A21" s="181">
+      <c r="A21" s="176">
         <v>0</v>
       </c>
-      <c r="B21" s="181">
+      <c r="B21" s="176">
         <v>0</v>
       </c>
-      <c r="C21" s="181">
+      <c r="C21" s="176">
         <v>0</v>
       </c>
-      <c r="E21" s="181">
+      <c r="E21" s="176">
         <v>0</v>
       </c>
-      <c r="H21" s="181">
+      <c r="H21" s="176">
         <v>0</v>
       </c>
-      <c r="I21" s="181">
+      <c r="I21" s="176">
         <v>0</v>
       </c>
-      <c r="J21" s="181">
+      <c r="J21" s="176">
         <v>0</v>
       </c>
-      <c r="L21" s="181">
+      <c r="L21" s="176">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A22" s="181">
-        <v>1</v>
-      </c>
-      <c r="B22" s="181">
+      <c r="A22" s="176">
+        <v>1</v>
+      </c>
+      <c r="B22" s="176">
         <v>0</v>
       </c>
-      <c r="D22" s="181">
+      <c r="D22" s="176">
         <v>0</v>
       </c>
-      <c r="E22" s="181">
+      <c r="E22" s="176">
         <v>0</v>
       </c>
-      <c r="H22" s="181">
-        <v>1</v>
-      </c>
-      <c r="I22" s="181">
+      <c r="H22" s="176">
+        <v>1</v>
+      </c>
+      <c r="I22" s="176">
         <v>0</v>
       </c>
-      <c r="K22" s="181">
+      <c r="K22" s="176">
         <v>0</v>
       </c>
-      <c r="L22" s="181">
+      <c r="L22" s="176">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A23" s="181">
+      <c r="A23" s="176">
         <v>0</v>
       </c>
-      <c r="B23" s="181">
-        <v>1</v>
-      </c>
-      <c r="C23" s="181">
+      <c r="B23" s="176">
+        <v>1</v>
+      </c>
+      <c r="C23" s="176">
         <v>0</v>
       </c>
-      <c r="E23" s="181">
+      <c r="E23" s="176">
         <v>0</v>
       </c>
-      <c r="H23" s="181">
+      <c r="H23" s="176">
         <v>0</v>
       </c>
-      <c r="I23" s="181">
-        <v>1</v>
-      </c>
-      <c r="J23" s="181">
+      <c r="I23" s="176">
+        <v>1</v>
+      </c>
+      <c r="J23" s="176">
         <v>0</v>
       </c>
-      <c r="L23" s="181">
+      <c r="L23" s="176">
         <v>0</v>
       </c>
     </row>
@@ -4817,42 +4811,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160" t="s">
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="160">
+      <c r="E1" s="155">
         <v>123</v>
       </c>
-      <c r="F1" s="160"/>
-      <c r="G1" s="160"/>
-      <c r="H1" s="160"/>
-      <c r="I1" s="160"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
     </row>
     <row r="2" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="160"/>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="186" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="187"/>
-      <c r="F2" s="188"/>
-      <c r="G2" s="186" t="s">
+      <c r="A2" s="155"/>
+      <c r="B2" s="155"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="181" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="182"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="181" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="187"/>
-      <c r="I2" s="188"/>
+      <c r="H2" s="182"/>
+      <c r="I2" s="183"/>
     </row>
     <row r="3" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="160"/>
-      <c r="B3" s="160"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="162" t="s">
+      <c r="A3" s="155"/>
+      <c r="B3" s="155"/>
+      <c r="C3" s="155"/>
+      <c r="D3" s="157" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="23" t="s">
@@ -4861,7 +4855,7 @@
       <c r="F3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="162" t="s">
+      <c r="G3" s="157" t="s">
         <v>2</v>
       </c>
       <c r="H3" s="23" t="s">
@@ -4872,7 +4866,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="166" t="s">
+      <c r="A4" s="161" t="s">
         <v>123</v>
       </c>
       <c r="B4" s="96" t="s">
@@ -4881,77 +4875,77 @@
       <c r="C4" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="167"/>
-      <c r="E4" s="167"/>
-      <c r="F4" s="168"/>
-      <c r="G4" s="169"/>
-      <c r="H4" s="170"/>
-      <c r="I4" s="171"/>
+      <c r="D4" s="162"/>
+      <c r="E4" s="162"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="164"/>
+      <c r="H4" s="165"/>
+      <c r="I4" s="166"/>
     </row>
     <row r="5" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="161" t="s">
+      <c r="A5" s="156" t="s">
         <v>124</v>
       </c>
-      <c r="B5" s="172" t="s">
+      <c r="B5" s="167" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="173" t="s">
+      <c r="C5" s="168" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="120">
+      <c r="D5" s="115">
         <v>0.63</v>
       </c>
-      <c r="E5" s="120">
+      <c r="E5" s="115">
         <v>0.72</v>
       </c>
-      <c r="F5" s="120">
+      <c r="F5" s="115">
         <v>0.34</v>
       </c>
-      <c r="G5" s="177">
+      <c r="G5" s="172">
         <v>0.68</v>
       </c>
-      <c r="H5" s="177">
+      <c r="H5" s="172">
         <v>0.79</v>
       </c>
-      <c r="I5" s="178">
+      <c r="I5" s="173">
         <v>0.3</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="163"/>
+      <c r="A6" s="158"/>
       <c r="B6" s="22"/>
-      <c r="C6" s="174" t="s">
+      <c r="C6" s="169" t="s">
         <v>129</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
-      <c r="G6" s="125">
+      <c r="G6" s="120">
         <v>0.56999999999999995</v>
       </c>
-      <c r="H6" s="125">
+      <c r="H6" s="120">
         <v>0.6</v>
       </c>
-      <c r="I6" s="164">
+      <c r="I6" s="159">
         <v>0.47</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="165"/>
+      <c r="A7" s="160"/>
       <c r="B7" s="25"/>
-      <c r="C7" s="175" t="s">
+      <c r="C7" s="170" t="s">
         <v>130</v>
       </c>
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
       <c r="F7" s="25"/>
-      <c r="G7" s="128">
+      <c r="G7" s="123">
         <v>0.72</v>
       </c>
-      <c r="H7" s="128">
+      <c r="H7" s="123">
         <v>0.88</v>
       </c>
-      <c r="I7" s="176">
+      <c r="I7" s="171">
         <v>0.17</v>
       </c>
     </row>
@@ -4970,19 +4964,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="58.5" style="179" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58.5" style="174" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="17.59765625" style="11" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="8.796875" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="179" t="s">
+      <c r="A1" s="174" t="s">
         <v>140</v>
       </c>
     </row>
@@ -4998,175 +4992,175 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="179" t="s">
+      <c r="A3" s="174" t="s">
         <v>137</v>
       </c>
-      <c r="B3" s="183">
+      <c r="B3" s="178">
         <v>0.73333333333333295</v>
       </c>
-      <c r="C3" s="183">
+      <c r="C3" s="178">
         <v>0.89024390243902396</v>
       </c>
-      <c r="D3" s="183">
+      <c r="D3" s="178">
         <v>0.173913043478261</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="179" t="s">
+      <c r="A4" s="174" t="s">
         <v>139</v>
       </c>
-      <c r="B4" s="180">
+      <c r="B4" s="175">
         <v>0.56190476190476202</v>
       </c>
-      <c r="C4" s="180">
+      <c r="C4" s="175">
         <v>0.54878048780487798</v>
       </c>
-      <c r="D4" s="180">
+      <c r="D4" s="175">
         <v>0.60869565217391297</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="179" t="s">
+      <c r="A5" s="174" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="180">
+      <c r="B5" s="175">
         <v>0.68571428571428605</v>
       </c>
-      <c r="C5" s="180">
+      <c r="C5" s="175">
         <v>0.80487804878048796</v>
       </c>
-      <c r="D5" s="180">
+      <c r="D5" s="175">
         <v>0.26086956521739102</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="179" t="s">
+      <c r="A6" s="174" t="s">
         <v>132</v>
       </c>
-      <c r="B6" s="180">
+      <c r="B6" s="175">
         <v>0.69523809523809499</v>
       </c>
-      <c r="C6" s="180">
+      <c r="C6" s="175">
         <v>0.86585365853658502</v>
       </c>
-      <c r="D6" s="180">
+      <c r="D6" s="175">
         <v>8.6956521739130405E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="179" t="s">
+      <c r="A7" s="174" t="s">
         <v>141</v>
       </c>
-      <c r="B7" s="180">
+      <c r="B7" s="175">
         <v>0.76190476190476197</v>
       </c>
-      <c r="C7" s="180">
+      <c r="C7" s="175">
         <v>0.97560975609756095</v>
       </c>
-      <c r="D7" s="180">
+      <c r="D7" s="175">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="179" t="s">
+      <c r="A8" s="174" t="s">
         <v>133</v>
       </c>
-      <c r="B8" s="180">
+      <c r="B8" s="175">
         <v>0.64761904761904798</v>
       </c>
-      <c r="C8" s="180">
+      <c r="C8" s="175">
         <v>0.75609756097560998</v>
       </c>
-      <c r="D8" s="180">
+      <c r="D8" s="175">
         <v>0.26086956521739102</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B9" s="180"/>
-      <c r="C9" s="180"/>
-      <c r="D9" s="180"/>
+      <c r="B9" s="175"/>
+      <c r="C9" s="175"/>
+      <c r="D9" s="175"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="179" t="s">
+      <c r="A10" s="174" t="s">
         <v>159</v>
       </c>
-      <c r="B10" s="183">
+      <c r="B10" s="178">
         <v>0.73333333333333295</v>
       </c>
-      <c r="C10" s="183">
+      <c r="C10" s="178">
         <v>0.89024390243902396</v>
       </c>
-      <c r="D10" s="183">
+      <c r="D10" s="178">
         <v>0.173913043478261</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="179" t="s">
+      <c r="A11" s="174" t="s">
         <v>160</v>
       </c>
-      <c r="B11" s="180">
+      <c r="B11" s="175">
         <v>0.57142857142857095</v>
       </c>
-      <c r="C11" s="180">
+      <c r="C11" s="175">
         <v>0.59756097560975596</v>
       </c>
-      <c r="D11" s="180">
+      <c r="D11" s="175">
         <v>0.47826086956521702</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="179" t="s">
+      <c r="A12" s="174" t="s">
         <v>162</v>
       </c>
-      <c r="B12" s="180">
+      <c r="B12" s="175">
         <v>0.68571428571428605</v>
       </c>
-      <c r="C12" s="180">
+      <c r="C12" s="175">
         <v>0.80487804878048796</v>
       </c>
-      <c r="D12" s="180">
+      <c r="D12" s="175">
         <v>0.26086956521739102</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="179" t="s">
+      <c r="A13" s="174" t="s">
         <v>161</v>
       </c>
-      <c r="B13" s="180">
+      <c r="B13" s="175">
         <v>0.56190476190476202</v>
       </c>
-      <c r="C13" s="180">
+      <c r="C13" s="175">
         <v>0.54878048780487798</v>
       </c>
-      <c r="D13" s="180">
+      <c r="D13" s="175">
         <v>0.60869565217391297</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="179" t="s">
+      <c r="A14" s="174" t="s">
         <v>163</v>
       </c>
-      <c r="B14" s="183">
+      <c r="B14" s="178">
         <v>0.73333333333333295</v>
       </c>
-      <c r="C14" s="183">
+      <c r="C14" s="178">
         <v>0.89024390243902396</v>
       </c>
-      <c r="D14" s="183">
+      <c r="D14" s="178">
         <v>0.173913043478261</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="179" t="s">
+      <c r="A15" s="174" t="s">
         <v>164</v>
       </c>
-      <c r="B15" s="180">
+      <c r="B15" s="175">
         <v>0.67619047619047601</v>
       </c>
-      <c r="C15" s="180">
+      <c r="C15" s="175">
         <v>0.75609756097560998</v>
       </c>
-      <c r="D15" s="180">
+      <c r="D15" s="175">
         <v>0.39130434782608697</v>
       </c>
     </row>
@@ -5221,21 +5215,21 @@
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="185" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="185"/>
-      <c r="F2" s="185"/>
-      <c r="G2" s="185" t="s">
+      <c r="D2" s="180" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="185"/>
-      <c r="I2" s="185"/>
-      <c r="J2" s="184" t="s">
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
+      <c r="J2" s="179" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="184"/>
-      <c r="L2" s="184"/>
+      <c r="K2" s="179"/>
+      <c r="L2" s="179"/>
     </row>
     <row r="3" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
@@ -5270,7 +5264,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="185" t="s">
+      <c r="A4" s="180" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -5290,7 +5284,7 @@
       <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="185"/>
+      <c r="A5" s="180"/>
       <c r="B5" s="4"/>
       <c r="C5" s="3" t="s">
         <v>11</v>
@@ -5306,7 +5300,7 @@
       <c r="L5" s="6"/>
     </row>
     <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="185"/>
+      <c r="A6" s="180"/>
       <c r="B6" s="4"/>
       <c r="C6" s="3" t="s">
         <v>12</v>
@@ -5322,7 +5316,7 @@
       <c r="L6" s="6"/>
     </row>
     <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="185"/>
+      <c r="A7" s="180"/>
       <c r="B7" s="4"/>
       <c r="C7" s="3" t="s">
         <v>13</v>
@@ -5338,7 +5332,7 @@
       <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="185"/>
+      <c r="A8" s="180"/>
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
@@ -5368,7 +5362,7 @@
       <c r="L8" s="6"/>
     </row>
     <row r="9" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="185"/>
+      <c r="A9" s="180"/>
       <c r="B9" s="4"/>
       <c r="C9" s="3" t="s">
         <v>11</v>
@@ -5396,7 +5390,7 @@
       <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="185"/>
+      <c r="A10" s="180"/>
       <c r="B10" s="4"/>
       <c r="C10" s="3" t="s">
         <v>12</v>
@@ -5424,7 +5418,7 @@
       <c r="L10" s="6"/>
     </row>
     <row r="11" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="185"/>
+      <c r="A11" s="180"/>
       <c r="B11" s="4"/>
       <c r="C11" s="3" t="s">
         <v>13</v>
@@ -5452,7 +5446,7 @@
       <c r="L11" s="6"/>
     </row>
     <row r="12" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="185" t="s">
+      <c r="A12" s="180" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -5490,7 +5484,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="185"/>
+      <c r="A13" s="180"/>
       <c r="B13" s="4"/>
       <c r="C13" s="3" t="s">
         <v>11</v>
@@ -5524,7 +5518,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="185"/>
+      <c r="A14" s="180"/>
       <c r="B14" s="4"/>
       <c r="C14" s="3" t="s">
         <v>12</v>
@@ -5558,7 +5552,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="185"/>
+      <c r="A15" s="180"/>
       <c r="B15" s="4"/>
       <c r="C15" s="3" t="s">
         <v>13</v>
@@ -5592,7 +5586,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="185"/>
+      <c r="A16" s="180"/>
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
@@ -5628,7 +5622,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="185"/>
+      <c r="A17" s="180"/>
       <c r="B17" s="4"/>
       <c r="C17" s="3" t="s">
         <v>11</v>
@@ -5662,7 +5656,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="185"/>
+      <c r="A18" s="180"/>
       <c r="B18" s="4"/>
       <c r="C18" s="3" t="s">
         <v>12</v>
@@ -5696,7 +5690,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="185"/>
+      <c r="A19" s="180"/>
       <c r="B19" s="4"/>
       <c r="C19" s="3" t="s">
         <v>13</v>
@@ -8664,16 +8658,16 @@
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
-      <c r="D2" s="186" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="187"/>
-      <c r="F2" s="188"/>
-      <c r="G2" s="186" t="s">
+      <c r="D2" s="181" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="182"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="181" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="187"/>
-      <c r="I2" s="188"/>
+      <c r="H2" s="182"/>
+      <c r="I2" s="183"/>
     </row>
     <row r="3" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="11"/>
@@ -8699,7 +8693,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="186" t="s">
+      <c r="A4" s="181" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="21" t="s">
@@ -8728,7 +8722,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="189"/>
+      <c r="A5" s="184"/>
       <c r="B5" s="22"/>
       <c r="C5" s="23" t="s">
         <v>11</v>
@@ -8741,7 +8735,7 @@
       <c r="I5" s="35"/>
     </row>
     <row r="6" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="189"/>
+      <c r="A6" s="184"/>
       <c r="B6" s="22"/>
       <c r="C6" s="23" t="s">
         <v>12</v>
@@ -8766,7 +8760,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="189"/>
+      <c r="A7" s="184"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23" t="s">
         <v>13</v>
@@ -8791,7 +8785,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="190"/>
+      <c r="A8" s="185"/>
       <c r="B8" s="25"/>
       <c r="C8" s="26" t="s">
         <v>18</v>
@@ -8827,7 +8821,7 @@
       <c r="I9" s="40"/>
     </row>
     <row r="10" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="186" t="s">
+      <c r="A10" s="181" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="21" t="s">
@@ -8856,7 +8850,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="189"/>
+      <c r="A11" s="184"/>
       <c r="B11" s="22"/>
       <c r="C11" s="23" t="s">
         <v>11</v>
@@ -8881,7 +8875,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="189"/>
+      <c r="A12" s="184"/>
       <c r="B12" s="22"/>
       <c r="C12" s="23" t="s">
         <v>12</v>
@@ -8906,7 +8900,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="189"/>
+      <c r="A13" s="184"/>
       <c r="B13" s="22"/>
       <c r="C13" s="23" t="s">
         <v>13</v>
@@ -8931,7 +8925,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="190"/>
+      <c r="A14" s="185"/>
       <c r="B14" s="24"/>
       <c r="C14" s="24" t="s">
         <v>19</v>
@@ -9013,16 +9007,16 @@
       <c r="A2" s="53"/>
       <c r="B2" s="53"/>
       <c r="C2" s="53"/>
-      <c r="D2" s="191" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="192"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="191" t="s">
+      <c r="D2" s="186" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="187"/>
+      <c r="F2" s="188"/>
+      <c r="G2" s="186" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="192"/>
-      <c r="I2" s="193"/>
+      <c r="H2" s="187"/>
+      <c r="I2" s="188"/>
     </row>
     <row r="3" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="53"/>
@@ -9048,7 +9042,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="191" t="s">
+      <c r="A4" s="186" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="57" t="s">
@@ -9077,7 +9071,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="194"/>
+      <c r="A5" s="189"/>
       <c r="B5" s="61"/>
       <c r="C5" s="55" t="s">
         <v>11</v>
@@ -9090,7 +9084,7 @@
       <c r="I5" s="65"/>
     </row>
     <row r="6" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="194"/>
+      <c r="A6" s="189"/>
       <c r="B6" s="61"/>
       <c r="C6" s="55" t="s">
         <v>12</v>
@@ -9115,7 +9109,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="194"/>
+      <c r="A7" s="189"/>
       <c r="B7" s="61"/>
       <c r="C7" s="55" t="s">
         <v>13</v>
@@ -9140,7 +9134,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="194"/>
+      <c r="A8" s="189"/>
       <c r="B8" s="62"/>
       <c r="C8" s="62" t="s">
         <v>17</v>
@@ -9165,7 +9159,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="194"/>
+      <c r="A9" s="189"/>
       <c r="B9" s="57" t="s">
         <v>9</v>
       </c>
@@ -9192,7 +9186,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="194"/>
+      <c r="A10" s="189"/>
       <c r="B10" s="61"/>
       <c r="C10" s="55" t="s">
         <v>11</v>
@@ -9205,7 +9199,7 @@
       <c r="I10" s="82"/>
     </row>
     <row r="11" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="194"/>
+      <c r="A11" s="189"/>
       <c r="B11" s="61"/>
       <c r="C11" s="55" t="s">
         <v>12</v>
@@ -9230,7 +9224,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="194"/>
+      <c r="A12" s="189"/>
       <c r="B12" s="61"/>
       <c r="C12" s="55" t="s">
         <v>13</v>
@@ -9255,7 +9249,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="195"/>
+      <c r="A13" s="190"/>
       <c r="B13" s="66"/>
       <c r="C13" s="67" t="s">
         <v>18</v>
@@ -9291,7 +9285,7 @@
       <c r="I14" s="82"/>
     </row>
     <row r="15" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="191" t="s">
+      <c r="A15" s="186" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="57" t="s">
@@ -9320,7 +9314,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="194"/>
+      <c r="A16" s="189"/>
       <c r="B16" s="61"/>
       <c r="C16" s="55" t="s">
         <v>11</v>
@@ -9345,7 +9339,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="194"/>
+      <c r="A17" s="189"/>
       <c r="B17" s="61"/>
       <c r="C17" s="55" t="s">
         <v>12</v>
@@ -9370,7 +9364,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="194"/>
+      <c r="A18" s="189"/>
       <c r="B18" s="61"/>
       <c r="C18" s="55" t="s">
         <v>13</v>
@@ -9395,7 +9389,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="194"/>
+      <c r="A19" s="189"/>
       <c r="B19" s="61"/>
       <c r="C19" s="55" t="s">
         <v>127</v>
@@ -9420,7 +9414,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="194"/>
+      <c r="A20" s="189"/>
       <c r="B20" s="57" t="s">
         <v>9</v>
       </c>
@@ -9447,7 +9441,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="194"/>
+      <c r="A21" s="189"/>
       <c r="B21" s="61"/>
       <c r="C21" s="55" t="s">
         <v>11</v>
@@ -9472,7 +9466,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="194"/>
+      <c r="A22" s="189"/>
       <c r="B22" s="61"/>
       <c r="C22" s="55" t="s">
         <v>12</v>
@@ -9497,7 +9491,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="194"/>
+      <c r="A23" s="189"/>
       <c r="B23" s="61"/>
       <c r="C23" s="55" t="s">
         <v>13</v>
@@ -9522,7 +9516,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="195"/>
+      <c r="A24" s="190"/>
       <c r="B24" s="78"/>
       <c r="C24" s="78" t="s">
         <v>19</v>
@@ -9580,244 +9574,244 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.69921875" style="136" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" style="136" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.796875" style="136" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.8984375" style="136" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.19921875" style="136" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.8984375" style="136" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.19921875" style="136" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.796875" style="136"/>
+    <col min="1" max="1" width="10.69921875" style="131" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="131" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.796875" style="131" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.8984375" style="131" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.19921875" style="131" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.8984375" style="131" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.19921875" style="131" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.796875" style="131"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="134"/>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="196" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="197"/>
-      <c r="F1" s="197"/>
-      <c r="G1" s="197" t="s">
+      <c r="A1" s="129"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="191" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="192"/>
+      <c r="F1" s="192"/>
+      <c r="G1" s="192" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="197"/>
-      <c r="I1" s="198"/>
+      <c r="H1" s="192"/>
+      <c r="I1" s="193"/>
     </row>
     <row r="2" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="137"/>
-      <c r="D2" s="117" t="s">
+      <c r="A2" s="132"/>
+      <c r="D2" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="111" t="s">
+      <c r="E2" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="111" t="s">
+      <c r="F2" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="111" t="s">
+      <c r="G2" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="111" t="s">
+      <c r="H2" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="118" t="s">
+      <c r="I2" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="136" t="s">
+      <c r="J2" s="131" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="138" t="s">
+      <c r="A3" s="133" t="s">
         <v>125</v>
       </c>
-      <c r="B3" s="112" t="s">
+      <c r="B3" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="139" t="s">
+      <c r="C3" s="134" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="140"/>
-      <c r="B4" s="113" t="s">
+      <c r="A4" s="135"/>
+      <c r="B4" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="113" t="s">
+      <c r="C4" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="135"/>
-      <c r="E4" s="135"/>
-      <c r="F4" s="135"/>
-      <c r="G4" s="135"/>
-      <c r="H4" s="135"/>
-      <c r="I4" s="141"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="136"/>
     </row>
     <row r="5" spans="1:10" ht="15.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="140"/>
-      <c r="B5" s="114"/>
-      <c r="C5" s="115" t="s">
+      <c r="A5" s="135"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="142"/>
+      <c r="I5" s="137"/>
     </row>
     <row r="6" spans="1:10" ht="15.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="140"/>
-      <c r="B6" s="114"/>
-      <c r="C6" s="115" t="s">
+      <c r="A6" s="135"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="142"/>
+      <c r="I6" s="137"/>
     </row>
     <row r="7" spans="1:10" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="143"/>
-      <c r="B7" s="144"/>
-      <c r="C7" s="116" t="s">
+      <c r="A7" s="138"/>
+      <c r="B7" s="139"/>
+      <c r="C7" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="145"/>
-      <c r="E7" s="145"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="145"/>
-      <c r="H7" s="145"/>
-      <c r="I7" s="146"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="140"/>
+      <c r="H7" s="140"/>
+      <c r="I7" s="141"/>
     </row>
     <row r="8" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="140" t="s">
+      <c r="A8" s="135" t="s">
         <v>126</v>
       </c>
-      <c r="B8" s="112" t="s">
+      <c r="B8" s="107" t="s">
         <v>131</v>
       </c>
-      <c r="C8" s="139" t="s">
+      <c r="C8" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="147">
+      <c r="D8" s="142">
         <v>0.79</v>
       </c>
-      <c r="E8" s="147">
+      <c r="E8" s="142">
         <v>0.89</v>
       </c>
-      <c r="F8" s="147">
+      <c r="F8" s="142">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G8" s="156">
+      <c r="G8" s="151">
         <v>0.77</v>
       </c>
-      <c r="H8" s="156">
+      <c r="H8" s="151">
         <v>0.89</v>
       </c>
-      <c r="I8" s="157">
+      <c r="I8" s="152">
         <v>0.375</v>
       </c>
-      <c r="J8" s="136">
+      <c r="J8" s="131">
         <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="140"/>
-      <c r="B9" s="113" t="s">
+      <c r="A9" s="135"/>
+      <c r="B9" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="113" t="s">
+      <c r="C9" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="148">
+      <c r="D9" s="143">
         <v>0.8</v>
       </c>
-      <c r="E9" s="149">
+      <c r="E9" s="144">
         <v>0.97</v>
       </c>
-      <c r="F9" s="149">
+      <c r="F9" s="144">
         <v>0.13</v>
       </c>
-      <c r="G9" s="158">
+      <c r="G9" s="153">
         <v>0.76</v>
       </c>
-      <c r="H9" s="158">
+      <c r="H9" s="153">
         <v>0.94</v>
       </c>
-      <c r="I9" s="159">
+      <c r="I9" s="154">
         <v>0.22</v>
       </c>
-      <c r="J9" s="136" t="s">
+      <c r="J9" s="131" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="140"/>
-      <c r="B10" s="114"/>
-      <c r="C10" s="115" t="s">
+      <c r="A10" s="135"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="150">
+      <c r="D10" s="145">
         <v>0.8</v>
       </c>
-      <c r="E10" s="151">
+      <c r="E10" s="146">
         <v>0.97</v>
       </c>
-      <c r="F10" s="151">
+      <c r="F10" s="146">
         <v>0.2</v>
       </c>
-      <c r="G10" s="151">
+      <c r="G10" s="146">
         <v>0.76</v>
       </c>
-      <c r="H10" s="151">
-        <v>1</v>
-      </c>
-      <c r="I10" s="152">
+      <c r="H10" s="146">
+        <v>1</v>
+      </c>
+      <c r="I10" s="147">
         <v>0.05</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="140"/>
-      <c r="B11" s="114"/>
-      <c r="C11" s="115" t="s">
+      <c r="A11" s="135"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="150">
+      <c r="D11" s="145">
         <v>0.8</v>
       </c>
-      <c r="E11" s="151">
+      <c r="E11" s="146">
         <v>0.95</v>
       </c>
-      <c r="F11" s="151">
+      <c r="F11" s="146">
         <v>0.23</v>
       </c>
-      <c r="G11" s="151">
+      <c r="G11" s="146">
         <v>0.7</v>
       </c>
-      <c r="H11" s="151">
+      <c r="H11" s="146">
         <v>0.86</v>
       </c>
-      <c r="I11" s="152">
+      <c r="I11" s="147">
         <v>0.22</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="143"/>
-      <c r="B12" s="144"/>
-      <c r="C12" s="116" t="s">
+      <c r="A12" s="138"/>
+      <c r="B12" s="139"/>
+      <c r="C12" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="153">
+      <c r="D12" s="148">
         <v>0.8</v>
       </c>
-      <c r="E12" s="154">
+      <c r="E12" s="149">
         <v>0.95</v>
       </c>
-      <c r="F12" s="154">
+      <c r="F12" s="149">
         <v>0.23</v>
       </c>
-      <c r="G12" s="154">
+      <c r="G12" s="149">
         <v>0.7</v>
       </c>
-      <c r="H12" s="154">
+      <c r="H12" s="149">
         <v>0.86</v>
       </c>
-      <c r="I12" s="155">
+      <c r="I12" s="150">
         <v>0.22</v>
       </c>
     </row>
@@ -9836,11 +9830,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10:I14"/>
+      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -9875,16 +9869,16 @@
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
-      <c r="D2" s="186" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="187"/>
-      <c r="F2" s="188"/>
-      <c r="G2" s="186" t="s">
+      <c r="D2" s="181" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="182"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="181" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="187"/>
-      <c r="I2" s="188"/>
+      <c r="H2" s="182"/>
+      <c r="I2" s="183"/>
     </row>
     <row r="3" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="11"/>
@@ -9910,7 +9904,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="186" t="s">
+      <c r="A4" s="181" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="94" t="s">
@@ -9919,64 +9913,112 @@
       <c r="C4" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="104"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="99"/>
+      <c r="D4" s="102">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="E4" s="98">
+        <v>1</v>
+      </c>
+      <c r="F4" s="99">
+        <v>0</v>
+      </c>
+      <c r="G4" s="194">
+        <v>0.50900900000000004</v>
+      </c>
+      <c r="H4" s="100">
+        <v>0.58823530000000002</v>
+      </c>
+      <c r="I4" s="101">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="189"/>
+      <c r="A5" s="184"/>
       <c r="B5" s="22"/>
       <c r="C5" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="107"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="101"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="195"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="99"/>
     </row>
     <row r="6" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="189"/>
+      <c r="A6" s="184"/>
       <c r="B6" s="22"/>
       <c r="C6" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="107"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="101"/>
+      <c r="D6" s="102">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="E6" s="98">
+        <v>1</v>
+      </c>
+      <c r="F6" s="99">
+        <v>0</v>
+      </c>
+      <c r="G6" s="195">
+        <v>0.53603599999999996</v>
+      </c>
+      <c r="H6" s="98">
+        <v>0.6176471</v>
+      </c>
+      <c r="I6" s="99">
+        <v>0.26923079999999999</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="189"/>
+      <c r="A7" s="184"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="107"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="101"/>
-    </row>
-    <row r="8" spans="1:9" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="190"/>
+      <c r="D7" s="102">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="E7" s="98">
+        <v>1</v>
+      </c>
+      <c r="F7" s="99">
+        <v>0</v>
+      </c>
+      <c r="G7" s="195">
+        <v>0.53603599999999996</v>
+      </c>
+      <c r="H7" s="98">
+        <v>0.6176471</v>
+      </c>
+      <c r="I7" s="99">
+        <v>0.26923079999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="185"/>
       <c r="B8" s="25"/>
       <c r="C8" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="108"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="103"/>
+      <c r="D8" s="103">
+        <v>0.57954550000000005</v>
+      </c>
+      <c r="E8" s="104">
+        <v>0.63489739999999995</v>
+      </c>
+      <c r="F8" s="105">
+        <v>0.38888889999999998</v>
+      </c>
+      <c r="G8" s="196">
+        <v>0.49099100000000001</v>
+      </c>
+      <c r="H8" s="104">
+        <v>0.55882350000000003</v>
+      </c>
+      <c r="I8" s="105">
+        <v>0.26923079999999999</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="93"/>
@@ -9990,7 +10032,7 @@
       <c r="I9" s="40"/>
     </row>
     <row r="10" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="186" t="s">
+      <c r="A10" s="181" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="94" t="s">
@@ -9999,122 +10041,122 @@
       <c r="C10" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="119">
+      <c r="D10" s="114">
         <v>0.95</v>
       </c>
-      <c r="E10" s="120">
+      <c r="E10" s="115">
         <v>0.97</v>
       </c>
-      <c r="F10" s="121">
+      <c r="F10" s="116">
         <v>0.88</v>
       </c>
-      <c r="G10" s="122">
+      <c r="G10" s="117">
         <v>0.64</v>
       </c>
-      <c r="H10" s="122">
+      <c r="H10" s="117">
         <v>0.71</v>
       </c>
-      <c r="I10" s="123">
+      <c r="I10" s="118">
         <v>0.36</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="189"/>
+      <c r="A11" s="184"/>
       <c r="B11" s="22"/>
       <c r="C11" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="124">
+      <c r="D11" s="119">
         <v>0.86</v>
       </c>
-      <c r="E11" s="125">
+      <c r="E11" s="120">
         <v>0.97</v>
       </c>
-      <c r="F11" s="126">
+      <c r="F11" s="121">
         <v>0.49</v>
       </c>
-      <c r="G11" s="132">
+      <c r="G11" s="127">
         <v>0.74</v>
       </c>
-      <c r="H11" s="132">
+      <c r="H11" s="127">
         <v>0.86</v>
       </c>
-      <c r="I11" s="133">
+      <c r="I11" s="128">
         <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="189"/>
+      <c r="A12" s="184"/>
       <c r="B12" s="22"/>
       <c r="C12" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="124">
+      <c r="D12" s="119">
         <v>0.73</v>
       </c>
-      <c r="E12" s="125">
+      <c r="E12" s="120">
         <v>0.85</v>
       </c>
-      <c r="F12" s="126">
+      <c r="F12" s="121">
         <v>0.36499999999999999</v>
       </c>
-      <c r="G12" s="125">
+      <c r="G12" s="120">
         <v>0.65</v>
       </c>
-      <c r="H12" s="125">
+      <c r="H12" s="120">
         <v>0.7</v>
       </c>
-      <c r="I12" s="126">
+      <c r="I12" s="121">
         <v>0.43</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="189"/>
+      <c r="A13" s="184"/>
       <c r="B13" s="22"/>
       <c r="C13" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="124">
+      <c r="D13" s="119">
         <v>0.73</v>
       </c>
-      <c r="E13" s="125">
+      <c r="E13" s="120">
         <v>0.84</v>
       </c>
-      <c r="F13" s="126">
+      <c r="F13" s="121">
         <v>0.42</v>
       </c>
-      <c r="G13" s="125">
+      <c r="G13" s="120">
         <v>0.65</v>
       </c>
-      <c r="H13" s="125">
+      <c r="H13" s="120">
         <v>0.7</v>
       </c>
-      <c r="I13" s="126">
+      <c r="I13" s="121">
         <v>0.43</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="190"/>
+      <c r="A14" s="185"/>
       <c r="B14" s="24"/>
       <c r="C14" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="127">
+      <c r="D14" s="122">
         <v>0.84</v>
       </c>
-      <c r="E14" s="128">
+      <c r="E14" s="123">
         <v>0.8</v>
       </c>
-      <c r="F14" s="129">
+      <c r="F14" s="124">
         <v>0.9</v>
       </c>
-      <c r="G14" s="130">
+      <c r="G14" s="125">
         <v>0.61899999999999999</v>
       </c>
-      <c r="H14" s="130">
+      <c r="H14" s="125">
         <v>0.67</v>
       </c>
-      <c r="I14" s="131">
+      <c r="I14" s="126">
         <v>0.4</v>
       </c>
     </row>
